--- a/src/output/original_transcribed_data.xlsx
+++ b/src/output/original_transcribed_data.xlsx
@@ -561,9 +561,45 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="n">
+        <v>825</v>
+      </c>
+      <c r="B3" t="n">
+        <v>111362</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">287
+</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">900
+</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8243
+</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">87
+</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1182
+</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t xml:space="preserve">144
+          <t xml:space="preserve">29
 </t>
         </is>
       </c>
@@ -572,225 +608,231 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t xml:space="preserve">230
+          <t xml:space="preserve">202
 </t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1227
+          <t xml:space="preserve">201
 </t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t xml:space="preserve">274
+          <t xml:space="preserve">834
 </t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t xml:space="preserve">975
+          <t xml:space="preserve">990
+</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">02
 </t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t xml:space="preserve">330
+          <t xml:space="preserve">287
 </t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t xml:space="preserve">256
+          <t xml:space="preserve">241
 </t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t xml:space="preserve">281
+          <t xml:space="preserve">8
 </t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1561
+          <t xml:space="preserve">1689
 </t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1220
+          <t xml:space="preserve">1122
 </t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1286
+          <t xml:space="preserve">252
 </t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t xml:space="preserve">249
+          <t xml:space="preserve">228
 </t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t xml:space="preserve">291
+          <t xml:space="preserve">262
 </t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t xml:space="preserve">743
-</t>
-        </is>
+          <t xml:space="preserve">818
+</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8
+</t>
+        </is>
+      </c>
+      <c r="AA3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>31</v>
-      </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>2513</v>
+        <v>12035</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">335
+          <t xml:space="preserve">1396
 </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">227
+          <t xml:space="preserve">182
 </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">281
+          <t xml:space="preserve">254
 </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">108
-</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">210
+          <t xml:space="preserve">144
 </t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t xml:space="preserve">26
+          <t xml:space="preserve">35
 </t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t xml:space="preserve">131
+          <t xml:space="preserve">1155
 </t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
+          <t xml:space="preserve">189
+</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">188
+</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
           <t xml:space="preserve">216
 </t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">214
-</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0990
+</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">09
+</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">326
+</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
         <is>
           <t xml:space="preserve">254
 </t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">990
-</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">104
-</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">260
-</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">230
-</t>
-        </is>
-      </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t xml:space="preserve">262
+          <t xml:space="preserve">278
 </t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t xml:space="preserve">780
+          <t xml:space="preserve">1566
 </t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t xml:space="preserve">174
+          <t xml:space="preserve">212
 </t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t xml:space="preserve">1220
+          <t xml:space="preserve">272
 </t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t xml:space="preserve">211
+          <t xml:space="preserve">240
 </t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t xml:space="preserve">244
+          <t xml:space="preserve">1278
 </t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t xml:space="preserve">920
+          <t xml:space="preserve">770
 </t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t xml:space="preserve">21
+          <t xml:space="preserve">82
 </t>
         </is>
       </c>
@@ -799,48 +841,48 @@
       </c>
     </row>
     <row r="5">
-      <c r="C5" t="n">
-        <v>2781</v>
+      <c r="B5" t="n">
+        <v>114223</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">1311
+          <t xml:space="preserve">3142
 </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">208
+          <t xml:space="preserve">188
 </t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">259
+          <t xml:space="preserve">265
 </t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve">103
+          <t xml:space="preserve">154
 </t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t xml:space="preserve">202
+          <t xml:space="preserve">1172
 </t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t xml:space="preserve">20
+          <t xml:space="preserve">1146
 </t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t xml:space="preserve">85
+          <t xml:space="preserve">72
 </t>
         </is>
       </c>
@@ -849,210 +891,228 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t xml:space="preserve">216
+          <t xml:space="preserve">200
 </t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t xml:space="preserve">1213
+          <t xml:space="preserve">200
 </t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t xml:space="preserve">251
+          <t xml:space="preserve">233
 </t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t xml:space="preserve">920
+          <t xml:space="preserve">1000
 </t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t xml:space="preserve">107
+          <t xml:space="preserve">00
 </t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t xml:space="preserve">314
+          <t xml:space="preserve">327
 </t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t xml:space="preserve">2219
+          <t xml:space="preserve">257
 </t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t xml:space="preserve">273
+          <t xml:space="preserve">2386
 </t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t xml:space="preserve">996
+          <t xml:space="preserve">2998
 </t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t xml:space="preserve">186
+          <t xml:space="preserve">207
 </t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t xml:space="preserve">1283
+          <t xml:space="preserve">1287
 </t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t xml:space="preserve">248
+          <t xml:space="preserve">1237
 </t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t xml:space="preserve">290
+          <t xml:space="preserve">2641
 </t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t xml:space="preserve">754
+          <t xml:space="preserve">664
 </t>
         </is>
       </c>
       <c r="AA5" t="n">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
-      <c r="C6" t="n">
-        <v>3680</v>
+      <c r="B6" t="n">
+        <v>9</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">814
+          <t xml:space="preserve">347
 </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">211
+          <t xml:space="preserve">193
 </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">263
+          <t xml:space="preserve">280
 </t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve">103
+          <t xml:space="preserve">154
 </t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t xml:space="preserve">194
+          <t xml:space="preserve">1182
 </t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t xml:space="preserve">23
+          <t xml:space="preserve">282
+</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">79
 </t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t xml:space="preserve">211
+          <t xml:space="preserve">201
 </t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t xml:space="preserve">209
+          <t xml:space="preserve">201
+</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">23510
 </t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t xml:space="preserve">980
+          <t xml:space="preserve">1000
 </t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t xml:space="preserve">04
+          <t xml:space="preserve">00
 </t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t xml:space="preserve">3119
+          <t xml:space="preserve">342
 </t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t xml:space="preserve">253
+          <t xml:space="preserve">255
 </t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t xml:space="preserve">280
+          <t xml:space="preserve">1271
 </t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t xml:space="preserve">595
+          <t xml:space="preserve">506
 </t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t xml:space="preserve">191
+          <t xml:space="preserve">265
 </t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t xml:space="preserve">1287
+          <t xml:space="preserve">295
 </t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t xml:space="preserve">248
+          <t xml:space="preserve">244
 </t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t xml:space="preserve">288
+          <t xml:space="preserve">273
 </t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t xml:space="preserve">732
+          <t xml:space="preserve">662
+</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">138
 </t>
         </is>
       </c>
@@ -1064,57 +1124,66 @@
       <c r="B7" t="n">
         <v>4</v>
       </c>
-      <c r="C7" t="n">
-        <v>42182</v>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">324
+          <t xml:space="preserve">1648
 </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t xml:space="preserve">969
+</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">276
+</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">140
+</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1190
+</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20
+</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">275
+</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>2309</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
           <t xml:space="preserve">210
 </t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9267
-</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t xml:space="preserve">206
 </t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">25
-</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">58
-</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">221
-</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">217
+      <c r="N7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2409
 </t>
         </is>
       </c>
@@ -1126,67 +1195,67 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t xml:space="preserve">019
+          <t xml:space="preserve">108
 </t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t xml:space="preserve">333
+          <t xml:space="preserve">11214
 </t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t xml:space="preserve">256
+          <t xml:space="preserve">212
 </t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t xml:space="preserve">279
+          <t xml:space="preserve">251
 </t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t xml:space="preserve">548
+          <t xml:space="preserve">980
 </t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t xml:space="preserve">230
+          <t xml:space="preserve">104
 </t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t xml:space="preserve">1281
+          <t xml:space="preserve">11222
 </t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t xml:space="preserve">244
+          <t xml:space="preserve">219
 </t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t xml:space="preserve">282
+          <t xml:space="preserve">261
 </t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t xml:space="preserve">742
+          <t xml:space="preserve">974
 </t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t xml:space="preserve">98
+          <t xml:space="preserve">06
 </t>
         </is>
       </c>
@@ -1195,134 +1264,287 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="n">
+        <v>1109</v>
+      </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>3680</v>
+        <v>2990</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">333
+          <t xml:space="preserve">1346
 </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">918
+          <t xml:space="preserve">206
 </t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">275
+          <t xml:space="preserve">262
 </t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve">115
-</t>
-        </is>
+          <t xml:space="preserve">136
+</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1179
+</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">33
+</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">55
+</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">200
+</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">199
+</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1232
+</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">989
+</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">102
+</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">299
+</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">244
+</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">271
+</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">660
+</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2162
+</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11266
+</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8234
+</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">267
+</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">778
+</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">83
+</t>
+        </is>
+      </c>
+      <c r="AA8" t="n">
+        <v>109</v>
       </c>
     </row>
     <row r="9">
+      <c r="B9" t="n">
+        <v>1117835</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1648
+</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">10724
+          <t xml:space="preserve">969
 </t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">1345
+          <t xml:space="preserve">1303
+</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">679
 </t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t xml:space="preserve">1008
+          <t xml:space="preserve">894
+</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1165
 </t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t xml:space="preserve">209
+          <t xml:space="preserve">275
 </t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t xml:space="preserve">1094
+          <t xml:space="preserve">1002
+</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">996
+</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1158
 </t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t xml:space="preserve">11870
+          <t xml:space="preserve">4945
 </t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t xml:space="preserve">31
+          <t xml:space="preserve">12
 </t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t xml:space="preserve">155
+          <t xml:space="preserve">1496
 </t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t xml:space="preserve">182184
+          <t xml:space="preserve">1219
 </t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t xml:space="preserve">1375
+          <t xml:space="preserve">11357
 </t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t xml:space="preserve">308 10
+          <t xml:space="preserve">2299
 </t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t xml:space="preserve">901
+          <t xml:space="preserve">810
 </t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t xml:space="preserve">1257
+          <t xml:space="preserve">1328
+</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1168
 </t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t xml:space="preserve">1395
+          <t xml:space="preserve">1335
 </t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t xml:space="preserve">3891
+          <t xml:space="preserve">9888
 </t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t xml:space="preserve">418
+          <t xml:space="preserve">416
 </t>
         </is>
       </c>
@@ -1332,128 +1554,134 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1107</v>
+        <v>1109</v>
+      </c>
+      <c r="B10" t="n">
+        <v>13567</v>
       </c>
       <c r="C10" t="n">
-        <v>3567</v>
+        <v>2471</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">323
+          <t xml:space="preserve">330
 </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">215
+          <t xml:space="preserve">194
 </t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">269
+          <t xml:space="preserve">262
 </t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve">108
+          <t xml:space="preserve">136
 </t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t xml:space="preserve">1202
+          <t xml:space="preserve">1179
 </t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t xml:space="preserve">24
+          <t xml:space="preserve">33
 </t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t xml:space="preserve">42
-</t>
-        </is>
+          <t xml:space="preserve">55
+</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t xml:space="preserve">219
+          <t xml:space="preserve">200
 </t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t xml:space="preserve">216
+          <t xml:space="preserve">199
 </t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t xml:space="preserve">256
+          <t xml:space="preserve">1232
 </t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t xml:space="preserve">974
+          <t xml:space="preserve">989
 </t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t xml:space="preserve">06
+          <t xml:space="preserve">102
 </t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t xml:space="preserve">1311
+          <t xml:space="preserve">299
 </t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t xml:space="preserve">249
+          <t xml:space="preserve">244
 </t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t xml:space="preserve">275
+          <t xml:space="preserve">271
 </t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t xml:space="preserve">616
+          <t xml:space="preserve">660
 </t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t xml:space="preserve">180
+          <t xml:space="preserve">2162
 </t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t xml:space="preserve">1271
+          <t xml:space="preserve">11266
 </t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t xml:space="preserve">240
+          <t xml:space="preserve">8234
 </t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t xml:space="preserve">279
+          <t xml:space="preserve">267
 </t>
         </is>
       </c>
@@ -1465,810 +1693,900 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t xml:space="preserve">84
+          <t xml:space="preserve">83
 </t>
         </is>
       </c>
       <c r="AA10" t="n">
-        <v>1107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1107</v>
+        <v>26</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2656</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">201
+</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">198
+</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">249
+</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">103
+</t>
+        </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t xml:space="preserve">1187
+          <t xml:space="preserve">182
 </t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t xml:space="preserve">41
+          <t xml:space="preserve">116
 </t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t xml:space="preserve">70
+          <t xml:space="preserve">46
 </t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t xml:space="preserve">11
+          <t xml:space="preserve">212
 </t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t xml:space="preserve">1205
+          <t xml:space="preserve">230
 </t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t xml:space="preserve">240
+          <t xml:space="preserve">279
 </t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">975
 </t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t xml:space="preserve">14
+          <t xml:space="preserve">05
 </t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t xml:space="preserve">16
+          <t xml:space="preserve">318
 </t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t xml:space="preserve">16
+          <t xml:space="preserve">249
 </t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t xml:space="preserve">285
+          <t xml:space="preserve">271
 </t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t xml:space="preserve">563
+          <t xml:space="preserve">706
 </t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t xml:space="preserve">221
+          <t xml:space="preserve">1124
 </t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t xml:space="preserve">16
+          <t xml:space="preserve">1279
 </t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t xml:space="preserve">251
+          <t xml:space="preserve">8249
 </t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t xml:space="preserve">2290
+          <t xml:space="preserve">288
+</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">767
 </t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t xml:space="preserve">122
+          <t xml:space="preserve">578
 </t>
         </is>
       </c>
       <c r="AA11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>32</v>
-      </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>4203</v>
+        <v>2471</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">333
+          <t xml:space="preserve">328
 </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">202
+          <t xml:space="preserve">204
 </t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">266
+          <t xml:space="preserve">866
 </t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t xml:space="preserve">126
+          <t xml:space="preserve">124
 </t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t xml:space="preserve">1186
+          <t xml:space="preserve">1199
+</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1233
 </t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t xml:space="preserve">150
-</t>
-        </is>
+          <t xml:space="preserve">60
+</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t xml:space="preserve">204
+          <t xml:space="preserve">221
 </t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t xml:space="preserve">201
+          <t xml:space="preserve">219
 </t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t xml:space="preserve">235
+          <t xml:space="preserve">261
+</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">980
+</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">104
 </t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t xml:space="preserve">1328
+          <t xml:space="preserve">326
 </t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
+          <t xml:space="preserve">246
+</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
           <t xml:space="preserve">258
 </t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">287
-</t>
-        </is>
-      </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t xml:space="preserve">1580
+          <t xml:space="preserve">627
 </t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t xml:space="preserve">208
+          <t xml:space="preserve">233
 </t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t xml:space="preserve">1296
+          <t xml:space="preserve">1280
 </t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t xml:space="preserve">1256
+          <t xml:space="preserve">248
 </t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t xml:space="preserve">303
-</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">732
+          <t xml:space="preserve">293
 </t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t xml:space="preserve">111
+          <t xml:space="preserve">85
 </t>
         </is>
       </c>
       <c r="AA12" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="n">
+        <v>10</v>
+      </c>
       <c r="B13" t="n">
-        <v>19</v>
+        <v>11903</v>
       </c>
       <c r="C13" t="n">
-        <v>14182</v>
+        <v>3596</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">291
+          <t xml:space="preserve">1207
 </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">208
+          <t xml:space="preserve">219
 </t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve">2229
+          <t xml:space="preserve">263
 </t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve">83
+          <t xml:space="preserve">88
 </t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t xml:space="preserve">196
+          <t xml:space="preserve">203
 </t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t xml:space="preserve">12
+          <t xml:space="preserve">15
 </t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t xml:space="preserve">21
+          <t xml:space="preserve">121
 </t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t xml:space="preserve">213
+          <t xml:space="preserve">1224
 </t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t xml:space="preserve">210
+          <t xml:space="preserve">221
 </t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t xml:space="preserve">247
+          <t xml:space="preserve">264
 </t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t xml:space="preserve">970
+          <t xml:space="preserve">973
 </t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t xml:space="preserve">107
+          <t xml:space="preserve">07
 </t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t xml:space="preserve">291
+          <t xml:space="preserve">824
 </t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t xml:space="preserve">243
+          <t xml:space="preserve">8211
 </t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t xml:space="preserve">273
+          <t xml:space="preserve">242
 </t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t xml:space="preserve">679
+          <t xml:space="preserve">890
 </t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t xml:space="preserve">130
+          <t xml:space="preserve">29
 </t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t xml:space="preserve">1264
+          <t xml:space="preserve">220
 </t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t xml:space="preserve">238
+          <t xml:space="preserve">216
 </t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t xml:space="preserve">278
+          <t xml:space="preserve">255
 </t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t xml:space="preserve">808
+          <t xml:space="preserve">731
 </t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t xml:space="preserve">66
+          <t xml:space="preserve">89
 </t>
         </is>
       </c>
       <c r="AA13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8</v>
-      </c>
-      <c r="B14" t="n">
-        <v>11214</v>
+        <v>10</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3596</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">1276
+          <t xml:space="preserve">1325
 </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">195
+          <t xml:space="preserve">298
 </t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">235
+          <t xml:space="preserve">267
 </t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve">81
+          <t xml:space="preserve">117
 </t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t xml:space="preserve">178
+          <t xml:space="preserve">1196
 </t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t xml:space="preserve">08
+          <t xml:space="preserve">24
 </t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t xml:space="preserve">166
+          <t xml:space="preserve">39
 </t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>258</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t xml:space="preserve">211
+          <t xml:space="preserve">216
 </t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t xml:space="preserve">209
+          <t xml:space="preserve">216
 </t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t xml:space="preserve">246
+          <t xml:space="preserve">258
 </t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t xml:space="preserve">980
+          <t xml:space="preserve">1000
 </t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t xml:space="preserve">04
+          <t xml:space="preserve">00
 </t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t xml:space="preserve">273
+          <t xml:space="preserve">320
 </t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t xml:space="preserve">242
+          <t xml:space="preserve">258
 </t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t xml:space="preserve">282
+          <t xml:space="preserve">892
 </t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t xml:space="preserve">778
+          <t xml:space="preserve">617
 </t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t xml:space="preserve">81
+          <t xml:space="preserve">182
 </t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t xml:space="preserve">1260
+          <t xml:space="preserve">287
 </t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t xml:space="preserve">240
+          <t xml:space="preserve">248
 </t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t xml:space="preserve">286
+          <t xml:space="preserve">288
 </t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t xml:space="preserve">851
+          <t xml:space="preserve">731
 </t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t xml:space="preserve">50
+          <t xml:space="preserve">34
 </t>
         </is>
       </c>
       <c r="AA14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="C15" t="n">
-        <v>3408</v>
+        <v>15912</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">1314
+          <t xml:space="preserve">1579
 </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">193
+          <t xml:space="preserve">1055
 </t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve">253
+          <t xml:space="preserve">1317
 </t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve">121
+          <t xml:space="preserve">524
 </t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t xml:space="preserve">174
+          <t xml:space="preserve">1992
 </t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t xml:space="preserve">205
+          <t xml:space="preserve">115
 </t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t xml:space="preserve">240
+          <t xml:space="preserve">194
 </t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>368</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t xml:space="preserve">195
+          <t xml:space="preserve">1106
 </t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t xml:space="preserve">194
+          <t xml:space="preserve">1095
 </t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t xml:space="preserve">224
+          <t xml:space="preserve">1307
+</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4001
 </t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t xml:space="preserve">02
+          <t xml:space="preserve">922
 </t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t xml:space="preserve">300
+          <t xml:space="preserve">1487
 </t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t xml:space="preserve">256
+          <t xml:space="preserve">1219
 </t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t xml:space="preserve">300
+          <t xml:space="preserve">1361
 </t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t xml:space="preserve">710
+          <t xml:space="preserve">3318
 </t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t xml:space="preserve">123
+          <t xml:space="preserve">766
 </t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t xml:space="preserve">250
+          <t xml:space="preserve">1337
 </t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t xml:space="preserve">219
+          <t xml:space="preserve">1207
 </t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t xml:space="preserve">243
+          <t xml:space="preserve">1425
 </t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t xml:space="preserve">766
+          <t xml:space="preserve">4074
+</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">34
 </t>
         </is>
       </c>
       <c r="AA15" t="n">
-        <v>10</v>
+        <v>701</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>101</v>
+        <v>104</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">1542
+          <t xml:space="preserve">316
 </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">997
+          <t xml:space="preserve">211
+</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">263
 </t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve">545
+          <t xml:space="preserve">105
 </t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t xml:space="preserve">921
+          <t xml:space="preserve">1198
 </t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t xml:space="preserve">116
+          <t xml:space="preserve">23
 </t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t xml:space="preserve">197
-</t>
-        </is>
-      </c>
-      <c r="K16" t="n">
-        <v>164</v>
+          <t xml:space="preserve">39
+</t>
+        </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t xml:space="preserve">28029
+          <t xml:space="preserve">221
+</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">219
+</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">261
 </t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t xml:space="preserve">14900
+          <t xml:space="preserve">990
 </t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t xml:space="preserve">11
+          <t xml:space="preserve">04
+</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">297
 </t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t xml:space="preserve">18957
+          <t xml:space="preserve">244
+</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">272
 </t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t xml:space="preserve">3310
+          <t xml:space="preserve">664
 </t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t xml:space="preserve">763
-</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1365
-</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1904
+          <t xml:space="preserve">153
+</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">285
 </t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t xml:space="preserve">3861
+          <t xml:space="preserve">815
 </t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t xml:space="preserve">423
+          <t xml:space="preserve">69
 </t>
         </is>
       </c>
       <c r="AA16" t="n">
-        <v>101</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1107</v>
+        <v>27</v>
+      </c>
+      <c r="B17" t="n">
+        <v>11</v>
       </c>
       <c r="C17" t="n">
-        <v>3062</v>
+        <v>3680</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">308
+          <t xml:space="preserve">321
 </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve">199
+          <t xml:space="preserve">212
 </t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve">258
+          <t xml:space="preserve">267
 </t>
         </is>
       </c>
@@ -2280,254 +2598,296 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t xml:space="preserve">184
+          <t xml:space="preserve">1204
 </t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t xml:space="preserve">23
+          <t xml:space="preserve">125
 </t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t xml:space="preserve">39
-</t>
-        </is>
+          <t xml:space="preserve">163
+</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>104</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t xml:space="preserve">206
+          <t xml:space="preserve">214
 </t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t xml:space="preserve">204
+          <t xml:space="preserve">211
 </t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t xml:space="preserve">238
+          <t xml:space="preserve">248
 </t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t xml:space="preserve">980
+          <t xml:space="preserve">923
+</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">06
 </t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t xml:space="preserve">305
+          <t xml:space="preserve">7121
 </t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t xml:space="preserve">251
+          <t xml:space="preserve">252
 </t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
+          <t xml:space="preserve">277
+</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">580
+</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">200
+</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
           <t xml:space="preserve">285
 </t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">668
-</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">153
+      <c r="W17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">244
 </t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t xml:space="preserve">22
+          <t xml:space="preserve">279
+</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">717
+</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">110
 </t>
         </is>
       </c>
       <c r="AA17" t="n">
-        <v>3009</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1107</v>
+        <v>27</v>
       </c>
       <c r="C18" t="n">
-        <v>3062</v>
+        <v>2656</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">308
+          <t xml:space="preserve">304
 </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">192
+          <t xml:space="preserve">222
 </t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve">257
+          <t xml:space="preserve">263
 </t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t xml:space="preserve">1230
+          <t xml:space="preserve">82
 </t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t xml:space="preserve">172
+          <t xml:space="preserve">214
 </t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t xml:space="preserve">24
+          <t xml:space="preserve">116
+</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28
 </t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">223
+</t>
+        </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t xml:space="preserve">194
+          <t xml:space="preserve">220
 </t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t xml:space="preserve">223
+          <t xml:space="preserve">263
 </t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">976
 </t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">106
 </t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t xml:space="preserve">322
+          <t xml:space="preserve">299
 </t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t xml:space="preserve">84
+          <t xml:space="preserve">260
 </t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t xml:space="preserve">17
+          <t xml:space="preserve">311
 </t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">737
 </t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t xml:space="preserve">14
+          <t xml:space="preserve">112
 </t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t xml:space="preserve">283
+          <t xml:space="preserve">243
+</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">229
 </t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t xml:space="preserve">22
-</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">86
-</t>
-        </is>
-      </c>
-      <c r="AA18" t="n">
-        <v>11</v>
+          <t xml:space="preserve">271
+</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">290
+</t>
+        </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>11</v>
+      <c r="B19" t="n">
+        <v>13</v>
       </c>
       <c r="C19" t="n">
-        <v>3325</v>
+        <v>3659</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">322
-</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">192
+          <t xml:space="preserve">1314
 </t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve">257
+          <t xml:space="preserve">265
 </t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve">1230
+          <t xml:space="preserve">99
 </t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t xml:space="preserve">172
+          <t xml:space="preserve">206
 </t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t xml:space="preserve">24
+          <t xml:space="preserve">25
 </t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t xml:space="preserve">36
+          <t xml:space="preserve">1145
 </t>
         </is>
       </c>
@@ -2536,799 +2896,769 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t xml:space="preserve">1197
+          <t xml:space="preserve">216
 </t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t xml:space="preserve">194
+          <t xml:space="preserve">214
 </t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t xml:space="preserve">223
+          <t xml:space="preserve">254
 </t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t xml:space="preserve">970
+          <t xml:space="preserve">980
 </t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t xml:space="preserve">104
+          <t xml:space="preserve">04
 </t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t xml:space="preserve">322
+          <t xml:space="preserve">307
 </t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t xml:space="preserve">253
+          <t xml:space="preserve">248
 </t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t xml:space="preserve">278
+          <t xml:space="preserve">275
 </t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t xml:space="preserve">580
+          <t xml:space="preserve">623
 </t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t xml:space="preserve">201
+          <t xml:space="preserve">166
 </t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t xml:space="preserve">283
+          <t xml:space="preserve">1273
+</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1238
 </t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t xml:space="preserve">298
+          <t xml:space="preserve">272
 </t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t xml:space="preserve">885
+          <t xml:space="preserve">18750
 </t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t xml:space="preserve">86
-</t>
-        </is>
-      </c>
-      <c r="AA19" t="n">
-        <v>11</v>
+          <t xml:space="preserve">91
+</t>
+        </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>12</v>
+      <c r="B20" t="n">
+        <v>14</v>
       </c>
       <c r="C20" t="n">
-        <v>326</v>
+        <v>3408</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">322
+          <t xml:space="preserve">1307
 </t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve">205
+          <t xml:space="preserve">212
 </t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve">963
+          <t xml:space="preserve">259
 </t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve">117
+          <t xml:space="preserve">95
 </t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t xml:space="preserve">188
-</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">21
+          <t xml:space="preserve">196
 </t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t xml:space="preserve">36
+          <t xml:space="preserve">34
 </t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t xml:space="preserve">209
+          <t xml:space="preserve">816
 </t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t xml:space="preserve">207
+          <t xml:space="preserve">215
 </t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t xml:space="preserve">243
+          <t xml:space="preserve">256
 </t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t xml:space="preserve">980
+          <t xml:space="preserve">990
 </t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t xml:space="preserve">104
+          <t xml:space="preserve">102
 </t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t xml:space="preserve">1817
+          <t xml:space="preserve">306
 </t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t xml:space="preserve">253
+          <t xml:space="preserve">262
 </t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t xml:space="preserve">282
+          <t xml:space="preserve">312
 </t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t xml:space="preserve">716
+          <t xml:space="preserve">712
 </t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t xml:space="preserve">184
+          <t xml:space="preserve">1126
 </t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t xml:space="preserve">1257
+          <t xml:space="preserve">278
 </t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t xml:space="preserve">228
+          <t xml:space="preserve">246
 </t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t xml:space="preserve">292
+          <t xml:space="preserve">289
 </t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t xml:space="preserve">885
+          <t xml:space="preserve">723
 </t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t xml:space="preserve">38
+          <t xml:space="preserve">1184
 </t>
         </is>
       </c>
       <c r="AA20" t="n">
-        <v>12</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>18</v>
+      <c r="B21" t="n">
+        <v>15</v>
       </c>
       <c r="C21" t="n">
-        <v>2990</v>
+        <v>3993</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t xml:space="preserve">329
+</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">211
+</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">270
+</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">118
+</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">198
+</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">25
+</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">143
+</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">213
+</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">210
+</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0
+</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">975
+</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">04
+</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">324
+</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">259
+</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">993
+</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">265
+</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">216
+</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
           <t xml:space="preserve">297
 </t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">197
-</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">241
-</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">121
-</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1184
-</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">22
-</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">35
-</t>
-        </is>
-      </c>
-      <c r="K21" t="n">
-        <v>122</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1189
-</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">197
-</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">228
-</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">990
-</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">000
-</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">279
-</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">238
-</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">269
-</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">716
-</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">157
-</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">263
-</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">242
-</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">288
-</t>
-        </is>
-      </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t xml:space="preserve">841
+          <t xml:space="preserve">860
 </t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t xml:space="preserve">54
+          <t xml:space="preserve">49
 </t>
         </is>
       </c>
       <c r="AA21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="n">
+        <v>101</v>
+      </c>
       <c r="C22" t="n">
-        <v>2949</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">301
-</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">180
-</t>
-        </is>
+        <v>17396</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve">2590
+          <t xml:space="preserve">1324
 </t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve">129
+          <t xml:space="preserve">403
+</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1018
 </t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t xml:space="preserve">19
+          <t xml:space="preserve">109
 </t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t xml:space="preserve">35
+          <t xml:space="preserve">193
 </t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>193</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t xml:space="preserve">1191
+          <t xml:space="preserve">1082
 </t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t xml:space="preserve">191
+          <t xml:space="preserve">1070
 </t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t xml:space="preserve">221
+          <t xml:space="preserve">1288
 </t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t xml:space="preserve">1000
+          <t xml:space="preserve">4894
 </t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t xml:space="preserve">000
+          <t xml:space="preserve">122
 </t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t xml:space="preserve">310
+          <t xml:space="preserve">1557
 </t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t xml:space="preserve">258
+          <t xml:space="preserve">1281
 </t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t xml:space="preserve">299
+          <t xml:space="preserve">1468
 </t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t xml:space="preserve">1668
-</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">148
+          <t xml:space="preserve">3257
 </t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t xml:space="preserve">240
+          <t xml:space="preserve">1344
 </t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t xml:space="preserve">226
+          <t xml:space="preserve">1203
 </t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t xml:space="preserve">265
-</t>
-        </is>
-      </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">888
+          <t xml:space="preserve">1408
 </t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t xml:space="preserve">33
+          <t xml:space="preserve">6
 </t>
         </is>
       </c>
       <c r="AA22" t="n">
-        <v>15</v>
+        <v>701</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>101</v>
+      <c r="B23" t="n">
+        <v>3109</v>
       </c>
       <c r="C23" t="n">
-        <v>16101</v>
+        <v>153479</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">1554
+          <t xml:space="preserve">315
+</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">214
+</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">265
+</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">101
 </t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t xml:space="preserve">1882
+          <t xml:space="preserve">204
 </t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t xml:space="preserve">104
+          <t xml:space="preserve">122
 </t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t xml:space="preserve">184
-</t>
-        </is>
-      </c>
-      <c r="K23" t="n">
-        <v>65</v>
+          <t xml:space="preserve">39
+</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">216
+</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">214
+</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">254
+</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t xml:space="preserve">4940
+          <t xml:space="preserve">979
 </t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t xml:space="preserve">1143
+          <t xml:space="preserve">04
 </t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t xml:space="preserve">1529
+          <t xml:space="preserve">311
+</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">856
+</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">294
 </t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t xml:space="preserve">3200
+          <t xml:space="preserve">651
 </t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t xml:space="preserve">796
+          <t xml:space="preserve">159
 </t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t xml:space="preserve">129093
+          <t xml:space="preserve">269
+</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">241
 </t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t xml:space="preserve">1106
+          <t xml:space="preserve">232
 </t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t xml:space="preserve">4220
+          <t xml:space="preserve">798
 </t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t xml:space="preserve">265
+          <t xml:space="preserve">73
 </t>
         </is>
       </c>
       <c r="AA23" t="n">
-        <v>7101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2109</v>
+        <v>28</v>
       </c>
       <c r="B24" t="n">
-        <v>13220</v>
+        <v>16</v>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>1067</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">311
+          <t xml:space="preserve">263
 </t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">206
 </t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t xml:space="preserve">252
+          <t xml:space="preserve">235
 </t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">57
 </t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
-</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">24
-</t>
-        </is>
-      </c>
-      <c r="K24" t="n">
+          <t xml:space="preserve">202
+</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1970
+</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">262
+</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">241
+</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">287
+</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">844
+</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1553
+</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">228
+</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">268
+</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">877
+</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">288
+</t>
+        </is>
+      </c>
+      <c r="AA24" t="n">
         <v>16</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">197
-</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4
-</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">16
-</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4
-</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">74
-</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">306
-</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4
-</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1
-</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4
-</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4
-</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4
-</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4
-</t>
-        </is>
-      </c>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">24
-</t>
-        </is>
-      </c>
-      <c r="Y24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">16
-</t>
-        </is>
-      </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">16
-</t>
-        </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>11</v>
+      <c r="B25" t="n">
+        <v>17</v>
       </c>
       <c r="C25" t="n">
-        <v>3450</v>
+        <v>2900</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">3117
+          <t xml:space="preserve">251
 </t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve">205
+          <t xml:space="preserve">210
 </t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t xml:space="preserve">261
+          <t xml:space="preserve">231
 </t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t xml:space="preserve">112
+          <t xml:space="preserve">141
 </t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
-</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">24
-</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">44
+          <t xml:space="preserve">192
 </t>
         </is>
       </c>
@@ -3337,91 +3667,91 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t xml:space="preserve">200
+          <t xml:space="preserve">207
 </t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t xml:space="preserve">204
+          <t xml:space="preserve">205
 </t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t xml:space="preserve">222
+          <t xml:space="preserve">1240
 </t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t xml:space="preserve">980
+          <t xml:space="preserve">1000
 </t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t xml:space="preserve">74
+          <t xml:space="preserve">00
 </t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t xml:space="preserve">229
+          <t xml:space="preserve">243
 </t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t xml:space="preserve">221
+          <t xml:space="preserve">233
 </t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t xml:space="preserve">253
+          <t xml:space="preserve">280
 </t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t xml:space="preserve">932
+          <t xml:space="preserve">920
 </t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">24
 </t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t xml:space="preserve">215
+          <t xml:space="preserve">238
 </t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t xml:space="preserve">210
+          <t xml:space="preserve">228
 </t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t xml:space="preserve">268
+          <t xml:space="preserve">271
 </t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t xml:space="preserve">743
+          <t xml:space="preserve">918
 </t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t xml:space="preserve">11
+          <t xml:space="preserve">64
 </t>
         </is>
       </c>
@@ -3430,51 +3760,51 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="B26" t="n">
         <v>18</v>
       </c>
       <c r="C26" t="n">
-        <v>4182</v>
+        <v>3220</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">329
+          <t xml:space="preserve">12318
 </t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve">192
+          <t xml:space="preserve">206
 </t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t xml:space="preserve">281
+          <t xml:space="preserve">255
 </t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve">187
+          <t xml:space="preserve">99
 </t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t xml:space="preserve">176
+          <t xml:space="preserve">1191
 </t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t xml:space="preserve">31
+          <t xml:space="preserve">19
 </t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t xml:space="preserve">152
+          <t xml:space="preserve">38
 </t>
         </is>
       </c>
@@ -3483,144 +3813,138 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t xml:space="preserve">196
+          <t xml:space="preserve">207
 </t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t xml:space="preserve">199
+          <t xml:space="preserve">205
 </t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t xml:space="preserve">238
-</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">980
+          <t xml:space="preserve">1240
 </t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t xml:space="preserve">052
+          <t xml:space="preserve">104
 </t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t xml:space="preserve">297
+          <t xml:space="preserve">288
 </t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t xml:space="preserve">251
+          <t xml:space="preserve">249
 </t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t xml:space="preserve">289
+          <t xml:space="preserve">890
 </t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t xml:space="preserve">530
+          <t xml:space="preserve">732
 </t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t xml:space="preserve">206
+          <t xml:space="preserve">105
 </t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t xml:space="preserve">293
+          <t xml:space="preserve">269
 </t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t xml:space="preserve">226
+          <t xml:space="preserve">244
 </t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t xml:space="preserve">263
+          <t xml:space="preserve">290
 </t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t xml:space="preserve">742
+          <t xml:space="preserve">818
 </t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t xml:space="preserve">43
+          <t xml:space="preserve">64
 </t>
         </is>
       </c>
       <c r="AA26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>20</v>
+      <c r="B27" t="n">
+        <v>19</v>
       </c>
       <c r="C27" t="n">
-        <v>2823</v>
+        <v>2907</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">292
+          <t xml:space="preserve">12318
 </t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve">198
+          <t xml:space="preserve">205
 </t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t xml:space="preserve">247
+          <t xml:space="preserve">261
 </t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t xml:space="preserve">128
+          <t xml:space="preserve">113
 </t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t xml:space="preserve">184
+          <t xml:space="preserve">189
 </t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t xml:space="preserve">11
+          <t xml:space="preserve">22
 </t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t xml:space="preserve">120
+          <t xml:space="preserve">38
 </t>
         </is>
       </c>
@@ -3629,386 +3953,380 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t xml:space="preserve">219
+          <t xml:space="preserve">209
 </t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t xml:space="preserve">215
+          <t xml:space="preserve">206
 </t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t xml:space="preserve">254
+          <t xml:space="preserve">241
 </t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t xml:space="preserve">965
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t xml:space="preserve">09
+          <t xml:space="preserve">08
 </t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
+          <t xml:space="preserve">312
+</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">248
+</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">272
+</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">602
+</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">181
+</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
           <t xml:space="preserve">286
 </t>
         </is>
       </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">248
-</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">288
-</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">737
-</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">103
-</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">250
-</t>
-        </is>
-      </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t xml:space="preserve">226
+          <t xml:space="preserve">246
 </t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t xml:space="preserve">259
+          <t xml:space="preserve">284
 </t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t xml:space="preserve">818
+          <t xml:space="preserve">726
 </t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t xml:space="preserve">43
+          <t xml:space="preserve">107
 </t>
         </is>
       </c>
       <c r="AA27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>101</v>
+      <c r="B28" t="n">
+        <v>20</v>
       </c>
       <c r="C28" t="n">
-        <v>13635</v>
+        <v>2468</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">1565
+          <t xml:space="preserve">315
 </t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve">198
+          <t xml:space="preserve">205
 </t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t xml:space="preserve">247
+          <t xml:space="preserve">260
 </t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t xml:space="preserve">569
+          <t xml:space="preserve">110
 </t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t xml:space="preserve">922
+          <t xml:space="preserve">1892
 </t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t xml:space="preserve">199
+          <t xml:space="preserve">16
 </t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t xml:space="preserve">171
+          <t xml:space="preserve">96
 </t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>237</v>
+        <v>84</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t xml:space="preserve">1022
+          <t xml:space="preserve">211
 </t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t xml:space="preserve">215
+          <t xml:space="preserve">206
 </t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t xml:space="preserve">254
+          <t xml:space="preserve">239
 </t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t xml:space="preserve">4895
+          <t xml:space="preserve">953
 </t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t xml:space="preserve">23
+          <t xml:space="preserve">11
 </t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t xml:space="preserve">1455
+          <t xml:space="preserve">9253
 </t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t xml:space="preserve">248
+          <t xml:space="preserve">236
 </t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t xml:space="preserve">288
+          <t xml:space="preserve">280
 </t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t xml:space="preserve">3445
-</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">688
+          <t xml:space="preserve">794
 </t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t xml:space="preserve">974
+          <t xml:space="preserve">224
 </t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t xml:space="preserve">226
+          <t xml:space="preserve">213
 </t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t xml:space="preserve">259
+          <t xml:space="preserve">272
 </t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t xml:space="preserve">4115
+          <t xml:space="preserve">908
 </t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t xml:space="preserve">309
+          <t xml:space="preserve">52
 </t>
         </is>
       </c>
       <c r="AA28" t="n">
-        <v>101</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3107</v>
+        <v>106</v>
       </c>
       <c r="C29" t="n">
-        <v>2727</v>
+        <v>10562</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">313
+          <t xml:space="preserve">1452
 </t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve">199
+          <t xml:space="preserve">1032
 </t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t xml:space="preserve">1256
+          <t xml:space="preserve">1242
 </t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t xml:space="preserve">11
+          <t xml:space="preserve">420
 </t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t xml:space="preserve">184
+          <t xml:space="preserve">966
 </t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t xml:space="preserve">1201
+          <t xml:space="preserve">71
 </t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t xml:space="preserve">34
+          <t xml:space="preserve">1110
 </t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>237</v>
+        <v>388</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t xml:space="preserve">204
+          <t xml:space="preserve">1065
 </t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t xml:space="preserve">908
+          <t xml:space="preserve">1052
 </t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t xml:space="preserve">236
+          <t xml:space="preserve">1239
 </t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t xml:space="preserve">979
+          <t xml:space="preserve">4876
 </t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t xml:space="preserve">105
+          <t xml:space="preserve">128
 </t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t xml:space="preserve">291
+          <t xml:space="preserve">1358
 </t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t xml:space="preserve">8242
+          <t xml:space="preserve">1207
 </t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t xml:space="preserve">271
+          <t xml:space="preserve">1409
 </t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t xml:space="preserve">689
+          <t xml:space="preserve">3968
 </t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t xml:space="preserve">138
+          <t xml:space="preserve">175
 </t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t xml:space="preserve">255
+          <t xml:space="preserve">1261
 </t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t xml:space="preserve">231
+          <t xml:space="preserve">1159
 </t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t xml:space="preserve">267
+          <t xml:space="preserve">1 1
 </t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t xml:space="preserve">823
+          <t xml:space="preserve">11247
 </t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">85
 </t>
         </is>
       </c>
@@ -4017,72 +4335,51 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>35</v>
-      </c>
       <c r="B30" t="n">
-        <v>3107</v>
+        <v>22</v>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2133</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">7
+          <t xml:space="preserve">292
 </t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve">171
+          <t xml:space="preserve">196
 </t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">244
 </t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t xml:space="preserve">86
-</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">184
-</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1201
-</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">34
+          <t xml:space="preserve">96
 </t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t xml:space="preserve">216
+          <t xml:space="preserve">215
 </t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t xml:space="preserve">215
+          <t xml:space="preserve">214
 </t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t xml:space="preserve">256
+          <t xml:space="preserve">964
 </t>
         </is>
       </c>
@@ -4094,87 +4391,84 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t xml:space="preserve">105
+          <t xml:space="preserve">106
 </t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t xml:space="preserve">290
+          <t xml:space="preserve">272
 </t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t xml:space="preserve">245
+          <t xml:space="preserve">241
 </t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t xml:space="preserve">279
+          <t xml:space="preserve">282
 </t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t xml:space="preserve">689
+          <t xml:space="preserve">794
 </t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t xml:space="preserve">121
+          <t xml:space="preserve">188
 </t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t xml:space="preserve">271
+          <t xml:space="preserve">252
 </t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t xml:space="preserve">245
+          <t xml:space="preserve">232
 </t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t xml:space="preserve">2391
+          <t xml:space="preserve">272
 </t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t xml:space="preserve">811
+          <t xml:space="preserve">849
 </t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t xml:space="preserve">67
+          <t xml:space="preserve">52
 </t>
         </is>
       </c>
       <c r="AA30" t="n">
-        <v>21</v>
+        <v>1514104</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>35</v>
-      </c>
       <c r="B31" t="n">
-        <v>22</v>
+        <v>3100</v>
       </c>
       <c r="C31" t="n">
-        <v>441</v>
+        <v>3116</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">1252
+          <t xml:space="preserve">290
 </t>
         </is>
       </c>
@@ -4186,264 +4480,264 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t xml:space="preserve">229
+          <t xml:space="preserve">248
 </t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t xml:space="preserve">46
+          <t xml:space="preserve">84
 </t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t xml:space="preserve">1090
+          <t xml:space="preserve">193
 </t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t xml:space="preserve">05
+          <t xml:space="preserve">114
 </t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t xml:space="preserve">103
-</t>
-        </is>
-      </c>
-      <c r="K31" t="n">
-        <v>45</v>
+          <t xml:space="preserve">22
+</t>
+        </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t xml:space="preserve">208
+          <t xml:space="preserve">213
 </t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t xml:space="preserve">806
+          <t xml:space="preserve">210
 </t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t xml:space="preserve">241
+          <t xml:space="preserve">8248
 </t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t xml:space="preserve">980
+          <t xml:space="preserve">925
 </t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t xml:space="preserve">104
+          <t xml:space="preserve">02
 </t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t xml:space="preserve">242
+          <t xml:space="preserve">205
 </t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t xml:space="preserve">221
+          <t xml:space="preserve">258
 </t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t xml:space="preserve">252
+          <t xml:space="preserve">302
 </t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t xml:space="preserve">834
+          <t xml:space="preserve">694
 </t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t xml:space="preserve">50
+          <t xml:space="preserve">133
 </t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t xml:space="preserve">230
+          <t xml:space="preserve">273
 </t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t xml:space="preserve">220
+          <t xml:space="preserve">248
 </t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t xml:space="preserve">258
+          <t xml:space="preserve">297
 </t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t xml:space="preserve">811
+          <t xml:space="preserve">8208
 </t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t xml:space="preserve">67
+          <t xml:space="preserve">65
 </t>
         </is>
       </c>
       <c r="AA31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="n">
+        <v>27</v>
+      </c>
       <c r="B32" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C32" t="n">
-        <v>1172</v>
+        <v>3847</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">306
+          <t xml:space="preserve">292
 </t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve">191
+          <t xml:space="preserve">196
 </t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t xml:space="preserve">249
+          <t xml:space="preserve">244
 </t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
+          <t xml:space="preserve">96
+</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5
+</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">23
+</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>100</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1201
+</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">201
+</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">964
+</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">990
+</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">07
+</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">311
+</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2846
+</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8275
+</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">610
+</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
           <t xml:space="preserve">115
 </t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1178
-</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">05
-</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1
-</t>
-        </is>
-      </c>
-      <c r="K32" t="n">
-        <v>45</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1201
-</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">201
-</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">235
-</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1000
-</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">00
-</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">301
-</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">256
-</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">299
-</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">702
-</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">126
-</t>
-        </is>
-      </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t xml:space="preserve">263
+          <t xml:space="preserve">278
 </t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t xml:space="preserve">210
+          <t xml:space="preserve">238
 </t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t xml:space="preserve">214
+          <t xml:space="preserve">283
 </t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t xml:space="preserve">858
+          <t xml:space="preserve">794
+</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">93
 </t>
         </is>
       </c>
@@ -4453,642 +4747,699 @@
     </row>
     <row r="33">
       <c r="B33" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C33" t="n">
-        <v>2844</v>
+        <v>3116</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">1295
+          <t xml:space="preserve">1319
 </t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve">188
+          <t xml:space="preserve">214
 </t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t xml:space="preserve">241
+          <t xml:space="preserve">267
 </t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t xml:space="preserve">1097
-</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1178
+          <t xml:space="preserve">112
+</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24
 </t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t xml:space="preserve">118
-</t>
-        </is>
+          <t xml:space="preserve">35
+</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>306</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t xml:space="preserve">190
+          <t xml:space="preserve">218
 </t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t xml:space="preserve">190
+          <t xml:space="preserve">217
 </t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t xml:space="preserve">219
+          <t xml:space="preserve">2142
 </t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t xml:space="preserve">1000
+          <t xml:space="preserve">975
 </t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">02
 </t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t xml:space="preserve">283
+          <t xml:space="preserve">205
 </t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t xml:space="preserve">2248
+          <t xml:space="preserve">258
 </t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t xml:space="preserve">290
+          <t xml:space="preserve">302
 </t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t xml:space="preserve">754
+          <t xml:space="preserve">694
 </t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t xml:space="preserve">94
+          <t xml:space="preserve">133
 </t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t xml:space="preserve">214
+          <t xml:space="preserve">273
 </t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t xml:space="preserve">208
+          <t xml:space="preserve">248
 </t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t xml:space="preserve">242
+          <t xml:space="preserve">297
 </t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t xml:space="preserve">858
+          <t xml:space="preserve">8208
+</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">65
 </t>
         </is>
       </c>
       <c r="AA33" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" t="n">
-        <v>1178</v>
+        <v>3534</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">1286
+          <t xml:space="preserve">15311
 </t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve">211
+          <t xml:space="preserve">1208
 </t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t xml:space="preserve">259
+</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">103
+</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">965
+</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">181
+</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">216
+</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">213
+</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9251
+</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">978
+</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">07
+</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1311
+</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
           <t xml:space="preserve">249
 </t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">75
-</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1190
-</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">06
-</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0
-</t>
-        </is>
-      </c>
-      <c r="K34" t="n">
-        <v>13</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1219
-</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">817
-</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">258
-</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1980
-</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">04
-</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">215
-</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">209
-</t>
-        </is>
-      </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t xml:space="preserve">843
+          <t xml:space="preserve">8275
 </t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t xml:space="preserve">948
+          <t xml:space="preserve">613
 </t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t xml:space="preserve">13
+          <t xml:space="preserve">174
 </t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t xml:space="preserve">214
+          <t xml:space="preserve">278
 </t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t xml:space="preserve">208
+          <t xml:space="preserve">248
 </t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t xml:space="preserve">242
+          <t xml:space="preserve">289
+</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">794
+</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">84
 </t>
         </is>
       </c>
       <c r="AA34" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="n">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="C35" t="n">
-        <v>8264</v>
+        <v>4307</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">8429
+          <t xml:space="preserve">1321
+</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">209
+</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">965
 </t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t xml:space="preserve">429
+          <t xml:space="preserve">112
 </t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t xml:space="preserve">928
+          <t xml:space="preserve">193
+</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24
 </t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t xml:space="preserve">92
+          <t xml:space="preserve">144
 </t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>179</v>
+        <v>306</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">210
+</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">207
+</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2142
+</t>
+        </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t xml:space="preserve">4950
+          <t xml:space="preserve">975
 </t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t xml:space="preserve">110
+          <t xml:space="preserve">06
 </t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t xml:space="preserve">1331
+          <t xml:space="preserve">321
 </t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t xml:space="preserve">1279
+          <t xml:space="preserve">260
 </t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t xml:space="preserve">1363
+          <t xml:space="preserve">297
 </t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t xml:space="preserve">3936
+          <t xml:space="preserve">622
 </t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t xml:space="preserve">404
+          <t xml:space="preserve">180
 </t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t xml:space="preserve">120161
+          <t xml:space="preserve">287
+</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">246
+</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">283
 </t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t xml:space="preserve">832
-</t>
-        </is>
-      </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">56
-</t>
-        </is>
-      </c>
-      <c r="AA35" t="n">
-        <v>101</v>
+          <t xml:space="preserve">784
+</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="n">
-        <v>2109</v>
+        <v>108</v>
       </c>
       <c r="C36" t="n">
-        <v>1653</v>
+        <v>16837</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">1286
+          <t xml:space="preserve">1554
 </t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve">200
+          <t xml:space="preserve">1020
 </t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t xml:space="preserve">243
+          <t xml:space="preserve">1287
 </t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
+          <t xml:space="preserve">534
+</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">965
+</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">181
+</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>356</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1060
+</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1152
+</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">192161
+</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16927
+</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">17
+</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1537
+</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1262
+</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1431
+</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2268
+</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">777
+</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1368
+</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1216
+</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1024
+</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">784
+</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
           <t xml:space="preserve">86
 </t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1186
-</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">12
-</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18
-</t>
-        </is>
-      </c>
-      <c r="K36" t="n">
-        <v>51</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">207
-</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">206
-</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">242
-</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">990
-</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">102
-</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">266
-</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">236
-</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">273
-</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">787
-</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">81
-</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">248
-</t>
-        </is>
-      </c>
-      <c r="X36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">260
-</t>
-        </is>
-      </c>
-      <c r="Y36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">832
-</t>
-        </is>
-      </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4
-</t>
-        </is>
-      </c>
       <c r="AA36" t="n">
-        <v>1103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>3626</v>
-      </c>
       <c r="B37" t="n">
         <v>26</v>
       </c>
       <c r="C37" t="n">
-        <v>3325</v>
+        <v>3387</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t xml:space="preserve">13118
+</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">204
+</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">257
+</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">106
+</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">193
+</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">120
+</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">36
+</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>6</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">212
+</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">210
+</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2168
+</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">985
+</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">103
+</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
           <t xml:space="preserve">307
 </t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1193
-</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">250
-</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">114
-</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11680
-</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1118
-</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">35
-</t>
-        </is>
-      </c>
-      <c r="K37" t="n">
-        <v>51</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">195
-</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1000
-</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0
-</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">307
-</t>
-        </is>
-      </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t xml:space="preserve">255
+          <t xml:space="preserve">852
 </t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t xml:space="preserve">293
+          <t xml:space="preserve">886
 </t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t xml:space="preserve">665
+          <t xml:space="preserve">650
 </t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t xml:space="preserve">147
+          <t xml:space="preserve">155
 </t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t xml:space="preserve">278
+          <t xml:space="preserve">874
 </t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t xml:space="preserve">239
+          <t xml:space="preserve">243
 </t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t xml:space="preserve">273
-</t>
-        </is>
-      </c>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">729
+          <t xml:space="preserve">285
 </t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t xml:space="preserve">101
+          <t xml:space="preserve">1014
 </t>
         </is>
       </c>
       <c r="AA37" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38">
@@ -5096,56 +5447,56 @@
         <v>28</v>
       </c>
       <c r="C38" t="n">
-        <v>2426</v>
+        <v>3325</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">1296
+          <t xml:space="preserve">319
 </t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve">208
+          <t xml:space="preserve">202
 </t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t xml:space="preserve">252
+          <t xml:space="preserve">861
 </t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t xml:space="preserve">102
+          <t xml:space="preserve">117
 </t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t xml:space="preserve">190
+          <t xml:space="preserve">1193
 </t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t xml:space="preserve">118
+          <t xml:space="preserve">117
 </t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t xml:space="preserve">31
+          <t xml:space="preserve">30
 </t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t xml:space="preserve">8910
+          <t xml:space="preserve">210
 </t>
         </is>
       </c>
@@ -5157,7 +5508,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t xml:space="preserve">1232
+          <t xml:space="preserve">948
 </t>
         </is>
       </c>
@@ -5169,66 +5520,72 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t xml:space="preserve">15
+          <t xml:space="preserve">02
 </t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t xml:space="preserve">307
+          <t xml:space="preserve">3109
 </t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t xml:space="preserve">249
+          <t xml:space="preserve">860
 </t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t xml:space="preserve">288
+          <t xml:space="preserve">898
 </t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t xml:space="preserve">705
+          <t xml:space="preserve">592
 </t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t xml:space="preserve">120
+          <t xml:space="preserve">173
 </t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t xml:space="preserve">1271
+          <t xml:space="preserve">278
 </t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t xml:space="preserve">245
+          <t xml:space="preserve">238
 </t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t xml:space="preserve">291
+          <t xml:space="preserve">269
+</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">882
 </t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t xml:space="preserve">67
+          <t xml:space="preserve">86
 </t>
         </is>
       </c>
       <c r="AA38" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39">
@@ -5236,157 +5593,157 @@
         <v>28</v>
       </c>
       <c r="C39" t="n">
-        <v>2886</v>
+        <v>12656</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">1309
+          <t xml:space="preserve">1316
 </t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve">204
+          <t xml:space="preserve">188
 </t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t xml:space="preserve">256
+          <t xml:space="preserve">259
 </t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t xml:space="preserve">88
+          <t xml:space="preserve">141
 </t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t xml:space="preserve">186
+          <t xml:space="preserve">182
 </t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t xml:space="preserve">1165
+          <t xml:space="preserve">1127
 </t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t xml:space="preserve">11
+          <t xml:space="preserve">150
 </t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t xml:space="preserve">1
+          <t xml:space="preserve">1198
+</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">196
 </t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t xml:space="preserve">252
+          <t xml:space="preserve">286
 </t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t xml:space="preserve">1000
+          <t xml:space="preserve">978
 </t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t xml:space="preserve">100
+          <t xml:space="preserve">05
 </t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t xml:space="preserve">309
+          <t xml:space="preserve">823
 </t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
+          <t xml:space="preserve">260
+</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
           <t xml:space="preserve">249
 </t>
         </is>
       </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1276
-</t>
-        </is>
-      </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t xml:space="preserve">620
+          <t xml:space="preserve">923
 </t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t xml:space="preserve">170
+          <t xml:space="preserve">1120
 </t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t xml:space="preserve">271
+          <t xml:space="preserve">10986
 </t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t xml:space="preserve">246
+          <t xml:space="preserve">234
 </t>
         </is>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t xml:space="preserve">293
+          <t xml:space="preserve">280
 </t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t xml:space="preserve">818
+          <t xml:space="preserve">905
 </t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t xml:space="preserve">65
+          <t xml:space="preserve">829
 </t>
         </is>
       </c>
       <c r="AA39" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="C40" t="n">
-        <v>123116</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2307
-</t>
-        </is>
+        <v>2363</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve">210
+          <t xml:space="preserve">203
 </t>
         </is>
       </c>
@@ -5398,177 +5755,168 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t xml:space="preserve">1105
+          <t xml:space="preserve">1113
 </t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t xml:space="preserve">186
+          <t xml:space="preserve">1200
 </t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t xml:space="preserve">0116
+          <t xml:space="preserve">1107
 </t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t xml:space="preserve">130
-</t>
-        </is>
-      </c>
-      <c r="K40" t="n">
-        <v>111</v>
+          <t xml:space="preserve">15
+</t>
+        </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t xml:space="preserve">1
+          <t xml:space="preserve">199
 </t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t xml:space="preserve">5111
+          <t xml:space="preserve">198
 </t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t xml:space="preserve">249
-</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">990
+          <t xml:space="preserve">8960
 </t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t xml:space="preserve">02
-</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1247
-</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">217
+          <t xml:space="preserve">102
 </t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t xml:space="preserve">240
+          <t xml:space="preserve">293
 </t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t xml:space="preserve">770
+          <t xml:space="preserve">977
 </t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t xml:space="preserve">71
+          <t xml:space="preserve">07
 </t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t xml:space="preserve">240
+          <t xml:space="preserve">85
 </t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t xml:space="preserve">220
+          <t xml:space="preserve">8235
 </t>
         </is>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t xml:space="preserve">293
+          <t xml:space="preserve">282
 </t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t xml:space="preserve">843
+          <t xml:space="preserve">906
 </t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t xml:space="preserve">65
+          <t xml:space="preserve">29
 </t>
         </is>
       </c>
       <c r="AA40" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C41" t="n">
-        <v>123116</v>
+        <v>3722</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">2307
+          <t xml:space="preserve">300
 </t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve">210
+          <t xml:space="preserve">213
 </t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t xml:space="preserve">259
+          <t xml:space="preserve">857
+</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">87
 </t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t xml:space="preserve">186
+          <t xml:space="preserve">1198
 </t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t xml:space="preserve">0116
+          <t xml:space="preserve">120
 </t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t xml:space="preserve">130
+          <t xml:space="preserve">132
+</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">219
 </t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t xml:space="preserve">5111
+          <t xml:space="preserve">215
 </t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t xml:space="preserve">249
+          <t xml:space="preserve">256
 </t>
         </is>
       </c>
@@ -5586,453 +5934,543 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t xml:space="preserve">1247
+          <t xml:space="preserve">291
 </t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t xml:space="preserve">217
+          <t xml:space="preserve">255
 </t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t xml:space="preserve">240
+          <t xml:space="preserve">804
 </t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t xml:space="preserve">770
+          <t xml:space="preserve">756
 </t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t xml:space="preserve">71
+          <t xml:space="preserve">198
 </t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t xml:space="preserve">240
+          <t xml:space="preserve">878
 </t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t xml:space="preserve">220
+          <t xml:space="preserve">247
+</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">828
 </t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t xml:space="preserve">843
-</t>
-        </is>
+          <t xml:space="preserve">280
+</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">982
+</t>
+        </is>
+      </c>
+      <c r="AA41" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="n">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="C42" t="n">
-        <v>114534</v>
+        <v>3659</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">1327
+          <t xml:space="preserve">1396
+</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">213
+</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">269
+</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">113
+</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1194
+</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19
+</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1036
+</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1223
+</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">823
+</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">869
+</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1000
+</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">00
 </t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t xml:space="preserve">12463
+          <t xml:space="preserve">326
+</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">264
+</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3014
+</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">620
+</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">186
+</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1285
+</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">263
+</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">828
 </t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t xml:space="preserve">3923
+          <t xml:space="preserve">844
 </t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t xml:space="preserve">383
+          <t xml:space="preserve">60
 </t>
         </is>
       </c>
       <c r="AA42" t="n">
-        <v>101</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="n">
-        <v>204</v>
-      </c>
-      <c r="C43" t="n">
-        <v>2907</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1327
-</t>
-        </is>
+        <v>81</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t xml:space="preserve">204
+          <t xml:space="preserve">1816
 </t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t xml:space="preserve">255
+          <t xml:space="preserve">2161
 </t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t xml:space="preserve">101
+          <t xml:space="preserve">1691
+</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1142
 </t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t xml:space="preserve">83
+          <t xml:space="preserve">102
 </t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t xml:space="preserve">11649
+          <t xml:space="preserve">184
 </t>
         </is>
       </c>
       <c r="K43" t="n">
-        <v>50</v>
+        <v>783</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t xml:space="preserve">106
-</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
+          <t xml:space="preserve">1859
+</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5888
+</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1643
+</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1728
+</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">122500
+</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">114
+</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">263
+</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
         <is>
           <t xml:space="preserve">241
 </t>
         </is>
       </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">984
-</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">04
-</t>
-        </is>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">293
-</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">245
-</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9277
-</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6823
-</t>
-        </is>
-      </c>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1232
-</t>
-        </is>
-      </c>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">268
-</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">238
-</t>
-        </is>
-      </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t xml:space="preserve">276
+          <t xml:space="preserve">287
 </t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t xml:space="preserve">785
+          <t xml:space="preserve">5037
 </t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t xml:space="preserve">77
+          <t xml:space="preserve">3640
 </t>
         </is>
       </c>
       <c r="AA43" t="n">
-        <v>1409</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="n">
-        <v>204</v>
+        <v>31028</v>
       </c>
       <c r="C44" t="n">
-        <v>11</v>
+        <v>2376</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">1317
 </t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t xml:space="preserve">204
+          <t xml:space="preserve">202
 </t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t xml:space="preserve">255
+          <t xml:space="preserve">860
 </t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t xml:space="preserve">101
+          <t xml:space="preserve">115
 </t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t xml:space="preserve">1187
+          <t xml:space="preserve">191
 </t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t xml:space="preserve">167
+          <t xml:space="preserve">117
 </t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t xml:space="preserve">30
+          <t xml:space="preserve">31
 </t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t xml:space="preserve">808
+          <t xml:space="preserve">211
 </t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t xml:space="preserve">11
+          <t xml:space="preserve">2010
 </t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
+          <t xml:space="preserve">248
+</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">990
+</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">102
+</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">288
+</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">218
+</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">290
+</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">750
+</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">114
+</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">263
+</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
           <t xml:space="preserve">241
 </t>
         </is>
       </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">984
-</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4
-</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4
-</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">14
-</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4
-</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4
-</t>
-        </is>
-      </c>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4
-</t>
-        </is>
-      </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8
-</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4
-</t>
-        </is>
-      </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">287
+</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">839
 </t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t xml:space="preserve">1
-</t>
-        </is>
+          <t xml:space="preserve">67
+</t>
+        </is>
+      </c>
+      <c r="AA44" t="n">
+        <v>1107</v>
       </c>
     </row>
     <row r="45">
       <c r="C45" t="n">
-        <v>85678</v>
+        <v>99904</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">9234
+          <t xml:space="preserve">9214
 </t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t xml:space="preserve">6050
+          <t xml:space="preserve">6363
 </t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t xml:space="preserve">7642
+          <t xml:space="preserve">8039
 </t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t xml:space="preserve">3194
+          <t xml:space="preserve">3351
 </t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t xml:space="preserve">5597
-</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">12011
+          <t xml:space="preserve">5982
+</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1663
 </t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t xml:space="preserve">11146
-</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7197
+          <t xml:space="preserve">6524
 </t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t xml:space="preserve">118
-</t>
-        </is>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8858
+          <t xml:space="preserve">114
 </t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t xml:space="preserve">7359
-</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8301
-</t>
-        </is>
-      </c>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7869
-</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7063
-</t>
-        </is>
-      </c>
-      <c r="Y45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">719417
+          <t xml:space="preserve">22679
+</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">91681
+</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2238
 </t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t xml:space="preserve">2078
+          <t xml:space="preserve">21982
 </t>
         </is>
       </c>
@@ -6042,202 +6480,256 @@
         <v>1108</v>
       </c>
       <c r="C46" t="n">
-        <v>2856</v>
+        <v>99904</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">308
+          <t xml:space="preserve">9214
 </t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t xml:space="preserve">202
+          <t xml:space="preserve">6363
 </t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t xml:space="preserve">255
+          <t xml:space="preserve">8039
 </t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t xml:space="preserve">106
+          <t xml:space="preserve">3351
 </t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t xml:space="preserve">187
-</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1008
+          <t xml:space="preserve">5982
+</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1663
 </t>
         </is>
       </c>
       <c r="K46" t="n">
-        <v>715</v>
+        <v>4</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6580
+</t>
+        </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t xml:space="preserve">105
+          <t xml:space="preserve">6524
 </t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t xml:space="preserve">240
+          <t xml:space="preserve">248
 </t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t xml:space="preserve">982
+          <t xml:space="preserve">983
 </t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t xml:space="preserve">04
+          <t xml:space="preserve">114
 </t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t xml:space="preserve">295
+          <t xml:space="preserve">296
 </t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t xml:space="preserve">245
+          <t xml:space="preserve">22679
 </t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t xml:space="preserve">277
+          <t xml:space="preserve">283
 </t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t xml:space="preserve">679
+          <t xml:space="preserve">91681
 </t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t xml:space="preserve">1240
+          <t xml:space="preserve">2238
 </t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t xml:space="preserve">262
+          <t xml:space="preserve">265
 </t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t xml:space="preserve">235
+          <t xml:space="preserve">239
 </t>
         </is>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t xml:space="preserve">274
-</t>
-        </is>
-      </c>
-      <c r="Y46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">805
+          <t xml:space="preserve">280
 </t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t xml:space="preserve">69
+          <t xml:space="preserve">8
 </t>
         </is>
       </c>
       <c r="AA46" t="n">
-        <v>1102</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="47">
+      <c r="B47" t="n">
+        <v>1108</v>
+      </c>
       <c r="C47" t="n">
+        <v>3191</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1313
+</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">205
+</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">259
+</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1108
+</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">193
+</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">121
+</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">37
+</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>4</v>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">187
-</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">119
-</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">33
+      <c r="L47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2188
+</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8110
+</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">248
+</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">983
+</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">04
+</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">296
+</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">228
 </t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">283
 </t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">696
 </t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">137
 </t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">265
 </t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
-</t>
-        </is>
-      </c>
-      <c r="X47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4
-</t>
-        </is>
-      </c>
-      <c r="Y47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">21
-</t>
-        </is>
-      </c>
-      <c r="Z47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">239
 </t>
         </is>
       </c>

--- a/src/output/original_transcribed_data.xlsx
+++ b/src/output/original_transcribed_data.xlsx
@@ -561,1189 +561,796 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>825</v>
-      </c>
-      <c r="B3" t="n">
-        <v>111362</v>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">287
+          <t xml:space="preserve">196
 </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">900
+          <t xml:space="preserve">808
 </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">8243
+          <t xml:space="preserve">249
 </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve">87
+          <t xml:space="preserve">94
 </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1182
-</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">29
+          <t xml:space="preserve">196
+</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18
 </t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t xml:space="preserve">202
+          <t xml:space="preserve">256
 </t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t xml:space="preserve">201
+          <t xml:space="preserve">806
 </t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t xml:space="preserve">834
+          <t xml:space="preserve">8211
 </t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t xml:space="preserve">990
+          <t xml:space="preserve">88
 </t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t xml:space="preserve">02
+          <t xml:space="preserve">991
 </t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t xml:space="preserve">287
-</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">241
+          <t xml:space="preserve">248
 </t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t xml:space="preserve">8
+          <t xml:space="preserve">886
 </t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1689
+          <t xml:space="preserve">116
 </t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1122
-</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">252
+          <t xml:space="preserve">871
 </t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t xml:space="preserve">228
+          <t xml:space="preserve">289
 </t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t xml:space="preserve">262
+          <t xml:space="preserve">277
 </t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t xml:space="preserve">818
+          <t xml:space="preserve">775
 </t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t xml:space="preserve">8
-</t>
-        </is>
-      </c>
-      <c r="AA3" t="n">
-        <v>1</v>
+          <t xml:space="preserve">81
+</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>12035</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3220
+</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">1396
+          <t xml:space="preserve">229
 </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">182
+          <t xml:space="preserve">198
 </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">254
+          <t xml:space="preserve">210
 </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">144
+          <t xml:space="preserve">31
+</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">189
 </t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t xml:space="preserve">35
+          <t xml:space="preserve">091
 </t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t xml:space="preserve">1155
-</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
+          <t xml:space="preserve">819
+</t>
+        </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t xml:space="preserve">189
-</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">188
+          <t xml:space="preserve">208
 </t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
+          <t xml:space="preserve">18019
+</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">86
+</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
           <t xml:space="preserve">216
 </t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0990
-</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">09
-</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">326
-</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">254
-</t>
-        </is>
-      </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t xml:space="preserve">278
-</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1566
+          <t xml:space="preserve">710
 </t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t xml:space="preserve">212
+          <t xml:space="preserve">11
 </t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t xml:space="preserve">272
-</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">240
+          <t xml:space="preserve">289
 </t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t xml:space="preserve">1278
+          <t xml:space="preserve">248
 </t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t xml:space="preserve">770
-</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">82
-</t>
-        </is>
-      </c>
-      <c r="AA4" t="n">
-        <v>2</v>
+          <t xml:space="preserve">922
+</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="n">
-        <v>114223</v>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">3142
-</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">188
+          <t xml:space="preserve">017
 </t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">265
+          <t xml:space="preserve">201
 </t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve">154
+          <t xml:space="preserve">139
 </t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t xml:space="preserve">1172
-</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1146
+          <t xml:space="preserve">170
 </t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t xml:space="preserve">72
-</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
+          <t xml:space="preserve">119
+</t>
+        </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t xml:space="preserve">200
+          <t xml:space="preserve">186
 </t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t xml:space="preserve">200
+          <t xml:space="preserve">11811
 </t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t xml:space="preserve">233
+          <t xml:space="preserve">990
 </t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t xml:space="preserve">1000
+          <t xml:space="preserve">02
 </t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
-</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">327
+          <t xml:space="preserve">8187
 </t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t xml:space="preserve">257
-</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2386
-</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2998
+          <t xml:space="preserve">2117
 </t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t xml:space="preserve">207
+          <t xml:space="preserve">268
 </t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t xml:space="preserve">1287
+          <t xml:space="preserve">280
 </t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t xml:space="preserve">1237
+          <t xml:space="preserve">288
 </t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t xml:space="preserve">2641
-</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">664
-</t>
-        </is>
-      </c>
-      <c r="AA5" t="n">
-        <v>38</v>
+          <t xml:space="preserve">762
+</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="B6" t="n">
-        <v>9</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">347
-</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">193
-</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">280
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11646
 </t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve">154
-</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1182
+          <t xml:space="preserve">819
 </t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t xml:space="preserve">282
+          <t xml:space="preserve">16
 </t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t xml:space="preserve">79
-</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
-        <v>100</v>
+          <t xml:space="preserve">21
+</t>
+        </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t xml:space="preserve">201
-</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">201
+          <t xml:space="preserve">11216
 </t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve">23510
+          <t xml:space="preserve">984
 </t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t xml:space="preserve">1000
+          <t xml:space="preserve">28
 </t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">195
 </t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t xml:space="preserve">342
+          <t xml:space="preserve">246
 </t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t xml:space="preserve">255
+          <t xml:space="preserve">107
 </t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t xml:space="preserve">1271
+          <t xml:space="preserve">108
 </t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t xml:space="preserve">506
+          <t xml:space="preserve">137
 </t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t xml:space="preserve">265
+          <t xml:space="preserve">229
 </t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t xml:space="preserve">295
-</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">244
+          <t xml:space="preserve">246
 </t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t xml:space="preserve">273
+          <t xml:space="preserve">162
 </t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t xml:space="preserve">662
-</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">138
-</t>
-        </is>
-      </c>
-      <c r="AA6" t="n">
-        <v>4</v>
+          <t xml:space="preserve">88
+</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="B7" t="n">
-        <v>4</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3234
+</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">1648
+          <t xml:space="preserve">809
 </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">969
-</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">276
+          <t xml:space="preserve">196
 </t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">140
+          <t xml:space="preserve">187
 </t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve">1190
+          <t xml:space="preserve">178
 </t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t xml:space="preserve">20
-</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">275
-</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
-        <v>2309</v>
+          <t xml:space="preserve">28
+</t>
+        </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t xml:space="preserve">210
-</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">206
+          <t xml:space="preserve">198
 </t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t xml:space="preserve">2409
-</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">965
+          <t xml:space="preserve">999
 </t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t xml:space="preserve">108
-</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11214
-</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">212
+          <t xml:space="preserve">881
 </t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t xml:space="preserve">251
-</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">980
+          <t xml:space="preserve">810
 </t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t xml:space="preserve">104
+          <t xml:space="preserve">126
 </t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t xml:space="preserve">11222
-</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">219
-</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">261
+          <t xml:space="preserve">269
 </t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t xml:space="preserve">974
-</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">06
-</t>
-        </is>
-      </c>
-      <c r="AA7" t="n">
-        <v>5</v>
+          <t xml:space="preserve">88
+</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>1109</v>
-      </c>
-      <c r="B8" t="n">
-        <v>9</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2990</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1346
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2626
 </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t xml:space="preserve">995
+</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">448
+</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">897
+</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
           <t xml:space="preserve">206
 </t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">262
-</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">136
-</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1179
-</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">33
-</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">55
-</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">200
-</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">199
-</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1232
-</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">989
-</t>
-        </is>
-      </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t xml:space="preserve">102
-</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">299
-</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">244
+          <t xml:space="preserve">1400
 </t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t xml:space="preserve">271
-</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">660
-</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2162
+          <t xml:space="preserve">1352
 </t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t xml:space="preserve">11266
-</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8234
+          <t xml:space="preserve">842
 </t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t xml:space="preserve">267
+          <t xml:space="preserve">988
 </t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t xml:space="preserve">778
-</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">83
-</t>
-        </is>
-      </c>
-      <c r="AA8" t="n">
-        <v>109</v>
+          <t xml:space="preserve">19
+</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="B9" t="n">
-        <v>1117835</v>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">1648
+          <t xml:space="preserve">288
 </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">969
+          <t xml:space="preserve">198
 </t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">1303
+          <t xml:space="preserve">248
 </t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve">679
+          <t xml:space="preserve">912
 </t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t xml:space="preserve">894
-</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1165
-</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">275
-</t>
-        </is>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
+          <t xml:space="preserve">189
+</t>
+        </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t xml:space="preserve">1002
-</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">996
+          <t xml:space="preserve">162
 </t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve">1158
+          <t xml:space="preserve">2189
 </t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t xml:space="preserve">4945
+          <t xml:space="preserve">08
 </t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t xml:space="preserve">12
+          <t xml:space="preserve">4
 </t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t xml:space="preserve">1496
-</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1219
+          <t xml:space="preserve">299
 </t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t xml:space="preserve">11357
+          <t xml:space="preserve">278
 </t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t xml:space="preserve">2299
+          <t xml:space="preserve">718
 </t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t xml:space="preserve">810
+          <t xml:space="preserve">119
 </t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t xml:space="preserve">1328
+          <t xml:space="preserve">1278
 </t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t xml:space="preserve">1168
+          <t xml:space="preserve">1160
 </t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t xml:space="preserve">1335
+          <t xml:space="preserve">1301
 </t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t xml:space="preserve">9888
+          <t xml:space="preserve">1142
 </t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t xml:space="preserve">416
-</t>
-        </is>
-      </c>
-      <c r="AA9" t="n">
-        <v>101</v>
+          <t xml:space="preserve">60
+</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>1109</v>
-      </c>
-      <c r="B10" t="n">
-        <v>13567</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2471</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2719
+</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">330
+          <t xml:space="preserve">182
 </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">194
+          <t xml:space="preserve">191
 </t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">262
+          <t xml:space="preserve">1849
 </t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve">136
+          <t xml:space="preserve">90
 </t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t xml:space="preserve">1179
+          <t xml:space="preserve">1176
 </t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t xml:space="preserve">33
+          <t xml:space="preserve">17
 </t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t xml:space="preserve">55
-</t>
-        </is>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
+          <t xml:space="preserve">46
+</t>
+        </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t xml:space="preserve">200
-</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">199
+          <t xml:space="preserve">196
 </t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t xml:space="preserve">1232
+          <t xml:space="preserve">981
 </t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t xml:space="preserve">989
+          <t xml:space="preserve">116562
 </t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t xml:space="preserve">102
-</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">299
+          <t xml:space="preserve">298
 </t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t xml:space="preserve">244
+          <t xml:space="preserve">964
 </t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t xml:space="preserve">271
-</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">660
-</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2162
+          <t xml:space="preserve">298
 </t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t xml:space="preserve">11266
+          <t xml:space="preserve">296
 </t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t xml:space="preserve">8234
+          <t xml:space="preserve">292
 </t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t xml:space="preserve">267
-</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">778
+          <t xml:space="preserve">27
 </t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t xml:space="preserve">83
-</t>
-        </is>
-      </c>
-      <c r="AA10" t="n">
-        <v>109</v>
+          <t xml:space="preserve">84
+</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>26</v>
-      </c>
-      <c r="B11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2656</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">201
-</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">198
-</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">249
-</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">103
+          <t xml:space="preserve">268
 </t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t xml:space="preserve">182
+          <t xml:space="preserve">284
 </t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t xml:space="preserve">116
+          <t xml:space="preserve">24
 </t>
         </is>
       </c>
@@ -1754,7 +1361,7 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1764,37 +1371,31 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t xml:space="preserve">230
+          <t xml:space="preserve">210
 </t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t xml:space="preserve">279
+          <t xml:space="preserve">218
 </t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t xml:space="preserve">975
-</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">05
+          <t xml:space="preserve">04
 </t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t xml:space="preserve">318
+          <t xml:space="preserve">4
 </t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t xml:space="preserve">249
+          <t xml:space="preserve">931
 </t>
         </is>
       </c>
@@ -1804,1349 +1405,875 @@
 </t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">706
-</t>
-        </is>
-      </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t xml:space="preserve">1124
+          <t xml:space="preserve">226
 </t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t xml:space="preserve">1279
+          <t xml:space="preserve">883
 </t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t xml:space="preserve">8249
-</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">288
+          <t xml:space="preserve">298
 </t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t xml:space="preserve">767
-</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">578
-</t>
-        </is>
-      </c>
-      <c r="AA11" t="n">
-        <v>2</v>
+          <t xml:space="preserve">828
+</t>
+        </is>
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="n">
-        <v>8</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2471</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2486
+</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">328
+          <t xml:space="preserve">908
 </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">204
+          <t xml:space="preserve">199
 </t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">866
+          <t xml:space="preserve">261
 </t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t xml:space="preserve">124
+          <t xml:space="preserve">118
 </t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t xml:space="preserve">1199
+          <t xml:space="preserve">26
 </t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t xml:space="preserve">1233
+          <t xml:space="preserve">184
 </t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t xml:space="preserve">60
-</t>
-        </is>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
+          <t xml:space="preserve">28
+</t>
+        </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t xml:space="preserve">221
+          <t xml:space="preserve">2068
 </t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t xml:space="preserve">219
-</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">261
-</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">980
+          <t xml:space="preserve">197
 </t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t xml:space="preserve">104
+          <t xml:space="preserve">826
 </t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t xml:space="preserve">326
-</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">246
+          <t xml:space="preserve">200
 </t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t xml:space="preserve">258
+          <t xml:space="preserve">299
 </t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t xml:space="preserve">627
+          <t xml:space="preserve">1088
 </t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t xml:space="preserve">233
+          <t xml:space="preserve">06
 </t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t xml:space="preserve">1280
+          <t xml:space="preserve">1275
 </t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t xml:space="preserve">248
-</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">293
-</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">85
-</t>
-        </is>
-      </c>
-      <c r="AA12" t="n">
-        <v>8</v>
+          <t xml:space="preserve">948
+</t>
+        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>10</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11903</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3596</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1207
-</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">219
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2486
 </t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve">263
+          <t xml:space="preserve">2869
 </t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve">88
+          <t xml:space="preserve">116
 </t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t xml:space="preserve">203
+          <t xml:space="preserve">21
 </t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t xml:space="preserve">15
+          <t xml:space="preserve">18
 </t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t xml:space="preserve">121
-</t>
-        </is>
-      </c>
-      <c r="K13" t="n">
-        <v>111</v>
+          <t xml:space="preserve">212
+</t>
+        </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t xml:space="preserve">1224
+          <t xml:space="preserve">199
 </t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t xml:space="preserve">221
-</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">264
+          <t xml:space="preserve">208
 </t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t xml:space="preserve">973
+          <t xml:space="preserve">04
 </t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t xml:space="preserve">07
+          <t xml:space="preserve">080
 </t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t xml:space="preserve">824
+          <t xml:space="preserve">968
 </t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t xml:space="preserve">8211
+          <t xml:space="preserve">846
 </t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t xml:space="preserve">242
+          <t xml:space="preserve">277
 </t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t xml:space="preserve">890
+          <t xml:space="preserve">1569
 </t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t xml:space="preserve">29
+          <t xml:space="preserve">211
 </t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t xml:space="preserve">220
+          <t xml:space="preserve">267
 </t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t xml:space="preserve">216
-</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">255
+          <t xml:space="preserve">984
 </t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t xml:space="preserve">731
-</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">89
-</t>
-        </is>
-      </c>
-      <c r="AA13" t="n">
-        <v>9</v>
+          <t xml:space="preserve">63
+</t>
+        </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>10</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3596</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1325
-</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">298
-</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">267
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3701
 </t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve">117
-</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1196
+          <t xml:space="preserve">189
 </t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t xml:space="preserve">24
+          <t xml:space="preserve">89
 </t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t xml:space="preserve">39
-</t>
-        </is>
-      </c>
-      <c r="K14" t="n">
-        <v>258</v>
+          <t xml:space="preserve">41
+</t>
+        </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t xml:space="preserve">216
-</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">216
-</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">258
+          <t xml:space="preserve">218
 </t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t xml:space="preserve">1000
-</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">00
-</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">320
-</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">258
+          <t xml:space="preserve">86
 </t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t xml:space="preserve">892
+          <t xml:space="preserve">276
 </t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t xml:space="preserve">617
+          <t xml:space="preserve">687
 </t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t xml:space="preserve">182
+          <t xml:space="preserve">142
 </t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t xml:space="preserve">287
+          <t xml:space="preserve">876
 </t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t xml:space="preserve">248
-</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">288
-</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">731
-</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">34
-</t>
-        </is>
-      </c>
-      <c r="AA14" t="n">
-        <v>10</v>
+          <t xml:space="preserve">244
+</t>
+        </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>101</v>
-      </c>
-      <c r="C15" t="n">
-        <v>15912</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1579
-</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1055
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3688
 </t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve">1317
+          <t xml:space="preserve">1278
 </t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve">524
+          <t xml:space="preserve">127
 </t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t xml:space="preserve">1992
-</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">115
+          <t xml:space="preserve">101
 </t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t xml:space="preserve">194
+          <t xml:space="preserve">188
 </t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>368</v>
+        <v>425</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t xml:space="preserve">1106
-</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1095
+          <t xml:space="preserve">1029
 </t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t xml:space="preserve">1307
-</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4001
+          <t xml:space="preserve">10
 </t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t xml:space="preserve">922
-</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1487
+          <t xml:space="preserve">298
 </t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t xml:space="preserve">1219
+          <t xml:space="preserve">1204
 </t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t xml:space="preserve">1361
+          <t xml:space="preserve">1109
 </t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t xml:space="preserve">3318
-</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">766
+          <t xml:space="preserve">8458
 </t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t xml:space="preserve">1337
+          <t xml:space="preserve">186
 </t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t xml:space="preserve">1207
+          <t xml:space="preserve">238
 </t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t xml:space="preserve">1425
-</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4074
+          <t xml:space="preserve">12 228
 </t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t xml:space="preserve">34
-</t>
-        </is>
-      </c>
-      <c r="AA15" t="n">
-        <v>701</v>
+          <t xml:space="preserve">252
+</t>
+        </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>104</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3182</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">17648
+</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">316
+          <t xml:space="preserve">312
 </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">211
+          <t xml:space="preserve">199
 </t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve">263
+          <t xml:space="preserve">296
 </t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve">105
+          <t xml:space="preserve">118
 </t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t xml:space="preserve">1198
-</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">23
+          <t xml:space="preserve">28
 </t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t xml:space="preserve">39
+          <t xml:space="preserve">18
 </t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t xml:space="preserve">221
-</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">219
+          <t xml:space="preserve">205
 </t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t xml:space="preserve">261
+          <t xml:space="preserve">188
 </t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t xml:space="preserve">990
+          <t xml:space="preserve">04
 </t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t xml:space="preserve">04
-</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">297
+          <t xml:space="preserve">898
 </t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t xml:space="preserve">244
+          <t xml:space="preserve">241
 </t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t xml:space="preserve">272
+          <t xml:space="preserve">17
 </t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t xml:space="preserve">664
-</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">153
-</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">285
-</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">815
-</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">69
-</t>
-        </is>
-      </c>
-      <c r="AA16" t="n">
-        <v>1107</v>
+          <t xml:space="preserve">892
+</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1296
+</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1189
+</t>
+        </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>27</v>
-      </c>
-      <c r="B17" t="n">
-        <v>11</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3680</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">321
-</t>
-        </is>
-      </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve">212
+          <t xml:space="preserve">188
 </t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve">267
+          <t xml:space="preserve">258
 </t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve">109
-</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1204
-</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">125
+          <t xml:space="preserve">916
 </t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t xml:space="preserve">163
-</t>
-        </is>
-      </c>
-      <c r="K17" t="n">
-        <v>104</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">214
+          <t xml:space="preserve">37
 </t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t xml:space="preserve">211
-</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">248
-</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">923
-</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">06
+          <t xml:space="preserve">191
 </t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t xml:space="preserve">7121
-</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">252
-</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">277
+          <t xml:space="preserve">818
 </t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t xml:space="preserve">580
+          <t xml:space="preserve">14
 </t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t xml:space="preserve">200
+          <t xml:space="preserve">21 02
 </t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t xml:space="preserve">285
+          <t xml:space="preserve">219
 </t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t xml:space="preserve">244
+          <t xml:space="preserve">892
 </t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t xml:space="preserve">279
-</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">717
+          <t xml:space="preserve">8
 </t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t xml:space="preserve">110
-</t>
-        </is>
-      </c>
-      <c r="AA17" t="n">
-        <v>14</v>
+          <t xml:space="preserve">14
+</t>
+        </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>27</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2656</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">304
-</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">222
-</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">263
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">149
 </t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t xml:space="preserve">82
+          <t xml:space="preserve">196
 </t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t xml:space="preserve">214
-</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">116
-</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">28
+          <t xml:space="preserve">179
 </t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t xml:space="preserve">223
+          <t xml:space="preserve">197
 </t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t xml:space="preserve">220
-</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">263
+          <t xml:space="preserve">194
 </t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t xml:space="preserve">976
-</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">106
+          <t xml:space="preserve">978
 </t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t xml:space="preserve">299
-</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">260
+          <t xml:space="preserve">198
 </t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t xml:space="preserve">311
+          <t xml:space="preserve">271
 </t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t xml:space="preserve">737
+          <t xml:space="preserve">866
 </t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t xml:space="preserve">112
+          <t xml:space="preserve">216
 </t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t xml:space="preserve">243
-</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">229
-</t>
-        </is>
-      </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">271
-</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">290
+          <t xml:space="preserve">117
+</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">88
 </t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="n">
-        <v>13</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3659</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1314
-</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">265
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2095
+</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8 11
 </t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve">99
+          <t xml:space="preserve">1568
 </t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t xml:space="preserve">206
+          <t xml:space="preserve">196
 </t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t xml:space="preserve">25
+          <t xml:space="preserve">08
 </t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t xml:space="preserve">1145
+          <t xml:space="preserve">49
 </t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">216
-</t>
-        </is>
+        <v>91</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t xml:space="preserve">214
+          <t xml:space="preserve">218
 </t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t xml:space="preserve">254
+          <t xml:space="preserve">28211
 </t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t xml:space="preserve">980
+          <t xml:space="preserve">86
 </t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t xml:space="preserve">04
+          <t xml:space="preserve">299
 </t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t xml:space="preserve">307
-</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">248
-</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">275
+          <t xml:space="preserve">126
 </t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t xml:space="preserve">623
+          <t xml:space="preserve">268
 </t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t xml:space="preserve">166
+          <t xml:space="preserve">15
 </t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t xml:space="preserve">1273
-</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1238
+          <t xml:space="preserve">164
 </t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t xml:space="preserve">272
-</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18750
+          <t xml:space="preserve">30 5
 </t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t xml:space="preserve">91
+          <t xml:space="preserve">96
 </t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="n">
-        <v>14</v>
-      </c>
-      <c r="C20" t="n">
-        <v>3408</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1307
-</t>
-        </is>
-      </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve">212
-</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">259
+          <t xml:space="preserve">199
 </t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve">95
+          <t xml:space="preserve">949
 </t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t xml:space="preserve">196
+          <t xml:space="preserve">184
+</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18
 </t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t xml:space="preserve">34
+          <t xml:space="preserve">88
 </t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t xml:space="preserve">816
+          <t xml:space="preserve">286
 </t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t xml:space="preserve">215
-</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">256
+          <t xml:space="preserve">200
 </t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t xml:space="preserve">990
+          <t xml:space="preserve">161
 </t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t xml:space="preserve">102
+          <t xml:space="preserve">04
 </t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t xml:space="preserve">306
+          <t xml:space="preserve">948
 </t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t xml:space="preserve">262
-</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">312
+          <t xml:space="preserve">287
 </t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t xml:space="preserve">712
+          <t xml:space="preserve">944
 </t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t xml:space="preserve">1126
+          <t xml:space="preserve">115
 </t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t xml:space="preserve">278
-</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">246
+          <t xml:space="preserve">9
 </t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t xml:space="preserve">289
-</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">723
+          <t xml:space="preserve">955
 </t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t xml:space="preserve">1184
-</t>
-        </is>
-      </c>
-      <c r="AA20" t="n">
-        <v>149</v>
+          <t xml:space="preserve">13
+</t>
+        </is>
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="n">
-        <v>15</v>
-      </c>
-      <c r="C21" t="n">
-        <v>3993</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14555
+</t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">329
+          <t xml:space="preserve">1188
 </t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve">211
-</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">270
+          <t xml:space="preserve">991
 </t>
         </is>
       </c>
@@ -3158,909 +2285,723 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t xml:space="preserve">198
+          <t xml:space="preserve">90
 </t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t xml:space="preserve">25
-</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">143
+          <t xml:space="preserve">14
 </t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t xml:space="preserve">213
+          <t xml:space="preserve">818
 </t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t xml:space="preserve">210
+          <t xml:space="preserve">208
 </t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t xml:space="preserve">0
+          <t xml:space="preserve">986
 </t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t xml:space="preserve">975
-</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">04
-</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">324
+          <t xml:space="preserve">02
 </t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t xml:space="preserve">259
+          <t xml:space="preserve">1809
 </t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t xml:space="preserve">993
+          <t xml:space="preserve">1712
+</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">716
+</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">86
 </t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t xml:space="preserve">265
-</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">216
-</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">297
+          <t xml:space="preserve">848
 </t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t xml:space="preserve">860
-</t>
-        </is>
-      </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">49
-</t>
-        </is>
-      </c>
-      <c r="AA21" t="n">
-        <v>15</v>
+          <t xml:space="preserve">11187
+</t>
+        </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>101</v>
-      </c>
-      <c r="C22" t="n">
-        <v>17396</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1324
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2211
+</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">308
+</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">108
 </t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve">403
+          <t xml:space="preserve">198
 </t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
+          <t xml:space="preserve">182
+</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28
+</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1094
+</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
           <t xml:space="preserve">1018
 </t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">109
-</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">193
-</t>
-        </is>
-      </c>
-      <c r="K22" t="n">
-        <v>193</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1082
-</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1070
-</t>
-        </is>
-      </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t xml:space="preserve">1288
+          <t xml:space="preserve">186
 </t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t xml:space="preserve">4894
-</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">122
+          <t xml:space="preserve">95
 </t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t xml:space="preserve">1557
+          <t xml:space="preserve">480
 </t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t xml:space="preserve">1281
+          <t xml:space="preserve">241
 </t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t xml:space="preserve">1468
+          <t xml:space="preserve">1968
 </t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t xml:space="preserve">3257
-</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1344
+          <t xml:space="preserve">768
 </t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t xml:space="preserve">1203
-</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1408
+          <t xml:space="preserve">834
+</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">827
 </t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t xml:space="preserve">6
-</t>
-        </is>
-      </c>
-      <c r="AA22" t="n">
-        <v>701</v>
+          <t xml:space="preserve">852
+</t>
+        </is>
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="n">
-        <v>3109</v>
-      </c>
-      <c r="C23" t="n">
-        <v>153479</v>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4
+</t>
+        </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">315
+          <t xml:space="preserve">1
 </t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve">214
+          <t xml:space="preserve">4
 </t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve">265
+          <t xml:space="preserve">112658
 </t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve">101
+          <t xml:space="preserve">129
 </t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t xml:space="preserve">204
+          <t xml:space="preserve">18
 </t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t xml:space="preserve">122
+          <t xml:space="preserve">16
 </t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t xml:space="preserve">39
+          <t xml:space="preserve">88
 </t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t xml:space="preserve">216
+          <t xml:space="preserve">205
 </t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t xml:space="preserve">214
+          <t xml:space="preserve">208
 </t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t xml:space="preserve">254
+          <t xml:space="preserve">4
 </t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t xml:space="preserve">979
+          <t xml:space="preserve">989
 </t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t xml:space="preserve">04
-</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">311
-</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">856
-</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">294
+          <t xml:space="preserve">4
 </t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t xml:space="preserve">651
-</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">159
+          <t xml:space="preserve">8688
 </t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t xml:space="preserve">269
-</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">241
-</t>
-        </is>
-      </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">232
+          <t xml:space="preserve">288
 </t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t xml:space="preserve">798
+          <t xml:space="preserve">4
 </t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t xml:space="preserve">73
-</t>
-        </is>
-      </c>
-      <c r="AA23" t="n">
-        <v>108</v>
+          <t xml:space="preserve">61
+</t>
+        </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>28</v>
-      </c>
-      <c r="B24" t="n">
-        <v>16</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1067</v>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">164
+</t>
+        </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">263
+          <t xml:space="preserve">298
 </t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve">206
+          <t xml:space="preserve">196
 </t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t xml:space="preserve">235
-</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">57
+          <t xml:space="preserve">118
 </t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t xml:space="preserve">202
+          <t xml:space="preserve">182
+</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">84
+</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>198</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">199
+</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">197
+</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">496
 </t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t xml:space="preserve">1970
+          <t xml:space="preserve">06
 </t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t xml:space="preserve">262
+          <t xml:space="preserve">286
 </t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t xml:space="preserve">241
+          <t xml:space="preserve">216
 </t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t xml:space="preserve">287
+          <t xml:space="preserve">4
 </t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t xml:space="preserve">844
-</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1553
-</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">228
+          <t xml:space="preserve">711
 </t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t xml:space="preserve">268
+          <t xml:space="preserve">846
 </t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t xml:space="preserve">877
+          <t xml:space="preserve">925
 </t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t xml:space="preserve">288
-</t>
-        </is>
-      </c>
-      <c r="AA24" t="n">
-        <v>16</v>
+          <t xml:space="preserve">4
+</t>
+        </is>
       </c>
     </row>
     <row r="25">
-      <c r="B25" t="n">
-        <v>17</v>
-      </c>
-      <c r="C25" t="n">
-        <v>2900</v>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">199 7
+</t>
+        </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">251
+          <t xml:space="preserve">206
 </t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve">210
+          <t xml:space="preserve">208
 </t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t xml:space="preserve">231
+          <t xml:space="preserve">118
 </t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t xml:space="preserve">141
+          <t xml:space="preserve">81
 </t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t xml:space="preserve">192
+          <t xml:space="preserve">190
+</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">08
+</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">51
 </t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t xml:space="preserve">207
+          <t xml:space="preserve">209
 </t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t xml:space="preserve">205
+          <t xml:space="preserve">8206
 </t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t xml:space="preserve">1240
+          <t xml:space="preserve">980
 </t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t xml:space="preserve">1000
+          <t xml:space="preserve">4
 </t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">82
 </t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t xml:space="preserve">243
+          <t xml:space="preserve">8226
 </t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t xml:space="preserve">233
+          <t xml:space="preserve">931
 </t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t xml:space="preserve">280
-</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">920
-</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">24
-</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">238
+          <t xml:space="preserve">4
 </t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t xml:space="preserve">228
+          <t xml:space="preserve">249
 </t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t xml:space="preserve">271
+          <t xml:space="preserve">184
 </t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t xml:space="preserve">918
+          <t xml:space="preserve">877
 </t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t xml:space="preserve">64
-</t>
-        </is>
-      </c>
-      <c r="AA25" t="n">
-        <v>11</v>
+          <t xml:space="preserve">28
+</t>
+        </is>
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="n">
-        <v>18</v>
-      </c>
-      <c r="C26" t="n">
-        <v>3220</v>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3997
+</t>
+        </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">12318
-</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">206
-</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">255
+          <t xml:space="preserve">9
 </t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve">99
+          <t xml:space="preserve">106
 </t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t xml:space="preserve">1191
+          <t xml:space="preserve">192
 </t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t xml:space="preserve">19
+          <t xml:space="preserve">98
 </t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t xml:space="preserve">38
+          <t xml:space="preserve">07
 </t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
+          <t xml:space="preserve">1161
+</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1008
+</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">84
+</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">804
+</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
           <t xml:space="preserve">207
 </t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">205
-</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1240
-</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">104
-</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">288
-</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">249
-</t>
-        </is>
-      </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t xml:space="preserve">890
+          <t xml:space="preserve">268
 </t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t xml:space="preserve">732
+          <t xml:space="preserve">929
 </t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t xml:space="preserve">105
+          <t xml:space="preserve">182
 </t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t xml:space="preserve">269
-</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">244
-</t>
-        </is>
-      </c>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">290
-</t>
-        </is>
-      </c>
-      <c r="Y26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">818
-</t>
-        </is>
-      </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">64
-</t>
-        </is>
-      </c>
-      <c r="AA26" t="n">
-        <v>18</v>
+          <t xml:space="preserve">432
+</t>
+        </is>
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="n">
-        <v>19</v>
-      </c>
-      <c r="C27" t="n">
-        <v>2907</v>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2118
+</t>
+        </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">12318
-</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">205
+          <t xml:space="preserve">311
 </t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t xml:space="preserve">261
+          <t xml:space="preserve">299
 </t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t xml:space="preserve">113
+          <t xml:space="preserve">180
 </t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t xml:space="preserve">189
+          <t xml:space="preserve">180
 </t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t xml:space="preserve">22
+          <t xml:space="preserve">08
 </t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t xml:space="preserve">38
+          <t xml:space="preserve">106
 </t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t xml:space="preserve">209
+          <t xml:space="preserve">207
 </t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t xml:space="preserve">206
-</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">241
+          <t xml:space="preserve">281
 </t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t xml:space="preserve">5
+          <t xml:space="preserve">87
 </t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t xml:space="preserve">08
+          <t xml:space="preserve">84
 </t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t xml:space="preserve">312
+          <t xml:space="preserve">954
 </t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t xml:space="preserve">248
+          <t xml:space="preserve">998
 </t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t xml:space="preserve">272
+          <t xml:space="preserve">268
 </t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t xml:space="preserve">602
+          <t xml:space="preserve">828
 </t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t xml:space="preserve">181
-</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">286
-</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">246
+          <t xml:space="preserve">16
 </t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t xml:space="preserve">284
-</t>
-        </is>
-      </c>
-      <c r="Y27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">726
-</t>
-        </is>
-      </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">107
-</t>
-        </is>
-      </c>
-      <c r="AA27" t="n">
-        <v>19</v>
+          <t xml:space="preserve">25 2
+</t>
+        </is>
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="n">
-        <v>20</v>
-      </c>
-      <c r="C28" t="n">
-        <v>2468</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">315
-</t>
-        </is>
-      </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve">205
+          <t xml:space="preserve">191
 </t>
         </is>
       </c>
@@ -4072,1246 +3013,955 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t xml:space="preserve">110
+          <t xml:space="preserve">897
 </t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t xml:space="preserve">1892
+          <t xml:space="preserve">178
 </t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t xml:space="preserve">16
-</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">96
-</t>
-        </is>
-      </c>
-      <c r="K28" t="n">
-        <v>84</v>
+          <t xml:space="preserve">118
+</t>
+        </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t xml:space="preserve">211
-</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">206
-</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">239
+          <t xml:space="preserve">194
 </t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t xml:space="preserve">953
-</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11
+          <t xml:space="preserve">04
 </t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t xml:space="preserve">9253
-</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">236
+          <t xml:space="preserve">249
 </t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t xml:space="preserve">280
+          <t xml:space="preserve">289
 </t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t xml:space="preserve">794
+          <t xml:space="preserve">186
+</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">29
 </t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t xml:space="preserve">224
+          <t xml:space="preserve">188
 </t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t xml:space="preserve">213
+          <t xml:space="preserve">828
 </t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t xml:space="preserve">272
+          <t xml:space="preserve">219
 </t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t xml:space="preserve">908
+          <t xml:space="preserve">95
 </t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t xml:space="preserve">52
-</t>
-        </is>
-      </c>
-      <c r="AA28" t="n">
-        <v>20</v>
+          <t xml:space="preserve">22
+</t>
+        </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>106</v>
-      </c>
-      <c r="C29" t="n">
-        <v>10562</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1452
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10582
 </t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve">1032
+          <t xml:space="preserve">200
 </t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t xml:space="preserve">1242
-</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">420
+          <t xml:space="preserve">258
 </t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t xml:space="preserve">966
+          <t xml:space="preserve">927
 </t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t xml:space="preserve">71
+          <t xml:space="preserve">924
 </t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t xml:space="preserve">1110
-</t>
-        </is>
-      </c>
-      <c r="K29" t="n">
-        <v>388</v>
+          <t xml:space="preserve">99
+</t>
+        </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t xml:space="preserve">1065
+          <t xml:space="preserve">1011
 </t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t xml:space="preserve">1052
-</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1239
+          <t xml:space="preserve">1081
 </t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t xml:space="preserve">4876
+          <t xml:space="preserve">4982
 </t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t xml:space="preserve">128
+          <t xml:space="preserve">04
 </t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t xml:space="preserve">1358
-</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1207
+          <t xml:space="preserve">499
 </t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t xml:space="preserve">1409
+          <t xml:space="preserve">247
 </t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t xml:space="preserve">3968
+          <t xml:space="preserve">984
 </t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t xml:space="preserve">175
+          <t xml:space="preserve">89
 </t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t xml:space="preserve">1261
+          <t xml:space="preserve">1219
 </t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t xml:space="preserve">1159
+          <t xml:space="preserve">1886
 </t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 1
-</t>
-        </is>
-      </c>
-      <c r="Y29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11247
-</t>
-        </is>
-      </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">85
-</t>
-        </is>
-      </c>
-      <c r="AA29" t="n">
-        <v>101</v>
+          <t xml:space="preserve">1392
+</t>
+        </is>
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="n">
-        <v>22</v>
-      </c>
-      <c r="C30" t="n">
-        <v>2133</v>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2116
+</t>
+        </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">292
-</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">196
+          <t xml:space="preserve">299
 </t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t xml:space="preserve">244
+          <t xml:space="preserve">1226
 </t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t xml:space="preserve">96
+          <t xml:space="preserve">110
+</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">185
+</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18
+</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19
 </t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t xml:space="preserve">215
+          <t xml:space="preserve">902
 </t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t xml:space="preserve">214
-</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">964
-</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">990
-</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">106
+          <t xml:space="preserve">188
 </t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t xml:space="preserve">272
+          <t xml:space="preserve">1265
 </t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t xml:space="preserve">241
+          <t xml:space="preserve">827
 </t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t xml:space="preserve">282
+          <t xml:space="preserve">1112
 </t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t xml:space="preserve">794
-</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">188
+          <t xml:space="preserve">864
 </t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t xml:space="preserve">252
-</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">232
+          <t xml:space="preserve">248
 </t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t xml:space="preserve">272
-</t>
-        </is>
-      </c>
-      <c r="Y30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">849
+          <t xml:space="preserve">266
 </t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t xml:space="preserve">52
-</t>
-        </is>
-      </c>
-      <c r="AA30" t="n">
-        <v>1514104</v>
+          <t xml:space="preserve">99
+</t>
+        </is>
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="n">
-        <v>3100</v>
-      </c>
-      <c r="C31" t="n">
-        <v>3116</v>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28131
+</t>
+        </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">290
+          <t xml:space="preserve">1011
 </t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve">206
+          <t xml:space="preserve">199
 </t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t xml:space="preserve">248
+          <t xml:space="preserve">245
 </t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t xml:space="preserve">84
+          <t xml:space="preserve">42
 </t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t xml:space="preserve">193
+          <t xml:space="preserve">182
 </t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t xml:space="preserve">114
-</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">22
-</t>
-        </is>
+          <t xml:space="preserve">924
+</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>66</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t xml:space="preserve">213
-</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">210
-</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8248
+          <t xml:space="preserve">520
 </t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t xml:space="preserve">925
+          <t xml:space="preserve">288
 </t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t xml:space="preserve">02
+          <t xml:space="preserve">62
 </t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t xml:space="preserve">205
+          <t xml:space="preserve">259
 </t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t xml:space="preserve">258
+          <t xml:space="preserve">247
 </t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t xml:space="preserve">302
+          <t xml:space="preserve">069
 </t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t xml:space="preserve">694
+          <t xml:space="preserve">4094
 </t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t xml:space="preserve">133
+          <t xml:space="preserve">68
 </t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t xml:space="preserve">273
-</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">248
+          <t xml:space="preserve">718
 </t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t xml:space="preserve">297
-</t>
-        </is>
-      </c>
-      <c r="Y31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8208
+          <t xml:space="preserve">298
 </t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t xml:space="preserve">65
-</t>
-        </is>
-      </c>
-      <c r="AA31" t="n">
-        <v>21</v>
+          <t xml:space="preserve">10
+</t>
+        </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>27</v>
-      </c>
-      <c r="B32" t="n">
-        <v>22</v>
-      </c>
-      <c r="C32" t="n">
-        <v>3847</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">292
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1819
 </t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve">196
+          <t xml:space="preserve">218
 </t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t xml:space="preserve">244
+          <t xml:space="preserve">299
 </t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t xml:space="preserve">96
+          <t xml:space="preserve">98
 </t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t xml:space="preserve">5
+          <t xml:space="preserve">1198
 </t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t xml:space="preserve">23
+          <t xml:space="preserve">00
 </t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t xml:space="preserve">1201
+          <t xml:space="preserve">207
 </t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t xml:space="preserve">201
+          <t xml:space="preserve">010
 </t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t xml:space="preserve">964
+          <t xml:space="preserve">1112
 </t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t xml:space="preserve">990
+          <t xml:space="preserve">04
 </t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t xml:space="preserve">07
+          <t xml:space="preserve">04
 </t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t xml:space="preserve">311
+          <t xml:space="preserve">278
 </t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t xml:space="preserve">2846
+          <t xml:space="preserve">248
 </t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t xml:space="preserve">8275
+          <t xml:space="preserve">979
 </t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t xml:space="preserve">610
+          <t xml:space="preserve">819
 </t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t xml:space="preserve">115
+          <t xml:space="preserve">128
 </t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
+          <t xml:space="preserve">646
+</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
           <t xml:space="preserve">278
 </t>
         </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">238
-</t>
-        </is>
-      </c>
-      <c r="X32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">283
-</t>
-        </is>
-      </c>
-      <c r="Y32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">794
-</t>
-        </is>
-      </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">93
-</t>
-        </is>
-      </c>
-      <c r="AA32" t="n">
-        <v>22</v>
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="n">
-        <v>28</v>
-      </c>
-      <c r="C33" t="n">
-        <v>3116</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1319
-</t>
-        </is>
-      </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve">214
+          <t xml:space="preserve">197
 </t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t xml:space="preserve">267
+          <t xml:space="preserve">246
 </t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t xml:space="preserve">112
+          <t xml:space="preserve">188
+</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">198
 </t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t xml:space="preserve">24
-</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">35
+          <t xml:space="preserve">18
 </t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>306</v>
+        <v>49</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t xml:space="preserve">218
+          <t xml:space="preserve">208
 </t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t xml:space="preserve">217
-</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2142
+          <t xml:space="preserve">209
 </t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t xml:space="preserve">975
+          <t xml:space="preserve">998
 </t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t xml:space="preserve">02
+          <t xml:space="preserve">84
 </t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t xml:space="preserve">205
+          <t xml:space="preserve">9292
 </t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t xml:space="preserve">258
+          <t xml:space="preserve">0956
 </t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t xml:space="preserve">302
+          <t xml:space="preserve">979
 </t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t xml:space="preserve">694
+          <t xml:space="preserve">684
 </t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t xml:space="preserve">133
+          <t xml:space="preserve">88
 </t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t xml:space="preserve">273
-</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">248
+          <t xml:space="preserve">261
 </t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t xml:space="preserve">297
+          <t xml:space="preserve">278
 </t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t xml:space="preserve">8208
+          <t xml:space="preserve">928
 </t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t xml:space="preserve">65
-</t>
-        </is>
-      </c>
-      <c r="AA33" t="n">
-        <v>23</v>
+          <t xml:space="preserve">81
+</t>
+        </is>
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="n">
-        <v>24</v>
-      </c>
-      <c r="C34" t="n">
-        <v>3534</v>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2265
+</t>
+        </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">15311
+          <t xml:space="preserve">680
 </t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve">1208
+          <t xml:space="preserve">201
 </t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t xml:space="preserve">259
+          <t xml:space="preserve">207
 </t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t xml:space="preserve">103
+          <t xml:space="preserve">89
 </t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t xml:space="preserve">965
-</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">181
+          <t xml:space="preserve">184
+</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19
 </t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t xml:space="preserve">216
+          <t xml:space="preserve">212
 </t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t xml:space="preserve">213
-</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9251
-</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">978
+          <t xml:space="preserve">106
 </t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t xml:space="preserve">07
+          <t xml:space="preserve">02
 </t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t xml:space="preserve">1311
+          <t xml:space="preserve">8020
 </t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t xml:space="preserve">249
+          <t xml:space="preserve">241
 </t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t xml:space="preserve">8275
-</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">613
+          <t xml:space="preserve">298
 </t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t xml:space="preserve">174
-</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">278
-</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">248
+          <t xml:space="preserve">133
 </t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t xml:space="preserve">289
-</t>
-        </is>
-      </c>
-      <c r="Y34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">794
+          <t xml:space="preserve">2418
 </t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t xml:space="preserve">84
-</t>
-        </is>
-      </c>
-      <c r="AA34" t="n">
-        <v>24</v>
+          <t xml:space="preserve">62
+</t>
+        </is>
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="n">
-        <v>25</v>
-      </c>
-      <c r="C35" t="n">
-        <v>4307</v>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1389
+</t>
+        </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">1321
+          <t xml:space="preserve">1460
 </t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve">209
+          <t xml:space="preserve">1005
 </t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t xml:space="preserve">965
+          <t xml:space="preserve">249
 </t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t xml:space="preserve">112
+          <t xml:space="preserve">124
 </t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t xml:space="preserve">193
+          <t xml:space="preserve">09
 </t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t xml:space="preserve">24
-</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">144
+          <t xml:space="preserve">189
 </t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>306</v>
+        <v>64</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t xml:space="preserve">210
-</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">207
-</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2142
+          <t xml:space="preserve">1907
 </t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t xml:space="preserve">975
-</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">06
+          <t xml:space="preserve">988
 </t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t xml:space="preserve">321
+          <t xml:space="preserve">978
 </t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t xml:space="preserve">260
+          <t xml:space="preserve">1215
 </t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t xml:space="preserve">297
+          <t xml:space="preserve">288
 </t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t xml:space="preserve">622
+          <t xml:space="preserve">698
 </t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t xml:space="preserve">180
+          <t xml:space="preserve">88
 </t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t xml:space="preserve">287
+          <t xml:space="preserve">1150
 </t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t xml:space="preserve">246
+          <t xml:space="preserve">1116
 </t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t xml:space="preserve">283
-</t>
-        </is>
-      </c>
-      <c r="Y35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">784
+          <t xml:space="preserve">1208
 </t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="n">
-        <v>108</v>
-      </c>
-      <c r="C36" t="n">
-        <v>16837</v>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11488
+</t>
+        </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">1554
+          <t xml:space="preserve">296
 </t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve">1020
-</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1287
+          <t xml:space="preserve">801
 </t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t xml:space="preserve">534
-</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">965
+          <t xml:space="preserve">15
+</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19
 </t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t xml:space="preserve">181
+          <t xml:space="preserve">22
 </t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>356</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1060
-</t>
-        </is>
+        <v>1916</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t xml:space="preserve">1152
+          <t xml:space="preserve">508
 </t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t xml:space="preserve">192161
+          <t xml:space="preserve">145
 </t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t xml:space="preserve">16927
+          <t xml:space="preserve">998
 </t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t xml:space="preserve">17
+          <t xml:space="preserve">09
 </t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t xml:space="preserve">1537
+          <t xml:space="preserve">935
 </t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t xml:space="preserve">1262
-</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1431
+          <t xml:space="preserve">249
 </t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t xml:space="preserve">2268
+          <t xml:space="preserve">776
 </t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t xml:space="preserve">777
+          <t xml:space="preserve">21
 </t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t xml:space="preserve">1368
+          <t xml:space="preserve">237
 </t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t xml:space="preserve">1216
-</t>
-        </is>
-      </c>
-      <c r="X36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1024
+          <t xml:space="preserve">223
 </t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t xml:space="preserve">784
+          <t xml:space="preserve">892
 </t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t xml:space="preserve">86
-</t>
-        </is>
-      </c>
-      <c r="AA36" t="n">
-        <v>101</v>
+          <t xml:space="preserve">406
+</t>
+        </is>
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="n">
-        <v>26</v>
-      </c>
-      <c r="C37" t="n">
-        <v>3387</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">13118
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2196
 </t>
         </is>
       </c>
@@ -5323,1413 +3973,822 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t xml:space="preserve">257
+          <t xml:space="preserve">1219
 </t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t xml:space="preserve">106
+          <t xml:space="preserve">91
 </t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t xml:space="preserve">193
+          <t xml:space="preserve">209
 </t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t xml:space="preserve">120
-</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">36
-</t>
-        </is>
-      </c>
-      <c r="K37" t="n">
-        <v>6</v>
+          <t xml:space="preserve">21
+</t>
+        </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t xml:space="preserve">212
-</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">210
-</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2168
-</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">985
-</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">103
-</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">307
+          <t xml:space="preserve">218
 </t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t xml:space="preserve">852
+          <t xml:space="preserve">245
 </t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t xml:space="preserve">886
+          <t xml:space="preserve">883
 </t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t xml:space="preserve">650
+          <t xml:space="preserve">928
 </t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t xml:space="preserve">155
+          <t xml:space="preserve">448
 </t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t xml:space="preserve">874
+          <t xml:space="preserve">988
 </t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t xml:space="preserve">243
+          <t xml:space="preserve">1906
 </t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t xml:space="preserve">285
+          <t xml:space="preserve">279
+</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">825
 </t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t xml:space="preserve">1014
-</t>
-        </is>
-      </c>
-      <c r="AA37" t="n">
-        <v>28</v>
+          <t xml:space="preserve">188
+</t>
+        </is>
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="n">
-        <v>28</v>
-      </c>
-      <c r="C38" t="n">
-        <v>3325</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">319
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8
 </t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve">202
+          <t xml:space="preserve">198
 </t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t xml:space="preserve">861
+          <t xml:space="preserve">847
 </t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t xml:space="preserve">117
+          <t xml:space="preserve">96
 </t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t xml:space="preserve">1193
+          <t xml:space="preserve">179
 </t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t xml:space="preserve">117
+          <t xml:space="preserve">19
 </t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t xml:space="preserve">30
+          <t xml:space="preserve">88
 </t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t xml:space="preserve">210
+          <t xml:space="preserve">0816
 </t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t xml:space="preserve">809
-</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">948
+          <t xml:space="preserve">206
 </t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t xml:space="preserve">990
+          <t xml:space="preserve">984
 </t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t xml:space="preserve">02
+          <t xml:space="preserve">08
 </t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t xml:space="preserve">3109
-</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">860
+          <t xml:space="preserve">276
 </t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t xml:space="preserve">898
-</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">592
+          <t xml:space="preserve">228
 </t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t xml:space="preserve">173
+          <t xml:space="preserve">89
 </t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t xml:space="preserve">278
+          <t xml:space="preserve">929
 </t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t xml:space="preserve">238
+          <t xml:space="preserve">218
 </t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t xml:space="preserve">269
-</t>
-        </is>
-      </c>
-      <c r="Y38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">882
+          <t xml:space="preserve">254
 </t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t xml:space="preserve">86
-</t>
-        </is>
-      </c>
-      <c r="AA38" t="n">
-        <v>26</v>
+          <t xml:space="preserve">89
+</t>
+        </is>
       </c>
     </row>
     <row r="39">
-      <c r="B39" t="n">
-        <v>28</v>
-      </c>
-      <c r="C39" t="n">
-        <v>12656</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1316
-</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">188
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8
 </t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t xml:space="preserve">259
+          <t xml:space="preserve">901
 </t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t xml:space="preserve">141
+          <t xml:space="preserve">98
 </t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t xml:space="preserve">182
+          <t xml:space="preserve">1479
 </t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t xml:space="preserve">1127
-</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">150
+          <t xml:space="preserve">14
 </t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t xml:space="preserve">1198
+          <t xml:space="preserve">904
 </t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t xml:space="preserve">196
+          <t xml:space="preserve">098
 </t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t xml:space="preserve">286
+          <t xml:space="preserve">8888
 </t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t xml:space="preserve">978
-</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">05
+          <t xml:space="preserve">1080
 </t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t xml:space="preserve">823
-</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">260
+          <t xml:space="preserve">161
 </t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t xml:space="preserve">249
+          <t xml:space="preserve">179
 </t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t xml:space="preserve">923
+          <t xml:space="preserve">778
 </t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t xml:space="preserve">1120
+          <t xml:space="preserve">117
 </t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t xml:space="preserve">10986
+          <t xml:space="preserve">244
 </t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t xml:space="preserve">234
+          <t xml:space="preserve">8227
 </t>
         </is>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t xml:space="preserve">280
+          <t xml:space="preserve">862
 </t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t xml:space="preserve">905
+          <t xml:space="preserve">896
 </t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t xml:space="preserve">829
-</t>
-        </is>
-      </c>
-      <c r="AA39" t="n">
-        <v>28</v>
+          <t xml:space="preserve">62
+</t>
+        </is>
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="n">
-        <v>29</v>
-      </c>
-      <c r="C40" t="n">
-        <v>2363</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">203
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2739
 </t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t xml:space="preserve">259
+          <t xml:space="preserve">11181
 </t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t xml:space="preserve">1113
+          <t xml:space="preserve">81
 </t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t xml:space="preserve">1200
+          <t xml:space="preserve">12806
 </t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t xml:space="preserve">1107
-</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">15
-</t>
-        </is>
+          <t xml:space="preserve">24
+</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>908</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t xml:space="preserve">199
-</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">198
+          <t xml:space="preserve">197
 </t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t xml:space="preserve">8960
-</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">102
+          <t xml:space="preserve">98109
+</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">964
+</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4994
 </t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t xml:space="preserve">293
+          <t xml:space="preserve">299
 </t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t xml:space="preserve">977
+          <t xml:space="preserve">699
 </t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t xml:space="preserve">07
-</t>
-        </is>
-      </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">85
+          <t xml:space="preserve">142
 </t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t xml:space="preserve">8235
+          <t xml:space="preserve">288
 </t>
         </is>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t xml:space="preserve">282
+          <t xml:space="preserve">960
 </t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t xml:space="preserve">906
+          <t xml:space="preserve">272
 </t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t xml:space="preserve">29
-</t>
-        </is>
-      </c>
-      <c r="AA40" t="n">
-        <v>5</v>
+          <t xml:space="preserve">186
+</t>
+        </is>
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="n">
-        <v>30</v>
-      </c>
-      <c r="C41" t="n">
-        <v>3722</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">300
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2238
 </t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve">213
+          <t xml:space="preserve">206
 </t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t xml:space="preserve">857
+          <t xml:space="preserve">901
 </t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t xml:space="preserve">87
+          <t xml:space="preserve">104
 </t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t xml:space="preserve">1198
+          <t xml:space="preserve">180
 </t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t xml:space="preserve">120
-</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">132
-</t>
-        </is>
+          <t xml:space="preserve">21
+</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>117</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t xml:space="preserve">219
+          <t xml:space="preserve">9289
 </t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t xml:space="preserve">215
-</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">256
+          <t xml:space="preserve">019
 </t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t xml:space="preserve">990
-</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">02
-</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">291
-</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">255
+          <t xml:space="preserve">1108
 </t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t xml:space="preserve">804
+          <t xml:space="preserve">968
 </t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t xml:space="preserve">756
+          <t xml:space="preserve">18846
 </t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t xml:space="preserve">198
-</t>
-        </is>
-      </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">878
+          <t xml:space="preserve">110
 </t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t xml:space="preserve">247
-</t>
-        </is>
-      </c>
-      <c r="X41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">828
-</t>
-        </is>
-      </c>
-      <c r="Y41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">280
+          <t xml:space="preserve">288
 </t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t xml:space="preserve">982
-</t>
-        </is>
-      </c>
-      <c r="AA41" t="n">
-        <v>30</v>
+          <t xml:space="preserve">186
+</t>
+        </is>
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="n">
-        <v>81</v>
-      </c>
-      <c r="C42" t="n">
-        <v>3659</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1396
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28911
 </t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t xml:space="preserve">213
+          <t xml:space="preserve">1804
 </t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t xml:space="preserve">269
+          <t xml:space="preserve">1248
 </t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t xml:space="preserve">113
-</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1194
+          <t xml:space="preserve">81
 </t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t xml:space="preserve">19
-</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1036
+          <t xml:space="preserve">18
 </t>
         </is>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t xml:space="preserve">1223
+          <t xml:space="preserve">2913
 </t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t xml:space="preserve">823
-</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">869
+          <t xml:space="preserve">019
 </t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t xml:space="preserve">1000
-</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">21948
 </t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t xml:space="preserve">326
+          <t xml:space="preserve">809
 </t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t xml:space="preserve">264
+          <t xml:space="preserve">1221
 </t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t xml:space="preserve">3014
+          <t xml:space="preserve">1960
 </t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t xml:space="preserve">620
+          <t xml:space="preserve">738
 </t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t xml:space="preserve">186
-</t>
-        </is>
-      </c>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1285
-</t>
-        </is>
-      </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">263
+          <t xml:space="preserve">88
 </t>
         </is>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t xml:space="preserve">828
-</t>
-        </is>
-      </c>
-      <c r="Y42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">844
-</t>
-        </is>
-      </c>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">60
-</t>
-        </is>
-      </c>
-      <c r="AA42" t="n">
-        <v>31</v>
+          <t xml:space="preserve">1145
+</t>
+        </is>
       </c>
     </row>
     <row r="43">
-      <c r="B43" t="n">
-        <v>81</v>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2957
+</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">299
+</t>
+        </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t xml:space="preserve">1816
+          <t xml:space="preserve">201
 </t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t xml:space="preserve">2161
+          <t xml:space="preserve">267
 </t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t xml:space="preserve">1691
+          <t xml:space="preserve">186
 </t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t xml:space="preserve">1142
-</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">102
-</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">184
-</t>
-        </is>
-      </c>
-      <c r="K43" t="n">
-        <v>783</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1859
+          <t xml:space="preserve">197
+</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">240
 </t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t xml:space="preserve">5888
+          <t xml:space="preserve">989
 </t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t xml:space="preserve">1643
+          <t xml:space="preserve">02
 </t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t xml:space="preserve">1728
+          <t xml:space="preserve">1464
+</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">844
+</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">176
 </t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t xml:space="preserve">122500
+          <t xml:space="preserve">766
 </t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t xml:space="preserve">114
+          <t xml:space="preserve">1757
 </t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t xml:space="preserve">263
+          <t xml:space="preserve">861
 </t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t xml:space="preserve">241
+          <t xml:space="preserve">818
 </t>
         </is>
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t xml:space="preserve">287
+          <t xml:space="preserve">3269
 </t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t xml:space="preserve">5037
+          <t xml:space="preserve">842
 </t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t xml:space="preserve">3640
-</t>
-        </is>
-      </c>
-      <c r="AA43" t="n">
-        <v>1018</v>
+          <t xml:space="preserve">52
+</t>
+        </is>
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="n">
-        <v>31028</v>
-      </c>
-      <c r="C44" t="n">
-        <v>2376</v>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11
+</t>
+        </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">1317
-</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">202
+          <t xml:space="preserve">4
 </t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t xml:space="preserve">860
+          <t xml:space="preserve">258
 </t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t xml:space="preserve">115
-</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">191
+          <t xml:space="preserve">401
 </t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t xml:space="preserve">117
+          <t xml:space="preserve">112
 </t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t xml:space="preserve">31
+          <t xml:space="preserve">87
 </t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t xml:space="preserve">211
+          <t xml:space="preserve">206
 </t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t xml:space="preserve">2010
-</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">248
-</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">990
-</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">102
+          <t xml:space="preserve">9005
 </t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t xml:space="preserve">288
-</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">218
-</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">290
+          <t xml:space="preserve">891
 </t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t xml:space="preserve">750
+          <t xml:space="preserve">632
 </t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t xml:space="preserve">114
-</t>
-        </is>
-      </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">263
-</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">241
-</t>
-        </is>
-      </c>
-      <c r="X44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">287
-</t>
-        </is>
-      </c>
-      <c r="Y44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">839
-</t>
-        </is>
-      </c>
-      <c r="Z44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">67
-</t>
-        </is>
-      </c>
-      <c r="AA44" t="n">
-        <v>1107</v>
+          <t xml:space="preserve">60924
+</t>
+        </is>
       </c>
     </row>
     <row r="45">
-      <c r="C45" t="n">
-        <v>99904</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9214
-</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6363
-</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8039
-</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3351
-</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5982
-</t>
-        </is>
-      </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t xml:space="preserve">1663
-</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6524
-</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">114
-</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">22679
+          <t xml:space="preserve">14
 </t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t xml:space="preserve">91681
+          <t xml:space="preserve">689
 </t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t xml:space="preserve">2238
-</t>
-        </is>
-      </c>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">21982
+          <t xml:space="preserve">127
+</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">518
 </t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="n">
-        <v>1108</v>
-      </c>
-      <c r="C46" t="n">
-        <v>99904</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9214
-</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6363
-</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8039
-</t>
-        </is>
-      </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t xml:space="preserve">3351
-</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5982
+          <t xml:space="preserve">91
 </t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t xml:space="preserve">1663
-</t>
-        </is>
-      </c>
-      <c r="K46" t="n">
-        <v>4</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6580
-</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6524
-</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">248
-</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">983
-</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">114
-</t>
-        </is>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">296
-</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">22679
-</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">283
-</t>
-        </is>
-      </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">91681
-</t>
-        </is>
-      </c>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2238
-</t>
-        </is>
-      </c>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">265
-</t>
-        </is>
-      </c>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">239
-</t>
-        </is>
-      </c>
-      <c r="X46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">280
-</t>
-        </is>
-      </c>
-      <c r="Z46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8
-</t>
-        </is>
-      </c>
-      <c r="AA46" t="n">
-        <v>1108</v>
+          <t xml:space="preserve">116
+</t>
+        </is>
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="n">
-        <v>1108</v>
-      </c>
-      <c r="C47" t="n">
-        <v>3191</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1313
-</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">205
-</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">259
-</t>
-        </is>
-      </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t xml:space="preserve">1108
-</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">193
-</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">121
-</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">37
-</t>
-        </is>
-      </c>
-      <c r="K47" t="n">
-        <v>4</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2188
-</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8110
-</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">248
-</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">983
-</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">04
-</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">296
-</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">228
-</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">283
-</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">696
-</t>
-        </is>
-      </c>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">137
-</t>
-        </is>
-      </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">265
-</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">239
+          <t xml:space="preserve">186
 </t>
         </is>
       </c>

--- a/src/output/original_transcribed_data.xlsx
+++ b/src/output/original_transcribed_data.xlsx
@@ -561,1113 +561,1155 @@
       </c>
     </row>
     <row r="3">
+      <c r="C3" t="n">
+        <v>328</v>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">196
+          <t xml:space="preserve">826
 </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">808
+          <t xml:space="preserve">188
 </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">249
+          <t xml:space="preserve">257
 </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve">94
+          <t xml:space="preserve">238
 </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve">196
+          <t xml:space="preserve">174
 </t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t xml:space="preserve">18
+          <t xml:space="preserve">15
+</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">80
 </t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t xml:space="preserve">256
-</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">806
-</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8211
+          <t xml:space="preserve">193
 </t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t xml:space="preserve">88
+          <t xml:space="preserve">2
 </t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t xml:space="preserve">991
+          <t xml:space="preserve">02
 </t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t xml:space="preserve">248
+          <t xml:space="preserve">4
+</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">206
 </t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t xml:space="preserve">886
+          <t xml:space="preserve">1241
 </t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t xml:space="preserve">116
-</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">871
+          <t xml:space="preserve">1
 </t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t xml:space="preserve">289
-</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">277
-</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">775
+          <t xml:space="preserve">81
 </t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t xml:space="preserve">81
+          <t xml:space="preserve">145
 </t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3220
-</t>
-        </is>
+      <c r="C4" t="n">
+        <v>3220</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">229
+          <t xml:space="preserve">289
 </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">198
+          <t xml:space="preserve">1791
 </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">210
+          <t xml:space="preserve">240
 </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">31
+          <t xml:space="preserve">190
 </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t xml:space="preserve">189
+          <t xml:space="preserve">178
 </t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t xml:space="preserve">091
+          <t xml:space="preserve">13
 </t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t xml:space="preserve">819
-</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">208
-</t>
-        </is>
+          <t xml:space="preserve">24
+</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t xml:space="preserve">18019
+          <t xml:space="preserve">8029595597
 </t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t xml:space="preserve">86
+          <t xml:space="preserve">990
 </t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t xml:space="preserve">216
+          <t xml:space="preserve">1809
+</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">209
 </t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t xml:space="preserve">710
+          <t xml:space="preserve">1989
+</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1970
 </t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t xml:space="preserve">11
-</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">289
-</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">248
-</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">922
+          <t xml:space="preserve">06
+</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1804
+</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8
 </t>
         </is>
       </c>
     </row>
     <row r="5">
+      <c r="C5" t="n">
+        <v>172</v>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">017
-</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">201
+          <t xml:space="preserve">262
 </t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve">139
+          <t xml:space="preserve">160
 </t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t xml:space="preserve">170
+          <t xml:space="preserve">199
+</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">110
 </t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t xml:space="preserve">119
-</t>
-        </is>
+          <t xml:space="preserve">922
+</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>140</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t xml:space="preserve">186
+          <t xml:space="preserve">210
 </t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t xml:space="preserve">11811
+          <t xml:space="preserve">9207
 </t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t xml:space="preserve">990
+          <t xml:space="preserve">212
 </t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t xml:space="preserve">02
+          <t xml:space="preserve">973
 </t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t xml:space="preserve">8187
-</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2117
+          <t xml:space="preserve">06
+</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">287
+</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1269
+</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">731
 </t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t xml:space="preserve">268
+          <t xml:space="preserve">106
 </t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t xml:space="preserve">280
+          <t xml:space="preserve">261
 </t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t xml:space="preserve">288
+          <t xml:space="preserve">8
 </t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t xml:space="preserve">762
+          <t xml:space="preserve">9801
+</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">890
+</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="C6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11646
+      <c r="C6" t="n">
+        <v>30973</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">307
+</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8211
 </t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve">819
-</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">16
+          <t xml:space="preserve">189
+</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">170
 </t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t xml:space="preserve">21
-</t>
-        </is>
+          <t xml:space="preserve">1306
+</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t xml:space="preserve">11216
+          <t xml:space="preserve">1810
+</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">195
 </t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve">984
-</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">28
+          <t xml:space="preserve">2
 </t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t xml:space="preserve">195
+          <t xml:space="preserve">80
 </t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t xml:space="preserve">246
+          <t xml:space="preserve">868
 </t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t xml:space="preserve">107
+          <t xml:space="preserve">258
 </t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t xml:space="preserve">108
+          <t xml:space="preserve">8027
 </t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t xml:space="preserve">137
+          <t xml:space="preserve">748
 </t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t xml:space="preserve">229
+          <t xml:space="preserve">86
 </t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t xml:space="preserve">246
+          <t xml:space="preserve">01455
+</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">191
 </t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t xml:space="preserve">162
-</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">88
+          <t xml:space="preserve">1280
+</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1
 </t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="C7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3234
-</t>
-        </is>
+      <c r="C7" t="n">
+        <v>197104</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">809
-</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">196
+          <t xml:space="preserve">335
 </t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">187
+          <t xml:space="preserve">149
 </t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve">178
+          <t xml:space="preserve">168
 </t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t xml:space="preserve">28
-</t>
-        </is>
+          <t xml:space="preserve">155
+</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">58
+</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>6</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t xml:space="preserve">198
-</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">999
+          <t xml:space="preserve">195
+</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2972
 </t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t xml:space="preserve">881
+          <t xml:space="preserve">00
+</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">504
+</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1262
 </t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t xml:space="preserve">810
+          <t xml:space="preserve">2906
 </t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t xml:space="preserve">126
+          <t xml:space="preserve">128
 </t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t xml:space="preserve">269
+          <t xml:space="preserve">961
+</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1238
+</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12610
 </t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t xml:space="preserve">88
+          <t xml:space="preserve">1612
+</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18
 </t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="C8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2626
-</t>
-        </is>
+      <c r="C8" t="n">
+        <v>16608</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">995
+          <t xml:space="preserve">199
+</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">947
 </t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve">448
-</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">897
-</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">206
-</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1400
-</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1352
+          <t xml:space="preserve">77
+</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">882
+</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8685
+</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">649192
+</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3935
+</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">574
 </t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t xml:space="preserve">842
-</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">988
-</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">19
+          <t xml:space="preserve">300
+</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12409
+</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">21
 </t>
         </is>
       </c>
     </row>
     <row r="9">
+      <c r="C9" t="n">
+        <v>324</v>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">288
-</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">198
-</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">248
+          <t xml:space="preserve">118
 </t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve">912
+          <t xml:space="preserve">185
 </t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t xml:space="preserve">189
+          <t xml:space="preserve">17
+</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19
 </t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t xml:space="preserve">162
-</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2189
+          <t xml:space="preserve">95
 </t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t xml:space="preserve">08
+          <t xml:space="preserve">999
 </t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">02
 </t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t xml:space="preserve">299
-</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">278
+          <t xml:space="preserve">139 7
+</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">240
 </t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t xml:space="preserve">718
+          <t xml:space="preserve">744
 </t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t xml:space="preserve">119
+          <t xml:space="preserve">109
 </t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t xml:space="preserve">1278
-</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1160
-</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1301
+          <t xml:space="preserve">246
 </t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t xml:space="preserve">1142
+          <t xml:space="preserve">8283
 </t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t xml:space="preserve">60
+          <t xml:space="preserve">18
 </t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="C10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2719
-</t>
-        </is>
+      <c r="C10" t="n">
+        <v>8598</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">182
+          <t xml:space="preserve">9216
 </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">191
+          <t xml:space="preserve">8118
 </t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">1849
-</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">90
+          <t xml:space="preserve">269
 </t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t xml:space="preserve">1176
-</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">17
-</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">46
-</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">196
-</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">981
-</t>
-        </is>
+          <t xml:space="preserve">14
+</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>200</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t xml:space="preserve">116562
+          <t xml:space="preserve">85951
 </t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t xml:space="preserve">298
-</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">964
-</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">298
-</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">296
-</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">292
-</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">27
-</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">84
+          <t xml:space="preserve">128
+</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">279
+</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11704
 </t>
         </is>
       </c>
     </row>
     <row r="11">
+      <c r="C11" t="n">
+        <v>3408</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">298
+</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2188
+</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">268
-</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">284
-</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">24
+          <t xml:space="preserve">980
 </t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t xml:space="preserve">46
+          <t xml:space="preserve">21
 </t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t xml:space="preserve">212
+          <t xml:space="preserve">18219
 </t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t xml:space="preserve">210
+          <t xml:space="preserve">1200
 </t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t xml:space="preserve">218
+          <t xml:space="preserve">28118
 </t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t xml:space="preserve">04
+          <t xml:space="preserve">968
+</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">08
 </t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
+          <t xml:space="preserve">396
+</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">940
+</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">276
+</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">745
+</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">99
+</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">294
+</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1284
+</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1689
+</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8111
+</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
           <t xml:space="preserve">4
-</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">931
-</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">271
-</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">226
-</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">883
-</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">298
-</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">828
 </t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="C12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2486
-</t>
-        </is>
+      <c r="C12" t="n">
+        <v>13220</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">908
-</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">199
+          <t xml:space="preserve">280
 </t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">261
-</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">118
+          <t xml:space="preserve">241
 </t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t xml:space="preserve">26
+          <t xml:space="preserve">184
 </t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t xml:space="preserve">184
+          <t xml:space="preserve">16
 </t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t xml:space="preserve">28
-</t>
-        </is>
+          <t xml:space="preserve">30
+</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>102</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t xml:space="preserve">2068
+          <t xml:space="preserve">208
 </t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t xml:space="preserve">197
+          <t xml:space="preserve">202
+</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1161
+</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">999
 </t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t xml:space="preserve">826
+          <t xml:space="preserve">0112
 </t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t xml:space="preserve">200
+          <t xml:space="preserve">276
 </t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t xml:space="preserve">299
-</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1088
+          <t xml:space="preserve">851
 </t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t xml:space="preserve">06
+          <t xml:space="preserve">108
 </t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t xml:space="preserve">1275
+          <t xml:space="preserve">242
 </t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t xml:space="preserve">948
+          <t xml:space="preserve">236
+</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">275
+</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8118
+</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="C13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2486
-</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2869
+      <c r="C13" t="n">
+        <v>3157</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">339
+</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1288
 </t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve">116
+          <t xml:space="preserve">2814
 </t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t xml:space="preserve">21
+          <t xml:space="preserve">1
 </t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t xml:space="preserve">18
+          <t xml:space="preserve">238
 </t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t xml:space="preserve">212
-</t>
-        </is>
+          <t xml:space="preserve">812
+</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>114</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t xml:space="preserve">199
+          <t xml:space="preserve">294
 </t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t xml:space="preserve">208
+          <t xml:space="preserve">210
+</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">882
 </t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t xml:space="preserve">04
+          <t xml:space="preserve">946
 </t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t xml:space="preserve">080
+          <t xml:space="preserve">02
 </t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t xml:space="preserve">968
+          <t xml:space="preserve">286
 </t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t xml:space="preserve">846
+          <t xml:space="preserve">041
 </t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t xml:space="preserve">277
+          <t xml:space="preserve">284
 </t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t xml:space="preserve">1569
+          <t xml:space="preserve">786
 </t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t xml:space="preserve">211
+          <t xml:space="preserve">187
 </t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t xml:space="preserve">267
-</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">984
-</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">63
+          <t xml:space="preserve">262
+</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16
 </t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="C14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3701
-</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">189
-</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">89
-</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">41
-</t>
-        </is>
+      <c r="C14" t="n">
+        <v>4641</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1208
+</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">164
+</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">117156
+</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>9</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1675,3120 +1717,3420 @@
 </t>
         </is>
       </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">187
+</t>
+        </is>
+      </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t xml:space="preserve">86
+          <t xml:space="preserve">1429
+</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">289
 </t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t xml:space="preserve">276
+          <t xml:space="preserve">1814
 </t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t xml:space="preserve">687
-</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">142
+          <t xml:space="preserve">6811
 </t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t xml:space="preserve">876
+          <t xml:space="preserve">1244
 </t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t xml:space="preserve">244
+          <t xml:space="preserve">821
+</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">867
+</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1606
 </t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="C15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3688
+      <c r="C15" t="n">
+        <v>11119</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">309
+</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">200
 </t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve">1278
+          <t xml:space="preserve">258
 </t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve">127
+          <t xml:space="preserve">1185
 </t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t xml:space="preserve">101
-</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">188
-</t>
-        </is>
-      </c>
-      <c r="K15" t="n">
-        <v>425</v>
+          <t xml:space="preserve">187
+</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">09
+</t>
+        </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t xml:space="preserve">1029
-</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10
+          <t xml:space="preserve">1817
 </t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t xml:space="preserve">298
-</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1204
-</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1109
-</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8458
+          <t xml:space="preserve">80
+</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">39
+</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">182511
 </t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t xml:space="preserve">186
-</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">238
-</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">12 228
+          <t xml:space="preserve">2510
 </t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t xml:space="preserve">252
+          <t xml:space="preserve">4
 </t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="C16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">17648
-</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">312
-</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">199
-</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">296
-</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">118
-</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">28
-</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18
-</t>
-        </is>
-      </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t xml:space="preserve">205
-</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">188
-</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">04
-</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">898
+          <t xml:space="preserve">182
+</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14991
 </t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t xml:space="preserve">241
+          <t xml:space="preserve">246
 </t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t xml:space="preserve">17
-</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">892
+          <t xml:space="preserve">877
+</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">147
 </t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t xml:space="preserve">1296
+          <t xml:space="preserve">1243
 </t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t xml:space="preserve">1189
+          <t xml:space="preserve">228
+</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">260
+</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">827
+</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">87
 </t>
         </is>
       </c>
     </row>
     <row r="17">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2
+</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve">188
+          <t xml:space="preserve">1198
 </t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve">258
+          <t xml:space="preserve">267
 </t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve">916
+          <t xml:space="preserve">1213
+</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1216
 </t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t xml:space="preserve">37
+          <t xml:space="preserve">816
+</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>88</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8
 </t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t xml:space="preserve">191
+          <t xml:space="preserve">194
+</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">797
+</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1002
+</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10
 </t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t xml:space="preserve">818
-</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">14
-</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">21 02
+          <t xml:space="preserve">299
 </t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t xml:space="preserve">219
+          <t xml:space="preserve">249
 </t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t xml:space="preserve">892
+          <t xml:space="preserve">239
 </t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t xml:space="preserve">8
+          <t xml:space="preserve">278
+</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1762
 </t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t xml:space="preserve">14
+          <t xml:space="preserve">18
 </t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="C18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">149
-</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">196
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0827
+</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">108
 </t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t xml:space="preserve">179
-</t>
-        </is>
-      </c>
-      <c r="K18" t="n">
-        <v>88</v>
+          <t xml:space="preserve">194
+</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1006
+</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">006
+</t>
+        </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t xml:space="preserve">197
+          <t xml:space="preserve">901
 </t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t xml:space="preserve">194
+          <t xml:space="preserve">9085
+</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8
 </t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t xml:space="preserve">978
+          <t xml:space="preserve">1970
+</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1187
 </t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t xml:space="preserve">198
+          <t xml:space="preserve">239
+</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1884
 </t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t xml:space="preserve">271
+          <t xml:space="preserve">299
 </t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t xml:space="preserve">866
+          <t xml:space="preserve">885
 </t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t xml:space="preserve">216
+          <t xml:space="preserve">817
 </t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t xml:space="preserve">117
+          <t xml:space="preserve">1812
+</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2308
+</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">915
 </t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t xml:space="preserve">88
+          <t xml:space="preserve">8
 </t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="C19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2095
-</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8 11
+      <c r="F19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">284
 </t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve">1568
+          <t xml:space="preserve">1185
 </t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t xml:space="preserve">196
+          <t xml:space="preserve">119
 </t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t xml:space="preserve">08
+          <t xml:space="preserve">11
 </t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t xml:space="preserve">49
-</t>
-        </is>
-      </c>
-      <c r="K19" t="n">
-        <v>91</v>
+          <t xml:space="preserve">87
+</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">199
+</t>
+        </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t xml:space="preserve">218
+          <t xml:space="preserve">184
 </t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t xml:space="preserve">28211
+          <t xml:space="preserve">2990
 </t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t xml:space="preserve">86
+          <t xml:space="preserve">991
 </t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t xml:space="preserve">299
+          <t xml:space="preserve">80
 </t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t xml:space="preserve">126
+          <t xml:space="preserve">248
+</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">194
+</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">275
 </t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t xml:space="preserve">268
+          <t xml:space="preserve">6795
 </t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t xml:space="preserve">15
+          <t xml:space="preserve">134
 </t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t xml:space="preserve">164
+          <t xml:space="preserve">262
+</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">88089
 </t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t xml:space="preserve">30 5
+          <t xml:space="preserve">17
+</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">721
 </t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t xml:space="preserve">96
+          <t xml:space="preserve">12
 </t>
         </is>
       </c>
     </row>
     <row r="20">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">313
+</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve">199
+          <t xml:space="preserve">1189
+</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">231
 </t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve">949
+          <t xml:space="preserve">1893
 </t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t xml:space="preserve">184
+          <t xml:space="preserve">1721
 </t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t xml:space="preserve">18
+          <t xml:space="preserve">125
 </t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t xml:space="preserve">88
-</t>
-        </is>
-      </c>
-      <c r="K20" t="n">
-        <v>44</v>
+          <t xml:space="preserve">1
+</t>
+        </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t xml:space="preserve">286
+          <t xml:space="preserve">21029
 </t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t xml:space="preserve">200
+          <t xml:space="preserve">196
+</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2990
 </t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t xml:space="preserve">161
+          <t xml:space="preserve">999
 </t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t xml:space="preserve">04
+          <t xml:space="preserve">102
 </t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t xml:space="preserve">948
+          <t xml:space="preserve">298
 </t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t xml:space="preserve">287
+          <t xml:space="preserve">6
+</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">601
 </t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t xml:space="preserve">944
+          <t xml:space="preserve">1634
 </t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t xml:space="preserve">115
+          <t xml:space="preserve">164
 </t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t xml:space="preserve">9
+          <t xml:space="preserve">21
+</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">046
 </t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t xml:space="preserve">955
+          <t xml:space="preserve">984
+</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1760
 </t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t xml:space="preserve">13
+          <t xml:space="preserve">7
 </t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="C21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">14555
-</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1188
-</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">991
-</t>
-        </is>
+      <c r="C21" t="n">
+        <v>17418</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve">118
+          <t xml:space="preserve">69
 </t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t xml:space="preserve">90
-</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">14
+          <t xml:space="preserve">180
+</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">143
 </t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t xml:space="preserve">818
+          <t xml:space="preserve">185
 </t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t xml:space="preserve">208
+          <t xml:space="preserve">209
 </t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t xml:space="preserve">986
-</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">02
+          <t xml:space="preserve">2
+</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">102
+</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3141
 </t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t xml:space="preserve">1809
+          <t xml:space="preserve">92593
 </t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t xml:space="preserve">1712
+          <t xml:space="preserve">589
 </t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t xml:space="preserve">716
+          <t xml:space="preserve">279
 </t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t xml:space="preserve">86
+          <t xml:space="preserve">36
 </t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t xml:space="preserve">848
-</t>
-        </is>
-      </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11187
+          <t xml:space="preserve">6
+</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 8
 </t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="C22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2211
-</t>
-        </is>
+      <c r="C22" t="n">
+        <v>248</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">308
+          <t xml:space="preserve">116
 </t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve">108
-</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
+          <t xml:space="preserve">1191
+</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">247
+</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16
+</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24
+</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">197
+</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t xml:space="preserve">198
 </t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">182
-</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">28
-</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1094
-</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1018
-</t>
-        </is>
-      </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t xml:space="preserve">186
-</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">95
+          <t xml:space="preserve">7
+</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">102
 </t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t xml:space="preserve">480
+          <t xml:space="preserve">2942
 </t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t xml:space="preserve">241
-</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1968
+          <t xml:space="preserve">20811
 </t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t xml:space="preserve">768
+          <t xml:space="preserve">3482
+</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">664
+</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">278
 </t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t xml:space="preserve">834
+          <t xml:space="preserve">1116
 </t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t xml:space="preserve">827
+          <t xml:space="preserve">4141
 </t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t xml:space="preserve">852
+          <t xml:space="preserve">116
 </t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="C23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4
-</t>
-        </is>
+      <c r="C23" t="n">
+        <v>3011</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">1
+          <t xml:space="preserve">304
 </t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">191
 </t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve">112658
-</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">129
-</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18
+          <t xml:space="preserve">250
 </t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t xml:space="preserve">16
+          <t xml:space="preserve">108
 </t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t xml:space="preserve">88
+          <t xml:space="preserve">126
 </t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t xml:space="preserve">205
+          <t xml:space="preserve">210
 </t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t xml:space="preserve">208
+          <t xml:space="preserve">2
 </t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
-</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">989
+          <t xml:space="preserve">94
 </t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">02
+</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1412
+</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1175
+</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">261
 </t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t xml:space="preserve">8688
+          <t xml:space="preserve">636
+</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">133
 </t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t xml:space="preserve">288
+          <t xml:space="preserve">202
+</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">223
+</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">256
 </t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">829
 </t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t xml:space="preserve">61
+          <t xml:space="preserve">28
 </t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="C24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">164
-</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">298
-</t>
-        </is>
-      </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve">196
+          <t xml:space="preserve">1189
 </t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t xml:space="preserve">118
+          <t xml:space="preserve">257
+</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11172
 </t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t xml:space="preserve">182
-</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">84
-</t>
-        </is>
-      </c>
-      <c r="K24" t="n">
-        <v>198</v>
+          <t xml:space="preserve">176
+</t>
+        </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t xml:space="preserve">199
+          <t xml:space="preserve">994
 </t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t xml:space="preserve">197
+          <t xml:space="preserve">195
 </t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t xml:space="preserve">496
+          <t xml:space="preserve">1988
 </t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t xml:space="preserve">06
+          <t xml:space="preserve">4210
+</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">03
 </t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t xml:space="preserve">286
+          <t xml:space="preserve">1282
 </t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t xml:space="preserve">216
+          <t xml:space="preserve">235
 </t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">192667
 </t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t xml:space="preserve">711
-</t>
-        </is>
-      </c>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">846
+          <t xml:space="preserve">616
+</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">166
 </t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t xml:space="preserve">925
+          <t xml:space="preserve">802
 </t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="C25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">199 7
-</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">206
-</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">208
-</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">118
-</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">81
-</t>
-        </is>
+      <c r="C25" t="n">
+        <v>14519</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t xml:space="preserve">190
-</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">08
+          <t xml:space="preserve">15609
 </t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t xml:space="preserve">51
-</t>
-        </is>
-      </c>
-      <c r="K25" t="n">
-        <v>6</v>
+          <t xml:space="preserve">932
+</t>
+        </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t xml:space="preserve">209
+          <t xml:space="preserve">199
 </t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t xml:space="preserve">8206
-</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">980
+          <t xml:space="preserve">114
 </t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
+          <t xml:space="preserve">990
+</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">03
+</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
           <t xml:space="preserve">4
 </t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">82
-</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8226
-</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">931
-</t>
-        </is>
-      </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">260
+</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0
+</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">53
+</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">246
 </t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t xml:space="preserve">249
+          <t xml:space="preserve">2392
 </t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
+          <t xml:space="preserve">871
+</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1887
+</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
           <t xml:space="preserve">184
-</t>
-        </is>
-      </c>
-      <c r="Y25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">877
-</t>
-        </is>
-      </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">28
 </t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="C26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3997
-</t>
-        </is>
+      <c r="C26" t="n">
+        <v>732</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">9
+          <t xml:space="preserve">318
+</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1218
+</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2252
 </t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve">106
+          <t xml:space="preserve">11317
 </t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t xml:space="preserve">192
+          <t xml:space="preserve">194
 </t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t xml:space="preserve">98
+          <t xml:space="preserve">201
 </t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t xml:space="preserve">07
-</t>
-        </is>
-      </c>
-      <c r="K26" t="n">
-        <v>85</v>
+          <t xml:space="preserve">1
+</t>
+        </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t xml:space="preserve">1161
+          <t xml:space="preserve">16
 </t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t xml:space="preserve">1008
+          <t xml:space="preserve">123
 </t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t xml:space="preserve">84
+          <t xml:space="preserve">1990
+</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">04
 </t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t xml:space="preserve">804
+          <t xml:space="preserve">304
 </t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t xml:space="preserve">207
+          <t xml:space="preserve">226
 </t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t xml:space="preserve">268
+          <t xml:space="preserve">183
 </t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t xml:space="preserve">929
+          <t xml:space="preserve">8908
 </t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t xml:space="preserve">182
+          <t xml:space="preserve">32
 </t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t xml:space="preserve">432
+          <t xml:space="preserve">264
+</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8128209
+</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16
+</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">781
+</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">81
 </t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="C27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2118
-</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">311
-</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">299
-</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
+      <c r="C27" t="n">
+        <v>2509</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1488
+</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">168
+</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0
+</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9
+</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">181
+</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t xml:space="preserve">180
 </t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">180
-</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">08
-</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">106
-</t>
-        </is>
-      </c>
-      <c r="K27" t="n">
-        <v>68</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">207
-</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">281
-</t>
-        </is>
-      </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t xml:space="preserve">87
+          <t xml:space="preserve">1970
 </t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t xml:space="preserve">84
-</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">954
+          <t xml:space="preserve">102
 </t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t xml:space="preserve">998
+          <t xml:space="preserve">259
 </t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t xml:space="preserve">268
+          <t xml:space="preserve">269
 </t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t xml:space="preserve">828
+          <t xml:space="preserve">646
 </t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t xml:space="preserve">16
+          <t xml:space="preserve">159
+</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">295
+</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2399
 </t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t xml:space="preserve">25 2
+          <t xml:space="preserve">21
+</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">864
+</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7
 </t>
         </is>
       </c>
     </row>
     <row r="28">
+      <c r="C28" t="n">
+        <v>1199</v>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve">191
+          <t xml:space="preserve">1194
 </t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t xml:space="preserve">260
+          <t xml:space="preserve">11881
 </t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t xml:space="preserve">897
+          <t xml:space="preserve">8824
 </t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t xml:space="preserve">178
+          <t xml:space="preserve">8818
 </t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t xml:space="preserve">118
+          <t xml:space="preserve">12
+</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9
 </t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t xml:space="preserve">194
+          <t xml:space="preserve">802
+</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2111
 </t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t xml:space="preserve">04
+          <t xml:space="preserve">1
+</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">102
 </t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t xml:space="preserve">249
+          <t xml:space="preserve">324
+</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1894
 </t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t xml:space="preserve">289
+          <t xml:space="preserve">1
 </t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t xml:space="preserve">186
+          <t xml:space="preserve">2580
 </t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t xml:space="preserve">29
+          <t xml:space="preserve">6106
 </t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t xml:space="preserve">188
-</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">828
+          <t xml:space="preserve">126
 </t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t xml:space="preserve">219
+          <t xml:space="preserve">1201492
 </t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t xml:space="preserve">95
+          <t xml:space="preserve">1790
 </t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t xml:space="preserve">22
+          <t xml:space="preserve">2
 </t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="C29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10582
-</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">200
+      <c r="C29" t="n">
+        <v>16685</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">198
 </t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t xml:space="preserve">258
-</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">927
-</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">924
+          <t xml:space="preserve">2247
 </t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t xml:space="preserve">99
+          <t xml:space="preserve">85
 </t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t xml:space="preserve">1011
+          <t xml:space="preserve">198
 </t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t xml:space="preserve">1081
+          <t xml:space="preserve">199
 </t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t xml:space="preserve">4982
+          <t xml:space="preserve">986
 </t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t xml:space="preserve">04
+          <t xml:space="preserve">185
 </t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t xml:space="preserve">499
+          <t xml:space="preserve">238
+</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1240
 </t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t xml:space="preserve">247
+          <t xml:space="preserve">2162
 </t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t xml:space="preserve">984
-</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">89
+          <t xml:space="preserve">700
 </t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t xml:space="preserve">1219
+          <t xml:space="preserve">268
 </t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t xml:space="preserve">1886
+          <t xml:space="preserve">1156
 </t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t xml:space="preserve">1392
+          <t xml:space="preserve">92801
+</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">403
+</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7
 </t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="C30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2116
-</t>
-        </is>
+      <c r="C30" t="n">
+        <v>1511</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">299
-</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1226
+          <t xml:space="preserve">11145
 </t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t xml:space="preserve">110
-</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">185
+          <t xml:space="preserve">19818
 </t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t xml:space="preserve">18
+          <t xml:space="preserve">01
 </t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t xml:space="preserve">19
+          <t xml:space="preserve">1564
 </t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t xml:space="preserve">902
+          <t xml:space="preserve">196
 </t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t xml:space="preserve">188
+          <t xml:space="preserve">27
+</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 9
+</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8
 </t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t xml:space="preserve">1265
-</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">827
+          <t xml:space="preserve">9014
 </t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t xml:space="preserve">1112
+          <t xml:space="preserve">280
 </t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t xml:space="preserve">864
+          <t xml:space="preserve">1900
+</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1214
 </t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t xml:space="preserve">248
+          <t xml:space="preserve">1982
+</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">231
 </t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t xml:space="preserve">266
+          <t xml:space="preserve">1936
+</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">813
 </t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t xml:space="preserve">99
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="C31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">28131
-</t>
-        </is>
+      <c r="C31" t="n">
+        <v>333</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">1011
+          <t xml:space="preserve">318
 </t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve">199
+          <t xml:space="preserve">190
 </t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t xml:space="preserve">245
+          <t xml:space="preserve">2293
 </t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t xml:space="preserve">42
+          <t xml:space="preserve">164
 </t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t xml:space="preserve">182
+          <t xml:space="preserve">18
 </t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t xml:space="preserve">924
+          <t xml:space="preserve">01
+</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">188
 </t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>66</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">520
+        <v>597</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">911
 </t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t xml:space="preserve">288
-</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">62
-</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">259
+          <t xml:space="preserve">990
 </t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t xml:space="preserve">247
+          <t xml:space="preserve">198
 </t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t xml:space="preserve">069
-</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4094
+          <t xml:space="preserve">1328
 </t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t xml:space="preserve">68
+          <t xml:space="preserve">08
 </t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t xml:space="preserve">718
-</t>
-        </is>
-      </c>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">298
+          <t xml:space="preserve">29
+</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7
+</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">581
 </t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t xml:space="preserve">10
+          <t xml:space="preserve">321
 </t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="C32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1819
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2598
 </t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve">218
+          <t xml:space="preserve">1197
 </t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t xml:space="preserve">299
+          <t xml:space="preserve">118156
 </t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t xml:space="preserve">98
-</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1198
+          <t xml:space="preserve">176
 </t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
-</t>
-        </is>
-      </c>
-      <c r="K32" t="n">
-        <v>46</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">207
-</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">010
-</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1112
+          <t xml:space="preserve">100
+</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">02
 </t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t xml:space="preserve">04
+          <t xml:space="preserve">1970
 </t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t xml:space="preserve">04
-</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">278
+          <t xml:space="preserve">02
 </t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t xml:space="preserve">248
+          <t xml:space="preserve">189185
 </t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t xml:space="preserve">979
+          <t xml:space="preserve">1281
 </t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t xml:space="preserve">819
+          <t xml:space="preserve">606
 </t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t xml:space="preserve">128
+          <t xml:space="preserve">616
 </t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t xml:space="preserve">646
+          <t xml:space="preserve">202
 </t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t xml:space="preserve">278
+          <t xml:space="preserve">256
 </t>
         </is>
       </c>
     </row>
     <row r="33">
+      <c r="C33" t="n">
+        <v>88450</v>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve">197
+          <t xml:space="preserve">198
 </t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t xml:space="preserve">246
+          <t xml:space="preserve">253
 </t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t xml:space="preserve">188
+          <t xml:space="preserve">92
 </t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t xml:space="preserve">198
+          <t xml:space="preserve">120
 </t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t xml:space="preserve">18
+          <t xml:space="preserve">2 109
+</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">184
 </t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>49</v>
+        <v>1305</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t xml:space="preserve">208
+          <t xml:space="preserve">1208
 </t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t xml:space="preserve">209
+          <t xml:space="preserve">205
 </t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t xml:space="preserve">998
+          <t xml:space="preserve">9998
 </t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t xml:space="preserve">84
+          <t xml:space="preserve">017
 </t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t xml:space="preserve">9292
+          <t xml:space="preserve">202
 </t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t xml:space="preserve">0956
+          <t xml:space="preserve">240
 </t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t xml:space="preserve">979
+          <t xml:space="preserve">18828
 </t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t xml:space="preserve">684
+          <t xml:space="preserve">8109
 </t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t xml:space="preserve">88
+          <t xml:space="preserve">10898
 </t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t xml:space="preserve">261
-</t>
-        </is>
-      </c>
-      <c r="X33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">278
+          <t xml:space="preserve">1946151
 </t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t xml:space="preserve">928
-</t>
-        </is>
-      </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">81
+          <t xml:space="preserve">920
 </t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="C34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2265
-</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">680
-</t>
-        </is>
+      <c r="C34" t="n">
+        <v>848</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve">201
+          <t xml:space="preserve">921
 </t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t xml:space="preserve">207
+          <t xml:space="preserve">196
 </t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t xml:space="preserve">89
-</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">184
-</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">19
+          <t xml:space="preserve">196
+</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">114
 </t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>48</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">212
-</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">106
+        <v>192</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11000
 </t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t xml:space="preserve">02
+          <t xml:space="preserve">82
 </t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t xml:space="preserve">8020
+          <t xml:space="preserve">266
 </t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t xml:space="preserve">241
+          <t xml:space="preserve">214
 </t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t xml:space="preserve">298
-</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">133
+          <t xml:space="preserve">249
+</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">976
+</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">240
+</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2393
 </t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t xml:space="preserve">2418
+          <t xml:space="preserve">970
+</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">813
 </t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t xml:space="preserve">62
+          <t xml:space="preserve">4
 </t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="C35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1389
-</t>
-        </is>
+      <c r="C35" t="n">
+        <v>296</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">1460
+          <t xml:space="preserve">2194
 </t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve">1005
+          <t xml:space="preserve">921
 </t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t xml:space="preserve">249
+          <t xml:space="preserve">2511
 </t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t xml:space="preserve">124
+          <t xml:space="preserve">166
 </t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t xml:space="preserve">09
-</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">189
+          <t xml:space="preserve">75
+</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">262
 </t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>64</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1907
-</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">988
+        <v>89</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1818
 </t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t xml:space="preserve">978
+          <t xml:space="preserve">296
 </t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t xml:space="preserve">1215
+          <t xml:space="preserve">849
 </t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t xml:space="preserve">288
+          <t xml:space="preserve">287
 </t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t xml:space="preserve">698
-</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">88
+          <t xml:space="preserve">131
 </t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t xml:space="preserve">1150
+          <t xml:space="preserve">210
 </t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t xml:space="preserve">1116
+          <t xml:space="preserve">10909
 </t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t xml:space="preserve">1208
+          <t xml:space="preserve">1261
+</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4394
+</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2
 </t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="C36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11488
-</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">296
-</t>
-        </is>
+      <c r="C36" t="n">
+        <v>108</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve">801
-</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">15
+          <t xml:space="preserve">243
+</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11811
+</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">156
 </t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t xml:space="preserve">19
+          <t xml:space="preserve">211
 </t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t xml:space="preserve">22
+          <t xml:space="preserve">00
 </t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>1916</v>
+        <v>1817</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t xml:space="preserve">508
+          <t xml:space="preserve">12
 </t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t xml:space="preserve">145
-</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">998
+          <t xml:space="preserve">1
 </t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t xml:space="preserve">09
+          <t xml:space="preserve">100
 </t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t xml:space="preserve">935
+          <t xml:space="preserve">288
 </t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t xml:space="preserve">249
+          <t xml:space="preserve">286
 </t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t xml:space="preserve">776
+          <t xml:space="preserve">118
 </t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t xml:space="preserve">21
+          <t xml:space="preserve">82
 </t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t xml:space="preserve">237
+          <t xml:space="preserve">1258
 </t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t xml:space="preserve">223
+          <t xml:space="preserve">218
+</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">252
 </t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t xml:space="preserve">892
+          <t xml:space="preserve">879
 </t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t xml:space="preserve">406
+          <t xml:space="preserve">4
 </t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="C37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2196
+      <c r="C37" t="n">
+        <v>3072</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2898
 </t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve">204
+          <t xml:space="preserve">242
 </t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t xml:space="preserve">1219
+          <t xml:space="preserve">1881
 </t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t xml:space="preserve">91
+          <t xml:space="preserve">176
 </t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t xml:space="preserve">209
+          <t xml:space="preserve">213
 </t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t xml:space="preserve">21
-</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">218
-</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">245
-</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">883
-</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">928
-</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">448
+          <t xml:space="preserve">108
+</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">759
+</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>9999</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">624
+</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">982
+</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">04
+</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">884
 </t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t xml:space="preserve">988
-</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1906
-</t>
-        </is>
-      </c>
-      <c r="X37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">279
-</t>
-        </is>
-      </c>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">825
+          <t xml:space="preserve">1126
 </t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t xml:space="preserve">188
+          <t xml:space="preserve">69
 </t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="C38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1197
 </t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve">198
+          <t xml:space="preserve">191
 </t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t xml:space="preserve">847
-</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">96
+          <t xml:space="preserve">128987
 </t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t xml:space="preserve">179
+          <t xml:space="preserve">10
 </t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t xml:space="preserve">19
-</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">88
+          <t xml:space="preserve">135
 </t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t xml:space="preserve">0816
+          <t xml:space="preserve">183
 </t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t xml:space="preserve">206
+          <t xml:space="preserve">1927
+</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1000
 </t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t xml:space="preserve">984
+          <t xml:space="preserve">102
 </t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t xml:space="preserve">08
-</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">276
+          <t xml:space="preserve">310
 </t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t xml:space="preserve">228
+          <t xml:space="preserve">1986
+</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">608
 </t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t xml:space="preserve">89
+          <t xml:space="preserve">162
 </t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t xml:space="preserve">929
+          <t xml:space="preserve">258
 </t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t xml:space="preserve">218
+          <t xml:space="preserve">9416
 </t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t xml:space="preserve">254
+          <t xml:space="preserve">880
+</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">773
 </t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t xml:space="preserve">89
+          <t xml:space="preserve">18
 </t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="C39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8
+      <c r="E39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">245
 </t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t xml:space="preserve">901
-</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">98
+          <t xml:space="preserve">199
 </t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t xml:space="preserve">1479
-</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">14
+          <t xml:space="preserve">247
+</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">175
 </t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t xml:space="preserve">904
+          <t xml:space="preserve">1200
 </t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t xml:space="preserve">098
+          <t xml:space="preserve">123
 </t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t xml:space="preserve">8888
+          <t xml:space="preserve">964
 </t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t xml:space="preserve">1080
+          <t xml:space="preserve">00
+</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">315
 </t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t xml:space="preserve">161
+          <t xml:space="preserve">247
+</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">251
 </t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t xml:space="preserve">179
+          <t xml:space="preserve">878
 </t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t xml:space="preserve">778
+          <t xml:space="preserve">1604
 </t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t xml:space="preserve">117
+          <t xml:space="preserve">1893
 </t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t xml:space="preserve">244
+          <t xml:space="preserve">278
 </t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t xml:space="preserve">8227
-</t>
-        </is>
-      </c>
-      <c r="X39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">862
+          <t xml:space="preserve">1237
 </t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t xml:space="preserve">896
+          <t xml:space="preserve">812
 </t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t xml:space="preserve">62
+          <t xml:space="preserve">31
 </t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="C40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2739
+      <c r="C40" t="n">
+        <v>298</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">121810
+</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">288
 </t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t xml:space="preserve">11181
-</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">81
+          <t xml:space="preserve">136
 </t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t xml:space="preserve">12806
+          <t xml:space="preserve">188
 </t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
+          <t xml:space="preserve">28
+</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">185
+</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">206
+</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
           <t xml:space="preserve">24
 </t>
         </is>
       </c>
-      <c r="K40" t="n">
-        <v>908</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">197
-</t>
-        </is>
-      </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t xml:space="preserve">98109
+          <t xml:space="preserve">990
 </t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t xml:space="preserve">964
+          <t xml:space="preserve">05
+</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">488
 </t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t xml:space="preserve">4994
+          <t xml:space="preserve">12553
+</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">211
 </t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t xml:space="preserve">299
+          <t xml:space="preserve">824282
 </t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t xml:space="preserve">699
+          <t xml:space="preserve">720
 </t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t xml:space="preserve">142
+          <t xml:space="preserve">110
+</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2458
 </t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t xml:space="preserve">288
-</t>
-        </is>
-      </c>
-      <c r="X40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">960
+          <t xml:space="preserve">172872
 </t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t xml:space="preserve">272
+          <t xml:space="preserve">977
 </t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t xml:space="preserve">186
+          <t xml:space="preserve">8
 </t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="C41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2238
+      <c r="C41" t="n">
+        <v>4098</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1998
 </t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve">206
-</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
+          <t xml:space="preserve">2245
+</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">179
+</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18
+</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">181
+</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6
+</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>204</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">200
+</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">195
+</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9509
+</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">104
+</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">78
+</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">228
+</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">240
+</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">917090
+</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
         <is>
           <t xml:space="preserve">901
 </t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">104
-</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">180
-</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">21
-</t>
-        </is>
-      </c>
-      <c r="K41" t="n">
-        <v>117</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9289
-</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">019
-</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1108
-</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">968
-</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18846
-</t>
-        </is>
-      </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t xml:space="preserve">110
+          <t xml:space="preserve">1
+</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">270
 </t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t xml:space="preserve">288
+          <t xml:space="preserve">888
+</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">26
+</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1804
 </t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t xml:space="preserve">186
+          <t xml:space="preserve">11
 </t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="C42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">28911
+      <c r="C42" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11178
 </t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t xml:space="preserve">1804
+          <t xml:space="preserve">945
 </t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t xml:space="preserve">1248
-</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">81
-</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
+          <t xml:space="preserve">106
+</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">80
+</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">181
+</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8
+</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0064
+</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
         <is>
           <t xml:space="preserve">18
 </t>
         </is>
       </c>
-      <c r="K42" t="n">
-        <v>82</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2913
-</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">019
-</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">21948
-</t>
-        </is>
-      </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t xml:space="preserve">809
-</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1221
+          <t xml:space="preserve">282
 </t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t xml:space="preserve">1960
+          <t xml:space="preserve">284
 </t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t xml:space="preserve">738
+          <t xml:space="preserve">7211
 </t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t xml:space="preserve">88
-</t>
-        </is>
-      </c>
-      <c r="X42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1145
+          <t xml:space="preserve">84
+</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">023
+</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">59
 </t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="C43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2957
-</t>
-        </is>
+      <c r="C43" t="n">
+        <v>1443</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">299
+          <t xml:space="preserve">191
 </t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t xml:space="preserve">201
+          <t xml:space="preserve">8026
 </t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t xml:space="preserve">267
+          <t xml:space="preserve">8111
 </t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t xml:space="preserve">186
+          <t xml:space="preserve">179
 </t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t xml:space="preserve">197
+          <t xml:space="preserve">19
+</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1417
+</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1495
+</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>202</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1197
+</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">123
 </t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t xml:space="preserve">240
+          <t xml:space="preserve">989
 </t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t xml:space="preserve">989
+          <t xml:space="preserve">381
 </t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t xml:space="preserve">02
+          <t xml:space="preserve">1
 </t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t xml:space="preserve">1464
+          <t xml:space="preserve">285
 </t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t xml:space="preserve">844
-</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">176
+          <t xml:space="preserve">18915
 </t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t xml:space="preserve">766
+          <t xml:space="preserve">42019
 </t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t xml:space="preserve">1757
+          <t xml:space="preserve">110
 </t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t xml:space="preserve">861
-</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">818
-</t>
-        </is>
-      </c>
-      <c r="X43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3269
-</t>
-        </is>
-      </c>
-      <c r="Y43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">842
+          <t xml:space="preserve">880
 </t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t xml:space="preserve">52
+          <t xml:space="preserve">81
 </t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="C44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11
-</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4
-</t>
-        </is>
+      <c r="C44" t="n">
+        <v>290</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t xml:space="preserve">258
+          <t xml:space="preserve">1
 </t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t xml:space="preserve">401
+          <t xml:space="preserve">1
 </t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t xml:space="preserve">112
+          <t xml:space="preserve">158
 </t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t xml:space="preserve">87
-</t>
-        </is>
+          <t xml:space="preserve">1181
+</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>12192</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t xml:space="preserve">206
+          <t xml:space="preserve">2149
 </t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t xml:space="preserve">9005
+          <t xml:space="preserve">13
+</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">168010
+</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">106
 </t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t xml:space="preserve">891
+          <t xml:space="preserve">841
+</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">875
 </t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t xml:space="preserve">632
-</t>
-        </is>
-      </c>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">60924
+          <t xml:space="preserve">091
+</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">959
+</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">818
+</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9
 </t>
         </is>
       </c>
     </row>
     <row r="45">
+      <c r="C45" t="n">
+        <v>291</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7261
+</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">123
+</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1
+</t>
+        </is>
+      </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t xml:space="preserve">14
-</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">689
+          <t xml:space="preserve">40
+</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>202</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16
+</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">23
+</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5864
+</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4
+</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">841
+</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1416
+</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">71
 </t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t xml:space="preserve">127
+          <t xml:space="preserve">8
+</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">58
+</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">856
 </t>
         </is>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t xml:space="preserve">518
+          <t xml:space="preserve">1
+</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">005
 </t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="G46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">91
+      <c r="C46" t="n">
+        <v>7</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">95
 </t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t xml:space="preserve">116
+          <t xml:space="preserve">1818
+</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>202</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1
+</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1977
+</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1
+</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">254
+</t>
+        </is>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8
 </t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="G47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">186
+      <c r="C47" t="n">
+        <v>8481</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8
+</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">910
+</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16
+</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1929
+</t>
+        </is>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2
 </t>
         </is>
       </c>

--- a/src/output/original_transcribed_data.xlsx
+++ b/src/output/original_transcribed_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA47"/>
+  <dimension ref="A1:AA45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,348 +561,276 @@
       </c>
     </row>
     <row r="3">
-      <c r="C3" t="n">
-        <v>328</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">826
-</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">188
-</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">257
-</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">238
-</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">174
-</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">15
-</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">80
-</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>32</v>
-      </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t xml:space="preserve">193
-</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2
-</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">02
-</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4
-</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
+          <t xml:space="preserve">256
+</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t xml:space="preserve">206
-</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1241
-</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1
-</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">81
-</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">145
 </t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="C4" t="n">
-        <v>3220</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3220
+</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">289
+          <t xml:space="preserve">296
 </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">1791
+          <t xml:space="preserve">802
 </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">240
+          <t xml:space="preserve">249
 </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">190
+          <t xml:space="preserve">94
 </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t xml:space="preserve">178
+          <t xml:space="preserve">196
 </t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t xml:space="preserve">13
-</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">24
+          <t xml:space="preserve">18
 </t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1208
+</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">203
+</t>
+        </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t xml:space="preserve">8029595597
+          <t xml:space="preserve">811
 </t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t xml:space="preserve">990
+          <t xml:space="preserve">18019
 </t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t xml:space="preserve">1809
+          <t xml:space="preserve">88
 </t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t xml:space="preserve">209
+          <t xml:space="preserve">991
+</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">248
 </t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t xml:space="preserve">1989
+          <t xml:space="preserve">886
 </t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t xml:space="preserve">1970
+          <t xml:space="preserve">710
 </t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t xml:space="preserve">06
+          <t xml:space="preserve">116
+</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">871
 </t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t xml:space="preserve">1804
+          <t xml:space="preserve">889
+</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">277
 </t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t xml:space="preserve">8
+          <t xml:space="preserve">91
 </t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="C5" t="n">
-        <v>172</v>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">262
+          <t xml:space="preserve">229
+</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">195
+</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">210
 </t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve">160
+          <t xml:space="preserve">31
 </t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t xml:space="preserve">199
+          <t xml:space="preserve">189
 </t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t xml:space="preserve">110
+          <t xml:space="preserve">81
 </t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t xml:space="preserve">119
+</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">186
+</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28810
+</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">219
+</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1080
+</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">886
+</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">216
+</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11
+</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">218
+</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">209
+</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">241
+</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
           <t xml:space="preserve">922
 </t>
         </is>
       </c>
-      <c r="K5" t="n">
-        <v>140</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">210
-</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9207
-</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">212
-</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">973
-</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">06
-</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">287
-</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1269
-</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">731
-</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">106
-</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">261
-</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8
-</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9801
-</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">890
-</t>
-        </is>
-      </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t xml:space="preserve">5
+          <t xml:space="preserve">20
 </t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="C6" t="n">
-        <v>30973</v>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">307
+          <t xml:space="preserve">0189
 </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">8211
+          <t xml:space="preserve">201
 </t>
         </is>
       </c>
@@ -912,710 +840,773 @@
 </t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">170
-</t>
-        </is>
-      </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t xml:space="preserve">1306
+          <t xml:space="preserve">18
 </t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t xml:space="preserve">1810
+          <t xml:space="preserve">1216
 </t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t xml:space="preserve">195
-</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2
+          <t xml:space="preserve">28810
+</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">990
 </t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t xml:space="preserve">80
+          <t xml:space="preserve">02
 </t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t xml:space="preserve">868
-</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">258
+          <t xml:space="preserve">918
 </t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t xml:space="preserve">8027
+          <t xml:space="preserve">297
 </t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t xml:space="preserve">748
+          <t xml:space="preserve">108
 </t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t xml:space="preserve">86
+          <t xml:space="preserve">229
 </t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t xml:space="preserve">01455
+          <t xml:space="preserve">280
 </t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t xml:space="preserve">191
+          <t xml:space="preserve">246
 </t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t xml:space="preserve">1280
-</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1
+          <t xml:space="preserve">288
+</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">762
 </t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="C7" t="n">
-        <v>197104</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3724
+</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">335
+          <t xml:space="preserve">291
+</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">209
 </t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">149
-</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">168
-</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">155
-</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">58
+          <t xml:space="preserve">80
 </t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t xml:space="preserve">195
-</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2972
+          <t xml:space="preserve">198
+</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">984
 </t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">128
 </t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t xml:space="preserve">504
+          <t xml:space="preserve">196
 </t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t xml:space="preserve">1262
+          <t xml:space="preserve">246
 </t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t xml:space="preserve">2906
+          <t xml:space="preserve">875
 </t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t xml:space="preserve">128
+          <t xml:space="preserve">139
 </t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t xml:space="preserve">961
-</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1238
-</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">12610
-</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1612
+          <t xml:space="preserve">269
 </t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t xml:space="preserve">18
+          <t xml:space="preserve">88
 </t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="C8" t="n">
-        <v>16608</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2626
+</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">109
+</t>
+        </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">199
-</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">947
+          <t xml:space="preserve">196
 </t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve">77
+          <t xml:space="preserve">1807
 </t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t xml:space="preserve">882
-</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8685
+          <t xml:space="preserve">178
+</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16
+</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">128
+</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12
 </t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t xml:space="preserve">649192
+          <t xml:space="preserve">126
 </t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t xml:space="preserve">3935
+          <t xml:space="preserve">881
+</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">107
+</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">810
 </t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t xml:space="preserve">574
+          <t xml:space="preserve">711
 </t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t xml:space="preserve">300
-</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">12409
+          <t xml:space="preserve">842
+</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">988
 </t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t xml:space="preserve">21
+          <t xml:space="preserve">19
 </t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="C9" t="n">
-        <v>324</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">118
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">992
 </t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve">185
+          <t xml:space="preserve">448
 </t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t xml:space="preserve">17
+          <t xml:space="preserve">912
 </t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t xml:space="preserve">19
-</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">95
-</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">999
-</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">02
+          <t xml:space="preserve">86
 </t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t xml:space="preserve">139 7
-</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">240
-</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">744
-</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">109
+          <t xml:space="preserve">1400
+</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1352
 </t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t xml:space="preserve">246
+          <t xml:space="preserve">1278
+</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1160
+</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1901
 </t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t xml:space="preserve">8283
-</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18
+          <t xml:space="preserve">1142
 </t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="C10" t="n">
-        <v>8598</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2719
+</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">9216
+          <t xml:space="preserve">288
 </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">8118
+          <t xml:space="preserve">992
 </t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t xml:space="preserve">148
+</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">448
+</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">912
+</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">86
+</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
           <t xml:space="preserve">269
 </t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">14
-</t>
-        </is>
-      </c>
-      <c r="K10" t="n">
-        <v>200</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">200
+</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2129
+</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t xml:space="preserve">85951
+          <t xml:space="preserve">981
 </t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t xml:space="preserve">128
+          <t xml:space="preserve">06
 </t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t xml:space="preserve">279
+          <t xml:space="preserve">1400
+</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">299
+</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1352
+</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">718
 </t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t xml:space="preserve">11704
+          <t xml:space="preserve">119
+</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1278
+</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1160
+</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1901
+</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1142
+</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">68
 </t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="C11" t="n">
-        <v>3408</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2719
+</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">298
+          <t xml:space="preserve">288
 </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">2188
+          <t xml:space="preserve">198
 </t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">980
+          <t xml:space="preserve">148
+</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">90
+</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">189
+</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">17
 </t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t xml:space="preserve">21
-</t>
-        </is>
-      </c>
-      <c r="K11" t="n">
-        <v>194</v>
+          <t xml:space="preserve">48
+</t>
+        </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t xml:space="preserve">18219
+          <t xml:space="preserve">196
 </t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t xml:space="preserve">1200
+          <t xml:space="preserve">200
 </t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t xml:space="preserve">28118
+          <t xml:space="preserve">2129
 </t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t xml:space="preserve">968
+          <t xml:space="preserve">981
 </t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t xml:space="preserve">08
+          <t xml:space="preserve">06
 </t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t xml:space="preserve">396
+          <t xml:space="preserve">280
 </t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t xml:space="preserve">940
+          <t xml:space="preserve">299
 </t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t xml:space="preserve">276
+          <t xml:space="preserve">278
 </t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t xml:space="preserve">745
+          <t xml:space="preserve">718
 </t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t xml:space="preserve">99
+          <t xml:space="preserve">119
 </t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t xml:space="preserve">294
+          <t xml:space="preserve">236
 </t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t xml:space="preserve">1284
+          <t xml:space="preserve">232
 </t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t xml:space="preserve">1689
+          <t xml:space="preserve">870
 </t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t xml:space="preserve">8111
+          <t xml:space="preserve">828
 </t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">68
 </t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="C12" t="n">
-        <v>13220</v>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">280
+          <t xml:space="preserve">089
+</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">191
 </t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">241
+          <t xml:space="preserve">249
+</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">116
 </t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t xml:space="preserve">184
+          <t xml:space="preserve">1146
 </t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t xml:space="preserve">16
+          <t xml:space="preserve">28
 </t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t xml:space="preserve">30
+          <t xml:space="preserve">48
 </t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t xml:space="preserve">208
+          <t xml:space="preserve">196
 </t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t xml:space="preserve">202
+          <t xml:space="preserve">1195
 </t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t xml:space="preserve">1161
-</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">999
+          <t xml:space="preserve">228
 </t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t xml:space="preserve">0112
+          <t xml:space="preserve">45
 </t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t xml:space="preserve">276
+          <t xml:space="preserve">826
+</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">954
 </t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t xml:space="preserve">851
+          <t xml:space="preserve">298
 </t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t xml:space="preserve">108
+          <t xml:space="preserve">1226
 </t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t xml:space="preserve">242
+          <t xml:space="preserve">12715
 </t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t xml:space="preserve">236
+          <t xml:space="preserve">948
 </t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t xml:space="preserve">275
-</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8118
+          <t xml:space="preserve">11
 </t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t xml:space="preserve">5
+          <t xml:space="preserve">84
 </t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="C13" t="n">
-        <v>3157</v>
-      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">339
+          <t xml:space="preserve">0226
 </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">1288
+          <t xml:space="preserve">199
+</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">268
 </t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve">2814
+          <t xml:space="preserve">116
 </t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t xml:space="preserve">1
+          <t xml:space="preserve">2804
 </t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t xml:space="preserve">238
+          <t xml:space="preserve">24
 </t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t xml:space="preserve">812
+          <t xml:space="preserve">46
 </t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t xml:space="preserve">294
+          <t xml:space="preserve">204
 </t>
         </is>
       </c>
@@ -1627,393 +1618,501 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t xml:space="preserve">882
-</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">946
+          <t xml:space="preserve">579
 </t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t xml:space="preserve">02
+          <t xml:space="preserve">04
 </t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t xml:space="preserve">286
+          <t xml:space="preserve">826
 </t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t xml:space="preserve">041
+          <t xml:space="preserve">951
 </t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t xml:space="preserve">284
+          <t xml:space="preserve">271
 </t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t xml:space="preserve">786
+          <t xml:space="preserve">1088
 </t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t xml:space="preserve">187
+          <t xml:space="preserve">1226
 </t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t xml:space="preserve">262
+          <t xml:space="preserve">883
+</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">298
+</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11
+</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">29
 </t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t xml:space="preserve">16
+          <t xml:space="preserve">119
 </t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="C14" t="n">
-        <v>4641</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3708
+</t>
+        </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">1208
+          <t xml:space="preserve">199
 </t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">164
+          <t xml:space="preserve">2011
+</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">118
 </t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t xml:space="preserve">117156
+          <t xml:space="preserve">180
+</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18
+</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">148
 </t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>9</v>
+        <v>818</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t xml:space="preserve">218
+          <t xml:space="preserve">204
 </t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t xml:space="preserve">187
-</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1429
+          <t xml:space="preserve">204
+</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">579
+</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12
 </t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t xml:space="preserve">289
+          <t xml:space="preserve">460
+</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">280
 </t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t xml:space="preserve">1814
+          <t xml:space="preserve">221
 </t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t xml:space="preserve">6811
+          <t xml:space="preserve">1088
+</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">806
 </t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t xml:space="preserve">1244
+          <t xml:space="preserve">207
 </t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t xml:space="preserve">821
+          <t xml:space="preserve">204
 </t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t xml:space="preserve">867
-</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1606
+          <t xml:space="preserve">29
 </t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="C15" t="n">
-        <v>11119</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">309
-</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">200
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3708
 </t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve">258
+          <t xml:space="preserve">289
 </t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve">1185
+          <t xml:space="preserve">127
 </t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t xml:space="preserve">187
+          <t xml:space="preserve">198
 </t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t xml:space="preserve">09
-</t>
-        </is>
+          <t xml:space="preserve">86
+</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">41
+</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>118</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t xml:space="preserve">1817
+          <t xml:space="preserve">199
+</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">197
 </t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t xml:space="preserve">80
+          <t xml:space="preserve">04
 </t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t xml:space="preserve">39
+          <t xml:space="preserve">298
+</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">963
+</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">277
+</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1569
 </t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t xml:space="preserve">182511
+          <t xml:space="preserve">211
 </t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t xml:space="preserve">2510
+          <t xml:space="preserve">2768
+</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">244
 </t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">63
 </t>
         </is>
       </c>
     </row>
     <row r="16">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24698
+</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18882
+</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9291
+</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">95
+</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">196
+</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28
+</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">89
+</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>68</v>
+      </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t xml:space="preserve">182
+          <t xml:space="preserve">218
+</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">208
+</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">86
 </t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t xml:space="preserve">14991
+          <t xml:space="preserve">298
 </t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t xml:space="preserve">246
+          <t xml:space="preserve">2846
 </t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t xml:space="preserve">877
+          <t xml:space="preserve">276
+</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6857
 </t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t xml:space="preserve">147
+          <t xml:space="preserve">142
 </t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t xml:space="preserve">1243
+          <t xml:space="preserve">256
 </t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t xml:space="preserve">228
-</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">260
-</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">827
+          <t xml:space="preserve">238
 </t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t xml:space="preserve">87
+          <t xml:space="preserve">63
 </t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="D17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2
-</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1198
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">17648
 </t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve">267
+          <t xml:space="preserve">1278
 </t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve">1213
+          <t xml:space="preserve">1566
 </t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t xml:space="preserve">1216
-</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">816
+          <t xml:space="preserve">949
+</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">101
 </t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>88</v>
+        <v>425</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t xml:space="preserve">8
-</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">194
-</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">797
+          <t xml:space="preserve">1029
 </t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t xml:space="preserve">1002
-</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10
-</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">299
+          <t xml:space="preserve">1849
+</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1204
+</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1180
+</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8458
 </t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t xml:space="preserve">249
+          <t xml:space="preserve">11296
 </t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t xml:space="preserve">239
+          <t xml:space="preserve">1188
 </t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t xml:space="preserve">278
-</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1762
+          <t xml:space="preserve">132
 </t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t xml:space="preserve">18
+          <t xml:space="preserve">252
 </t>
         </is>
       </c>
@@ -2021,662 +2120,533 @@
     <row r="18">
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">0827
+          <t xml:space="preserve">812
+</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">199
 </t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve">108
+          <t xml:space="preserve">226
+</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">118
 </t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t xml:space="preserve">194
+          <t xml:space="preserve">198
 </t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t xml:space="preserve">1006
+          <t xml:space="preserve">28
 </t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t xml:space="preserve">006
+          <t xml:space="preserve">37
 </t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t xml:space="preserve">901
-</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9085
+          <t xml:space="preserve">205
 </t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t xml:space="preserve">8
+          <t xml:space="preserve">13898
 </t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t xml:space="preserve">1970
+          <t xml:space="preserve">188
 </t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t xml:space="preserve">1187
+          <t xml:space="preserve">04
 </t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t xml:space="preserve">239
+          <t xml:space="preserve">898
 </t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t xml:space="preserve">1884
+          <t xml:space="preserve">241
 </t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t xml:space="preserve">299
+          <t xml:space="preserve">278
 </t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t xml:space="preserve">885
-</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">817
+          <t xml:space="preserve">892
 </t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t xml:space="preserve">1812
-</t>
-        </is>
-      </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2308
-</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">915
+          <t xml:space="preserve">259
+</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">892
 </t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t xml:space="preserve">8
+          <t xml:space="preserve">14
 </t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="F19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">284
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">188
 </t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve">1185
-</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">119
-</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11
-</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">87
-</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">199
+          <t xml:space="preserve">129
 </t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t xml:space="preserve">184
-</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2990
-</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">991
-</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">80
+          <t xml:space="preserve">191
 </t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t xml:space="preserve">248
+          <t xml:space="preserve">818
 </t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t xml:space="preserve">194
-</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">275
+          <t xml:space="preserve">246
 </t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t xml:space="preserve">6795
+          <t xml:space="preserve">12
 </t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t xml:space="preserve">134
-</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">262
-</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">88089
-</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">17
-</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">721
+          <t xml:space="preserve">21 88
 </t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t xml:space="preserve">12
+          <t xml:space="preserve">88
 </t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="D20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">313
-</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1189
-</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">231
-</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1893
-</t>
-        </is>
-      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t xml:space="preserve">1721
-</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">125
+          <t xml:space="preserve">179
 </t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t xml:space="preserve">1
-</t>
-        </is>
+          <t xml:space="preserve">49
+</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>88</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t xml:space="preserve">21029
+          <t xml:space="preserve">197
 </t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t xml:space="preserve">196
+          <t xml:space="preserve">194
 </t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t xml:space="preserve">2990
+          <t xml:space="preserve">28211
 </t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t xml:space="preserve">999
+          <t xml:space="preserve">978
 </t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t xml:space="preserve">102
+          <t xml:space="preserve">86
 </t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t xml:space="preserve">298
-</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6
+          <t xml:space="preserve">828
 </t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t xml:space="preserve">601
+          <t xml:space="preserve">278
 </t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t xml:space="preserve">1634
+          <t xml:space="preserve">8168
 </t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t xml:space="preserve">164
-</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">21
-</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">046
+          <t xml:space="preserve">216
 </t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t xml:space="preserve">984
-</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1760
+          <t xml:space="preserve">320 56
 </t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t xml:space="preserve">7
+          <t xml:space="preserve">96
 </t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="C21" t="n">
-        <v>17418</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">149
+</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8 21
+</t>
+        </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve">69
+          <t xml:space="preserve">81
 </t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t xml:space="preserve">180
+          <t xml:space="preserve">196
+</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">88
 </t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t xml:space="preserve">143
-</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">185
-</t>
-        </is>
+          <t xml:space="preserve">10
+</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>91</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t xml:space="preserve">209
-</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2
+          <t xml:space="preserve">218
+</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">986
 </t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t xml:space="preserve">102
+          <t xml:space="preserve">11
 </t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t xml:space="preserve">3141
+          <t xml:space="preserve">126
 </t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t xml:space="preserve">92593
-</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">589
+          <t xml:space="preserve">918
 </t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t xml:space="preserve">279
+          <t xml:space="preserve">944
 </t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t xml:space="preserve">36
+          <t xml:space="preserve">15
 </t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t xml:space="preserve">6
+          <t xml:space="preserve">4117
+</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">155
+</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">217
 </t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 8
+          <t xml:space="preserve">12
 </t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="C22" t="n">
-        <v>248</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">116
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2185
 </t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve">1191
-</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">247
+          <t xml:space="preserve">199
+</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">106
+</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">180
 </t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t xml:space="preserve">16
+          <t xml:space="preserve">14
 </t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t xml:space="preserve">24
-</t>
-        </is>
+          <t xml:space="preserve">28
+</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>88</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t xml:space="preserve">197
+          <t xml:space="preserve">286
 </t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t xml:space="preserve">198
-</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7
+          <t xml:space="preserve">200
 </t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t xml:space="preserve">102
+          <t xml:space="preserve">02
 </t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t xml:space="preserve">2942
-</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">20811
+          <t xml:space="preserve">299
 </t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t xml:space="preserve">3482
+          <t xml:space="preserve">716
 </t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t xml:space="preserve">664
+          <t xml:space="preserve">115
 </t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t xml:space="preserve">278
-</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1116
-</t>
-        </is>
-      </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4141
-</t>
-        </is>
-      </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">116
+          <t xml:space="preserve">164
 </t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="C23" t="n">
-        <v>3011</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">304
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8 124 71
 </t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve">191
+          <t xml:space="preserve">207
 </t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve">250
+          <t xml:space="preserve">1
+</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1
+</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">184
 </t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t xml:space="preserve">108
-</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">126
-</t>
-        </is>
+          <t xml:space="preserve">16
+</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>44</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t xml:space="preserve">210
+          <t xml:space="preserve">218
 </t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t xml:space="preserve">2
+          <t xml:space="preserve">208
 </t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t xml:space="preserve">94
+          <t xml:space="preserve">1252
 </t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t xml:space="preserve">02
+          <t xml:space="preserve">04
 </t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t xml:space="preserve">1412
+          <t xml:space="preserve">270
 </t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t xml:space="preserve">1175
+          <t xml:space="preserve">287
 </t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t xml:space="preserve">261
+          <t xml:space="preserve">276
 </t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t xml:space="preserve">636
+          <t xml:space="preserve">168
 </t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t xml:space="preserve">133
+          <t xml:space="preserve">86
 </t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t xml:space="preserve">202
+          <t xml:space="preserve">845
 </t>
         </is>
       </c>
@@ -2688,2449 +2658,2640 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t xml:space="preserve">256
-</t>
-        </is>
-      </c>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">829
+          <t xml:space="preserve">255
 </t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t xml:space="preserve">28
+          <t xml:space="preserve">52
 </t>
         </is>
       </c>
     </row>
     <row r="24">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1555
+</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1288
+</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve">1189
-</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">257
+          <t xml:space="preserve">991
 </t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t xml:space="preserve">11172
-</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">176
+          <t xml:space="preserve">847
+</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">90
 </t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t xml:space="preserve">994
+          <t xml:space="preserve">1094
 </t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t xml:space="preserve">195
-</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1988
-</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4210
+          <t xml:space="preserve">1019
 </t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t xml:space="preserve">03
-</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1282
-</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">235
+          <t xml:space="preserve">99
 </t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t xml:space="preserve">192667
+          <t xml:space="preserve">19258
 </t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t xml:space="preserve">616
+          <t xml:space="preserve">8668
 </t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t xml:space="preserve">166
+          <t xml:space="preserve">628
+</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1288
+</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">819
 </t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t xml:space="preserve">802
+          <t xml:space="preserve">21187
 </t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t xml:space="preserve">5
+          <t xml:space="preserve">108
 </t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="C25" t="n">
-        <v>14519</v>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2211
+</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">108
+</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">108
+</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1221
+</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">110
+</t>
+        </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t xml:space="preserve">15609
+          <t xml:space="preserve">182
+</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18
 </t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t xml:space="preserve">932
+          <t xml:space="preserve">88
 </t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t xml:space="preserve">199
+          <t xml:space="preserve">2805
 </t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t xml:space="preserve">114
+          <t xml:space="preserve">209
+</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">198
 </t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t xml:space="preserve">990
+          <t xml:space="preserve">999
 </t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t xml:space="preserve">03
+          <t xml:space="preserve">06
 </t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
-</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">260
+          <t xml:space="preserve">2286
+</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">241
 </t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t xml:space="preserve">0
+          <t xml:space="preserve">711
 </t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t xml:space="preserve">53
+          <t xml:space="preserve">126
 </t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t xml:space="preserve">246
+          <t xml:space="preserve">288
 </t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t xml:space="preserve">2392
-</t>
-        </is>
-      </c>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">871
+          <t xml:space="preserve">834
 </t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t xml:space="preserve">1887
+          <t xml:space="preserve">827
 </t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t xml:space="preserve">184
+          <t xml:space="preserve">61
 </t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="C26" t="n">
-        <v>732</v>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18
+</t>
+        </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">318
+          <t xml:space="preserve">1298
 </t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve">1218
-</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2252
+          <t xml:space="preserve">196
 </t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve">11317
+          <t xml:space="preserve">4
 </t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t xml:space="preserve">194
+          <t xml:space="preserve">182
 </t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t xml:space="preserve">201
+          <t xml:space="preserve">05
 </t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
+          <t xml:space="preserve">84
+</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>195</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">199
+</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
           <t xml:space="preserve">1
 </t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">16
-</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">123
+      <c r="N26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">188
 </t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t xml:space="preserve">1990
+          <t xml:space="preserve">4
 </t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t xml:space="preserve">04
+          <t xml:space="preserve">4
 </t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t xml:space="preserve">304
-</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">226
-</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">183
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t xml:space="preserve">8908
-</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">32
+          <t xml:space="preserve">929
 </t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t xml:space="preserve">264
-</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8128209
-</t>
-        </is>
-      </c>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">16
+          <t xml:space="preserve">1
 </t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t xml:space="preserve">781
+          <t xml:space="preserve">925
 </t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t xml:space="preserve">81
+          <t xml:space="preserve">7
 </t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="C27" t="n">
-        <v>2509</v>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">164
+</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1298
+</t>
+        </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve">1488
+          <t xml:space="preserve">196
+</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">48
 </t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t xml:space="preserve">168
+          <t xml:space="preserve">182
 </t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t xml:space="preserve">0
+          <t xml:space="preserve">05
 </t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t xml:space="preserve">9
+          <t xml:space="preserve">84
 </t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t xml:space="preserve">181
+          <t xml:space="preserve">199
 </t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t xml:space="preserve">180
+          <t xml:space="preserve">198
+</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">426
 </t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t xml:space="preserve">1970
+          <t xml:space="preserve">980
 </t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t xml:space="preserve">102
+          <t xml:space="preserve">04
+</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">821
 </t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t xml:space="preserve">259
+          <t xml:space="preserve">226
 </t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t xml:space="preserve">269
+          <t xml:space="preserve">268
 </t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t xml:space="preserve">646
+          <t xml:space="preserve">929
 </t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t xml:space="preserve">159
-</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">295
+          <t xml:space="preserve">182
 </t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t xml:space="preserve">2399
+          <t xml:space="preserve">248
 </t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t xml:space="preserve">21
+          <t xml:space="preserve">284
 </t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t xml:space="preserve">864
+          <t xml:space="preserve">925
 </t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t xml:space="preserve">7
+          <t xml:space="preserve">28
 </t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="C28" t="n">
-        <v>1199</v>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">22666
+</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">206
+</t>
+        </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve">1194
+          <t xml:space="preserve">208
 </t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t xml:space="preserve">11881
+          <t xml:space="preserve">860
 </t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t xml:space="preserve">8824
+          <t xml:space="preserve">98
 </t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t xml:space="preserve">8818
+          <t xml:space="preserve">190
 </t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t xml:space="preserve">12
+          <t xml:space="preserve">98
 </t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t xml:space="preserve">9
-</t>
-        </is>
+          <t xml:space="preserve">07
+</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>86</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t xml:space="preserve">802
+          <t xml:space="preserve">209
 </t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t xml:space="preserve">2111
+          <t xml:space="preserve">206
 </t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t xml:space="preserve">1
+          <t xml:space="preserve">998
 </t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t xml:space="preserve">102
+          <t xml:space="preserve">187
 </t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t xml:space="preserve">324
+          <t xml:space="preserve">804
 </t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t xml:space="preserve">1894
+          <t xml:space="preserve">227
 </t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t xml:space="preserve">1
+          <t xml:space="preserve">268
 </t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t xml:space="preserve">2580
+          <t xml:space="preserve">1076
 </t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t xml:space="preserve">6106
-</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">126
+          <t xml:space="preserve">182
+</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">248
 </t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t xml:space="preserve">1201492
+          <t xml:space="preserve">284
 </t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t xml:space="preserve">1790
+          <t xml:space="preserve">877
 </t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t xml:space="preserve">2
+          <t xml:space="preserve">18
 </t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="C29" t="n">
-        <v>16685</v>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2011
+</t>
+        </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">198
+          <t xml:space="preserve">18
+</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">191
 </t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t xml:space="preserve">2247
+          <t xml:space="preserve">860
+</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">81
+</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">180
+</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">108
 </t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t xml:space="preserve">85
-</t>
-        </is>
+          <t xml:space="preserve">07
+</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>86</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t xml:space="preserve">198
+          <t xml:space="preserve">482
 </t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t xml:space="preserve">199
+          <t xml:space="preserve">201
+</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">998
 </t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t xml:space="preserve">986
+          <t xml:space="preserve">998
 </t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t xml:space="preserve">185
+          <t xml:space="preserve">02
 </t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t xml:space="preserve">238
+          <t xml:space="preserve">249
 </t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t xml:space="preserve">1240
+          <t xml:space="preserve">937
 </t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t xml:space="preserve">2162
+          <t xml:space="preserve">285
 </t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t xml:space="preserve">700
+          <t xml:space="preserve">828
+</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">22
 </t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t xml:space="preserve">268
+          <t xml:space="preserve">228
 </t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t xml:space="preserve">1156
+          <t xml:space="preserve">220
 </t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t xml:space="preserve">92801
+          <t xml:space="preserve">2 1 3
 </t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t xml:space="preserve">403
+          <t xml:space="preserve">256
 </t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t xml:space="preserve">7
+          <t xml:space="preserve">18
 </t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="C30" t="n">
-        <v>1511</v>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10588
+</t>
+        </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">11145
+          <t xml:space="preserve">18
+</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">191
+</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">258
 </t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t xml:space="preserve">19818
+          <t xml:space="preserve">1624
+</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">178
 </t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t xml:space="preserve">01
+          <t xml:space="preserve">111
 </t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t xml:space="preserve">1564
-</t>
-        </is>
+          <t xml:space="preserve">24
+</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>68</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
+          <t xml:space="preserve">194
+</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1081
+</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">998
+</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4992
+</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">84
+</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4099
+</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">247
+</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">864
+</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">89
+</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">228
+</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">220
+</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">219
+</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">84197
+</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
           <t xml:space="preserve">196
-</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">27
-</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">28 9
-</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8
-</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9014
-</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">280
-</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1900
-</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1214
-</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1982
-</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">231
-</t>
-        </is>
-      </c>
-      <c r="X30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1936
-</t>
-        </is>
-      </c>
-      <c r="Y30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">813
-</t>
-        </is>
-      </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5
 </t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="C31" t="n">
-        <v>333</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">318
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10588
 </t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve">190
+          <t xml:space="preserve">998
 </t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t xml:space="preserve">2293
+          <t xml:space="preserve">1226
 </t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t xml:space="preserve">164
+          <t xml:space="preserve">15
 </t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t xml:space="preserve">18
+          <t xml:space="preserve">927
 </t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t xml:space="preserve">01
+          <t xml:space="preserve">00
 </t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t xml:space="preserve">188
-</t>
-        </is>
-      </c>
-      <c r="K31" t="n">
-        <v>597</v>
+          <t xml:space="preserve">19
+</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1011
+</t>
+        </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t xml:space="preserve">911
+          <t xml:space="preserve">1081
 </t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t xml:space="preserve">990
+          <t xml:space="preserve">4992
+</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">04
+</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1265
 </t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t xml:space="preserve">198
+          <t xml:space="preserve">827
 </t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t xml:space="preserve">1328
+          <t xml:space="preserve">1118
+</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4094
 </t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t xml:space="preserve">08
+          <t xml:space="preserve">68
 </t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t xml:space="preserve">29
+          <t xml:space="preserve">1219
 </t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t xml:space="preserve">7
+          <t xml:space="preserve">1186
+</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1392
 </t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t xml:space="preserve">581
+          <t xml:space="preserve">84197
 </t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t xml:space="preserve">321
+          <t xml:space="preserve">196
 </t>
         </is>
       </c>
     </row>
     <row r="32">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2116
+</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">2598
+          <t xml:space="preserve">299
 </t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve">1197
+          <t xml:space="preserve">200
 </t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t xml:space="preserve">118156
+          <t xml:space="preserve">245
 </t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t xml:space="preserve">176
+          <t xml:space="preserve">91
+</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">185
 </t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t xml:space="preserve">100
+          <t xml:space="preserve">18
 </t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t xml:space="preserve">02
+          <t xml:space="preserve">19
+</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>66</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">202
+</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">108
 </t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t xml:space="preserve">1970
+          <t xml:space="preserve">288
 </t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t xml:space="preserve">02
+          <t xml:space="preserve">04
+</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">258
 </t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t xml:space="preserve">189185
+          <t xml:space="preserve">827
 </t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t xml:space="preserve">1281
+          <t xml:space="preserve">860
 </t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t xml:space="preserve">606
+          <t xml:space="preserve">819
 </t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t xml:space="preserve">616
+          <t xml:space="preserve">68
 </t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t xml:space="preserve">202
+          <t xml:space="preserve">2848
 </t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t xml:space="preserve">256
+          <t xml:space="preserve">266
+</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">899
 </t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="C33" t="n">
-        <v>88450</v>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1818
+</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">299
+</t>
+        </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve">198
+          <t xml:space="preserve">197
 </t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t xml:space="preserve">253
+          <t xml:space="preserve">248
 </t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t xml:space="preserve">92
+          <t xml:space="preserve">96
 </t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t xml:space="preserve">120
+          <t xml:space="preserve">182
 </t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 109
+          <t xml:space="preserve">18
 </t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t xml:space="preserve">184
+          <t xml:space="preserve">121
 </t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>1305</v>
+        <v>46</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t xml:space="preserve">1208
+          <t xml:space="preserve">207
 </t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t xml:space="preserve">205
+          <t xml:space="preserve">206
 </t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t xml:space="preserve">9998
+          <t xml:space="preserve">988
 </t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t xml:space="preserve">017
+          <t xml:space="preserve">04
 </t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t xml:space="preserve">202
+          <t xml:space="preserve">992
 </t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t xml:space="preserve">240
+          <t xml:space="preserve">248
 </t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t xml:space="preserve">18828
+          <t xml:space="preserve">979
 </t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t xml:space="preserve">8109
+          <t xml:space="preserve">684
 </t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t xml:space="preserve">10898
+          <t xml:space="preserve">128
 </t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t xml:space="preserve">1946151
-</t>
-        </is>
-      </c>
-      <c r="Y33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">920
+          <t xml:space="preserve">718
+</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">228
+</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18
 </t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="C34" t="n">
-        <v>848</v>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2131
+</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8280
+</t>
+        </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve">921
+          <t xml:space="preserve">199
 </t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t xml:space="preserve">196
+          <t xml:space="preserve">299
 </t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t xml:space="preserve">196
+          <t xml:space="preserve">81
+</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">199
+</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18
 </t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t xml:space="preserve">114
+          <t xml:space="preserve">21
 </t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>192</v>
+        <v>66</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">520
+</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">010
+</t>
+        </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t xml:space="preserve">11000
+          <t xml:space="preserve">1112
+</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">998
 </t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t xml:space="preserve">82
+          <t xml:space="preserve">88
 </t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t xml:space="preserve">266
+          <t xml:space="preserve">278
 </t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t xml:space="preserve">214
+          <t xml:space="preserve">048
 </t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t xml:space="preserve">249
+          <t xml:space="preserve">288
 </t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t xml:space="preserve">976
+          <t xml:space="preserve">780
+</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">58
 </t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t xml:space="preserve">240
-</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2393
+          <t xml:space="preserve">446
 </t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t xml:space="preserve">970
-</t>
-        </is>
-      </c>
-      <c r="Y34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">813
+          <t xml:space="preserve">888
 </t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">81
 </t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="C35" t="n">
-        <v>296</v>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1389
+</t>
+        </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">2194
+          <t xml:space="preserve">880
 </t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve">921
+          <t xml:space="preserve">218
 </t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t xml:space="preserve">2511
+          <t xml:space="preserve">207
 </t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t xml:space="preserve">166
+          <t xml:space="preserve">98
 </t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t xml:space="preserve">75
+          <t xml:space="preserve">198
+</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">124
 </t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t xml:space="preserve">262
+          <t xml:space="preserve">21
 </t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>89</v>
+        <v>9</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">212
+</t>
+        </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t xml:space="preserve">1818
+          <t xml:space="preserve">010
+</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1112
+</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">988
+</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">84
 </t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t xml:space="preserve">296
+          <t xml:space="preserve">802
 </t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t xml:space="preserve">849
+          <t xml:space="preserve">048
 </t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t xml:space="preserve">287
+          <t xml:space="preserve">298
 </t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t xml:space="preserve">131
+          <t xml:space="preserve">770
+</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">88
 </t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t xml:space="preserve">210
-</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10909
+          <t xml:space="preserve">261
 </t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t xml:space="preserve">1261
+          <t xml:space="preserve">278
 </t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t xml:space="preserve">4394
+          <t xml:space="preserve">928
 </t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t xml:space="preserve">2
+          <t xml:space="preserve">146
 </t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="C36" t="n">
-        <v>108</v>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1389
+</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">880
+</t>
+        </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve">243
+          <t xml:space="preserve">202
 </t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t xml:space="preserve">11811
+          <t xml:space="preserve">249
+</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">81
 </t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t xml:space="preserve">156
+          <t xml:space="preserve">186
 </t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t xml:space="preserve">211
+          <t xml:space="preserve">19
 </t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">18
 </t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>1817</v>
+        <v>48</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2010
+</t>
+        </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t xml:space="preserve">12
+          <t xml:space="preserve">1406
 </t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t xml:space="preserve">1
+          <t xml:space="preserve">1278
+</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">990
 </t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t xml:space="preserve">100
+          <t xml:space="preserve">02
 </t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t xml:space="preserve">288
+          <t xml:space="preserve">985
 </t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t xml:space="preserve">286
+          <t xml:space="preserve">2824
+</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">112
 </t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t xml:space="preserve">118
+          <t xml:space="preserve">926
 </t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t xml:space="preserve">82
+          <t xml:space="preserve">21
 </t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t xml:space="preserve">1258
+          <t xml:space="preserve">1186
 </t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t xml:space="preserve">218
+          <t xml:space="preserve">1116
 </t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t xml:space="preserve">252
+          <t xml:space="preserve">248 2
 </t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t xml:space="preserve">879
+          <t xml:space="preserve">928
 </t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">188
 </t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="C37" t="n">
-        <v>3072</v>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11488
+</t>
+        </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">2898
+          <t xml:space="preserve">14608
 </t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve">242
+          <t xml:space="preserve">1008
 </t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t xml:space="preserve">1881
+          <t xml:space="preserve">1213
 </t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t xml:space="preserve">176
+          <t xml:space="preserve">488
 </t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t xml:space="preserve">213
+          <t xml:space="preserve">186
 </t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t xml:space="preserve">108
+          <t xml:space="preserve">169
 </t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t xml:space="preserve">759
+          <t xml:space="preserve">22
 </t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>9999</v>
+        <v>18</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">218
+</t>
+        </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t xml:space="preserve">624
+          <t xml:space="preserve">1040
 </t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t xml:space="preserve">982
+          <t xml:space="preserve">145
+</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">984
 </t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t xml:space="preserve">04
+          <t xml:space="preserve">09
 </t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t xml:space="preserve">884
+          <t xml:space="preserve">276
+</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1215
+</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">883
+</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">770
+</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">448
 </t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t xml:space="preserve">1126
+          <t xml:space="preserve">1186
+</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1116
+</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1108
 </t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t xml:space="preserve">69
+          <t xml:space="preserve">188
 </t>
         </is>
       </c>
     </row>
     <row r="38">
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2196
+</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">1197
+          <t xml:space="preserve">892
 </t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve">191
+          <t xml:space="preserve">801
 </t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t xml:space="preserve">128987
+          <t xml:space="preserve">247
+</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">91
 </t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t xml:space="preserve">10
+          <t xml:space="preserve">186
 </t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t xml:space="preserve">135
+          <t xml:space="preserve">14
+</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">22
 </t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>200</v>
+        <v>18</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t xml:space="preserve">183
+          <t xml:space="preserve">218
 </t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t xml:space="preserve">1927
+          <t xml:space="preserve">608
 </t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t xml:space="preserve">1000
+          <t xml:space="preserve">145
 </t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t xml:space="preserve">102
+          <t xml:space="preserve">984
 </t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t xml:space="preserve">310
+          <t xml:space="preserve">09
+</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">276
+</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">248
 </t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t xml:space="preserve">1986
+          <t xml:space="preserve">883
 </t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t xml:space="preserve">608
+          <t xml:space="preserve">770
 </t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t xml:space="preserve">162
+          <t xml:space="preserve">89
 </t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t xml:space="preserve">258
+          <t xml:space="preserve">837
 </t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t xml:space="preserve">9416
+          <t xml:space="preserve">228
 </t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t xml:space="preserve">880
+          <t xml:space="preserve">278
 </t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t xml:space="preserve">773
+          <t xml:space="preserve">835
 </t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t xml:space="preserve">18
+          <t xml:space="preserve">89
 </t>
         </is>
       </c>
     </row>
     <row r="39">
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8
+</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
+          <t xml:space="preserve">198
+</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8309
+</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">99
+</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1189
+</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">859
+</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0816
+</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2806
+</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">116
+</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1081
+</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">08
+</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">161
+</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
           <t xml:space="preserve">245
 </t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">199
-</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">247
-</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">175
-</t>
-        </is>
-      </c>
-      <c r="K39" t="n">
-        <v>18</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1200
-</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">123
-</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">964
-</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">00
-</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">315
-</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">247
-</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">251
-</t>
-        </is>
-      </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t xml:space="preserve">878
+          <t xml:space="preserve">179
 </t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t xml:space="preserve">1604
+          <t xml:space="preserve">664
 </t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t xml:space="preserve">1893
+          <t xml:space="preserve">147
 </t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
+          <t xml:space="preserve">2488
+</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2906
+</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
           <t xml:space="preserve">278
 </t>
         </is>
       </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1237
-</t>
-        </is>
-      </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t xml:space="preserve">812
+          <t xml:space="preserve">835
 </t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t xml:space="preserve">31
+          <t xml:space="preserve">28
 </t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="C40" t="n">
-        <v>298</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">121810
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12739
 </t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve">288
+          <t xml:space="preserve">198
 </t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t xml:space="preserve">136
+          <t xml:space="preserve">901
+</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">107
 </t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t xml:space="preserve">188
+          <t xml:space="preserve">179
 </t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t xml:space="preserve">28
+          <t xml:space="preserve">16
 </t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t xml:space="preserve">185
-</t>
-        </is>
+          <t xml:space="preserve">88
+</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t xml:space="preserve">206
+          <t xml:space="preserve">0816
 </t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
+          <t xml:space="preserve">2806
+</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">964
+</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">08
+</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">984
+</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
           <t xml:space="preserve">24
 </t>
         </is>
       </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">990
-</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">05
-</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">488
-</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">12553
-</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">211
-</t>
-        </is>
-      </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t xml:space="preserve">824282
+          <t xml:space="preserve">228
 </t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t xml:space="preserve">720
+          <t xml:space="preserve">699
 </t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t xml:space="preserve">110
+          <t xml:space="preserve">118
 </t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t xml:space="preserve">2458
+          <t xml:space="preserve">929
 </t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t xml:space="preserve">172872
-</t>
-        </is>
-      </c>
-      <c r="Y40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">977
-</t>
-        </is>
-      </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8
+          <t xml:space="preserve">227
+</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2154
 </t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="C41" t="n">
-        <v>4098</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1998
-</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2245
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12238
+</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">249
 </t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t xml:space="preserve">179
+          <t xml:space="preserve">61
 </t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t xml:space="preserve">18
-</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">181
+          <t xml:space="preserve">129
 </t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t xml:space="preserve">6
+          <t xml:space="preserve">104
 </t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>204</v>
+        <v>82</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t xml:space="preserve">200
+          <t xml:space="preserve">2904
 </t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t xml:space="preserve">195
+          <t xml:space="preserve">088
 </t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t xml:space="preserve">9509
+          <t xml:space="preserve">819
 </t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t xml:space="preserve">104
-</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">78
+          <t xml:space="preserve">1088
 </t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t xml:space="preserve">228
-</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">240
+          <t xml:space="preserve">994
 </t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t xml:space="preserve">917090
+          <t xml:space="preserve">299
 </t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t xml:space="preserve">901
+          <t xml:space="preserve">760
 </t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t xml:space="preserve">1
-</t>
-        </is>
-      </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">270
+          <t xml:space="preserve">88
 </t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t xml:space="preserve">888
+          <t xml:space="preserve">1286
 </t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t xml:space="preserve">26
-</t>
-        </is>
-      </c>
-      <c r="Y41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1804
-</t>
-        </is>
-      </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11
+          <t xml:space="preserve">960
 </t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="C42" t="n">
-        <v>2002</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11178
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2911
 </t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t xml:space="preserve">945
+          <t xml:space="preserve">201
 </t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t xml:space="preserve">106
+          <t xml:space="preserve">257
+</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">111
+</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1810
+</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">22
 </t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t xml:space="preserve">80
+          <t xml:space="preserve">204
+</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>197</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">213
 </t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t xml:space="preserve">181
-</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8
-</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0064
+          <t xml:space="preserve">911
 </t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t xml:space="preserve">18
+          <t xml:space="preserve">108
 </t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t xml:space="preserve">282
+          <t xml:space="preserve">809
 </t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t xml:space="preserve">284
+          <t xml:space="preserve">1969
 </t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t xml:space="preserve">7211
+          <t xml:space="preserve">682
 </t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t xml:space="preserve">84
-</t>
-        </is>
-      </c>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">023
-</t>
-        </is>
-      </c>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">59
+          <t xml:space="preserve">1757
+</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">242
 </t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="C43" t="n">
-        <v>1443</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">191
-</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8026
-</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8111
-</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">179
-</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">19
-</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1417
-</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1495
-</t>
-        </is>
-      </c>
       <c r="K43" t="n">
-        <v>202</v>
+        <v>82</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t xml:space="preserve">1197
+          <t xml:space="preserve">209
 </t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t xml:space="preserve">123
-</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">989
-</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">381
-</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
+          <t xml:space="preserve">92199
+</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1000500220
+</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
         <is>
           <t xml:space="preserve">1
 </t>
         </is>
       </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">285
-</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18915
-</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">42019
-</t>
-        </is>
-      </c>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">110
-</t>
-        </is>
-      </c>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">880
-</t>
-        </is>
-      </c>
-      <c r="Z43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">81
+      <c r="W43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1
 </t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="C44" t="n">
-        <v>290</v>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2957
+</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">299
+</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">201
+</t>
+        </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t xml:space="preserve">258
+</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
           <t xml:space="preserve">1
 </t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1
-</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">158
-</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1181
-</t>
-        </is>
-      </c>
-      <c r="K44" t="n">
-        <v>12192</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2149
-</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">13
-</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">168010
-</t>
-        </is>
-      </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t xml:space="preserve">106
+          <t xml:space="preserve">24944
 </t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t xml:space="preserve">841
+          <t xml:space="preserve">1484
+</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">844
 </t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t xml:space="preserve">875
+          <t xml:space="preserve">116
 </t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t xml:space="preserve">091
+          <t xml:space="preserve">689
+</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">127
 </t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t xml:space="preserve">959
+          <t xml:space="preserve">8151
+</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">218
+</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3269
 </t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t xml:space="preserve">818
+          <t xml:space="preserve">842
 </t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t xml:space="preserve">9
+          <t xml:space="preserve">6
 </t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="C45" t="n">
-        <v>291</v>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11
+</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">299
+</t>
+        </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t xml:space="preserve">7261
+          <t xml:space="preserve">201
 </t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t xml:space="preserve">123
+          <t xml:space="preserve">258
 </t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t xml:space="preserve">1
+          <t xml:space="preserve">197
 </t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t xml:space="preserve">40
-</t>
-        </is>
-      </c>
-      <c r="K45" t="n">
-        <v>202</v>
+          <t xml:space="preserve">16
+</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">87
+</t>
+        </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t xml:space="preserve">16
+          <t xml:space="preserve">206
 </t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t xml:space="preserve">23
+          <t xml:space="preserve">205
 </t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t xml:space="preserve">5864
+          <t xml:space="preserve">240
 </t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">989
+</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">02
 </t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t xml:space="preserve">841
+          <t xml:space="preserve">291
 </t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t xml:space="preserve">1416
+          <t xml:space="preserve">844
 </t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t xml:space="preserve">71
+          <t xml:space="preserve">116
+</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">689
 </t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t xml:space="preserve">8
+          <t xml:space="preserve">127
 </t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t xml:space="preserve">58
+          <t xml:space="preserve">8151
 </t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t xml:space="preserve">856
-</t>
-        </is>
-      </c>
-      <c r="X45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1
-</t>
-        </is>
-      </c>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">005
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="C46" t="n">
-        <v>7</v>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">95
-</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1818
-</t>
-        </is>
-      </c>
-      <c r="K46" t="n">
-        <v>202</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1
-</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1977
-</t>
-        </is>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1
-</t>
-        </is>
-      </c>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">254
-</t>
-        </is>
-      </c>
-      <c r="Z46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="C47" t="n">
-        <v>8481</v>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8
-</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">910
-</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">16
-</t>
-        </is>
-      </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1929
-</t>
-        </is>
-      </c>
-      <c r="Z47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2
+          <t xml:space="preserve">218
 </t>
         </is>
       </c>

--- a/src/output/original_transcribed_data.xlsx
+++ b/src/output/original_transcribed_data.xlsx
@@ -731,16 +731,21 @@
           <t>1</t>
         </is>
       </c>
-      <c r="C4" s="3" t="n"/>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1862
+</t>
+        </is>
+      </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">317
+          <t xml:space="preserve">288
 </t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">169
+          <t xml:space="preserve">900
 </t>
         </is>
       </c>
@@ -752,103 +757,124 @@
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">148
+          <t xml:space="preserve">878
 </t>
         </is>
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">153
+          <t xml:space="preserve">1182
 </t>
         </is>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">26
-</t>
-        </is>
-      </c>
-      <c r="J4" s="3" t="n"/>
+          <t xml:space="preserve">17
+</t>
+        </is>
+      </c>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">99
+</t>
+        </is>
+      </c>
       <c r="K4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">189
+          <t xml:space="preserve">00
 </t>
         </is>
       </c>
       <c r="L4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">184
+          <t xml:space="preserve">202
 </t>
         </is>
       </c>
       <c r="M4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">184
+          <t xml:space="preserve">201
 </t>
         </is>
       </c>
       <c r="N4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">298
+          <t xml:space="preserve">834
 </t>
         </is>
       </c>
       <c r="O4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">912
+          <t xml:space="preserve">990
 </t>
         </is>
       </c>
       <c r="P4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">02
 </t>
         </is>
       </c>
       <c r="Q4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">306
+          <t xml:space="preserve">287
 </t>
         </is>
       </c>
       <c r="R4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">238
-</t>
-        </is>
-      </c>
-      <c r="S4" s="3" t="n"/>
+          <t xml:space="preserve">241
+</t>
+        </is>
+      </c>
+      <c r="S4" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">271
+</t>
+        </is>
+      </c>
       <c r="T4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">45
+          <t xml:space="preserve">1689
 </t>
         </is>
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">186
+          <t xml:space="preserve">1122
 </t>
         </is>
       </c>
       <c r="V4" s="3" t="inlineStr">
         <is>
-          <t>85</t>
+          <t xml:space="preserve">252
+</t>
         </is>
       </c>
       <c r="W4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">899
-</t>
-        </is>
-      </c>
-      <c r="X4" s="3" t="n"/>
+          <t xml:space="preserve">228
+</t>
+        </is>
+      </c>
+      <c r="X4" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">262
+</t>
+        </is>
+      </c>
       <c r="Y4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">762
-</t>
-        </is>
-      </c>
-      <c r="Z4" s="3" t="n"/>
+          <t xml:space="preserve">8118
+</t>
+        </is>
+      </c>
+      <c r="Z4" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8
+</t>
+        </is>
+      </c>
       <c r="AA4" s="3" t="inlineStr">
         <is>
           <t>1</t>
@@ -862,123 +888,150 @@
           <t>2</t>
         </is>
       </c>
-      <c r="C5" s="3" t="n"/>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4035
+</t>
+        </is>
+      </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">262
+          <t xml:space="preserve">326
 </t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">174
+          <t xml:space="preserve">182
 </t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">218
+          <t xml:space="preserve">254
 </t>
         </is>
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">88
+          <t xml:space="preserve">144
 </t>
         </is>
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">173
+          <t xml:space="preserve">168
 </t>
         </is>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">16
+          <t xml:space="preserve">325
 </t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">28
+          <t xml:space="preserve">55
 </t>
         </is>
       </c>
       <c r="K5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">80
+          <t xml:space="preserve">00
 </t>
         </is>
       </c>
       <c r="L5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">196
+          <t xml:space="preserve">189
 </t>
         </is>
       </c>
       <c r="M5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">12620
+          <t xml:space="preserve">188
 </t>
         </is>
       </c>
       <c r="N5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">205
-</t>
-        </is>
-      </c>
-      <c r="O5" s="3" t="n"/>
+          <t xml:space="preserve">286
+</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">990
+</t>
+        </is>
+      </c>
       <c r="P5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">02
 </t>
         </is>
       </c>
       <c r="Q5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">927
+          <t xml:space="preserve">326
 </t>
         </is>
       </c>
       <c r="R5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">223
-</t>
-        </is>
-      </c>
-      <c r="S5" s="3" t="n"/>
+          <t xml:space="preserve">254
+</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">278
+</t>
+        </is>
+      </c>
       <c r="T5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">702
+          <t xml:space="preserve">1566
 </t>
         </is>
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>65</t>
+          <t xml:space="preserve">212
+</t>
         </is>
       </c>
       <c r="V5" s="3" t="inlineStr">
         <is>
-          <t>231</t>
+          <t xml:space="preserve">272
+</t>
         </is>
       </c>
       <c r="W5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">213
-</t>
-        </is>
-      </c>
-      <c r="X5" s="3" t="n"/>
+          <t xml:space="preserve">240
+</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1278
+</t>
+        </is>
+      </c>
       <c r="Y5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">68
-</t>
-        </is>
-      </c>
-      <c r="Z5" s="3" t="n"/>
+          <t xml:space="preserve">770
+</t>
+        </is>
+      </c>
+      <c r="Z5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">82
+</t>
+        </is>
+      </c>
       <c r="AA5" s="3" t="inlineStr">
         <is>
           <t>2</t>
@@ -994,132 +1047,147 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">5 5
+          <t xml:space="preserve">4223
 </t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">322
+          <t xml:space="preserve">342
 </t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">170
+          <t xml:space="preserve">188
 </t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">246
+          <t xml:space="preserve">265
 </t>
         </is>
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">152
+          <t xml:space="preserve">154
 </t>
         </is>
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">144
+          <t xml:space="preserve">172
 </t>
         </is>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">27
+          <t xml:space="preserve">116
 </t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">44
+          <t xml:space="preserve">72
 </t>
         </is>
       </c>
       <c r="K6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">16
+          <t xml:space="preserve">00
 </t>
         </is>
       </c>
       <c r="L6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">174
+          <t xml:space="preserve">200
 </t>
         </is>
       </c>
       <c r="M6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">208
+          <t xml:space="preserve">200
 </t>
         </is>
       </c>
       <c r="N6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">914
+          <t xml:space="preserve">233
 </t>
         </is>
       </c>
       <c r="O6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">912
+          <t xml:space="preserve">1000
 </t>
         </is>
       </c>
       <c r="P6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">239
-</t>
-        </is>
-      </c>
-      <c r="Q6" s="3" t="n"/>
+          <t xml:space="preserve">00
+</t>
+        </is>
+      </c>
+      <c r="Q6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">327
+</t>
+        </is>
+      </c>
       <c r="R6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">209
+          <t xml:space="preserve">257
 </t>
         </is>
       </c>
       <c r="S6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">268
+          <t xml:space="preserve">286
 </t>
         </is>
       </c>
       <c r="T6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">507
-</t>
-        </is>
-      </c>
-      <c r="U6" s="3" t="n"/>
+          <t xml:space="preserve">552
+</t>
+        </is>
+      </c>
+      <c r="U6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">207
+</t>
+        </is>
+      </c>
       <c r="V6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">239
+          <t xml:space="preserve">287
 </t>
         </is>
       </c>
       <c r="W6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">242
+          <t xml:space="preserve">237
 </t>
         </is>
       </c>
       <c r="X6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">742
+          <t xml:space="preserve">261
 </t>
         </is>
       </c>
       <c r="Y6" s="3" t="inlineStr">
         <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="Z6" s="3" t="n"/>
+          <t xml:space="preserve">664
+</t>
+        </is>
+      </c>
+      <c r="Z6" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="AA6" s="3" t="inlineStr">
         <is>
           <t>3</t>
@@ -1133,74 +1201,81 @@
           <t>4</t>
         </is>
       </c>
-      <c r="C7" s="3" t="n"/>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>43351</t>
+        </is>
+      </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2305
+          <t xml:space="preserve">347
 </t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">199
+          <t xml:space="preserve">193
 </t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">252
+          <t xml:space="preserve">270
 </t>
         </is>
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">106
+          <t xml:space="preserve">154
 </t>
         </is>
       </c>
       <c r="H7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">178
+          <t xml:space="preserve">182
 </t>
         </is>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">14
-</t>
+          <t>433</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">23
-</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">158
+          <t xml:space="preserve">00
 </t>
         </is>
       </c>
       <c r="L7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">203
+          <t xml:space="preserve">201
 </t>
         </is>
       </c>
       <c r="M7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">175
+          <t xml:space="preserve">201
 </t>
         </is>
       </c>
       <c r="N7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">188
-</t>
-        </is>
-      </c>
-      <c r="O7" s="3" t="n"/>
+          <t xml:space="preserve">2351
+</t>
+        </is>
+      </c>
+      <c r="O7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1000
+</t>
+        </is>
+      </c>
       <c r="P7" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">00
@@ -1209,59 +1284,64 @@
       </c>
       <c r="Q7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">209
+          <t xml:space="preserve">342
 </t>
         </is>
       </c>
       <c r="R7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">195
+          <t xml:space="preserve">255
 </t>
         </is>
       </c>
       <c r="S7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">229
+          <t xml:space="preserve">271
 </t>
         </is>
       </c>
       <c r="T7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">144
+          <t xml:space="preserve">506
 </t>
         </is>
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">09
+          <t xml:space="preserve">265
 </t>
         </is>
       </c>
       <c r="V7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">212
+          <t xml:space="preserve">295
 </t>
         </is>
       </c>
       <c r="W7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">246
+          <t xml:space="preserve">244
 </t>
         </is>
       </c>
       <c r="X7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">862
+          <t xml:space="preserve">273
 </t>
         </is>
       </c>
       <c r="Y7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">114
-</t>
-        </is>
-      </c>
-      <c r="Z7" s="3" t="n"/>
+          <t xml:space="preserve">662
+</t>
+        </is>
+      </c>
+      <c r="Z7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">138
+</t>
+        </is>
+      </c>
       <c r="AA7" s="3" t="inlineStr">
         <is>
           <t>4</t>
@@ -1275,128 +1355,148 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C8" s="3" t="n"/>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2990
+</t>
+        </is>
+      </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">268
-</t>
+          <t>3441</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">184
+          <t xml:space="preserve">806
 </t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">226
+          <t xml:space="preserve">276
 </t>
         </is>
       </c>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">84
+          <t xml:space="preserve">140
 </t>
         </is>
       </c>
       <c r="H8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">173
+          <t xml:space="preserve">11190
 </t>
         </is>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">13
+          <t xml:space="preserve">20
 </t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">22
-</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">04
+          <t xml:space="preserve">309
 </t>
         </is>
       </c>
       <c r="L8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">189
+          <t xml:space="preserve">210
 </t>
         </is>
       </c>
       <c r="M8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">202
-</t>
-        </is>
-      </c>
-      <c r="N8" s="3" t="n"/>
-      <c r="O8" s="3" t="n"/>
+          <t xml:space="preserve">206
+</t>
+        </is>
+      </c>
+      <c r="N8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2409
+</t>
+        </is>
+      </c>
+      <c r="O8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">965
+</t>
+        </is>
+      </c>
       <c r="P8" s="3" t="inlineStr">
         <is>
-          <t>011</t>
+          <t xml:space="preserve">108
+</t>
         </is>
       </c>
       <c r="Q8" s="3" t="inlineStr">
         <is>
-          <t>258</t>
+          <t xml:space="preserve">1214
+</t>
         </is>
       </c>
       <c r="R8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">223
+          <t xml:space="preserve">212
 </t>
         </is>
       </c>
       <c r="S8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1662
+          <t xml:space="preserve">251
 </t>
         </is>
       </c>
       <c r="T8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">816
+          <t xml:space="preserve">980
 </t>
         </is>
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">214
+          <t xml:space="preserve">104
 </t>
         </is>
       </c>
       <c r="V8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">214
+          <t xml:space="preserve">222
 </t>
         </is>
       </c>
       <c r="W8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">238
+          <t xml:space="preserve">219
 </t>
         </is>
       </c>
       <c r="X8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">592
+          <t xml:space="preserve">261
 </t>
         </is>
       </c>
       <c r="Y8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">16
-</t>
-        </is>
-      </c>
-      <c r="Z8" s="3" t="n"/>
+          <t xml:space="preserve">974
+</t>
+        </is>
+      </c>
+      <c r="Z8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">06
+</t>
+        </is>
+      </c>
       <c r="AA8" s="3" t="inlineStr">
         <is>
           <t>5</t>
@@ -1410,129 +1510,142 @@
           <t>Tot.</t>
         </is>
       </c>
-      <c r="C9" s="3" t="n"/>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">17835
+</t>
+        </is>
+      </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1474
+          <t xml:space="preserve">1648
 </t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1129
-</t>
-        </is>
-      </c>
-      <c r="F9" s="3" t="n"/>
+          <t xml:space="preserve">969
+</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1308
+</t>
+        </is>
+      </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">578
+          <t xml:space="preserve">679
 </t>
         </is>
       </c>
       <c r="H9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">578
+          <t xml:space="preserve">894
 </t>
         </is>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">96
+          <t xml:space="preserve">165
 </t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">162
+          <t xml:space="preserve">275
 </t>
         </is>
       </c>
       <c r="K9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">442
+          <t xml:space="preserve">309
 </t>
         </is>
       </c>
       <c r="L9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">926
+          <t xml:space="preserve">1002
 </t>
         </is>
       </c>
       <c r="M9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">114
+          <t xml:space="preserve">996
 </t>
         </is>
       </c>
       <c r="N9" s="3" t="inlineStr">
         <is>
-          <t>452</t>
+          <t xml:space="preserve">1158
+</t>
         </is>
       </c>
       <c r="O9" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t xml:space="preserve">18945
+</t>
         </is>
       </c>
       <c r="P9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">112
 </t>
         </is>
       </c>
       <c r="Q9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1909
+          <t xml:space="preserve">1496
 </t>
         </is>
       </c>
       <c r="R9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">248
+          <t xml:space="preserve">1219
 </t>
         </is>
       </c>
       <c r="S9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">3186
+          <t xml:space="preserve">1357
 </t>
         </is>
       </c>
       <c r="T9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">488
+          <t xml:space="preserve">2299
 </t>
         </is>
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">246
+          <t xml:space="preserve">810
 </t>
         </is>
       </c>
       <c r="V9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1108
+          <t xml:space="preserve">1328
 </t>
         </is>
       </c>
       <c r="W9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">236
+          <t xml:space="preserve">1168
 </t>
         </is>
       </c>
       <c r="X9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">3822
+          <t xml:space="preserve">1335
 </t>
         </is>
       </c>
       <c r="Y9" s="3" t="inlineStr">
         <is>
-          <t>73</t>
+          <t xml:space="preserve">3888
+</t>
         </is>
       </c>
       <c r="Z9" s="3" t="n"/>
@@ -1549,129 +1662,145 @@
           <t>Moy.</t>
         </is>
       </c>
-      <c r="C10" s="3" t="n"/>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3567
+</t>
+        </is>
+      </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>48</t>
+          <t xml:space="preserve">330
+</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">876
+          <t xml:space="preserve">194
 </t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">237
+          <t xml:space="preserve">262
 </t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">196
+          <t xml:space="preserve">136
 </t>
         </is>
       </c>
       <c r="H10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">18
+          <t xml:space="preserve">179
 </t>
         </is>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">19
+          <t xml:space="preserve">33
 </t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">72
+          <t xml:space="preserve">55
 </t>
         </is>
       </c>
       <c r="K10" s="3" t="n"/>
       <c r="L10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">185
+          <t xml:space="preserve">200
 </t>
         </is>
       </c>
       <c r="M10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">726
+          <t xml:space="preserve">199
 </t>
         </is>
       </c>
       <c r="N10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">15912
-</t>
-        </is>
-      </c>
-      <c r="O10" s="3" t="n"/>
+          <t xml:space="preserve">1232
+</t>
+        </is>
+      </c>
+      <c r="O10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">989
+</t>
+        </is>
+      </c>
       <c r="P10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">02
+          <t xml:space="preserve">102
 </t>
         </is>
       </c>
       <c r="Q10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">259
+          <t xml:space="preserve">299
 </t>
         </is>
       </c>
       <c r="R10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1223
+          <t xml:space="preserve">8244
 </t>
         </is>
       </c>
       <c r="S10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">245
+          <t xml:space="preserve">271
 </t>
         </is>
       </c>
       <c r="T10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">642
+          <t xml:space="preserve">660
 </t>
         </is>
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1238
+          <t xml:space="preserve">162
 </t>
         </is>
       </c>
       <c r="V10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">222
+          <t xml:space="preserve">266
 </t>
         </is>
       </c>
       <c r="W10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1269
+          <t xml:space="preserve">1234
 </t>
         </is>
       </c>
       <c r="X10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">162
+          <t xml:space="preserve">267
 </t>
         </is>
       </c>
       <c r="Y10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">311
-</t>
-        </is>
-      </c>
-      <c r="Z10" s="3" t="n"/>
+          <t xml:space="preserve">778
+</t>
+        </is>
+      </c>
+      <c r="Z10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">416
+</t>
+        </is>
+      </c>
       <c r="AA10" s="3" t="inlineStr">
         <is>
           <t>Moy.</t>
@@ -1685,129 +1814,150 @@
           <t>6</t>
         </is>
       </c>
-      <c r="C11" s="3" t="n"/>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2656
+</t>
+        </is>
+      </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">295
+          <t xml:space="preserve">201
 </t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">179
+          <t xml:space="preserve">198
 </t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">238
+          <t xml:space="preserve">249
 </t>
         </is>
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>106</t>
+          <t xml:space="preserve">103
+</t>
         </is>
       </c>
       <c r="H11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1810
+          <t xml:space="preserve">182
 </t>
         </is>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">111
+          <t xml:space="preserve">1866
 </t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">24
+          <t xml:space="preserve">828
 </t>
         </is>
       </c>
       <c r="K11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">97
+          <t xml:space="preserve">00
 </t>
         </is>
       </c>
       <c r="L11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">193
-</t>
-        </is>
-      </c>
-      <c r="M11" s="3" t="n"/>
+          <t xml:space="preserve">212
+</t>
+        </is>
+      </c>
+      <c r="M11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">209
+</t>
+        </is>
+      </c>
       <c r="N11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">21
-</t>
-        </is>
-      </c>
-      <c r="O11" s="3" t="n"/>
+          <t xml:space="preserve">11245
+</t>
+        </is>
+      </c>
+      <c r="O11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0923
+</t>
+        </is>
+      </c>
       <c r="P11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">02
+          <t xml:space="preserve">06
 </t>
         </is>
       </c>
       <c r="Q11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">284
+          <t xml:space="preserve">1299
 </t>
         </is>
       </c>
       <c r="R11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">220
+          <t xml:space="preserve">1255
 </t>
         </is>
       </c>
       <c r="S11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">267
+          <t xml:space="preserve">1298
 </t>
         </is>
       </c>
       <c r="T11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">612
+          <t xml:space="preserve">706
 </t>
         </is>
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">248
+          <t xml:space="preserve">1124
 </t>
         </is>
       </c>
       <c r="V11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">248
+          <t xml:space="preserve">1271
 </t>
         </is>
       </c>
       <c r="W11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">252
+          <t xml:space="preserve">8249
 </t>
         </is>
       </c>
       <c r="X11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">222
+          <t xml:space="preserve">301
 </t>
         </is>
       </c>
       <c r="Y11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">62
-</t>
-        </is>
-      </c>
-      <c r="Z11" s="3" t="n"/>
+          <t xml:space="preserve">840
+</t>
+        </is>
+      </c>
+      <c r="Z11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">83
+</t>
+        </is>
+      </c>
       <c r="AA11" s="3" t="inlineStr">
         <is>
           <t>6</t>
@@ -1821,126 +1971,150 @@
           <t>7</t>
         </is>
       </c>
-      <c r="C12" s="3" t="n"/>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3471
+</t>
+        </is>
+      </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">890
+          <t xml:space="preserve">318
 </t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">185
+          <t xml:space="preserve">226
 </t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">224
+          <t xml:space="preserve">272
 </t>
         </is>
       </c>
       <c r="G12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">105
+          <t xml:space="preserve">92
 </t>
         </is>
       </c>
       <c r="H12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">175
+          <t xml:space="preserve">212
 </t>
         </is>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">16
+          <t xml:space="preserve">27
 </t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">218
+          <t xml:space="preserve">1446
 </t>
         </is>
       </c>
       <c r="K12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">08
+          <t xml:space="preserve">100
 </t>
         </is>
       </c>
       <c r="L12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">190
+          <t xml:space="preserve">233
 </t>
         </is>
       </c>
       <c r="M12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">153
-</t>
-        </is>
-      </c>
-      <c r="N12" s="3" t="n"/>
+          <t xml:space="preserve">230
+</t>
+        </is>
+      </c>
+      <c r="N12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">279
+</t>
+        </is>
+      </c>
       <c r="O12" s="3" t="inlineStr">
         <is>
-          <t>902</t>
+          <t xml:space="preserve">975
+</t>
         </is>
       </c>
       <c r="P12" s="3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t xml:space="preserve">05
+</t>
         </is>
       </c>
       <c r="Q12" s="3" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t xml:space="preserve">318
+</t>
         </is>
       </c>
       <c r="R12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">220
-</t>
-        </is>
-      </c>
-      <c r="S12" s="3" t="n"/>
+          <t xml:space="preserve">249
+</t>
+        </is>
+      </c>
+      <c r="S12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">271
+</t>
+        </is>
+      </c>
       <c r="T12" s="3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t xml:space="preserve">578
+</t>
         </is>
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">5
+          <t xml:space="preserve">198
 </t>
         </is>
       </c>
       <c r="V12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">229
+          <t xml:space="preserve">279
 </t>
         </is>
       </c>
       <c r="W12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">268
+          <t xml:space="preserve">1246
 </t>
         </is>
       </c>
       <c r="X12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">812
+          <t xml:space="preserve">288
 </t>
         </is>
       </c>
       <c r="Y12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">45
-</t>
-        </is>
-      </c>
-      <c r="Z12" s="3" t="n"/>
+          <t xml:space="preserve">767
+</t>
+        </is>
+      </c>
+      <c r="Z12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">57
+</t>
+        </is>
+      </c>
       <c r="AA12" s="3" t="inlineStr">
         <is>
           <t>7</t>
@@ -1954,129 +2128,150 @@
           <t>8</t>
         </is>
       </c>
-      <c r="C13" s="3" t="n"/>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14286
+</t>
+        </is>
+      </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">264
+          <t xml:space="preserve">328
 </t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">183
+          <t xml:space="preserve">204
 </t>
         </is>
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">227
+          <t xml:space="preserve">966
 </t>
         </is>
       </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">84
+          <t xml:space="preserve">124
 </t>
         </is>
       </c>
       <c r="H13" s="3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t xml:space="preserve">199
+</t>
         </is>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">25
+          <t xml:space="preserve">33
 </t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">27
+          <t xml:space="preserve">160
 </t>
         </is>
       </c>
       <c r="K13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">80
+          <t xml:space="preserve">00
 </t>
         </is>
       </c>
       <c r="L13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">199
+          <t xml:space="preserve">2221
 </t>
         </is>
       </c>
       <c r="M13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">188
+          <t xml:space="preserve">219
 </t>
         </is>
       </c>
       <c r="N13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">288
-</t>
-        </is>
-      </c>
-      <c r="O13" s="3" t="n"/>
+          <t xml:space="preserve">261
+</t>
+        </is>
+      </c>
+      <c r="O13" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">980
+</t>
+        </is>
+      </c>
       <c r="P13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">04
+          <t xml:space="preserve">104
 </t>
         </is>
       </c>
       <c r="Q13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">243
+          <t xml:space="preserve">326
 </t>
         </is>
       </c>
       <c r="R13" s="3" t="inlineStr">
         <is>
+          <t xml:space="preserve">246
+</t>
+        </is>
+      </c>
+      <c r="S13" s="3" t="inlineStr">
+        <is>
           <t xml:space="preserve">258
 </t>
         </is>
       </c>
-      <c r="S13" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">229
-</t>
-        </is>
-      </c>
       <c r="T13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">188
-</t>
-        </is>
-      </c>
-      <c r="U13" s="3" t="n"/>
+          <t xml:space="preserve">527
+</t>
+        </is>
+      </c>
+      <c r="U13" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">233
+</t>
+        </is>
+      </c>
       <c r="V13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">218
+          <t xml:space="preserve">1280
 </t>
         </is>
       </c>
       <c r="W13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">244
+          <t xml:space="preserve">248
 </t>
         </is>
       </c>
       <c r="X13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">812
+          <t xml:space="preserve">293
 </t>
         </is>
       </c>
       <c r="Y13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">52
-</t>
-        </is>
-      </c>
-      <c r="Z13" s="3" t="n"/>
+          <t xml:space="preserve">776
+</t>
+        </is>
+      </c>
+      <c r="Z13" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">87
+</t>
+        </is>
+      </c>
       <c r="AA13" s="3" t="inlineStr">
         <is>
           <t>8</t>
@@ -2090,139 +2285,150 @@
           <t>9</t>
         </is>
       </c>
-      <c r="C14" s="3" t="n"/>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1903
+</t>
+        </is>
+      </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">268
+          <t xml:space="preserve">3207
 </t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">185
+          <t xml:space="preserve">219
 </t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
+          <t xml:space="preserve">263
+</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">88
+</t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">203
+</t>
+        </is>
+      </c>
+      <c r="I14" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">15
+</t>
+        </is>
+      </c>
+      <c r="J14" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">521
+</t>
+        </is>
+      </c>
+      <c r="K14" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">111
+</t>
+        </is>
+      </c>
+      <c r="L14" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">224
+</t>
+        </is>
+      </c>
+      <c r="M14" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">221
+</t>
+        </is>
+      </c>
+      <c r="N14" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">264
+</t>
+        </is>
+      </c>
+      <c r="O14" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">973
+</t>
+        </is>
+      </c>
+      <c r="P14" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">107
+</t>
+        </is>
+      </c>
+      <c r="Q14" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">824
+</t>
+        </is>
+      </c>
+      <c r="R14" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">211
+</t>
+        </is>
+      </c>
+      <c r="S14" s="3" t="inlineStr">
+        <is>
           <t xml:space="preserve">242
 </t>
         </is>
       </c>
-      <c r="G14" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">83
-</t>
-        </is>
-      </c>
-      <c r="H14" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1165
-</t>
-        </is>
-      </c>
-      <c r="I14" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">19
-</t>
-        </is>
-      </c>
-      <c r="J14" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">27
-</t>
-        </is>
-      </c>
-      <c r="K14" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">822
-</t>
-        </is>
-      </c>
-      <c r="L14" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">189
-</t>
-        </is>
-      </c>
-      <c r="M14" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">189
-</t>
-        </is>
-      </c>
-      <c r="N14" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9043
-</t>
-        </is>
-      </c>
-      <c r="O14" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">912
-</t>
-        </is>
-      </c>
-      <c r="P14" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">04
-</t>
-        </is>
-      </c>
-      <c r="Q14" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">222
-</t>
-        </is>
-      </c>
-      <c r="R14" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">224
-</t>
-        </is>
-      </c>
-      <c r="S14" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">262
-</t>
-        </is>
-      </c>
       <c r="T14" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">38
+          <t xml:space="preserve">890
 </t>
         </is>
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1252
+          <t xml:space="preserve">29
 </t>
         </is>
       </c>
       <c r="V14" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">200
+          <t xml:space="preserve">220
 </t>
         </is>
       </c>
       <c r="W14" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">226
+          <t xml:space="preserve">216
 </t>
         </is>
       </c>
       <c r="X14" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1832
+          <t xml:space="preserve">255
 </t>
         </is>
       </c>
       <c r="Y14" s="3" t="inlineStr">
         <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z14" s="3" t="n"/>
+          <t xml:space="preserve">960
+</t>
+        </is>
+      </c>
+      <c r="Z14" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">85
+</t>
+        </is>
+      </c>
       <c r="AA14" s="3" t="inlineStr">
         <is>
           <t>9</t>
@@ -2236,129 +2442,150 @@
           <t>10</t>
         </is>
       </c>
-      <c r="C15" s="3" t="n"/>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3596
+</t>
+        </is>
+      </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">299
+          <t xml:space="preserve">325
 </t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">184
+          <t xml:space="preserve">2088
 </t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">225
+          <t xml:space="preserve">267
 </t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>165</t>
+          <t xml:space="preserve">1117
+</t>
         </is>
       </c>
       <c r="H15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">179
+          <t xml:space="preserve">14196
 </t>
         </is>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">16
+          <t xml:space="preserve">24
 </t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">27
+          <t xml:space="preserve">39
 </t>
         </is>
       </c>
       <c r="K15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">114
+          <t xml:space="preserve">259
 </t>
         </is>
       </c>
       <c r="L15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">190
+          <t xml:space="preserve">216
 </t>
         </is>
       </c>
       <c r="M15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">187
-</t>
-        </is>
-      </c>
-      <c r="N15" s="3" t="n"/>
+          <t xml:space="preserve">216
+</t>
+        </is>
+      </c>
+      <c r="N15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">258
+</t>
+        </is>
+      </c>
       <c r="O15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">919
+          <t xml:space="preserve">1800
 </t>
         </is>
       </c>
       <c r="P15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">04
+          <t xml:space="preserve">00
 </t>
         </is>
       </c>
       <c r="Q15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">814
+          <t xml:space="preserve">320
 </t>
         </is>
       </c>
       <c r="R15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">234
+          <t xml:space="preserve">258
 </t>
         </is>
       </c>
       <c r="S15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">257
+          <t xml:space="preserve">892
 </t>
         </is>
       </c>
       <c r="T15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">110
-</t>
-        </is>
-      </c>
-      <c r="U15" s="3" t="n"/>
+          <t xml:space="preserve">617
+</t>
+        </is>
+      </c>
+      <c r="U15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">182
+</t>
+        </is>
+      </c>
       <c r="V15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">228
+          <t xml:space="preserve">287
 </t>
         </is>
       </c>
       <c r="W15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">264
+          <t xml:space="preserve">248
 </t>
         </is>
       </c>
       <c r="X15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">172
+          <t xml:space="preserve">288
 </t>
         </is>
       </c>
       <c r="Y15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">514
-</t>
-        </is>
-      </c>
-      <c r="Z15" s="3" t="n"/>
+          <t xml:space="preserve">731
+</t>
+        </is>
+      </c>
+      <c r="Z15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">09
+</t>
+        </is>
+      </c>
       <c r="AA15" s="3" t="inlineStr">
         <is>
           <t>10</t>
@@ -2372,127 +2599,131 @@
           <t>Tot.</t>
         </is>
       </c>
-      <c r="C16" s="3" t="n"/>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">15912
+</t>
+        </is>
+      </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">293
+          <t xml:space="preserve">0
 </t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">136
+          <t xml:space="preserve">1055
 </t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1166
+          <t xml:space="preserve">1317
 </t>
         </is>
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">97
+          <t xml:space="preserve">524
 </t>
         </is>
       </c>
       <c r="H16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">815
+          <t xml:space="preserve">992
 </t>
         </is>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>923</t>
+          <t xml:space="preserve">115
+</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">143
+          <t xml:space="preserve">194
 </t>
         </is>
       </c>
       <c r="K16" s="3" t="n"/>
-      <c r="L16" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9513
-</t>
-        </is>
-      </c>
+      <c r="L16" s="3" t="n"/>
       <c r="M16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">189
+          <t xml:space="preserve">1095
 </t>
         </is>
       </c>
       <c r="N16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">9532
+          <t xml:space="preserve">1307
 </t>
         </is>
       </c>
       <c r="O16" s="3" t="inlineStr">
         <is>
-          <t>53</t>
+          <t xml:space="preserve">4901
+</t>
         </is>
       </c>
       <c r="P16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">02
+          <t xml:space="preserve">92
 </t>
         </is>
       </c>
       <c r="Q16" s="3" t="inlineStr">
         <is>
-          <t>266</t>
+          <t xml:space="preserve">1487
+</t>
         </is>
       </c>
       <c r="R16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">229
+          <t xml:space="preserve">1219
 </t>
         </is>
       </c>
       <c r="S16" s="3" t="inlineStr">
         <is>
-          <t>182</t>
+          <t xml:space="preserve">1361
+</t>
         </is>
       </c>
       <c r="T16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">91
+          <t xml:space="preserve">3318
 </t>
         </is>
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">18417
+          <t xml:space="preserve">766
 </t>
         </is>
       </c>
       <c r="V16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">209
+          <t xml:space="preserve">1337
 </t>
         </is>
       </c>
       <c r="W16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">244
+          <t xml:space="preserve">1207
 </t>
         </is>
       </c>
       <c r="X16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">852
+          <t xml:space="preserve">1425
 </t>
         </is>
       </c>
       <c r="Y16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">03
+          <t xml:space="preserve">4074
 </t>
         </is>
       </c>
@@ -2510,120 +2741,149 @@
           <t>Moy.</t>
         </is>
       </c>
-      <c r="C17" s="3" t="n"/>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3182
+</t>
+        </is>
+      </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>18</t>
+          <t xml:space="preserve">316
+</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">323
+          <t xml:space="preserve">211
 </t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">235
+          <t xml:space="preserve">263
 </t>
         </is>
       </c>
       <c r="G17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">4811
+          <t xml:space="preserve">105
 </t>
         </is>
       </c>
       <c r="H17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">125
+          <t xml:space="preserve">198
 </t>
         </is>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">19
-</t>
-        </is>
-      </c>
-      <c r="J17" s="3" t="n"/>
-      <c r="K17" s="3" t="n"/>
+          <t xml:space="preserve">23
+</t>
+        </is>
+      </c>
+      <c r="J17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">39
+</t>
+        </is>
+      </c>
+      <c r="K17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">368
+</t>
+        </is>
+      </c>
       <c r="L17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">199
+          <t xml:space="preserve">1106
 </t>
         </is>
       </c>
       <c r="M17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">946
+          <t xml:space="preserve">219
 </t>
         </is>
       </c>
       <c r="N17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">10
+          <t xml:space="preserve">261
 </t>
         </is>
       </c>
       <c r="O17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">212
+          <t xml:space="preserve">980
 </t>
         </is>
       </c>
       <c r="P17" s="3" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q17" s="3" t="n"/>
+          <t xml:space="preserve">1104
+</t>
+        </is>
+      </c>
+      <c r="Q17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">297
+</t>
+        </is>
+      </c>
       <c r="R17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1266
+          <t xml:space="preserve">244
 </t>
         </is>
       </c>
       <c r="S17" s="3" t="inlineStr">
         <is>
-          <t>266</t>
+          <t xml:space="preserve">2722
+</t>
         </is>
       </c>
       <c r="T17" s="3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t xml:space="preserve">664
+</t>
         </is>
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">229
+          <t xml:space="preserve">153
 </t>
         </is>
       </c>
       <c r="V17" s="3" t="inlineStr">
         <is>
-          <t>7043</t>
+          <t xml:space="preserve">267
+</t>
         </is>
       </c>
       <c r="W17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1246
-</t>
+          <t>941</t>
         </is>
       </c>
       <c r="X17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">8083
+          <t xml:space="preserve">285
 </t>
         </is>
       </c>
       <c r="Y17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1510
-</t>
-        </is>
-      </c>
-      <c r="Z17" s="3" t="n"/>
+          <t xml:space="preserve">815
+</t>
+        </is>
+      </c>
+      <c r="Z17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">69
+</t>
+        </is>
+      </c>
       <c r="AA17" s="3" t="inlineStr">
         <is>
           <t>Moy.</t>
@@ -2637,134 +2897,145 @@
           <t>11</t>
         </is>
       </c>
-      <c r="C18" s="3" t="n"/>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3680
+</t>
+        </is>
+      </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">251
+          <t xml:space="preserve">321
 </t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">185
+          <t xml:space="preserve">212
 </t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">249
+          <t xml:space="preserve">8267
 </t>
         </is>
       </c>
       <c r="G18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">96
+          <t xml:space="preserve">109
 </t>
         </is>
       </c>
       <c r="H18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">166
+          <t xml:space="preserve">204
 </t>
         </is>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">22
+          <t xml:space="preserve">25
 </t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">26
-</t>
-        </is>
-      </c>
-      <c r="K18" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">00
-</t>
-        </is>
-      </c>
-      <c r="L18" s="3" t="n"/>
+          <t xml:space="preserve">143
+</t>
+        </is>
+      </c>
+      <c r="K18" s="3" t="n"/>
+      <c r="L18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">221
+</t>
+        </is>
+      </c>
       <c r="M18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">188
+          <t xml:space="preserve">211
 </t>
         </is>
       </c>
       <c r="N18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">21
+          <t xml:space="preserve">248
 </t>
         </is>
       </c>
       <c r="O18" s="3" t="inlineStr">
         <is>
-          <t>02</t>
+          <t xml:space="preserve">923
+</t>
         </is>
       </c>
       <c r="P18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">103
+          <t xml:space="preserve">06
 </t>
         </is>
       </c>
       <c r="Q18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2518
+          <t xml:space="preserve">321
 </t>
         </is>
       </c>
       <c r="R18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">225
+          <t xml:space="preserve">8252
 </t>
         </is>
       </c>
       <c r="S18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">253
+          <t xml:space="preserve">277
 </t>
         </is>
       </c>
       <c r="T18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">649
+          <t xml:space="preserve">580
 </t>
         </is>
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">02
+          <t xml:space="preserve">8200
 </t>
         </is>
       </c>
       <c r="V18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">215
+          <t xml:space="preserve">285
 </t>
         </is>
       </c>
       <c r="W18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">248
+          <t xml:space="preserve">244
 </t>
         </is>
       </c>
       <c r="X18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">822
+          <t xml:space="preserve">279
 </t>
         </is>
       </c>
       <c r="Y18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">20
-</t>
-        </is>
-      </c>
-      <c r="Z18" s="3" t="n"/>
+          <t xml:space="preserve">717
+</t>
+        </is>
+      </c>
+      <c r="Z18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">115
+</t>
+        </is>
+      </c>
       <c r="AA18" s="3" t="inlineStr">
         <is>
           <t>11</t>
@@ -2778,132 +3049,150 @@
           <t>12</t>
         </is>
       </c>
-      <c r="C19" s="3" t="n"/>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2656
+</t>
+        </is>
+      </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>30</t>
+          <t xml:space="preserve">304
+</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">138
+          <t xml:space="preserve">222
 </t>
         </is>
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">241
+          <t xml:space="preserve">263
 </t>
         </is>
       </c>
       <c r="G19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">129
+          <t xml:space="preserve">82
 </t>
         </is>
       </c>
       <c r="H19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">164
+          <t xml:space="preserve">214
 </t>
         </is>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">15
+          <t xml:space="preserve">16
 </t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">25
+          <t xml:space="preserve">28
 </t>
         </is>
       </c>
       <c r="K19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">219
+          <t xml:space="preserve">104
 </t>
         </is>
       </c>
       <c r="L19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">192
+          <t xml:space="preserve">214
 </t>
         </is>
       </c>
       <c r="M19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">182
-</t>
-        </is>
-      </c>
-      <c r="N19" s="3" t="n"/>
+          <t xml:space="preserve">220
+</t>
+        </is>
+      </c>
+      <c r="N19" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">263
+</t>
+        </is>
+      </c>
       <c r="O19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">9812
+          <t xml:space="preserve">976
 </t>
         </is>
       </c>
       <c r="P19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">02
+          <t xml:space="preserve">06
 </t>
         </is>
       </c>
       <c r="Q19" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t xml:space="preserve">299
+</t>
         </is>
       </c>
       <c r="R19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">232
+          <t xml:space="preserve">260
 </t>
         </is>
       </c>
       <c r="S19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">230
+          <t xml:space="preserve">311
 </t>
         </is>
       </c>
       <c r="T19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">942
+          <t xml:space="preserve">737
 </t>
         </is>
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">02
+          <t xml:space="preserve">110
 </t>
         </is>
       </c>
       <c r="V19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">202
+          <t xml:space="preserve">1243
 </t>
         </is>
       </c>
       <c r="W19" s="3" t="inlineStr">
         <is>
-          <t>19</t>
+          <t xml:space="preserve">229
+</t>
         </is>
       </c>
       <c r="X19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">816
+          <t xml:space="preserve">271
 </t>
         </is>
       </c>
       <c r="Y19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">06
-</t>
-        </is>
-      </c>
-      <c r="Z19" s="3" t="n"/>
+          <t xml:space="preserve">290
+</t>
+        </is>
+      </c>
+      <c r="Z19" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">93
+</t>
+        </is>
+      </c>
       <c r="AA19" s="3" t="inlineStr">
         <is>
           <t>12</t>
@@ -2917,140 +3206,150 @@
           <t>13</t>
         </is>
       </c>
-      <c r="C20" s="3" t="n"/>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3659
+</t>
+        </is>
+      </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">305
+          <t xml:space="preserve">314
 </t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">176
+          <t xml:space="preserve">215
 </t>
         </is>
       </c>
       <c r="F20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">237
+          <t xml:space="preserve">265
 </t>
         </is>
       </c>
       <c r="G20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">129
+          <t xml:space="preserve">99
 </t>
         </is>
       </c>
       <c r="H20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">176
+          <t xml:space="preserve">206
 </t>
         </is>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">12
+          <t xml:space="preserve">25
 </t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">283
+          <t xml:space="preserve">145
 </t>
         </is>
       </c>
       <c r="K20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">090
+          <t xml:space="preserve">112
 </t>
         </is>
       </c>
       <c r="L20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">193
+          <t xml:space="preserve">223
 </t>
         </is>
       </c>
       <c r="M20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">192
+          <t xml:space="preserve">214
 </t>
         </is>
       </c>
       <c r="N20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">194
+          <t xml:space="preserve">254
 </t>
         </is>
       </c>
       <c r="O20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">999
+          <t xml:space="preserve">980
 </t>
         </is>
       </c>
       <c r="P20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">04
 </t>
         </is>
       </c>
       <c r="Q20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">262
+          <t xml:space="preserve">307
 </t>
         </is>
       </c>
       <c r="R20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">219
+          <t xml:space="preserve">248
 </t>
         </is>
       </c>
       <c r="S20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">227
+          <t xml:space="preserve">275
 </t>
         </is>
       </c>
       <c r="T20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">122
+          <t xml:space="preserve">623
 </t>
         </is>
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">02
+          <t xml:space="preserve">166
 </t>
         </is>
       </c>
       <c r="V20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">828
+          <t xml:space="preserve">273
 </t>
         </is>
       </c>
       <c r="W20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">221
+          <t xml:space="preserve">238
 </t>
         </is>
       </c>
       <c r="X20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">132
+          <t xml:space="preserve">272
 </t>
         </is>
       </c>
       <c r="Y20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">26
-</t>
-        </is>
-      </c>
-      <c r="Z20" s="3" t="n"/>
+          <t xml:space="preserve">2750
+</t>
+        </is>
+      </c>
+      <c r="Z20" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">91
+</t>
+        </is>
+      </c>
       <c r="AA20" s="3" t="inlineStr">
         <is>
           <t>13</t>
@@ -3064,134 +3363,149 @@
           <t>14</t>
         </is>
       </c>
-      <c r="C21" s="3" t="n"/>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3408
+</t>
+        </is>
+      </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">283
+          <t xml:space="preserve">307
 </t>
         </is>
       </c>
       <c r="E21" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">189
+          <t xml:space="preserve">212
 </t>
         </is>
       </c>
       <c r="F21" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2392
+          <t xml:space="preserve">259
 </t>
         </is>
       </c>
       <c r="G21" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">96
+          <t xml:space="preserve">95
 </t>
         </is>
       </c>
       <c r="H21" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">13
+          <t xml:space="preserve">196
 </t>
         </is>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">10
+          <t xml:space="preserve">18
 </t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">19
+          <t xml:space="preserve">34
 </t>
         </is>
       </c>
       <c r="K21" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">38
+          <t xml:space="preserve">100
 </t>
         </is>
       </c>
       <c r="L21" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">194
+          <t xml:space="preserve">8216
 </t>
         </is>
       </c>
       <c r="M21" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1801
+          <t xml:space="preserve">215
 </t>
         </is>
       </c>
       <c r="N21" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">12922
+          <t xml:space="preserve">256
 </t>
         </is>
       </c>
       <c r="O21" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">922
+          <t xml:space="preserve">990
 </t>
         </is>
       </c>
       <c r="P21" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">02
 </t>
         </is>
       </c>
       <c r="Q21" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">192
+          <t xml:space="preserve">306
 </t>
         </is>
       </c>
       <c r="R21" s="3" t="inlineStr">
         <is>
-          <t>19</t>
+          <t xml:space="preserve">262
+</t>
         </is>
       </c>
       <c r="S21" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">220
+          <t xml:space="preserve">312
 </t>
         </is>
       </c>
       <c r="T21" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">882
-</t>
-        </is>
-      </c>
-      <c r="U21" s="3" t="n"/>
+          <t xml:space="preserve">712
+</t>
+        </is>
+      </c>
+      <c r="U21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">126
+</t>
+        </is>
+      </c>
       <c r="V21" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">199
+          <t xml:space="preserve">278
 </t>
         </is>
       </c>
       <c r="W21" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">219
+          <t xml:space="preserve">246
 </t>
         </is>
       </c>
       <c r="X21" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">903
+          <t xml:space="preserve">289
 </t>
         </is>
       </c>
       <c r="Y21" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">08
-</t>
-        </is>
-      </c>
-      <c r="Z21" s="3" t="n"/>
+          <t xml:space="preserve">7723
+</t>
+        </is>
+      </c>
+      <c r="Z21" s="3" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
       <c r="AA21" s="3" t="inlineStr">
         <is>
           <t>14</t>
@@ -3205,140 +3519,150 @@
           <t>15</t>
         </is>
       </c>
-      <c r="C22" s="3" t="n"/>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3993
+</t>
+        </is>
+      </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">299
+          <t xml:space="preserve">329
 </t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">139
+          <t xml:space="preserve">211
 </t>
         </is>
       </c>
       <c r="F22" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">232
+          <t xml:space="preserve">270
 </t>
         </is>
       </c>
       <c r="G22" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">122
+          <t xml:space="preserve">118
 </t>
         </is>
       </c>
       <c r="H22" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">139
+          <t xml:space="preserve">198
 </t>
         </is>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">198
+          <t xml:space="preserve">25
 </t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">98
+          <t xml:space="preserve">43
 </t>
         </is>
       </c>
       <c r="K22" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">77
 </t>
         </is>
       </c>
       <c r="L22" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">180
+          <t xml:space="preserve">213
 </t>
         </is>
       </c>
       <c r="M22" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">929
+          <t xml:space="preserve">210
 </t>
         </is>
       </c>
       <c r="N22" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1999
+          <t xml:space="preserve">247
 </t>
         </is>
       </c>
       <c r="O22" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">925
 </t>
         </is>
       </c>
       <c r="P22" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1210
+          <t xml:space="preserve">04
 </t>
         </is>
       </c>
       <c r="Q22" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">285
+          <t xml:space="preserve">324
 </t>
         </is>
       </c>
       <c r="R22" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">299
+          <t xml:space="preserve">259
 </t>
         </is>
       </c>
       <c r="S22" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">250
+          <t xml:space="preserve">893
 </t>
         </is>
       </c>
       <c r="T22" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">962
+          <t xml:space="preserve">605
 </t>
         </is>
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1084
+          <t xml:space="preserve">192
 </t>
         </is>
       </c>
       <c r="V22" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">226
+          <t xml:space="preserve">265
 </t>
         </is>
       </c>
       <c r="W22" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1262
+          <t xml:space="preserve">246
 </t>
         </is>
       </c>
       <c r="X22" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">802
+          <t xml:space="preserve">297
 </t>
         </is>
       </c>
       <c r="Y22" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">97
-</t>
-        </is>
-      </c>
-      <c r="Z22" s="3" t="n"/>
+          <t xml:space="preserve">860
+</t>
+        </is>
+      </c>
+      <c r="Z22" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">149
+</t>
+        </is>
+      </c>
       <c r="AA22" s="3" t="inlineStr">
         <is>
           <t>15</t>
@@ -3352,137 +3676,131 @@
           <t>Tot.</t>
         </is>
       </c>
-      <c r="C23" s="3" t="n"/>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">17396
+</t>
+        </is>
+      </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1948
+          <t xml:space="preserve">22
 </t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">104
-</t>
+          <t>037</t>
         </is>
       </c>
       <c r="F23" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1192
+          <t xml:space="preserve">1324
 </t>
         </is>
       </c>
       <c r="G23" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">579
-</t>
-        </is>
-      </c>
-      <c r="H23" s="3" t="inlineStr">
-        <is>
-          <t>688</t>
-        </is>
-      </c>
+          <t xml:space="preserve">503
+</t>
+        </is>
+      </c>
+      <c r="H23" s="3" t="n"/>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">76
+          <t xml:space="preserve">109
 </t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">140
+          <t xml:space="preserve">193
 </t>
         </is>
       </c>
       <c r="K23" s="3" t="inlineStr">
         <is>
-          <t>962</t>
+          <t xml:space="preserve">77
+</t>
         </is>
       </c>
       <c r="L23" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">939
-</t>
-        </is>
-      </c>
-      <c r="M23" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">186
-</t>
-        </is>
-      </c>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="M23" s="3" t="n"/>
       <c r="N23" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">18
+          <t xml:space="preserve">911
 </t>
         </is>
       </c>
       <c r="O23" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">014
+          <t xml:space="preserve">14894
 </t>
         </is>
       </c>
       <c r="P23" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">04
+          <t xml:space="preserve">22
 </t>
         </is>
       </c>
       <c r="Q23" s="3" t="inlineStr">
         <is>
-          <t>49</t>
+          <t xml:space="preserve">1557
+</t>
         </is>
       </c>
       <c r="R23" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1199
+          <t xml:space="preserve">1281
 </t>
         </is>
       </c>
       <c r="S23" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">5360
+          <t xml:space="preserve">11468
 </t>
         </is>
       </c>
       <c r="T23" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">379
+          <t xml:space="preserve">3957
 </t>
         </is>
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">69
-</t>
+          <t>7924</t>
         </is>
       </c>
       <c r="V23" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1026
+          <t xml:space="preserve">1344
 </t>
         </is>
       </c>
       <c r="W23" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1974
-</t>
-        </is>
-      </c>
-      <c r="X23" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4278
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">1203
+</t>
+        </is>
+      </c>
+      <c r="X23" s="3" t="n"/>
       <c r="Y23" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">127
-</t>
-        </is>
-      </c>
-      <c r="Z23" s="3" t="n"/>
+          <t>39404</t>
+        </is>
+      </c>
+      <c r="Z23" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">267
+</t>
+        </is>
+      </c>
       <c r="AA23" s="3" t="inlineStr">
         <is>
           <t>Tot.</t>
@@ -3496,135 +3814,148 @@
           <t>Moy.</t>
         </is>
       </c>
-      <c r="C24" s="3" t="n"/>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3439
+</t>
+        </is>
+      </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">225
+          <t xml:space="preserve">315
 </t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">189
+          <t xml:space="preserve">214
 </t>
         </is>
       </c>
       <c r="F24" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">228
+          <t xml:space="preserve">265
 </t>
         </is>
       </c>
       <c r="G24" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">114
+          <t xml:space="preserve">101
 </t>
         </is>
       </c>
       <c r="H24" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">168
+          <t xml:space="preserve">1018
 </t>
         </is>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">15
+          <t xml:space="preserve">22
 </t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">28
-</t>
-        </is>
-      </c>
-      <c r="K24" s="3" t="n"/>
+          <t xml:space="preserve">39
+</t>
+        </is>
+      </c>
+      <c r="K24" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">193
+</t>
+        </is>
+      </c>
       <c r="L24" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">988
+          <t xml:space="preserve">1082
 </t>
         </is>
       </c>
       <c r="M24" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">192
+          <t xml:space="preserve">1070
 </t>
         </is>
       </c>
       <c r="N24" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">18
+          <t xml:space="preserve">1268
 </t>
         </is>
       </c>
       <c r="O24" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">3912
+          <t xml:space="preserve">979
 </t>
         </is>
       </c>
       <c r="P24" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">02
+          <t xml:space="preserve">104
 </t>
         </is>
       </c>
       <c r="Q24" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">272
+          <t xml:space="preserve">311
 </t>
         </is>
       </c>
       <c r="R24" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">174
+          <t xml:space="preserve">856
 </t>
         </is>
       </c>
       <c r="S24" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">229
+          <t xml:space="preserve">294
 </t>
         </is>
       </c>
       <c r="T24" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">712
+          <t xml:space="preserve">651
 </t>
         </is>
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">68
+          <t xml:space="preserve">159
 </t>
         </is>
       </c>
       <c r="V24" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">205
+          <t xml:space="preserve">269
 </t>
         </is>
       </c>
       <c r="W24" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">235
+          <t xml:space="preserve">241
 </t>
         </is>
       </c>
       <c r="X24" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">852
-</t>
+          <t>14081</t>
         </is>
       </c>
       <c r="Y24" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">25
-</t>
-        </is>
-      </c>
-      <c r="Z24" s="3" t="n"/>
+          <t xml:space="preserve">798
+</t>
+        </is>
+      </c>
+      <c r="Z24" s="3" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
       <c r="AA24" s="3" t="inlineStr">
         <is>
           <t>Moy.</t>
@@ -3638,133 +3969,125 @@
           <t>16</t>
         </is>
       </c>
-      <c r="C25" s="3" t="n"/>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1067
+</t>
+        </is>
+      </c>
       <c r="D25" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t xml:space="preserve">263
+</t>
         </is>
       </c>
       <c r="E25" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">187
+          <t xml:space="preserve">206
 </t>
         </is>
       </c>
       <c r="F25" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">249
+          <t xml:space="preserve">235
 </t>
         </is>
       </c>
       <c r="G25" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">111
+          <t xml:space="preserve">57
 </t>
         </is>
       </c>
       <c r="H25" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">129
-</t>
-        </is>
-      </c>
-      <c r="I25" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">21
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">204
+</t>
+        </is>
+      </c>
+      <c r="I25" s="3" t="n"/>
       <c r="J25" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t xml:space="preserve">08
+</t>
         </is>
       </c>
       <c r="K25" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">80
+          <t xml:space="preserve">02
 </t>
         </is>
       </c>
       <c r="L25" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">199
+          <t xml:space="preserve">216
 </t>
         </is>
       </c>
       <c r="M25" s="3" t="inlineStr">
         <is>
-          <t>66</t>
+          <t xml:space="preserve">214
+</t>
         </is>
       </c>
       <c r="N25" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">5922
-</t>
-        </is>
-      </c>
-      <c r="O25" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3912
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">254
+</t>
+        </is>
+      </c>
+      <c r="O25" s="3" t="n"/>
       <c r="P25" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">07
 </t>
         </is>
       </c>
       <c r="Q25" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">258
+          <t xml:space="preserve">262
 </t>
         </is>
       </c>
       <c r="R25" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">233
+          <t xml:space="preserve">21461
 </t>
         </is>
       </c>
       <c r="S25" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">279
+          <t xml:space="preserve">287
 </t>
         </is>
       </c>
       <c r="T25" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">762
+          <t xml:space="preserve">844
 </t>
         </is>
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">59
+          <t xml:space="preserve">53
 </t>
         </is>
       </c>
       <c r="V25" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">213
-</t>
-        </is>
-      </c>
-      <c r="W25" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">245
-</t>
-        </is>
-      </c>
+          <t>2441</t>
+        </is>
+      </c>
+      <c r="W25" s="3" t="n"/>
       <c r="X25" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">862
+          <t xml:space="preserve">222
 </t>
         </is>
       </c>
       <c r="Y25" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">08
+          <t xml:space="preserve">877
 </t>
         </is>
       </c>
@@ -3782,76 +4105,75 @@
           <t>17</t>
         </is>
       </c>
-      <c r="C26" s="3" t="n"/>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">900
+</t>
+        </is>
+      </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">286
+          <t xml:space="preserve">251
 </t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">192
+          <t xml:space="preserve">210
 </t>
         </is>
       </c>
       <c r="F26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">239
+          <t xml:space="preserve">231
 </t>
         </is>
       </c>
       <c r="G26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">84
+          <t xml:space="preserve">141
 </t>
         </is>
       </c>
       <c r="H26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">167
+          <t xml:space="preserve">202
 </t>
         </is>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">21
+          <t xml:space="preserve">05
 </t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">19
-</t>
-        </is>
-      </c>
-      <c r="K26" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">25
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">08
+</t>
+        </is>
+      </c>
+      <c r="K26" s="3" t="n"/>
       <c r="L26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">196
+          <t xml:space="preserve">244
 </t>
         </is>
       </c>
       <c r="M26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">180
-</t>
+          <t>9240</t>
         </is>
       </c>
       <c r="N26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">5922
+          <t xml:space="preserve">268
 </t>
         </is>
       </c>
       <c r="O26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">188
+          <t xml:space="preserve">12970
 </t>
         </is>
       </c>
@@ -3863,58 +4185,64 @@
       </c>
       <c r="Q26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">266
+          <t xml:space="preserve">243
 </t>
         </is>
       </c>
       <c r="R26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">229
+          <t xml:space="preserve">233
 </t>
         </is>
       </c>
       <c r="S26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">239
+          <t xml:space="preserve">280
 </t>
         </is>
       </c>
       <c r="T26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">632
+          <t xml:space="preserve">920
 </t>
         </is>
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">239
+          <t xml:space="preserve">24
 </t>
         </is>
       </c>
       <c r="V26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">212
+          <t xml:space="preserve">238
 </t>
         </is>
       </c>
       <c r="W26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">240
+          <t xml:space="preserve">228
 </t>
         </is>
       </c>
       <c r="X26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">802
+          <t xml:space="preserve">268
 </t>
         </is>
       </c>
       <c r="Y26" s="3" t="inlineStr">
         <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="Z26" s="3" t="n"/>
+          <t xml:space="preserve">918
+</t>
+        </is>
+      </c>
+      <c r="Z26" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">38
+</t>
+        </is>
+      </c>
       <c r="AA26" s="3" t="inlineStr">
         <is>
           <t>17</t>
@@ -3928,22 +4256,27 @@
           <t>18</t>
         </is>
       </c>
-      <c r="C27" s="3" t="n"/>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3220
+</t>
+        </is>
+      </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">233
+          <t xml:space="preserve">305
 </t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">174
+          <t xml:space="preserve">206
 </t>
         </is>
       </c>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">224
+          <t xml:space="preserve">255
 </t>
         </is>
       </c>
@@ -3955,110 +4288,113 @@
       </c>
       <c r="H27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">158
+          <t xml:space="preserve">192
 </t>
         </is>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">19
+          <t xml:space="preserve">09
 </t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">39
+          <t xml:space="preserve">34
 </t>
         </is>
       </c>
       <c r="K27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">25
-</t>
-        </is>
-      </c>
-      <c r="L27" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">180
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">00
+</t>
+        </is>
+      </c>
+      <c r="L27" s="3" t="n"/>
       <c r="M27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">162
+          <t xml:space="preserve">205
 </t>
         </is>
       </c>
       <c r="N27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1
+          <t xml:space="preserve">1228
 </t>
         </is>
       </c>
       <c r="O27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">100
+          <t xml:space="preserve">1000
 </t>
         </is>
       </c>
       <c r="P27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">104
 </t>
         </is>
       </c>
       <c r="Q27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">201
+          <t xml:space="preserve">288
 </t>
         </is>
       </c>
       <c r="R27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2393
+          <t xml:space="preserve">249
 </t>
         </is>
       </c>
       <c r="S27" s="3" t="inlineStr">
         <is>
-          <t>56</t>
+          <t xml:space="preserve">890
+</t>
         </is>
       </c>
       <c r="T27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">122
+          <t xml:space="preserve">732
 </t>
         </is>
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2349
+          <t xml:space="preserve">105
 </t>
         </is>
       </c>
       <c r="V27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">220
+          <t xml:space="preserve">269
 </t>
         </is>
       </c>
       <c r="W27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">282
+          <t xml:space="preserve">228
 </t>
         </is>
       </c>
       <c r="X27" s="3" t="inlineStr">
         <is>
-          <t>532</t>
+          <t xml:space="preserve">271
+</t>
         </is>
       </c>
       <c r="Y27" s="3" t="inlineStr">
         <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="Z27" s="3" t="n"/>
+          <t xml:space="preserve">818
+</t>
+        </is>
+      </c>
+      <c r="Z27" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24
+</t>
+        </is>
+      </c>
       <c r="AA27" s="3" t="inlineStr">
         <is>
           <t>18</t>
@@ -4072,137 +4408,150 @@
           <t>19</t>
         </is>
       </c>
-      <c r="C28" s="3" t="n"/>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2907
+</t>
+        </is>
+      </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">327
+          <t xml:space="preserve">318
 </t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">139
+          <t xml:space="preserve">205
 </t>
         </is>
       </c>
       <c r="F28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">243
+          <t xml:space="preserve">261
 </t>
         </is>
       </c>
       <c r="G28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">158
+          <t xml:space="preserve">1113
 </t>
         </is>
       </c>
       <c r="H28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">140
+          <t xml:space="preserve">191
 </t>
         </is>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">32
+          <t xml:space="preserve">19
 </t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">57
+          <t xml:space="preserve">38
 </t>
         </is>
       </c>
       <c r="K28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">03
+          <t xml:space="preserve">00
 </t>
         </is>
       </c>
       <c r="L28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">168
+          <t xml:space="preserve">1209
 </t>
         </is>
       </c>
       <c r="M28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">19584
+          <t xml:space="preserve">206
 </t>
         </is>
       </c>
       <c r="N28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1922
+          <t xml:space="preserve">240
 </t>
         </is>
       </c>
       <c r="O28" s="3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t xml:space="preserve">49
+</t>
         </is>
       </c>
       <c r="P28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">08
 </t>
         </is>
       </c>
       <c r="Q28" s="3" t="inlineStr">
         <is>
-          <t>114</t>
+          <t xml:space="preserve">312
+</t>
         </is>
       </c>
       <c r="R28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">212
+          <t xml:space="preserve">248
 </t>
         </is>
       </c>
       <c r="S28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">145
+          <t xml:space="preserve">272
 </t>
         </is>
       </c>
       <c r="T28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">122
+          <t xml:space="preserve">602
 </t>
         </is>
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">206
+          <t xml:space="preserve">181
 </t>
         </is>
       </c>
       <c r="V28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">124
+          <t xml:space="preserve">286
 </t>
         </is>
       </c>
       <c r="W28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">298
+          <t xml:space="preserve">244
 </t>
         </is>
       </c>
       <c r="X28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">862
+          <t xml:space="preserve">290
 </t>
         </is>
       </c>
       <c r="Y28" s="3" t="inlineStr">
         <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="Z28" s="3" t="n"/>
+          <t xml:space="preserve">726
+</t>
+        </is>
+      </c>
+      <c r="Z28" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">64
+</t>
+        </is>
+      </c>
       <c r="AA28" s="3" t="inlineStr">
         <is>
           <t>19</t>
@@ -4216,138 +4565,149 @@
           <t>20</t>
         </is>
       </c>
-      <c r="C29" s="3" t="n"/>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>34681</t>
+        </is>
+      </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">301
+          <t xml:space="preserve">315
 </t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">184
+          <t xml:space="preserve">205
 </t>
         </is>
       </c>
       <c r="F29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">243
+          <t xml:space="preserve">260
 </t>
         </is>
       </c>
       <c r="G29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">197
+          <t xml:space="preserve">110
 </t>
         </is>
       </c>
       <c r="H29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">170
+          <t xml:space="preserve">1189
 </t>
         </is>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">29
+          <t xml:space="preserve">22
 </t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">38
+          <t xml:space="preserve">26
 </t>
         </is>
       </c>
       <c r="K29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">05
+          <t xml:space="preserve">84
 </t>
         </is>
       </c>
       <c r="L29" s="3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t xml:space="preserve">281
+</t>
         </is>
       </c>
       <c r="M29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">26511
+          <t xml:space="preserve">206
 </t>
         </is>
       </c>
       <c r="N29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1902
+          <t xml:space="preserve">241
 </t>
         </is>
       </c>
       <c r="O29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">4516
+          <t xml:space="preserve">1953
 </t>
         </is>
       </c>
       <c r="P29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">11
 </t>
         </is>
       </c>
       <c r="Q29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1129
+          <t xml:space="preserve">8253
 </t>
         </is>
       </c>
       <c r="R29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1264
+          <t xml:space="preserve">236
 </t>
         </is>
       </c>
       <c r="S29" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t xml:space="preserve">280
+</t>
         </is>
       </c>
       <c r="T29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">442
+          <t xml:space="preserve">270
 </t>
         </is>
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1282
+          <t xml:space="preserve">142
 </t>
         </is>
       </c>
       <c r="V29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1042
+          <t xml:space="preserve">224
 </t>
         </is>
       </c>
       <c r="W29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1146
+          <t xml:space="preserve">246
 </t>
         </is>
       </c>
       <c r="X29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">3826
+          <t xml:space="preserve">284
 </t>
         </is>
       </c>
       <c r="Y29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">324
-</t>
-        </is>
-      </c>
-      <c r="Z29" s="3" t="n"/>
+          <t xml:space="preserve">908
+</t>
+        </is>
+      </c>
+      <c r="Z29" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">07
+</t>
+        </is>
+      </c>
       <c r="AA29" s="3" t="inlineStr">
         <is>
           <t>20</t>
@@ -4361,131 +4721,148 @@
           <t>Tot.</t>
         </is>
       </c>
-      <c r="C30" s="3" t="n"/>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10562
+</t>
+        </is>
+      </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1494
+          <t xml:space="preserve">1452
 </t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">896
+          <t xml:space="preserve">032
 </t>
         </is>
       </c>
       <c r="F30" s="3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t xml:space="preserve">1242
+</t>
         </is>
       </c>
       <c r="G30" s="3" t="inlineStr">
         <is>
-          <t>588</t>
+          <t xml:space="preserve">420
+</t>
         </is>
       </c>
       <c r="H30" s="3" t="inlineStr">
         <is>
-          <t>896</t>
+          <t xml:space="preserve">1192
+</t>
         </is>
       </c>
       <c r="I30" s="3" t="inlineStr">
         <is>
-          <t>06</t>
+          <t xml:space="preserve">16
+</t>
         </is>
       </c>
       <c r="J30" s="3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t xml:space="preserve">1110
+</t>
         </is>
       </c>
       <c r="K30" s="3" t="inlineStr">
         <is>
-          <t>113</t>
+          <t xml:space="preserve">388
+</t>
         </is>
       </c>
       <c r="L30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">928
+          <t xml:space="preserve">1065
 </t>
         </is>
       </c>
       <c r="M30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">185
+          <t xml:space="preserve">11592
 </t>
         </is>
       </c>
       <c r="N30" s="3" t="inlineStr">
         <is>
-          <t>45</t>
+          <t xml:space="preserve">239
+</t>
         </is>
       </c>
       <c r="O30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">912
+          <t xml:space="preserve">4876
 </t>
         </is>
       </c>
       <c r="P30" s="3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t xml:space="preserve">28
+</t>
         </is>
       </c>
       <c r="Q30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">269
+          <t xml:space="preserve">11858
 </t>
         </is>
       </c>
       <c r="R30" s="3" t="inlineStr">
         <is>
-          <t>253</t>
+          <t xml:space="preserve">1207
+</t>
         </is>
       </c>
       <c r="S30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">9222
+          <t xml:space="preserve">1409
 </t>
         </is>
       </c>
       <c r="T30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">122
+          <t xml:space="preserve">3968
 </t>
         </is>
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">828
+          <t xml:space="preserve">142
 </t>
         </is>
       </c>
       <c r="V30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">208
+          <t xml:space="preserve">1261
 </t>
         </is>
       </c>
       <c r="W30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">229
+          <t xml:space="preserve">213
 </t>
         </is>
       </c>
       <c r="X30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">172
-</t>
+          <t>361</t>
         </is>
       </c>
       <c r="Y30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">65
-</t>
-        </is>
-      </c>
-      <c r="Z30" s="3" t="n"/>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="Z30" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">25
+</t>
+        </is>
+      </c>
       <c r="AA30" s="3" t="inlineStr">
         <is>
           <t>Tot.</t>
@@ -4499,135 +4876,145 @@
           <t>Moy.</t>
         </is>
       </c>
-      <c r="C31" s="3" t="n"/>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2112
+</t>
+        </is>
+      </c>
       <c r="D31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">297
+          <t xml:space="preserve">290
 </t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">139
+          <t xml:space="preserve">206
 </t>
         </is>
       </c>
       <c r="F31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">239
+          <t xml:space="preserve">248
 </t>
         </is>
       </c>
       <c r="G31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">198
+          <t xml:space="preserve">84
 </t>
         </is>
       </c>
       <c r="H31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">131
+          <t xml:space="preserve">966
 </t>
         </is>
       </c>
       <c r="I31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">21
+          <t xml:space="preserve">71
 </t>
         </is>
       </c>
       <c r="J31" s="3" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="K31" s="3" t="inlineStr">
-        <is>
-          <t>113</t>
-        </is>
-      </c>
+          <t xml:space="preserve">22
+</t>
+        </is>
+      </c>
+      <c r="K31" s="3" t="n"/>
       <c r="L31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">185
+          <t xml:space="preserve">213
 </t>
         </is>
       </c>
       <c r="M31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">26511
+          <t xml:space="preserve">210
 </t>
         </is>
       </c>
       <c r="N31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1
+          <t xml:space="preserve">1239
 </t>
         </is>
       </c>
       <c r="O31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">4516
+          <t xml:space="preserve">975
 </t>
         </is>
       </c>
       <c r="P31" s="3" t="inlineStr">
         <is>
-          <t>40</t>
+          <t xml:space="preserve">06
+</t>
         </is>
       </c>
       <c r="Q31" s="3" t="inlineStr">
         <is>
-          <t>22</t>
+          <t xml:space="preserve">272
+</t>
         </is>
       </c>
       <c r="R31" s="3" t="inlineStr">
         <is>
-          <t>226444</t>
+          <t xml:space="preserve">241
+</t>
         </is>
       </c>
       <c r="S31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">642
+          <t xml:space="preserve">282
 </t>
         </is>
       </c>
       <c r="T31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">155
+          <t xml:space="preserve">794
 </t>
         </is>
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">236
+          <t xml:space="preserve">89
 </t>
         </is>
       </c>
       <c r="V31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">229
+          <t xml:space="preserve">252
 </t>
         </is>
       </c>
       <c r="W31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">253
+          <t xml:space="preserve">1159
 </t>
         </is>
       </c>
       <c r="X31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">84
+          <t xml:space="preserve">1358
 </t>
         </is>
       </c>
       <c r="Y31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">30
-</t>
-        </is>
-      </c>
-      <c r="Z31" s="3" t="n"/>
+          <t xml:space="preserve">249
+</t>
+        </is>
+      </c>
+      <c r="Z31" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">58
+</t>
+        </is>
+      </c>
       <c r="AA31" s="3" t="inlineStr">
         <is>
           <t>Moy.</t>
@@ -4641,132 +5028,149 @@
           <t>21</t>
         </is>
       </c>
-      <c r="C32" s="3" t="n"/>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3847
+</t>
+        </is>
+      </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>3218</t>
+          <t xml:space="preserve">311
+</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>0353</t>
+          <t xml:space="preserve">193
+</t>
         </is>
       </c>
       <c r="F32" s="3" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>9521</t>
         </is>
       </c>
       <c r="G32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1145
+          <t xml:space="preserve">118
 </t>
         </is>
       </c>
       <c r="H32" s="3" t="inlineStr">
         <is>
-          <t>40</t>
+          <t xml:space="preserve">193
+</t>
         </is>
       </c>
       <c r="I32" s="3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t xml:space="preserve">114
+</t>
         </is>
       </c>
       <c r="J32" s="3" t="inlineStr">
         <is>
-          <t>31</t>
+          <t xml:space="preserve">1146
+</t>
         </is>
       </c>
       <c r="K32" s="3" t="inlineStr">
         <is>
-          <t>725</t>
+          <t xml:space="preserve">00
+</t>
         </is>
       </c>
       <c r="L32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">189
+          <t xml:space="preserve">1201
 </t>
         </is>
       </c>
       <c r="M32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">11289
+          <t xml:space="preserve">201
 </t>
         </is>
       </c>
       <c r="N32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1
+          <t xml:space="preserve">8248
 </t>
         </is>
       </c>
       <c r="O32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">912
+          <t xml:space="preserve">1000
 </t>
         </is>
       </c>
       <c r="P32" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t xml:space="preserve">00
+</t>
         </is>
       </c>
       <c r="Q32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">289
+          <t xml:space="preserve">311
 </t>
         </is>
       </c>
       <c r="R32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">268
+          <t xml:space="preserve">8249
 </t>
         </is>
       </c>
       <c r="S32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">288
+          <t xml:space="preserve">225
 </t>
         </is>
       </c>
       <c r="T32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">353
+          <t xml:space="preserve">610
 </t>
         </is>
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">204
+          <t xml:space="preserve">175
 </t>
         </is>
       </c>
       <c r="V32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">230
+          <t xml:space="preserve">974
 </t>
         </is>
       </c>
       <c r="W32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">274
+          <t xml:space="preserve">232
 </t>
         </is>
       </c>
       <c r="X32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">803
+          <t xml:space="preserve">272
 </t>
         </is>
       </c>
       <c r="Y32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">68
-</t>
-        </is>
-      </c>
-      <c r="Z32" s="3" t="n"/>
+          <t xml:space="preserve">746
+</t>
+        </is>
+      </c>
+      <c r="Z32" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">52
+</t>
+        </is>
+      </c>
       <c r="AA32" s="3" t="inlineStr">
         <is>
           <t>21</t>
@@ -4780,135 +5184,147 @@
           <t>22</t>
         </is>
       </c>
-      <c r="C33" s="3" t="n"/>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2133
+</t>
+        </is>
+      </c>
       <c r="D33" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">139326
+          <t xml:space="preserve">292
 </t>
         </is>
       </c>
       <c r="E33" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">180
+          <t xml:space="preserve">196
 </t>
         </is>
       </c>
       <c r="F33" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">253
+          <t xml:space="preserve">244
 </t>
         </is>
       </c>
       <c r="G33" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">146
+          <t xml:space="preserve">96
 </t>
         </is>
       </c>
       <c r="H33" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">179
+          <t xml:space="preserve">1180
 </t>
         </is>
       </c>
       <c r="I33" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">25
-</t>
+          <t>83</t>
         </is>
       </c>
       <c r="J33" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">198
+          <t xml:space="preserve">516
 </t>
         </is>
       </c>
       <c r="K33" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">148
 </t>
         </is>
       </c>
       <c r="L33" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1818
+          <t xml:space="preserve">215
 </t>
         </is>
       </c>
       <c r="M33" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">11289
+          <t xml:space="preserve">10214
 </t>
         </is>
       </c>
       <c r="N33" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1903
-</t>
-        </is>
-      </c>
-      <c r="O33" s="3" t="n"/>
+          <t xml:space="preserve">1235
+</t>
+        </is>
+      </c>
+      <c r="O33" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">990
+</t>
+        </is>
+      </c>
       <c r="P33" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">02
 </t>
         </is>
       </c>
       <c r="Q33" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">248
+          <t xml:space="preserve">289
 </t>
         </is>
       </c>
       <c r="R33" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">278
+          <t xml:space="preserve">2846
 </t>
         </is>
       </c>
       <c r="S33" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">229
-</t>
+          <t>9821</t>
         </is>
       </c>
       <c r="T33" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">48
+          <t xml:space="preserve">709
 </t>
         </is>
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">282
+          <t xml:space="preserve">115
 </t>
         </is>
       </c>
       <c r="V33" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">200
+          <t xml:space="preserve">256
 </t>
         </is>
       </c>
       <c r="W33" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">215
+          <t xml:space="preserve">238
 </t>
         </is>
       </c>
       <c r="X33" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">863
+          <t xml:space="preserve">272
 </t>
         </is>
       </c>
       <c r="Y33" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">67
-</t>
-        </is>
-      </c>
-      <c r="Z33" s="3" t="n"/>
+          <t>2621</t>
+        </is>
+      </c>
+      <c r="Z33" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">93
+</t>
+        </is>
+      </c>
       <c r="AA33" s="3" t="inlineStr">
         <is>
           <t>22</t>
@@ -4922,135 +5338,145 @@
           <t>23</t>
         </is>
       </c>
-      <c r="C34" s="3" t="n"/>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3116
+</t>
+        </is>
+      </c>
       <c r="D34" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1321
+          <t xml:space="preserve">319
 </t>
         </is>
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">194
+          <t xml:space="preserve">2114
 </t>
         </is>
       </c>
       <c r="F34" s="3" t="inlineStr">
         <is>
+          <t xml:space="preserve">1267
+</t>
+        </is>
+      </c>
+      <c r="G34" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">105
+</t>
+        </is>
+      </c>
+      <c r="H34" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">188
+</t>
+        </is>
+      </c>
+      <c r="I34" s="3" t="n"/>
+      <c r="J34" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">35
+</t>
+        </is>
+      </c>
+      <c r="K34" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">02
+</t>
+        </is>
+      </c>
+      <c r="L34" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">218
+</t>
+        </is>
+      </c>
+      <c r="M34" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">217
+</t>
+        </is>
+      </c>
+      <c r="N34" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8254
+</t>
+        </is>
+      </c>
+      <c r="O34" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11990
+</t>
+        </is>
+      </c>
+      <c r="P34" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">02
+</t>
+        </is>
+      </c>
+      <c r="Q34" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">205
+</t>
+        </is>
+      </c>
+      <c r="R34" s="3" t="inlineStr">
+        <is>
           <t xml:space="preserve">258
 </t>
         </is>
       </c>
-      <c r="G34" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">127
-</t>
-        </is>
-      </c>
-      <c r="H34" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">180
-</t>
-        </is>
-      </c>
-      <c r="I34" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">212
-</t>
-        </is>
-      </c>
-      <c r="J34" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">35
-</t>
-        </is>
-      </c>
-      <c r="K34" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">195
-</t>
-        </is>
-      </c>
-      <c r="L34" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1114
-</t>
-        </is>
-      </c>
-      <c r="M34" s="3" t="n"/>
-      <c r="N34" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1812
-</t>
-        </is>
-      </c>
-      <c r="O34" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9282
-</t>
-        </is>
-      </c>
-      <c r="P34" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">162
-</t>
-        </is>
-      </c>
-      <c r="Q34" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">280
-</t>
-        </is>
-      </c>
-      <c r="R34" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">209
-</t>
-        </is>
-      </c>
       <c r="S34" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">246
+          <t xml:space="preserve">302
 </t>
         </is>
       </c>
       <c r="T34" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">682
+          <t xml:space="preserve">694
 </t>
         </is>
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">90
+          <t xml:space="preserve">133
 </t>
         </is>
       </c>
       <c r="V34" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">220
+          <t xml:space="preserve">273
 </t>
         </is>
       </c>
       <c r="W34" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">242
+          <t xml:space="preserve">622
 </t>
         </is>
       </c>
       <c r="X34" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">628
+          <t xml:space="preserve">283
 </t>
         </is>
       </c>
       <c r="Y34" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">132
-</t>
-        </is>
-      </c>
-      <c r="Z34" s="3" t="n"/>
+          <t xml:space="preserve">820
+</t>
+        </is>
+      </c>
+      <c r="Z34" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">45
+</t>
+        </is>
+      </c>
       <c r="AA34" s="3" t="inlineStr">
         <is>
           <t>23</t>
@@ -5064,126 +5490,141 @@
           <t>24</t>
         </is>
       </c>
-      <c r="C35" s="3" t="n"/>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3534
+</t>
+        </is>
+      </c>
       <c r="D35" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">304
+          <t xml:space="preserve">311
 </t>
         </is>
       </c>
       <c r="E35" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1894
+          <t xml:space="preserve">208
 </t>
         </is>
       </c>
       <c r="F35" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">274
+          <t xml:space="preserve">259
 </t>
         </is>
       </c>
       <c r="G35" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">180
+          <t xml:space="preserve">103
 </t>
         </is>
       </c>
       <c r="H35" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">182
+          <t xml:space="preserve">202
 </t>
         </is>
       </c>
       <c r="I35" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">19
+          <t xml:space="preserve">124
 </t>
         </is>
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">29
+          <t xml:space="preserve">40
 </t>
         </is>
       </c>
       <c r="K35" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">16
+          <t xml:space="preserve">100
 </t>
         </is>
       </c>
       <c r="L35" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">131
-</t>
-        </is>
-      </c>
-      <c r="M35" s="3" t="n"/>
+          <t xml:space="preserve">216
+</t>
+        </is>
+      </c>
+      <c r="M35" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">213
+</t>
+        </is>
+      </c>
       <c r="N35" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1922
-</t>
-        </is>
-      </c>
-      <c r="O35" s="3" t="n"/>
+          <t xml:space="preserve">259
+</t>
+        </is>
+      </c>
+      <c r="O35" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">978
+</t>
+        </is>
+      </c>
       <c r="P35" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">07
 </t>
         </is>
       </c>
       <c r="Q35" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">200
+          <t xml:space="preserve">1311
 </t>
         </is>
       </c>
       <c r="R35" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2218
+          <t xml:space="preserve">269
 </t>
         </is>
       </c>
       <c r="S35" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">279
+          <t xml:space="preserve">275
 </t>
         </is>
       </c>
       <c r="T35" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">336
+          <t xml:space="preserve">613
 </t>
         </is>
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">258
+          <t xml:space="preserve">174
 </t>
         </is>
       </c>
       <c r="V35" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">239
+          <t xml:space="preserve">278
 </t>
         </is>
       </c>
       <c r="W35" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">270
+          <t xml:space="preserve">2466
 </t>
         </is>
       </c>
       <c r="X35" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">228
+          <t xml:space="preserve">65
 </t>
         </is>
       </c>
       <c r="Y35" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">115
+          <t xml:space="preserve">778
 </t>
         </is>
       </c>
@@ -5201,133 +5642,149 @@
           <t>25</t>
         </is>
       </c>
-      <c r="C36" s="3" t="n"/>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4307
+</t>
+        </is>
+      </c>
       <c r="D36" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">236
+          <t xml:space="preserve">321
 </t>
         </is>
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">190
+          <t xml:space="preserve">209
 </t>
         </is>
       </c>
       <c r="F36" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">258
+          <t xml:space="preserve">265
 </t>
         </is>
       </c>
       <c r="G36" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">156
+          <t xml:space="preserve">112
 </t>
         </is>
       </c>
       <c r="H36" s="3" t="inlineStr">
         <is>
-          <t>4542</t>
+          <t xml:space="preserve">198
+</t>
         </is>
       </c>
       <c r="I36" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">30
+          <t xml:space="preserve">24
 </t>
         </is>
       </c>
       <c r="J36" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">918
+          <t xml:space="preserve">144
 </t>
         </is>
       </c>
       <c r="K36" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">115
+          <t xml:space="preserve">306
 </t>
         </is>
       </c>
       <c r="L36" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">190
+          <t xml:space="preserve">2410
 </t>
         </is>
       </c>
       <c r="M36" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">14418
+          <t xml:space="preserve">207
 </t>
         </is>
       </c>
       <c r="N36" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">180902
-</t>
-        </is>
-      </c>
-      <c r="O36" s="3" t="n"/>
+          <t xml:space="preserve">251
+</t>
+        </is>
+      </c>
+      <c r="O36" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9725
+</t>
+        </is>
+      </c>
       <c r="P36" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">10
+          <t xml:space="preserve">106
 </t>
         </is>
       </c>
       <c r="Q36" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">312
+          <t xml:space="preserve">321
 </t>
         </is>
       </c>
       <c r="R36" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1306
+          <t xml:space="preserve">260
 </t>
         </is>
       </c>
       <c r="S36" s="3" t="inlineStr">
         <is>
-          <t>283</t>
+          <t xml:space="preserve">297
+</t>
         </is>
       </c>
       <c r="T36" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">442
+          <t xml:space="preserve">622
 </t>
         </is>
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
+          <t xml:space="preserve">180
+</t>
+        </is>
+      </c>
+      <c r="V36" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">287
+</t>
+        </is>
+      </c>
+      <c r="W36" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1246
+</t>
+        </is>
+      </c>
+      <c r="X36" s="3" t="inlineStr">
+        <is>
           <t xml:space="preserve">283
 </t>
         </is>
       </c>
-      <c r="V36" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1160
-</t>
-        </is>
-      </c>
-      <c r="W36" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1299
-</t>
-        </is>
-      </c>
-      <c r="X36" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9676
-</t>
-        </is>
-      </c>
       <c r="Y36" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">372
-</t>
-        </is>
-      </c>
-      <c r="Z36" s="3" t="n"/>
+          <t xml:space="preserve">720
+</t>
+        </is>
+      </c>
+      <c r="Z36" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="AA36" s="3" t="inlineStr">
         <is>
           <t>25</t>
@@ -5341,127 +5798,140 @@
           <t>Tot.</t>
         </is>
       </c>
-      <c r="C37" s="3" t="n"/>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16937
+</t>
+        </is>
+      </c>
       <c r="D37" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1615
+          <t xml:space="preserve">1554
 </t>
         </is>
       </c>
       <c r="E37" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">3929
+          <t xml:space="preserve">1020
 </t>
         </is>
       </c>
       <c r="F37" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1269
-</t>
+          <t>18871</t>
         </is>
       </c>
       <c r="G37" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">694
+          <t xml:space="preserve">534
 </t>
         </is>
       </c>
       <c r="H37" s="3" t="inlineStr">
         <is>
-          <t>846344</t>
+          <t xml:space="preserve">965
+</t>
         </is>
       </c>
       <c r="I37" s="3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t xml:space="preserve">101
+</t>
         </is>
       </c>
       <c r="J37" s="3" t="inlineStr">
         <is>
-          <t>203</t>
+          <t xml:space="preserve">4
+</t>
         </is>
       </c>
       <c r="K37" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">499
+          <t xml:space="preserve">356
 </t>
         </is>
       </c>
       <c r="L37" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">189
+          <t xml:space="preserve">1060
 </t>
         </is>
       </c>
       <c r="M37" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">14418
+          <t xml:space="preserve">10159
 </t>
         </is>
       </c>
       <c r="N37" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">09502
-</t>
-        </is>
-      </c>
-      <c r="O37" s="3" t="n"/>
+          <t xml:space="preserve">242
+</t>
+        </is>
+      </c>
+      <c r="O37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11927
+</t>
+        </is>
+      </c>
       <c r="P37" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1428
+          <t xml:space="preserve">17
 </t>
         </is>
       </c>
       <c r="Q37" s="3" t="inlineStr">
         <is>
-          <t>75</t>
+          <t xml:space="preserve">1537
+</t>
         </is>
       </c>
       <c r="R37" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">235
+          <t xml:space="preserve">1262
 </t>
         </is>
       </c>
       <c r="S37" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">269
+          <t xml:space="preserve">11431
 </t>
         </is>
       </c>
       <c r="T37" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">103
+          <t xml:space="preserve">3248
 </t>
         </is>
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1249
+          <t xml:space="preserve">777
 </t>
         </is>
       </c>
       <c r="V37" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">222
+          <t xml:space="preserve">1368
 </t>
         </is>
       </c>
       <c r="W37" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">252
+          <t xml:space="preserve">1216
 </t>
         </is>
       </c>
       <c r="X37" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">132
-</t>
+          <t>72</t>
         </is>
       </c>
       <c r="Y37" s="3" t="inlineStr">
         <is>
-          <t>43</t>
+          <t xml:space="preserve">982
+</t>
         </is>
       </c>
       <c r="Z37" s="3" t="n"/>
@@ -5478,128 +5948,145 @@
           <t>Moy.</t>
         </is>
       </c>
-      <c r="C38" s="3" t="n"/>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3387
+</t>
+        </is>
+      </c>
       <c r="D38" s="3" t="inlineStr">
         <is>
-          <t>4212</t>
+          <t xml:space="preserve">310
+</t>
         </is>
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">188
+          <t xml:space="preserve">204
 </t>
         </is>
       </c>
       <c r="F38" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">254
+          <t xml:space="preserve">257
 </t>
         </is>
       </c>
       <c r="G38" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">139
+          <t xml:space="preserve">106
 </t>
         </is>
       </c>
       <c r="H38" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">174
+          <t xml:space="preserve">193
 </t>
         </is>
       </c>
       <c r="I38" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">213
+          <t xml:space="preserve">20
 </t>
         </is>
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">91
+          <t xml:space="preserve">181
 </t>
         </is>
       </c>
       <c r="K38" s="3" t="n"/>
       <c r="L38" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">9811
+          <t xml:space="preserve">212
 </t>
         </is>
       </c>
       <c r="M38" s="3" t="inlineStr">
         <is>
-          <t>883384</t>
+          <t xml:space="preserve">210
+</t>
         </is>
       </c>
       <c r="N38" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">818
+          <t xml:space="preserve">1281
 </t>
         </is>
       </c>
       <c r="O38" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">902
+          <t xml:space="preserve">985
 </t>
         </is>
       </c>
       <c r="P38" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">26
+          <t xml:space="preserve">03
 </t>
         </is>
       </c>
       <c r="Q38" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">116
-</t>
-        </is>
-      </c>
-      <c r="R38" s="3" t="n"/>
+          <t xml:space="preserve">207
+</t>
+        </is>
+      </c>
+      <c r="R38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">252
+</t>
+        </is>
+      </c>
       <c r="S38" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">251
+          <t xml:space="preserve">286
 </t>
         </is>
       </c>
       <c r="T38" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">179
+          <t xml:space="preserve">650
 </t>
         </is>
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">248
+          <t xml:space="preserve">155
 </t>
         </is>
       </c>
       <c r="V38" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">209
+          <t xml:space="preserve">874
 </t>
         </is>
       </c>
       <c r="W38" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">241
+          <t xml:space="preserve">243
 </t>
         </is>
       </c>
       <c r="X38" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">8216
+          <t xml:space="preserve">285
 </t>
         </is>
       </c>
       <c r="Y38" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">99
-</t>
-        </is>
-      </c>
-      <c r="Z38" s="3" t="n"/>
+          <t xml:space="preserve">784
+</t>
+        </is>
+      </c>
+      <c r="Z38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19
+</t>
+        </is>
+      </c>
       <c r="AA38" s="3" t="inlineStr">
         <is>
           <t>Moy.</t>
@@ -5613,119 +6100,150 @@
           <t>26</t>
         </is>
       </c>
-      <c r="C39" s="3" t="n"/>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3325
+</t>
+        </is>
+      </c>
       <c r="D39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">328
+          <t xml:space="preserve">319
 </t>
         </is>
       </c>
       <c r="E39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">125
+          <t xml:space="preserve">202
 </t>
         </is>
       </c>
       <c r="F39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2516
+          <t xml:space="preserve">261
 </t>
         </is>
       </c>
       <c r="G39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">141
+          <t xml:space="preserve">117
 </t>
         </is>
       </c>
       <c r="H39" s="3" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I39" s="3" t="n"/>
-      <c r="J39" s="3" t="n"/>
+          <t xml:space="preserve">1193
+</t>
+        </is>
+      </c>
+      <c r="I39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">17
+</t>
+        </is>
+      </c>
+      <c r="J39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">36
+</t>
+        </is>
+      </c>
       <c r="K39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">612
+          <t xml:space="preserve">6
 </t>
         </is>
       </c>
       <c r="L39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">190
-</t>
-        </is>
-      </c>
-      <c r="M39" s="3" t="n"/>
+          <t xml:space="preserve">280
+</t>
+        </is>
+      </c>
+      <c r="M39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9209
+</t>
+        </is>
+      </c>
       <c r="N39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">198
-</t>
-        </is>
-      </c>
-      <c r="O39" s="3" t="n"/>
+          <t xml:space="preserve">2148
+</t>
+        </is>
+      </c>
+      <c r="O39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">990
+</t>
+        </is>
+      </c>
       <c r="P39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">12
+          <t xml:space="preserve">02
 </t>
         </is>
       </c>
       <c r="Q39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">286
+          <t xml:space="preserve">719
 </t>
         </is>
       </c>
       <c r="R39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">226
+          <t xml:space="preserve">860
 </t>
         </is>
       </c>
       <c r="S39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">260
+          <t xml:space="preserve">898
 </t>
         </is>
       </c>
       <c r="T39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">612
+          <t xml:space="preserve">632
 </t>
         </is>
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">93
+          <t xml:space="preserve">173
 </t>
         </is>
       </c>
       <c r="V39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">220
+          <t xml:space="preserve">247
 </t>
         </is>
       </c>
       <c r="W39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">229
+          <t xml:space="preserve">232
 </t>
         </is>
       </c>
       <c r="X39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">725
+          <t xml:space="preserve">276
 </t>
         </is>
       </c>
       <c r="Y39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1944
-</t>
-        </is>
-      </c>
-      <c r="Z39" s="3" t="n"/>
+          <t xml:space="preserve">982
+</t>
+        </is>
+      </c>
+      <c r="Z39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">386
+</t>
+        </is>
+      </c>
       <c r="AA39" s="3" t="inlineStr">
         <is>
           <t>26</t>
@@ -5739,135 +6257,150 @@
           <t>27</t>
         </is>
       </c>
-      <c r="C40" s="3" t="n"/>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4537
+</t>
+        </is>
+      </c>
       <c r="D40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">925
+          <t xml:space="preserve">329
 </t>
         </is>
       </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">183
+          <t xml:space="preserve">188
 </t>
         </is>
       </c>
       <c r="F40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">854
+          <t xml:space="preserve">259
 </t>
         </is>
       </c>
       <c r="G40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">142
+          <t xml:space="preserve">141
 </t>
         </is>
       </c>
       <c r="H40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">180
+          <t xml:space="preserve">1182
 </t>
         </is>
       </c>
       <c r="I40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">29
+          <t xml:space="preserve">127
 </t>
         </is>
       </c>
       <c r="J40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">510
+          <t xml:space="preserve">30
 </t>
         </is>
       </c>
       <c r="K40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">010
+          <t xml:space="preserve">00
 </t>
         </is>
       </c>
       <c r="L40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">190
+          <t xml:space="preserve">198
 </t>
         </is>
       </c>
       <c r="M40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1948
+          <t xml:space="preserve">196
 </t>
         </is>
       </c>
       <c r="N40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1983
-</t>
-        </is>
-      </c>
-      <c r="O40" s="3" t="n"/>
+          <t xml:space="preserve">9468
+</t>
+        </is>
+      </c>
+      <c r="O40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">978
+</t>
+        </is>
+      </c>
       <c r="P40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">05
 </t>
         </is>
       </c>
       <c r="Q40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">264
+          <t xml:space="preserve">328
 </t>
         </is>
       </c>
       <c r="R40" s="3" t="inlineStr">
         <is>
+          <t xml:space="preserve">260
+</t>
+        </is>
+      </c>
+      <c r="S40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8293
+</t>
+        </is>
+      </c>
+      <c r="T40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">592
+</t>
+        </is>
+      </c>
+      <c r="U40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">202
+</t>
+        </is>
+      </c>
+      <c r="V40" s="3" t="inlineStr">
+        <is>
           <t xml:space="preserve">278
 </t>
         </is>
       </c>
-      <c r="S40" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">592
-</t>
-        </is>
-      </c>
-      <c r="T40" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">472
-</t>
-        </is>
-      </c>
-      <c r="U40" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">278
-</t>
-        </is>
-      </c>
-      <c r="V40" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">216
-</t>
-        </is>
-      </c>
       <c r="W40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">259
+          <t xml:space="preserve">238
 </t>
         </is>
       </c>
       <c r="X40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">869
+          <t xml:space="preserve">269
 </t>
         </is>
       </c>
       <c r="Y40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">126
-</t>
-        </is>
-      </c>
-      <c r="Z40" s="3" t="n"/>
+          <t xml:space="preserve">220
+</t>
+        </is>
+      </c>
+      <c r="Z40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">104
+</t>
+        </is>
+      </c>
       <c r="AA40" s="3" t="inlineStr">
         <is>
           <t>27</t>
@@ -5881,130 +6414,149 @@
           <t>28</t>
         </is>
       </c>
-      <c r="C41" s="3" t="n"/>
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2656
+</t>
+        </is>
+      </c>
       <c r="D41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">318
+          <t xml:space="preserve">316
 </t>
         </is>
       </c>
       <c r="E41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">190
+          <t xml:space="preserve">196
 </t>
         </is>
       </c>
       <c r="F41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">254
+          <t xml:space="preserve">8256
 </t>
         </is>
       </c>
       <c r="G41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">128
+          <t xml:space="preserve">120
 </t>
         </is>
       </c>
       <c r="H41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">190
+          <t xml:space="preserve">1180
 </t>
         </is>
       </c>
       <c r="I41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">213
+          <t xml:space="preserve">112
 </t>
         </is>
       </c>
       <c r="J41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1185
+          <t xml:space="preserve">50
 </t>
         </is>
       </c>
       <c r="K41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
-</t>
+          <t>434</t>
         </is>
       </c>
       <c r="L41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">189
-</t>
-        </is>
-      </c>
-      <c r="M41" s="3" t="n"/>
+          <t xml:space="preserve">199
+</t>
+        </is>
+      </c>
+      <c r="M41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">198
+</t>
+        </is>
+      </c>
       <c r="N41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">912
-</t>
-        </is>
-      </c>
-      <c r="O41" s="3" t="n"/>
+          <t xml:space="preserve">9286
+</t>
+        </is>
+      </c>
+      <c r="O41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">990
+</t>
+        </is>
+      </c>
       <c r="P41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">102
+          <t xml:space="preserve">02
 </t>
         </is>
       </c>
       <c r="Q41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">312
+          <t xml:space="preserve">223
 </t>
         </is>
       </c>
       <c r="R41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">228
+          <t xml:space="preserve">214
 </t>
         </is>
       </c>
       <c r="S41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">270
+          <t xml:space="preserve">249
 </t>
         </is>
       </c>
       <c r="T41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">90
+          <t xml:space="preserve">923
 </t>
         </is>
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">228
+          <t xml:space="preserve">20
 </t>
         </is>
       </c>
       <c r="V41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">212
+          <t xml:space="preserve">8281
 </t>
         </is>
       </c>
       <c r="W41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">242
+          <t xml:space="preserve">234
 </t>
         </is>
       </c>
       <c r="X41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">823
+          <t xml:space="preserve">280
 </t>
         </is>
       </c>
       <c r="Y41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">26
-</t>
-        </is>
-      </c>
-      <c r="Z41" s="3" t="n"/>
+          <t xml:space="preserve">905
+</t>
+        </is>
+      </c>
+      <c r="Z41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">89
+</t>
+        </is>
+      </c>
       <c r="AA41" s="3" t="inlineStr">
         <is>
           <t>28</t>
@@ -6020,79 +6572,79 @@
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">17
+          <t xml:space="preserve">2363
 </t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">324
+          <t xml:space="preserve">1316
 </t>
         </is>
       </c>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">188
+          <t xml:space="preserve">203
 </t>
         </is>
       </c>
       <c r="F42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">256
+          <t xml:space="preserve">259
 </t>
         </is>
       </c>
       <c r="G42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">125
+          <t xml:space="preserve">113
 </t>
         </is>
       </c>
       <c r="H42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1728
+          <t xml:space="preserve">1200
 </t>
         </is>
       </c>
       <c r="I42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">210
+          <t xml:space="preserve">07
 </t>
         </is>
       </c>
       <c r="J42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">36
+          <t xml:space="preserve">16
 </t>
         </is>
       </c>
       <c r="K42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">18
+          <t xml:space="preserve">287
 </t>
         </is>
       </c>
       <c r="L42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">901
+          <t xml:space="preserve">219
 </t>
         </is>
       </c>
       <c r="M42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">193
+          <t xml:space="preserve">9218
 </t>
         </is>
       </c>
       <c r="N42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">19221
+          <t xml:space="preserve">830
 </t>
         </is>
       </c>
       <c r="O42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">22
+          <t xml:space="preserve">1990
 </t>
         </is>
       </c>
@@ -6104,39 +6656,64 @@
       </c>
       <c r="Q42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">148
+          <t xml:space="preserve">241
 </t>
         </is>
       </c>
       <c r="R42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">820
+          <t xml:space="preserve">238
 </t>
         </is>
       </c>
       <c r="S42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">246
-</t>
-        </is>
-      </c>
-      <c r="T42" s="3" t="n"/>
+          <t xml:space="preserve">893
+</t>
+        </is>
+      </c>
+      <c r="T42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">977
+</t>
+        </is>
+      </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">70
-</t>
-        </is>
-      </c>
-      <c r="V42" s="3" t="n"/>
-      <c r="W42" s="3" t="n"/>
+          <t xml:space="preserve">07
+</t>
+        </is>
+      </c>
+      <c r="V42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">859
+</t>
+        </is>
+      </c>
+      <c r="W42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">235
+</t>
+        </is>
+      </c>
       <c r="X42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">51
-</t>
-        </is>
-      </c>
-      <c r="Y42" s="3" t="n"/>
-      <c r="Z42" s="3" t="n"/>
+          <t xml:space="preserve">282
+</t>
+        </is>
+      </c>
+      <c r="Y42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">906
+</t>
+        </is>
+      </c>
+      <c r="Z42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">29
+</t>
+        </is>
+      </c>
       <c r="AA42" s="3" t="inlineStr">
         <is>
           <t>29</t>
@@ -6152,97 +6729,147 @@
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">17
+          <t xml:space="preserve">3722
 </t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">5
+          <t xml:space="preserve">300
 </t>
         </is>
       </c>
       <c r="E43" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">5
+          <t xml:space="preserve">213
 </t>
         </is>
       </c>
       <c r="F43" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">5
-</t>
-        </is>
-      </c>
-      <c r="G43" s="3" t="n"/>
+          <t xml:space="preserve">857
+</t>
+        </is>
+      </c>
+      <c r="G43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">87
+</t>
+        </is>
+      </c>
       <c r="H43" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">11
-</t>
-        </is>
-      </c>
-      <c r="I43" s="3" t="n"/>
-      <c r="J43" s="3" t="n"/>
-      <c r="K43" s="3" t="n"/>
+          <t xml:space="preserve">1198
+</t>
+        </is>
+      </c>
+      <c r="I43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20
+</t>
+        </is>
+      </c>
+      <c r="J43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">15
+</t>
+        </is>
+      </c>
+      <c r="K43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">100
+</t>
+        </is>
+      </c>
       <c r="L43" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1789
-</t>
-        </is>
-      </c>
-      <c r="M43" s="3" t="n"/>
-      <c r="N43" s="3" t="n"/>
-      <c r="O43" s="3" t="n"/>
+          <t xml:space="preserve">216
+</t>
+        </is>
+      </c>
+      <c r="M43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">215
+</t>
+        </is>
+      </c>
+      <c r="N43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">860
+</t>
+        </is>
+      </c>
+      <c r="O43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">990
+</t>
+        </is>
+      </c>
       <c r="P43" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">02
 </t>
         </is>
       </c>
-      <c r="Q43" s="3" t="n"/>
-      <c r="R43" s="3" t="n"/>
+      <c r="Q43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">291
+</t>
+        </is>
+      </c>
+      <c r="R43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">255
+</t>
+        </is>
+      </c>
       <c r="S43" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">5
+          <t xml:space="preserve">304
 </t>
         </is>
       </c>
       <c r="T43" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">3819
+          <t xml:space="preserve">756
 </t>
         </is>
       </c>
       <c r="U43" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">953
+          <t xml:space="preserve">98
 </t>
         </is>
       </c>
       <c r="V43" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">957
+          <t xml:space="preserve">278
 </t>
         </is>
       </c>
       <c r="W43" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">963
+          <t xml:space="preserve">847
 </t>
         </is>
       </c>
       <c r="X43" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">9272
-</t>
+          <t>91</t>
         </is>
       </c>
       <c r="Y43" s="3" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z43" s="3" t="n"/>
+          <t xml:space="preserve">780
+</t>
+        </is>
+      </c>
+      <c r="Z43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">88
+</t>
+        </is>
+      </c>
       <c r="AA43" s="3" t="inlineStr">
         <is>
           <t>30</t>
@@ -6256,118 +6883,150 @@
           <t>31</t>
         </is>
       </c>
-      <c r="C44" s="3" t="n"/>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3659
+</t>
+        </is>
+      </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1293
+          <t xml:space="preserve">326
 </t>
         </is>
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">146
+          <t xml:space="preserve">213
 </t>
         </is>
       </c>
       <c r="F44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1020
+          <t xml:space="preserve">269
 </t>
         </is>
       </c>
       <c r="G44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">547
+          <t xml:space="preserve">113
 </t>
         </is>
       </c>
       <c r="H44" s="3" t="inlineStr">
         <is>
-          <t>28</t>
+          <t xml:space="preserve">194
+</t>
         </is>
       </c>
       <c r="I44" s="3" t="inlineStr">
         <is>
-          <t>94</t>
+          <t xml:space="preserve">19
+</t>
         </is>
       </c>
       <c r="J44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">156
+          <t xml:space="preserve">137
 </t>
         </is>
       </c>
       <c r="K44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">85
-</t>
-        </is>
-      </c>
-      <c r="L44" s="3" t="n"/>
-      <c r="M44" s="3" t="n"/>
+          <t xml:space="preserve">00
+</t>
+        </is>
+      </c>
+      <c r="L44" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">223
+</t>
+        </is>
+      </c>
+      <c r="M44" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">823
+</t>
+        </is>
+      </c>
       <c r="N44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">13663
-</t>
-        </is>
-      </c>
-      <c r="O44" s="3" t="n"/>
+          <t xml:space="preserve">956
+</t>
+        </is>
+      </c>
+      <c r="O44" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1000
+</t>
+        </is>
+      </c>
       <c r="P44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1069
+          <t xml:space="preserve">800
 </t>
         </is>
       </c>
       <c r="Q44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">916
+          <t xml:space="preserve">226
 </t>
         </is>
       </c>
       <c r="R44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1029
+          <t xml:space="preserve">264
 </t>
         </is>
       </c>
       <c r="S44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">21213
-</t>
-        </is>
-      </c>
-      <c r="T44" s="3" t="n"/>
+          <t xml:space="preserve">304
+</t>
+        </is>
+      </c>
+      <c r="T44" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">620
+</t>
+        </is>
+      </c>
       <c r="U44" s="3" t="inlineStr">
         <is>
+          <t xml:space="preserve">186
+</t>
+        </is>
+      </c>
+      <c r="V44" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">885
+</t>
+        </is>
+      </c>
+      <c r="W44" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">263
+</t>
+        </is>
+      </c>
+      <c r="X44" s="3" t="inlineStr">
+        <is>
           <t xml:space="preserve">228
 </t>
         </is>
       </c>
-      <c r="V44" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">288
-</t>
-        </is>
-      </c>
-      <c r="W44" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">241
-</t>
-        </is>
-      </c>
-      <c r="X44" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">822
-</t>
-        </is>
-      </c>
       <c r="Y44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">54
-</t>
-        </is>
-      </c>
-      <c r="Z44" s="3" t="n"/>
+          <t xml:space="preserve">844
+</t>
+        </is>
+      </c>
+      <c r="Z44" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">60
+</t>
+        </is>
+      </c>
       <c r="AA44" s="3" t="inlineStr">
         <is>
           <t>31</t>
@@ -6381,99 +7040,134 @@
           <t>Tot.</t>
         </is>
       </c>
-      <c r="C45" s="3" t="n"/>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">208
+</t>
+        </is>
+      </c>
       <c r="D45" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">323
+          <t xml:space="preserve">19016
 </t>
         </is>
       </c>
       <c r="E45" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">187
+          <t xml:space="preserve">1216
 </t>
         </is>
       </c>
       <c r="F45" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">255
+          <t xml:space="preserve">1561
 </t>
         </is>
       </c>
       <c r="G45" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">137
-</t>
-        </is>
-      </c>
-      <c r="H45" s="3" t="n"/>
-      <c r="I45" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">23
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">691
+</t>
+        </is>
+      </c>
+      <c r="H45" s="3" t="inlineStr">
+        <is>
+          <t>4274</t>
+        </is>
+      </c>
+      <c r="I45" s="3" t="n"/>
       <c r="J45" s="3" t="inlineStr">
         <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="K45" s="3" t="n"/>
-      <c r="L45" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">184
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">36
+</t>
+        </is>
+      </c>
+      <c r="K45" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">00
+</t>
+        </is>
+      </c>
+      <c r="L45" s="3" t="n"/>
       <c r="M45" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">193
-</t>
-        </is>
-      </c>
-      <c r="N45" s="3" t="n"/>
+          <t xml:space="preserve">18259
+</t>
+        </is>
+      </c>
+      <c r="N45" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">269
+</t>
+        </is>
+      </c>
       <c r="O45" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">983
+          <t xml:space="preserve">59838
 </t>
         </is>
       </c>
       <c r="P45" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">06
-</t>
-        </is>
-      </c>
-      <c r="Q45" s="3" t="n"/>
+          <t xml:space="preserve">13
+</t>
+        </is>
+      </c>
+      <c r="Q45" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1728
+</t>
+        </is>
+      </c>
       <c r="R45" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">257
-</t>
+          <t>297</t>
         </is>
       </c>
       <c r="S45" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">602
-</t>
-        </is>
-      </c>
-      <c r="T45" s="3" t="n"/>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="T45" s="3" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">98
-</t>
-        </is>
-      </c>
-      <c r="V45" s="3" t="n"/>
-      <c r="W45" s="3" t="n"/>
+          <t xml:space="preserve">258
+</t>
+        </is>
+      </c>
+      <c r="V45" s="3" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="W45" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1449
+</t>
+        </is>
+      </c>
       <c r="X45" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">55
-</t>
-        </is>
-      </c>
-      <c r="Y45" s="3" t="n"/>
-      <c r="Z45" s="3" t="n"/>
+          <t>775</t>
+        </is>
+      </c>
+      <c r="Y45" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5037
+</t>
+        </is>
+      </c>
+      <c r="Z45" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">80
+</t>
+        </is>
+      </c>
       <c r="AA45" s="3" t="inlineStr">
         <is>
           <t>Tot.</t>
@@ -6487,74 +7181,145 @@
           <t>Moy.</t>
         </is>
       </c>
-      <c r="C46" s="3" t="n"/>
-      <c r="D46" s="3" t="n"/>
-      <c r="E46" s="3" t="n"/>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2376
+</t>
+        </is>
+      </c>
+      <c r="D46" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">317
+</t>
+        </is>
+      </c>
+      <c r="E46" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">202
+</t>
+        </is>
+      </c>
       <c r="F46" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">11
+          <t xml:space="preserve">860
 </t>
         </is>
       </c>
       <c r="G46" s="3" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H46" s="3" t="n"/>
-      <c r="I46" s="3" t="n"/>
-      <c r="J46" s="3" t="n"/>
+          <t xml:space="preserve">115
+</t>
+        </is>
+      </c>
+      <c r="H46" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">191
+</t>
+        </is>
+      </c>
+      <c r="I46" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">17
+</t>
+        </is>
+      </c>
+      <c r="J46" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">188
+</t>
+        </is>
+      </c>
       <c r="K46" s="3" t="n"/>
-      <c r="L46" s="3" t="n"/>
+      <c r="L46" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">211
+</t>
+        </is>
+      </c>
       <c r="M46" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">8
+          <t xml:space="preserve">210
 </t>
         </is>
       </c>
       <c r="N46" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">222
-</t>
-        </is>
-      </c>
-      <c r="O46" s="3" t="n"/>
+          <t xml:space="preserve">848
+</t>
+        </is>
+      </c>
+      <c r="O46" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">990
+</t>
+        </is>
+      </c>
       <c r="P46" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">02
 </t>
         </is>
       </c>
-      <c r="Q46" s="3" t="n"/>
+      <c r="Q46" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">288
+</t>
+        </is>
+      </c>
       <c r="R46" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">129
-</t>
-        </is>
-      </c>
-      <c r="S46" s="3" t="n"/>
-      <c r="T46" s="3" t="n"/>
-      <c r="U46" s="3" t="n"/>
+          <t xml:space="preserve">218
+</t>
+        </is>
+      </c>
+      <c r="S46" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">290
+</t>
+        </is>
+      </c>
+      <c r="T46" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">750
+</t>
+        </is>
+      </c>
+      <c r="U46" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">114
+</t>
+        </is>
+      </c>
       <c r="V46" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">8299
+          <t xml:space="preserve">263
 </t>
         </is>
       </c>
       <c r="W46" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">3088
-</t>
-        </is>
-      </c>
-      <c r="X46" s="3" t="n"/>
+          <t xml:space="preserve">2141
+</t>
+        </is>
+      </c>
+      <c r="X46" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">287
+</t>
+        </is>
+      </c>
       <c r="Y46" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1501
-</t>
-        </is>
-      </c>
-      <c r="Z46" s="3" t="n"/>
+          <t xml:space="preserve">239
+</t>
+        </is>
+      </c>
+      <c r="Z46" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">57
+</t>
+        </is>
+      </c>
       <c r="AA46" s="3" t="inlineStr">
         <is>
           <t>Moy.</t>

--- a/src/output/original_transcribed_data.xlsx
+++ b/src/output/original_transcribed_data.xlsx
@@ -731,147 +731,110 @@
           <t>1</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1862
-</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">288
-</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">900
-</t>
-        </is>
-      </c>
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" s="3" t="n"/>
+      <c r="E4" s="3" t="n"/>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">243
+          <t xml:space="preserve">249
 </t>
         </is>
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">878
+          <t xml:space="preserve">024
 </t>
         </is>
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1182
+          <t xml:space="preserve">101
 </t>
         </is>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">17
-</t>
-        </is>
-      </c>
-      <c r="J4" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">99
-</t>
-        </is>
-      </c>
-      <c r="K4" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">00
-</t>
-        </is>
-      </c>
-      <c r="L4" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">202
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">14
+</t>
+        </is>
+      </c>
+      <c r="J4" s="3" t="n"/>
+      <c r="K4" s="3" t="n"/>
+      <c r="L4" s="3" t="n"/>
       <c r="M4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">201
+          <t xml:space="preserve">208
 </t>
         </is>
       </c>
       <c r="N4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">834
+          <t xml:space="preserve">23
 </t>
         </is>
       </c>
       <c r="O4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">990
+          <t xml:space="preserve">170
 </t>
         </is>
       </c>
       <c r="P4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">02
+          <t xml:space="preserve">87
 </t>
         </is>
       </c>
       <c r="Q4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">287
-</t>
-        </is>
-      </c>
-      <c r="R4" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">241
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">276
+</t>
+        </is>
+      </c>
+      <c r="R4" s="3" t="n"/>
       <c r="S4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">271
+          <t xml:space="preserve">290
 </t>
         </is>
       </c>
       <c r="T4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1689
+          <t xml:space="preserve">185
 </t>
         </is>
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1122
+          <t xml:space="preserve">80
 </t>
         </is>
       </c>
       <c r="V4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">252
+          <t xml:space="preserve">254
 </t>
         </is>
       </c>
       <c r="W4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">228
-</t>
+          <t>122</t>
         </is>
       </c>
       <c r="X4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">262
-</t>
+          <t>2485</t>
         </is>
       </c>
       <c r="Y4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">8118
+          <t xml:space="preserve">761
 </t>
         </is>
       </c>
       <c r="Z4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">8
+          <t xml:space="preserve">2086
 </t>
         </is>
       </c>
@@ -888,150 +851,110 @@
           <t>2</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4035
-</t>
-        </is>
-      </c>
+      <c r="C5" s="3" t="n"/>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">326
+          <t xml:space="preserve">322
 </t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">182
+          <t xml:space="preserve">200
 </t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">254
+          <t xml:space="preserve">263
 </t>
         </is>
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">144
+          <t xml:space="preserve">10
 </t>
         </is>
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">168
+          <t xml:space="preserve">192
 </t>
         </is>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">325
-</t>
-        </is>
-      </c>
-      <c r="J5" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">55
-</t>
-        </is>
-      </c>
-      <c r="K5" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">00
-</t>
-        </is>
-      </c>
-      <c r="L5" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">189
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">18
+</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="n"/>
+      <c r="K5" s="3" t="n"/>
+      <c r="L5" s="3" t="n"/>
       <c r="M5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">188
+          <t xml:space="preserve">8014
 </t>
         </is>
       </c>
       <c r="N5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">286
+          <t xml:space="preserve">1674
 </t>
         </is>
       </c>
       <c r="O5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">990
-</t>
-        </is>
-      </c>
-      <c r="P5" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">02
-</t>
-        </is>
-      </c>
-      <c r="Q5" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">326
-</t>
-        </is>
-      </c>
-      <c r="R5" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">254
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">958
+</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="n"/>
+      <c r="Q5" s="3" t="n"/>
+      <c r="R5" s="3" t="n"/>
       <c r="S5" s="3" t="inlineStr">
         <is>
+          <t xml:space="preserve">25
+</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1537
+</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8816
+</t>
+        </is>
+      </c>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">298
+</t>
+        </is>
+      </c>
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">242
+</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
           <t xml:space="preserve">278
 </t>
         </is>
       </c>
-      <c r="T5" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1566
-</t>
-        </is>
-      </c>
-      <c r="U5" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">212
-</t>
-        </is>
-      </c>
-      <c r="V5" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">272
-</t>
-        </is>
-      </c>
-      <c r="W5" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">240
-</t>
-        </is>
-      </c>
-      <c r="X5" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1278
-</t>
-        </is>
-      </c>
       <c r="Y5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">770
-</t>
-        </is>
-      </c>
-      <c r="Z5" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">82
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">8290
+</t>
+        </is>
+      </c>
+      <c r="Z5" s="3" t="n"/>
       <c r="AA5" s="3" t="inlineStr">
         <is>
           <t>2</t>
@@ -1047,147 +970,137 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">4223
+          <t xml:space="preserve">2512
 </t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">342
+          <t xml:space="preserve">278
 </t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">188
+          <t xml:space="preserve">202
 </t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">265
+          <t xml:space="preserve">240
 </t>
         </is>
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">154
+          <t xml:space="preserve">176
 </t>
         </is>
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">172
+          <t xml:space="preserve">186
 </t>
         </is>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">116
+          <t xml:space="preserve">168
 </t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">72
-</t>
-        </is>
-      </c>
-      <c r="K6" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">00
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">82
+</t>
+        </is>
+      </c>
+      <c r="K6" s="3" t="n"/>
       <c r="L6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">200
+          <t xml:space="preserve">236
 </t>
         </is>
       </c>
       <c r="M6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">200
+          <t xml:space="preserve">814
 </t>
         </is>
       </c>
       <c r="N6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">233
+          <t xml:space="preserve">6958
 </t>
         </is>
       </c>
       <c r="O6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1000
+          <t xml:space="preserve">980
 </t>
         </is>
       </c>
       <c r="P6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">1011
 </t>
         </is>
       </c>
       <c r="Q6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">327
+          <t xml:space="preserve">7268
 </t>
         </is>
       </c>
       <c r="R6" s="3" t="inlineStr">
         <is>
+          <t xml:space="preserve">835
+</t>
+        </is>
+      </c>
+      <c r="S6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">269
+</t>
+        </is>
+      </c>
+      <c r="T6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">761
+</t>
+        </is>
+      </c>
+      <c r="U6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1824
+</t>
+        </is>
+      </c>
+      <c r="V6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">249
+</t>
+        </is>
+      </c>
+      <c r="W6" s="3" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="X6" s="3" t="inlineStr">
+        <is>
           <t xml:space="preserve">257
 </t>
         </is>
       </c>
-      <c r="S6" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">286
-</t>
-        </is>
-      </c>
-      <c r="T6" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">552
-</t>
-        </is>
-      </c>
-      <c r="U6" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">207
-</t>
-        </is>
-      </c>
-      <c r="V6" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">287
-</t>
-        </is>
-      </c>
-      <c r="W6" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">237
-</t>
-        </is>
-      </c>
-      <c r="X6" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">261
-</t>
-        </is>
-      </c>
       <c r="Y6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">664
-</t>
-        </is>
-      </c>
-      <c r="Z6" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t xml:space="preserve">122
+</t>
+        </is>
+      </c>
+      <c r="Z6" s="3" t="n"/>
       <c r="AA6" s="3" t="inlineStr">
         <is>
           <t>3</t>
@@ -1203,142 +1116,140 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>43351</t>
+          <t xml:space="preserve">4898
+</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">347
+          <t xml:space="preserve">230
 </t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">193
+          <t xml:space="preserve">204
 </t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">270
+          <t xml:space="preserve">267
 </t>
         </is>
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">154
+          <t xml:space="preserve">126
 </t>
         </is>
       </c>
       <c r="H7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">182
+          <t xml:space="preserve">180
 </t>
         </is>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>433</t>
+          <t xml:space="preserve">10
+</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
         <is>
-          <t>19</t>
+          <t xml:space="preserve">218
+</t>
         </is>
       </c>
       <c r="K7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">10
 </t>
         </is>
       </c>
       <c r="L7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">201
+          <t xml:space="preserve">211
 </t>
         </is>
       </c>
       <c r="M7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">201
+          <t xml:space="preserve">208
 </t>
         </is>
       </c>
       <c r="N7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2351
-</t>
-        </is>
-      </c>
-      <c r="O7" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1000
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">128
+</t>
+        </is>
+      </c>
+      <c r="O7" s="3" t="n"/>
       <c r="P7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">08
 </t>
         </is>
       </c>
       <c r="Q7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">342
+          <t xml:space="preserve">218
 </t>
         </is>
       </c>
       <c r="R7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">255
+          <t xml:space="preserve">0246
 </t>
         </is>
       </c>
       <c r="S7" s="3" t="inlineStr">
         <is>
+          <t xml:space="preserve">264
+</t>
+        </is>
+      </c>
+      <c r="T7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">560
+</t>
+        </is>
+      </c>
+      <c r="U7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">206
+</t>
+        </is>
+      </c>
+      <c r="V7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">268
+</t>
+        </is>
+      </c>
+      <c r="W7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">236
+</t>
+        </is>
+      </c>
+      <c r="X7" s="3" t="inlineStr">
+        <is>
           <t xml:space="preserve">271
 </t>
         </is>
       </c>
-      <c r="T7" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">506
-</t>
-        </is>
-      </c>
-      <c r="U7" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">265
-</t>
-        </is>
-      </c>
-      <c r="V7" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">295
-</t>
-        </is>
-      </c>
-      <c r="W7" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">244
-</t>
-        </is>
-      </c>
-      <c r="X7" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">273
-</t>
-        </is>
-      </c>
       <c r="Y7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">662
+          <t xml:space="preserve">1770
 </t>
         </is>
       </c>
       <c r="Z7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">138
+          <t xml:space="preserve">25
 </t>
         </is>
       </c>
@@ -1355,145 +1266,141 @@
           <t>5</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2990
-</t>
-        </is>
-      </c>
+      <c r="C8" s="3" t="n"/>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>3441</t>
+          <t xml:space="preserve">224
+</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">806
+          <t xml:space="preserve">208
 </t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">276
+          <t xml:space="preserve">229
 </t>
         </is>
       </c>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">140
+          <t xml:space="preserve">124
 </t>
         </is>
       </c>
       <c r="H8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">11190
+          <t xml:space="preserve">182
 </t>
         </is>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">20
+          <t xml:space="preserve">129
 </t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t xml:space="preserve">59
+</t>
         </is>
       </c>
       <c r="K8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">309
+          <t xml:space="preserve">10
 </t>
         </is>
       </c>
       <c r="L8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">210
+          <t xml:space="preserve">206
 </t>
         </is>
       </c>
       <c r="M8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">206
+          <t xml:space="preserve">203
 </t>
         </is>
       </c>
       <c r="N8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2409
+          <t xml:space="preserve">185
 </t>
         </is>
       </c>
       <c r="O8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">965
+          <t xml:space="preserve">180
 </t>
         </is>
       </c>
       <c r="P8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">108
+          <t xml:space="preserve">06
 </t>
         </is>
       </c>
       <c r="Q8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1214
-</t>
+          <t>22</t>
         </is>
       </c>
       <c r="R8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">212
+          <t xml:space="preserve">258
 </t>
         </is>
       </c>
       <c r="S8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">251
+          <t xml:space="preserve">298
 </t>
         </is>
       </c>
       <c r="T8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">980
+          <t xml:space="preserve">1260
 </t>
         </is>
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">104
+          <t xml:space="preserve">156
 </t>
         </is>
       </c>
       <c r="V8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">222
+          <t xml:space="preserve">272
 </t>
         </is>
       </c>
       <c r="W8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">219
+          <t xml:space="preserve">2846
 </t>
         </is>
       </c>
       <c r="X8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">261
+          <t xml:space="preserve">203
 </t>
         </is>
       </c>
       <c r="Y8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">974
+          <t xml:space="preserve">180
 </t>
         </is>
       </c>
       <c r="Z8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">06
+          <t xml:space="preserve">25
 </t>
         </is>
       </c>
@@ -1512,139 +1419,127 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">17835
+          <t xml:space="preserve">190689
 </t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1648
+          <t xml:space="preserve">155
 </t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">969
+          <t xml:space="preserve">1012
 </t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1308
+          <t xml:space="preserve">1281
 </t>
         </is>
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">679
+          <t xml:space="preserve">538
 </t>
         </is>
       </c>
       <c r="H9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">894
+          <t xml:space="preserve">926
 </t>
         </is>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">165
+          <t xml:space="preserve">81
 </t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">275
-</t>
-        </is>
-      </c>
-      <c r="K9" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">309
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">187
+</t>
+        </is>
+      </c>
+      <c r="K9" s="3" t="n"/>
       <c r="L9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1002
+          <t xml:space="preserve">1033
 </t>
         </is>
       </c>
       <c r="M9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">996
+          <t xml:space="preserve">1037
 </t>
         </is>
       </c>
       <c r="N9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1158
+          <t xml:space="preserve">1550
 </t>
         </is>
       </c>
       <c r="O9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">18945
+          <t xml:space="preserve">22850
 </t>
         </is>
       </c>
       <c r="P9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">112
-</t>
+          <t>141</t>
         </is>
       </c>
       <c r="Q9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1496
+          <t xml:space="preserve">1497
 </t>
         </is>
       </c>
       <c r="R9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1219
+          <t xml:space="preserve">1229
 </t>
         </is>
       </c>
       <c r="S9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1357
+          <t xml:space="preserve">1377
 </t>
         </is>
       </c>
       <c r="T9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2299
+          <t xml:space="preserve">2297
 </t>
         </is>
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">810
-</t>
+          <t>252</t>
         </is>
       </c>
       <c r="V9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1328
+          <t xml:space="preserve">1331
 </t>
         </is>
       </c>
       <c r="W9" s="3" t="inlineStr">
         <is>
+          <t xml:space="preserve">1121
+</t>
+        </is>
+      </c>
+      <c r="X9" s="3" t="n"/>
+      <c r="Y9" s="3" t="inlineStr">
+        <is>
           <t xml:space="preserve">1168
-</t>
-        </is>
-      </c>
-      <c r="X9" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1335
-</t>
-        </is>
-      </c>
-      <c r="Y9" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3888
 </t>
         </is>
       </c>
@@ -1664,80 +1559,80 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">3567
+          <t xml:space="preserve">8818
 </t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">330
+          <t xml:space="preserve">310
 </t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">194
+          <t xml:space="preserve">902
 </t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">262
+          <t xml:space="preserve">252
 </t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">136
+          <t xml:space="preserve">1284
 </t>
         </is>
       </c>
       <c r="H10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">179
+          <t xml:space="preserve">185
 </t>
         </is>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">33
+          <t xml:space="preserve">116
 </t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">55
+          <t xml:space="preserve">37
 </t>
         </is>
       </c>
       <c r="K10" s="3" t="n"/>
       <c r="L10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">200
+          <t xml:space="preserve">211
 </t>
         </is>
       </c>
       <c r="M10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">199
+          <t xml:space="preserve">9207
 </t>
         </is>
       </c>
       <c r="N10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1232
+          <t xml:space="preserve">1248
 </t>
         </is>
       </c>
       <c r="O10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">989
+          <t xml:space="preserve">1981
 </t>
         </is>
       </c>
       <c r="P10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">102
+          <t xml:space="preserve">07
 </t>
         </is>
       </c>
@@ -1749,25 +1644,25 @@
       </c>
       <c r="R10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">8244
+          <t xml:space="preserve">0116
 </t>
         </is>
       </c>
       <c r="S10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">271
+          <t xml:space="preserve">273
 </t>
         </is>
       </c>
       <c r="T10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">660
+          <t xml:space="preserve">659
 </t>
         </is>
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">162
+          <t xml:space="preserve">151
 </t>
         </is>
       </c>
@@ -1779,25 +1674,25 @@
       </c>
       <c r="W10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1234
+          <t xml:space="preserve">9821
 </t>
         </is>
       </c>
       <c r="X10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">267
+          <t xml:space="preserve">929
 </t>
         </is>
       </c>
       <c r="Y10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">778
+          <t xml:space="preserve">111
 </t>
         </is>
       </c>
       <c r="Z10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">416
+          <t xml:space="preserve">81
 </t>
         </is>
       </c>
@@ -1816,145 +1711,138 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2656
+          <t xml:space="preserve">428
 </t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">201
+          <t xml:space="preserve">382
 </t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">198
+          <t xml:space="preserve">196
 </t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">249
+          <t xml:space="preserve">270
 </t>
         </is>
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">103
+          <t xml:space="preserve">1148
 </t>
         </is>
       </c>
       <c r="H11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">182
+          <t xml:space="preserve">171
 </t>
         </is>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1866
+          <t xml:space="preserve">293
 </t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">828
+          <t xml:space="preserve">65
 </t>
         </is>
       </c>
       <c r="K11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">80
 </t>
         </is>
       </c>
       <c r="L11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">212
+          <t xml:space="preserve">907
 </t>
         </is>
       </c>
       <c r="M11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">209
-</t>
-        </is>
-      </c>
-      <c r="N11" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11245
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">52202
+</t>
+        </is>
+      </c>
+      <c r="N11" s="3" t="n"/>
       <c r="O11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0923
+          <t xml:space="preserve">980
 </t>
         </is>
       </c>
       <c r="P11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">06
+          <t xml:space="preserve">08
 </t>
         </is>
       </c>
       <c r="Q11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1299
-</t>
+          <t>34</t>
         </is>
       </c>
       <c r="R11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1255
+          <t xml:space="preserve">851
 </t>
         </is>
       </c>
       <c r="S11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1298
+          <t xml:space="preserve">275
 </t>
         </is>
       </c>
       <c r="T11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">706
+          <t xml:space="preserve">686
 </t>
         </is>
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1124
+          <t xml:space="preserve">262
 </t>
         </is>
       </c>
       <c r="V11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1271
+          <t xml:space="preserve">300
 </t>
         </is>
       </c>
       <c r="W11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">8249
-</t>
+          <t>264</t>
         </is>
       </c>
       <c r="X11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">301
+          <t xml:space="preserve">1282
 </t>
         </is>
       </c>
       <c r="Y11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">840
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
       <c r="Z11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">83
+          <t xml:space="preserve">102
 </t>
         </is>
       </c>
@@ -1973,145 +1861,138 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">3471
-</t>
+          <t>274451</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">318
+          <t xml:space="preserve">236
 </t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">226
+          <t xml:space="preserve">195
 </t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">272
+          <t xml:space="preserve">965
 </t>
         </is>
       </c>
       <c r="G12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">92
+          <t xml:space="preserve">141
 </t>
         </is>
       </c>
       <c r="H12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">212
+          <t xml:space="preserve">178
 </t>
         </is>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">27
-</t>
-        </is>
-      </c>
-      <c r="J12" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1446
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">14
+</t>
+        </is>
+      </c>
+      <c r="J12" s="3" t="n"/>
       <c r="K12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">100
-</t>
+          <t>69</t>
         </is>
       </c>
       <c r="L12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">233
+          <t xml:space="preserve">202
 </t>
         </is>
       </c>
       <c r="M12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">230
+          <t xml:space="preserve">10900
 </t>
         </is>
       </c>
       <c r="N12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">279
+          <t xml:space="preserve">18
 </t>
         </is>
       </c>
       <c r="O12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">975
+          <t xml:space="preserve">19120
 </t>
         </is>
       </c>
       <c r="P12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">05
+          <t xml:space="preserve">04
 </t>
         </is>
       </c>
       <c r="Q12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">318
+          <t xml:space="preserve">275
 </t>
         </is>
       </c>
       <c r="R12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">249
+          <t xml:space="preserve">265
 </t>
         </is>
       </c>
       <c r="S12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">271
+          <t xml:space="preserve">339
 </t>
         </is>
       </c>
       <c r="T12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">578
+          <t xml:space="preserve">1925
 </t>
         </is>
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">198
+          <t xml:space="preserve">28
 </t>
         </is>
       </c>
       <c r="V12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">279
+          <t xml:space="preserve">258
 </t>
         </is>
       </c>
       <c r="W12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1246
+          <t xml:space="preserve">238
 </t>
         </is>
       </c>
       <c r="X12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">288
+          <t xml:space="preserve">1282
 </t>
         </is>
       </c>
       <c r="Y12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">767
+          <t xml:space="preserve">850
 </t>
         </is>
       </c>
       <c r="Z12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">57
+          <t xml:space="preserve">50
 </t>
         </is>
       </c>
@@ -2130,145 +2011,138 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">14286
+          <t xml:space="preserve">12682
 </t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">328
+          <t xml:space="preserve">246
 </t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">204
+          <t xml:space="preserve">196
 </t>
         </is>
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">966
-</t>
+          <t>216</t>
         </is>
       </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">124
+          <t xml:space="preserve">200
 </t>
         </is>
       </c>
       <c r="H13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">199
+          <t xml:space="preserve">198
 </t>
         </is>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">33
+          <t xml:space="preserve">20
 </t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">160
-</t>
-        </is>
-      </c>
-      <c r="K13" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">00
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">828
+</t>
+        </is>
+      </c>
+      <c r="K13" s="3" t="n"/>
       <c r="L13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2221
+          <t xml:space="preserve">20
 </t>
         </is>
       </c>
       <c r="M13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">219
+          <t xml:space="preserve">197
 </t>
         </is>
       </c>
       <c r="N13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">261
+          <t xml:space="preserve">25
 </t>
         </is>
       </c>
       <c r="O13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">980
+          <t xml:space="preserve">970
 </t>
         </is>
       </c>
       <c r="P13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">104
+          <t xml:space="preserve">108
 </t>
         </is>
       </c>
       <c r="Q13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">326
+          <t xml:space="preserve">294
 </t>
         </is>
       </c>
       <c r="R13" s="3" t="inlineStr">
         <is>
+          <t xml:space="preserve">248
+</t>
+        </is>
+      </c>
+      <c r="S13" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">284
+</t>
+        </is>
+      </c>
+      <c r="T13" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1692
+</t>
+        </is>
+      </c>
+      <c r="U13" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">126
+</t>
+        </is>
+      </c>
+      <c r="V13" s="3" t="inlineStr">
+        <is>
           <t xml:space="preserve">246
 </t>
         </is>
       </c>
-      <c r="S13" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">258
-</t>
-        </is>
-      </c>
-      <c r="T13" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">527
-</t>
-        </is>
-      </c>
-      <c r="U13" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">233
-</t>
-        </is>
-      </c>
-      <c r="V13" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1280
-</t>
-        </is>
-      </c>
       <c r="W13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">248
-</t>
+          <t>2416</t>
         </is>
       </c>
       <c r="X13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">293
+          <t xml:space="preserve">313
 </t>
         </is>
       </c>
       <c r="Y13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">776
+          <t xml:space="preserve">951
 </t>
         </is>
       </c>
       <c r="Z13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">87
+          <t xml:space="preserve">18
 </t>
         </is>
       </c>
@@ -2287,145 +2161,144 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1903
+          <t xml:space="preserve">3523
 </t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">3207
+          <t xml:space="preserve">342
 </t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">219
+          <t xml:space="preserve">190
 </t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">263
+          <t xml:space="preserve">251
 </t>
         </is>
       </c>
       <c r="G14" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">88
+          <t xml:space="preserve">122
 </t>
         </is>
       </c>
       <c r="H14" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">203
+          <t xml:space="preserve">174
 </t>
         </is>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">15
+          <t xml:space="preserve">98
 </t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">521
+          <t xml:space="preserve">92
 </t>
         </is>
       </c>
       <c r="K14" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">111
+          <t xml:space="preserve">77
 </t>
         </is>
       </c>
       <c r="L14" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">224
+          <t xml:space="preserve">1994
 </t>
         </is>
       </c>
       <c r="M14" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">221
+          <t xml:space="preserve">193
 </t>
         </is>
       </c>
       <c r="N14" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">264
+          <t xml:space="preserve">518
 </t>
         </is>
       </c>
       <c r="O14" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">973
+          <t xml:space="preserve">168
 </t>
         </is>
       </c>
       <c r="P14" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">107
+          <t xml:space="preserve">62
 </t>
         </is>
       </c>
       <c r="Q14" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">824
+          <t xml:space="preserve">210
 </t>
         </is>
       </c>
       <c r="R14" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">211
+          <t xml:space="preserve">252
 </t>
         </is>
       </c>
       <c r="S14" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">242
+          <t xml:space="preserve">284
 </t>
         </is>
       </c>
       <c r="T14" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">890
+          <t xml:space="preserve">130
 </t>
         </is>
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
+          <t xml:space="preserve">156
+</t>
+        </is>
+      </c>
+      <c r="V14" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">260
+</t>
+        </is>
+      </c>
+      <c r="W14" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1251
+</t>
+        </is>
+      </c>
+      <c r="X14" s="3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="Y14" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">830
+</t>
+        </is>
+      </c>
+      <c r="Z14" s="3" t="inlineStr">
+        <is>
           <t xml:space="preserve">29
-</t>
-        </is>
-      </c>
-      <c r="V14" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">220
-</t>
-        </is>
-      </c>
-      <c r="W14" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">216
-</t>
-        </is>
-      </c>
-      <c r="X14" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">255
-</t>
-        </is>
-      </c>
-      <c r="Y14" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">960
-</t>
-        </is>
-      </c>
-      <c r="Z14" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">85
 </t>
         </is>
       </c>
@@ -2444,145 +2317,139 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">3596
-</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">325
+          <t xml:space="preserve">310
 </t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2088
+          <t xml:space="preserve">204
 </t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">267
+          <t xml:space="preserve">1957
 </t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1117
+          <t xml:space="preserve">106
 </t>
         </is>
       </c>
       <c r="H15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">14196
+          <t xml:space="preserve">200
 </t>
         </is>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">24
+          <t xml:space="preserve">110
 </t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">39
-</t>
-        </is>
-      </c>
-      <c r="K15" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">259
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">148
+</t>
+        </is>
+      </c>
+      <c r="K15" s="3" t="n"/>
       <c r="L15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">216
+          <t xml:space="preserve">18
 </t>
         </is>
       </c>
       <c r="M15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">216
+          <t xml:space="preserve">205
 </t>
         </is>
       </c>
       <c r="N15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">258
+          <t xml:space="preserve">518
 </t>
         </is>
       </c>
       <c r="O15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1800
+          <t xml:space="preserve">960
 </t>
         </is>
       </c>
       <c r="P15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">08
 </t>
         </is>
       </c>
       <c r="Q15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">320
+          <t xml:space="preserve">205
 </t>
         </is>
       </c>
       <c r="R15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">258
+          <t xml:space="preserve">250
 </t>
         </is>
       </c>
       <c r="S15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">892
+          <t xml:space="preserve">282
 </t>
         </is>
       </c>
       <c r="T15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">617
+          <t xml:space="preserve">8650
 </t>
         </is>
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">182
+          <t xml:space="preserve">154
 </t>
         </is>
       </c>
       <c r="V15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">287
+          <t xml:space="preserve">222
 </t>
         </is>
       </c>
       <c r="W15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">248
+          <t xml:space="preserve">253
 </t>
         </is>
       </c>
       <c r="X15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">288
+          <t xml:space="preserve">1524
 </t>
         </is>
       </c>
       <c r="Y15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">731
+          <t xml:space="preserve">85
 </t>
         </is>
       </c>
       <c r="Z15" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">09
+          <t xml:space="preserve">38
 </t>
         </is>
       </c>
@@ -2601,133 +2468,142 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">15912
-</t>
+          <t>1721</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">0
+          <t xml:space="preserve">1598
 </t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1055
+          <t xml:space="preserve">981
 </t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1317
+          <t xml:space="preserve">1289
 </t>
         </is>
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">524
+          <t xml:space="preserve">6817
 </t>
         </is>
       </c>
       <c r="H16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">992
+          <t xml:space="preserve">918
 </t>
         </is>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">115
+          <t xml:space="preserve">824
 </t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">194
-</t>
-        </is>
-      </c>
-      <c r="K16" s="3" t="n"/>
-      <c r="L16" s="3" t="n"/>
+          <t xml:space="preserve">229
+</t>
+        </is>
+      </c>
+      <c r="K16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2189
+</t>
+        </is>
+      </c>
+      <c r="L16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2021
+</t>
+        </is>
+      </c>
       <c r="M16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1095
+          <t xml:space="preserve">998
 </t>
         </is>
       </c>
       <c r="N16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1307
+          <t xml:space="preserve">81
 </t>
         </is>
       </c>
       <c r="O16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">4901
-</t>
-        </is>
-      </c>
-      <c r="P16" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">92
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">21060
+</t>
+        </is>
+      </c>
+      <c r="P16" s="3" t="n"/>
       <c r="Q16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1487
+          <t xml:space="preserve">156
 </t>
         </is>
       </c>
       <c r="R16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1219
+          <t xml:space="preserve">121
 </t>
         </is>
       </c>
       <c r="S16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1361
+          <t xml:space="preserve">1466
 </t>
         </is>
       </c>
       <c r="T16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">3318
+          <t xml:space="preserve">3413
 </t>
         </is>
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">766
+          <t xml:space="preserve">736
 </t>
         </is>
       </c>
       <c r="V16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1337
+          <t xml:space="preserve">1331
 </t>
         </is>
       </c>
       <c r="W16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1207
+          <t xml:space="preserve">1246
 </t>
         </is>
       </c>
       <c r="X16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1425
+          <t xml:space="preserve">1305
 </t>
         </is>
       </c>
       <c r="Y16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">4074
-</t>
-        </is>
-      </c>
-      <c r="Z16" s="3" t="n"/>
+          <t xml:space="preserve">872
+</t>
+        </is>
+      </c>
+      <c r="Z16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">228
+</t>
+        </is>
+      </c>
       <c r="AA16" s="3" t="inlineStr">
         <is>
           <t>Tot.</t>
@@ -2743,144 +2619,143 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">3182
-</t>
+          <t>4354</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">316
+          <t xml:space="preserve">320
 </t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">211
+          <t xml:space="preserve">1921
 </t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">263
+          <t xml:space="preserve">1258
 </t>
         </is>
       </c>
       <c r="G17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">105
+          <t xml:space="preserve">124
 </t>
         </is>
       </c>
       <c r="H17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">198
+          <t xml:space="preserve">184
 </t>
         </is>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">23
+          <t xml:space="preserve">80
 </t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">39
+          <t xml:space="preserve">146
 </t>
         </is>
       </c>
       <c r="K17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">368
-</t>
+          <t>31</t>
         </is>
       </c>
       <c r="L17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1106
+          <t xml:space="preserve">200
 </t>
         </is>
       </c>
       <c r="M17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">219
+          <t xml:space="preserve">2001
 </t>
         </is>
       </c>
       <c r="N17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">261
+          <t xml:space="preserve">81
 </t>
         </is>
       </c>
       <c r="O17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">980
+          <t xml:space="preserve">972
 </t>
         </is>
       </c>
       <c r="P17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1104
+          <t xml:space="preserve">06
 </t>
         </is>
       </c>
       <c r="Q17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">297
+          <t xml:space="preserve">208
 </t>
         </is>
       </c>
       <c r="R17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">244
+          <t xml:space="preserve">252
 </t>
         </is>
       </c>
       <c r="S17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2722
+          <t xml:space="preserve">2293
 </t>
         </is>
       </c>
       <c r="T17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">664
+          <t xml:space="preserve">1683
 </t>
         </is>
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">153
+          <t xml:space="preserve">1142
 </t>
         </is>
       </c>
       <c r="V17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">267
+          <t xml:space="preserve">981
 </t>
         </is>
       </c>
       <c r="W17" s="3" t="inlineStr">
         <is>
-          <t>941</t>
+          <t xml:space="preserve">19119
+</t>
         </is>
       </c>
       <c r="X17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">285
+          <t xml:space="preserve">317
 </t>
         </is>
       </c>
       <c r="Y17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">815
+          <t xml:space="preserve">220
 </t>
         </is>
       </c>
       <c r="Z17" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">69
+          <t xml:space="preserve">978
 </t>
         </is>
       </c>
@@ -2899,143 +2774,136 @@
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">3680
+          <t xml:space="preserve">1986
 </t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">321
+          <t xml:space="preserve">835
 </t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">212
+          <t xml:space="preserve">138
 </t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">8267
+          <t xml:space="preserve">265
 </t>
         </is>
       </c>
       <c r="G18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">109
+          <t xml:space="preserve">1211
 </t>
         </is>
       </c>
       <c r="H18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">204
+          <t xml:space="preserve">182
 </t>
         </is>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">25
+          <t xml:space="preserve">27
 </t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">143
-</t>
-        </is>
-      </c>
-      <c r="K18" s="3" t="n"/>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="K18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10
+</t>
+        </is>
+      </c>
       <c r="L18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">221
+          <t xml:space="preserve">294
 </t>
         </is>
       </c>
       <c r="M18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">211
-</t>
-        </is>
-      </c>
-      <c r="N18" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">248
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">196
+</t>
+        </is>
+      </c>
+      <c r="N18" s="3" t="n"/>
       <c r="O18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">923
+          <t xml:space="preserve">960
 </t>
         </is>
       </c>
       <c r="P18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">06
+          <t xml:space="preserve">118
 </t>
         </is>
       </c>
       <c r="Q18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">321
+          <t xml:space="preserve">3321
 </t>
         </is>
       </c>
       <c r="R18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">8252
+          <t xml:space="preserve">812057
 </t>
         </is>
       </c>
       <c r="S18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">277
-</t>
+          <t>2227</t>
         </is>
       </c>
       <c r="T18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">580
+          <t xml:space="preserve">1683
 </t>
         </is>
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">8200
+          <t xml:space="preserve">226
 </t>
         </is>
       </c>
       <c r="V18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">285
+          <t xml:space="preserve">282
 </t>
         </is>
       </c>
       <c r="W18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">244
+          <t xml:space="preserve">258
 </t>
         </is>
       </c>
       <c r="X18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">279
+          <t xml:space="preserve">220
 </t>
         </is>
       </c>
       <c r="Y18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">717
-</t>
-        </is>
-      </c>
-      <c r="Z18" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">115
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">850
+</t>
+        </is>
+      </c>
+      <c r="Z18" s="3" t="n"/>
       <c r="AA18" s="3" t="inlineStr">
         <is>
           <t>11</t>
@@ -3051,145 +2919,140 @@
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2656
+          <t xml:space="preserve">154060
 </t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">304
+          <t xml:space="preserve">250
 </t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">222
+          <t xml:space="preserve">206
 </t>
         </is>
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">263
+          <t xml:space="preserve">228
 </t>
         </is>
       </c>
       <c r="G19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">82
+          <t xml:space="preserve">114
 </t>
         </is>
       </c>
       <c r="H19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">214
+          <t xml:space="preserve">121
 </t>
         </is>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">16
+          <t xml:space="preserve">27
 </t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">28
+          <t xml:space="preserve">186
 </t>
         </is>
       </c>
       <c r="K19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">104
+          <t xml:space="preserve">279
 </t>
         </is>
       </c>
       <c r="L19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">214
+          <t xml:space="preserve">198
 </t>
         </is>
       </c>
       <c r="M19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">220
+          <t xml:space="preserve">221
 </t>
         </is>
       </c>
       <c r="N19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">263
+          <t xml:space="preserve">58
 </t>
         </is>
       </c>
       <c r="O19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">976
+          <t xml:space="preserve">84
 </t>
         </is>
       </c>
       <c r="P19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">06
-</t>
-        </is>
-      </c>
-      <c r="Q19" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">299
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">016
+</t>
+        </is>
+      </c>
+      <c r="Q19" s="3" t="n"/>
       <c r="R19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">260
+          <t xml:space="preserve">2216
 </t>
         </is>
       </c>
       <c r="S19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">311
+          <t xml:space="preserve">254
 </t>
         </is>
       </c>
       <c r="T19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">737
+          <t xml:space="preserve">920
 </t>
         </is>
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">110
+          <t xml:space="preserve">122
 </t>
         </is>
       </c>
       <c r="V19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1243
+          <t xml:space="preserve">215
 </t>
         </is>
       </c>
       <c r="W19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">229
+          <t xml:space="preserve">198
 </t>
         </is>
       </c>
       <c r="X19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">271
+          <t xml:space="preserve">328
 </t>
         </is>
       </c>
       <c r="Y19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">290
+          <t xml:space="preserve">951
 </t>
         </is>
       </c>
       <c r="Z19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">93
+          <t xml:space="preserve">88
 </t>
         </is>
       </c>
@@ -3208,73 +3071,73 @@
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">3659
+          <t xml:space="preserve">2166
 </t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">314
+          <t xml:space="preserve">318
 </t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
+          <t xml:space="preserve">192
+</t>
+        </is>
+      </c>
+      <c r="F20" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">255
+</t>
+        </is>
+      </c>
+      <c r="G20" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">126
+</t>
+        </is>
+      </c>
+      <c r="H20" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1765
+</t>
+        </is>
+      </c>
+      <c r="I20" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19
+</t>
+        </is>
+      </c>
+      <c r="J20" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">149
+</t>
+        </is>
+      </c>
+      <c r="K20" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">387
+</t>
+        </is>
+      </c>
+      <c r="L20" s="3" t="inlineStr">
+        <is>
           <t xml:space="preserve">215
 </t>
         </is>
       </c>
-      <c r="F20" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">265
-</t>
-        </is>
-      </c>
-      <c r="G20" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">99
-</t>
-        </is>
-      </c>
-      <c r="H20" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">206
-</t>
-        </is>
-      </c>
-      <c r="I20" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">25
-</t>
-        </is>
-      </c>
-      <c r="J20" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">145
-</t>
-        </is>
-      </c>
-      <c r="K20" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">112
-</t>
-        </is>
-      </c>
-      <c r="L20" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">223
-</t>
-        </is>
-      </c>
       <c r="M20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">214
+          <t xml:space="preserve">19296
 </t>
         </is>
       </c>
       <c r="N20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">254
+          <t xml:space="preserve">11
 </t>
         </is>
       </c>
@@ -3286,67 +3149,66 @@
       </c>
       <c r="P20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">04
+          <t xml:space="preserve">08
 </t>
         </is>
       </c>
       <c r="Q20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">307
+          <t xml:space="preserve">210
 </t>
         </is>
       </c>
       <c r="R20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">248
-</t>
+          <t>12</t>
         </is>
       </c>
       <c r="S20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">275
+          <t xml:space="preserve">309
 </t>
         </is>
       </c>
       <c r="T20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">623
+          <t xml:space="preserve">690
 </t>
         </is>
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">166
+          <t xml:space="preserve">138
 </t>
         </is>
       </c>
       <c r="V20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">273
+          <t xml:space="preserve">2684
 </t>
         </is>
       </c>
       <c r="W20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">238
+          <t xml:space="preserve">258
 </t>
         </is>
       </c>
       <c r="X20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">272
+          <t xml:space="preserve">210
 </t>
         </is>
       </c>
       <c r="Y20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2750
+          <t xml:space="preserve">820
 </t>
         </is>
       </c>
       <c r="Z20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">91
+          <t xml:space="preserve">16
 </t>
         </is>
       </c>
@@ -3365,145 +3227,133 @@
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">3408
+          <t xml:space="preserve">102
 </t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">307
+          <t xml:space="preserve">290
 </t>
         </is>
       </c>
       <c r="E21" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">212
+          <t xml:space="preserve">810
 </t>
         </is>
       </c>
       <c r="F21" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">259
+          <t xml:space="preserve">268
 </t>
         </is>
       </c>
       <c r="G21" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">95
+          <t xml:space="preserve">21110
 </t>
         </is>
       </c>
       <c r="H21" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">196
+          <t xml:space="preserve">200
 </t>
         </is>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">18
+          <t xml:space="preserve">02
 </t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">34
-</t>
-        </is>
-      </c>
-      <c r="K21" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">100
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">142
+</t>
+        </is>
+      </c>
+      <c r="K21" s="3" t="n"/>
       <c r="L21" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">8216
+          <t xml:space="preserve">902
 </t>
         </is>
       </c>
       <c r="M21" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">215
-</t>
-        </is>
-      </c>
-      <c r="N21" s="3" t="inlineStr">
+          <t xml:space="preserve">261
+</t>
+        </is>
+      </c>
+      <c r="N21" s="3" t="n"/>
+      <c r="O21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">960
+</t>
+        </is>
+      </c>
+      <c r="P21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">88
+</t>
+        </is>
+      </c>
+      <c r="Q21" s="3" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="R21" s="3" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="S21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7021
+</t>
+        </is>
+      </c>
+      <c r="T21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">861
+</t>
+        </is>
+      </c>
+      <c r="U21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">152
+</t>
+        </is>
+      </c>
+      <c r="V21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">980
+</t>
+        </is>
+      </c>
+      <c r="W21" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">256
 </t>
         </is>
       </c>
-      <c r="O21" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">990
-</t>
-        </is>
-      </c>
-      <c r="P21" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">02
-</t>
-        </is>
-      </c>
-      <c r="Q21" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">306
-</t>
-        </is>
-      </c>
-      <c r="R21" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">262
-</t>
-        </is>
-      </c>
-      <c r="S21" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">312
-</t>
-        </is>
-      </c>
-      <c r="T21" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">712
-</t>
-        </is>
-      </c>
-      <c r="U21" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">126
-</t>
-        </is>
-      </c>
-      <c r="V21" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">278
-</t>
-        </is>
-      </c>
-      <c r="W21" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">246
-</t>
-        </is>
-      </c>
       <c r="X21" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">289
-</t>
+          <t>955</t>
         </is>
       </c>
       <c r="Y21" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">7723
+          <t xml:space="preserve">918
 </t>
         </is>
       </c>
       <c r="Z21" s="3" t="inlineStr">
         <is>
-          <t>24</t>
+          <t xml:space="preserve">68
+</t>
         </is>
       </c>
       <c r="AA21" s="3" t="inlineStr">
@@ -3521,145 +3371,129 @@
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">3993
+          <t xml:space="preserve">102
 </t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">329
+          <t xml:space="preserve">188
 </t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">211
+          <t xml:space="preserve">197
 </t>
         </is>
       </c>
       <c r="F22" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">270
-</t>
-        </is>
-      </c>
-      <c r="G22" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">118
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">228
+</t>
+        </is>
+      </c>
+      <c r="G22" s="3" t="n"/>
       <c r="H22" s="3" t="inlineStr">
         <is>
+          <t xml:space="preserve">184
+</t>
+        </is>
+      </c>
+      <c r="I22" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">175
+</t>
+        </is>
+      </c>
+      <c r="J22" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">892
+</t>
+        </is>
+      </c>
+      <c r="K22" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">229
+</t>
+        </is>
+      </c>
+      <c r="L22" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1039
+</t>
+        </is>
+      </c>
+      <c r="M22" s="3" t="inlineStr">
+        <is>
           <t xml:space="preserve">198
 </t>
         </is>
       </c>
-      <c r="I22" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">25
-</t>
-        </is>
-      </c>
-      <c r="J22" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">43
-</t>
-        </is>
-      </c>
-      <c r="K22" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">77
-</t>
-        </is>
-      </c>
-      <c r="L22" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">213
-</t>
-        </is>
-      </c>
-      <c r="M22" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">210
-</t>
-        </is>
-      </c>
-      <c r="N22" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">247
-</t>
-        </is>
-      </c>
+      <c r="N22" s="3" t="n"/>
       <c r="O22" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">925
+          <t xml:space="preserve">0960
 </t>
         </is>
       </c>
       <c r="P22" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">04
-</t>
-        </is>
-      </c>
-      <c r="Q22" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">324
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">180
+</t>
+        </is>
+      </c>
+      <c r="Q22" s="3" t="n"/>
       <c r="R22" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">259
+          <t xml:space="preserve">223
 </t>
         </is>
       </c>
       <c r="S22" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">893
-</t>
+          <t>1</t>
         </is>
       </c>
       <c r="T22" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">605
+          <t xml:space="preserve">821
 </t>
         </is>
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">192
+          <t xml:space="preserve">38
 </t>
         </is>
       </c>
       <c r="V22" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">265
+          <t xml:space="preserve">228
 </t>
         </is>
       </c>
       <c r="W22" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">246
+          <t xml:space="preserve">218
 </t>
         </is>
       </c>
       <c r="X22" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">297
+          <t xml:space="preserve">1430
 </t>
         </is>
       </c>
       <c r="Y22" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">860
+          <t xml:space="preserve">1363
 </t>
         </is>
       </c>
       <c r="Z22" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">149
+          <t xml:space="preserve">22
 </t>
         </is>
       </c>
@@ -3678,126 +3512,136 @@
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">17396
-</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">22
+          <t xml:space="preserve">1467
 </t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t>037</t>
+          <t xml:space="preserve">999
+</t>
         </is>
       </c>
       <c r="F23" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1324
+          <t xml:space="preserve">1
 </t>
         </is>
       </c>
       <c r="G23" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">503
-</t>
-        </is>
-      </c>
-      <c r="H23" s="3" t="n"/>
+          <t xml:space="preserve">468
+</t>
+        </is>
+      </c>
+      <c r="H23" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">936
+</t>
+        </is>
+      </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">109
+          <t xml:space="preserve">13
 </t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">193
+          <t xml:space="preserve">1208
 </t>
         </is>
       </c>
       <c r="K23" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">77
+          <t xml:space="preserve">995
 </t>
         </is>
       </c>
       <c r="L23" s="3" t="inlineStr">
         <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="M23" s="3" t="n"/>
-      <c r="N23" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">911
-</t>
-        </is>
-      </c>
+          <t>902</t>
+        </is>
+      </c>
+      <c r="M23" s="3" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
+      </c>
+      <c r="N23" s="3" t="n"/>
       <c r="O23" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">14894
+          <t xml:space="preserve">4838
 </t>
         </is>
       </c>
       <c r="P23" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">22
+          <t xml:space="preserve">36
 </t>
         </is>
       </c>
       <c r="Q23" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1557
-</t>
+          <t>1494</t>
         </is>
       </c>
       <c r="R23" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1281
+          <t xml:space="preserve">1220
 </t>
         </is>
       </c>
       <c r="S23" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">11468
+          <t xml:space="preserve">1410
 </t>
         </is>
       </c>
       <c r="T23" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">3957
+          <t xml:space="preserve">3103
 </t>
         </is>
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>7924</t>
+          <t xml:space="preserve">518
+</t>
         </is>
       </c>
       <c r="V23" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1344
+          <t xml:space="preserve">6151
 </t>
         </is>
       </c>
       <c r="W23" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1203
-</t>
-        </is>
-      </c>
-      <c r="X23" s="3" t="n"/>
+          <t xml:space="preserve">81
+</t>
+        </is>
+      </c>
+      <c r="X23" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">286
+</t>
+        </is>
+      </c>
       <c r="Y23" s="3" t="inlineStr">
         <is>
-          <t>39404</t>
+          <t xml:space="preserve">872
+</t>
         </is>
       </c>
       <c r="Z23" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">267
+          <t xml:space="preserve">210
 </t>
         </is>
       </c>
@@ -3816,146 +3660,132 @@
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">3439
+          <t xml:space="preserve">2254
 </t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">315
+          <t xml:space="preserve">293
 </t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">214
+          <t xml:space="preserve">8101 11
 </t>
         </is>
       </c>
       <c r="F24" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">265
+          <t xml:space="preserve">238
 </t>
         </is>
       </c>
       <c r="G24" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">101
+          <t xml:space="preserve">98
 </t>
         </is>
       </c>
       <c r="H24" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1018
+          <t xml:space="preserve">197
 </t>
         </is>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">22
+          <t xml:space="preserve">1225
 </t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">39
+          <t xml:space="preserve">1024
 </t>
         </is>
       </c>
       <c r="K24" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">193
+          <t xml:space="preserve">135
 </t>
         </is>
       </c>
       <c r="L24" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1082
-</t>
+          <t>824</t>
         </is>
       </c>
       <c r="M24" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1070
+          <t xml:space="preserve">204
 </t>
         </is>
       </c>
       <c r="N24" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1268
+          <t xml:space="preserve">8
 </t>
         </is>
       </c>
       <c r="O24" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">979
+          <t xml:space="preserve">966
 </t>
         </is>
       </c>
       <c r="P24" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">104
-</t>
-        </is>
-      </c>
-      <c r="Q24" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">311
-</t>
-        </is>
-      </c>
-      <c r="R24" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">856
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">2071
+</t>
+        </is>
+      </c>
+      <c r="Q24" s="3" t="n"/>
+      <c r="R24" s="3" t="n"/>
       <c r="S24" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">294
+          <t xml:space="preserve">889
 </t>
         </is>
       </c>
       <c r="T24" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">651
+          <t xml:space="preserve">249
 </t>
         </is>
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">159
+          <t xml:space="preserve">116
 </t>
         </is>
       </c>
       <c r="V24" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">269
+          <t xml:space="preserve">253
 </t>
         </is>
       </c>
       <c r="W24" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">241
+          <t xml:space="preserve">232
 </t>
         </is>
       </c>
       <c r="X24" s="3" t="inlineStr">
         <is>
-          <t>14081</t>
+          <t xml:space="preserve">971
+</t>
         </is>
       </c>
       <c r="Y24" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">798
-</t>
-        </is>
-      </c>
-      <c r="Z24" s="3" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
+          <t xml:space="preserve">840
+</t>
+        </is>
+      </c>
+      <c r="Z24" s="3" t="n"/>
       <c r="AA24" s="3" t="inlineStr">
         <is>
           <t>Moy.</t>
@@ -3971,127 +3801,140 @@
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1067
+          <t xml:space="preserve">9473
 </t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">263
+          <t xml:space="preserve">290
 </t>
         </is>
       </c>
       <c r="E25" s="3" t="inlineStr">
         <is>
+          <t xml:space="preserve">186
+</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">215
+</t>
+        </is>
+      </c>
+      <c r="G25" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">104
+</t>
+        </is>
+      </c>
+      <c r="H25" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">166
+</t>
+        </is>
+      </c>
+      <c r="I25" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">115
+</t>
+        </is>
+      </c>
+      <c r="J25" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">82
+</t>
+        </is>
+      </c>
+      <c r="K25" s="3" t="n"/>
+      <c r="L25" s="3" t="inlineStr">
+        <is>
           <t xml:space="preserve">206
 </t>
         </is>
       </c>
-      <c r="F25" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">235
-</t>
-        </is>
-      </c>
-      <c r="G25" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">57
-</t>
-        </is>
-      </c>
-      <c r="H25" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">204
-</t>
-        </is>
-      </c>
-      <c r="I25" s="3" t="n"/>
-      <c r="J25" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">08
-</t>
-        </is>
-      </c>
-      <c r="K25" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">02
-</t>
-        </is>
-      </c>
-      <c r="L25" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">216
-</t>
-        </is>
-      </c>
       <c r="M25" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">214
-</t>
+          <t>221</t>
         </is>
       </c>
       <c r="N25" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">254
-</t>
-        </is>
-      </c>
-      <c r="O25" s="3" t="n"/>
+          <t xml:space="preserve">2238
+</t>
+        </is>
+      </c>
+      <c r="O25" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">980
+</t>
+        </is>
+      </c>
       <c r="P25" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">07
+          <t xml:space="preserve">024
 </t>
         </is>
       </c>
       <c r="Q25" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">262
+          <t xml:space="preserve">280
 </t>
         </is>
       </c>
       <c r="R25" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">21461
+          <t xml:space="preserve">248
 </t>
         </is>
       </c>
       <c r="S25" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">287
+          <t xml:space="preserve">286
 </t>
         </is>
       </c>
       <c r="T25" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">844
+          <t xml:space="preserve">719
 </t>
         </is>
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">53
-</t>
+          <t>18</t>
         </is>
       </c>
       <c r="V25" s="3" t="inlineStr">
         <is>
-          <t>2441</t>
-        </is>
-      </c>
-      <c r="W25" s="3" t="n"/>
+          <t xml:space="preserve">219
+</t>
+        </is>
+      </c>
+      <c r="W25" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2909
+</t>
+        </is>
+      </c>
       <c r="X25" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">222
-</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Y25" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">877
-</t>
-        </is>
-      </c>
-      <c r="Z25" s="3" t="n"/>
+          <t xml:space="preserve">015
+</t>
+        </is>
+      </c>
+      <c r="Z25" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">20
+</t>
+        </is>
+      </c>
       <c r="AA25" s="3" t="inlineStr">
         <is>
           <t>16</t>
@@ -4107,142 +3950,127 @@
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">900
+          <t xml:space="preserve">23262
 </t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">251
+          <t xml:space="preserve">240
 </t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">210
+          <t xml:space="preserve">198
 </t>
         </is>
       </c>
       <c r="F26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">231
+          <t xml:space="preserve">239
 </t>
         </is>
       </c>
       <c r="G26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">141
+          <t xml:space="preserve">50
 </t>
         </is>
       </c>
       <c r="H26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">202
+          <t xml:space="preserve">174
 </t>
         </is>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">05
+          <t xml:space="preserve">107
 </t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">08
+          <t xml:space="preserve">12914
 </t>
         </is>
       </c>
       <c r="K26" s="3" t="n"/>
       <c r="L26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">244
+          <t xml:space="preserve">198
 </t>
         </is>
       </c>
       <c r="M26" s="3" t="inlineStr">
         <is>
-          <t>9240</t>
+          <t xml:space="preserve">204
+</t>
         </is>
       </c>
       <c r="N26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">268
+          <t xml:space="preserve">2291
 </t>
         </is>
       </c>
       <c r="O26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">12970
+          <t xml:space="preserve">0980
 </t>
         </is>
       </c>
       <c r="P26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">04
 </t>
         </is>
       </c>
       <c r="Q26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">243
+          <t xml:space="preserve">232
 </t>
         </is>
       </c>
       <c r="R26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">233
-</t>
-        </is>
-      </c>
-      <c r="S26" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">280
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">215
+</t>
+        </is>
+      </c>
+      <c r="S26" s="3" t="n"/>
       <c r="T26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">920
+          <t xml:space="preserve">860
 </t>
         </is>
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">24
+          <t xml:space="preserve">80
 </t>
         </is>
       </c>
       <c r="V26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">238
+          <t xml:space="preserve">282
 </t>
         </is>
       </c>
       <c r="W26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">228
-</t>
-        </is>
-      </c>
-      <c r="X26" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">268
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">254
+</t>
+        </is>
+      </c>
+      <c r="X26" s="3" t="n"/>
       <c r="Y26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">918
-</t>
-        </is>
-      </c>
-      <c r="Z26" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">38
-</t>
-        </is>
-      </c>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Z26" s="3" t="n"/>
       <c r="AA26" s="3" t="inlineStr">
         <is>
           <t>17</t>
@@ -4258,140 +4086,143 @@
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">3220
+          <t xml:space="preserve">1600
 </t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">305
+          <t xml:space="preserve">294
 </t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">206
+          <t xml:space="preserve">184
 </t>
         </is>
       </c>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">255
+          <t xml:space="preserve">1221
 </t>
         </is>
       </c>
       <c r="G27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">99
-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">192
+          <t xml:space="preserve">19
 </t>
         </is>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">09
+          <t xml:space="preserve">17
 </t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">34
+          <t xml:space="preserve">1255
 </t>
         </is>
       </c>
       <c r="K27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
-</t>
-        </is>
-      </c>
-      <c r="L27" s="3" t="n"/>
+          <t xml:space="preserve">297
+</t>
+        </is>
+      </c>
+      <c r="L27" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2108
+</t>
+        </is>
+      </c>
       <c r="M27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">205
+          <t xml:space="preserve">199
 </t>
         </is>
       </c>
       <c r="N27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1228
+          <t xml:space="preserve">158
 </t>
         </is>
       </c>
       <c r="O27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1000
+          <t xml:space="preserve">080
 </t>
         </is>
       </c>
       <c r="P27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">104
+          <t xml:space="preserve">04
 </t>
         </is>
       </c>
       <c r="Q27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">288
+          <t xml:space="preserve">219
 </t>
         </is>
       </c>
       <c r="R27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">249
+          <t xml:space="preserve">242
 </t>
         </is>
       </c>
       <c r="S27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">890
+          <t xml:space="preserve">277
 </t>
         </is>
       </c>
       <c r="T27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">732
+          <t xml:space="preserve">725
 </t>
         </is>
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">105
+          <t xml:space="preserve">108
 </t>
         </is>
       </c>
       <c r="V27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">269
+          <t xml:space="preserve">245
 </t>
         </is>
       </c>
       <c r="W27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">228
-</t>
+          <t>12</t>
         </is>
       </c>
       <c r="X27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">271
+          <t xml:space="preserve">242
 </t>
         </is>
       </c>
       <c r="Y27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">818
+          <t xml:space="preserve">790
 </t>
         </is>
       </c>
       <c r="Z27" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">24
+          <t xml:space="preserve">162
 </t>
         </is>
       </c>
@@ -4410,148 +4241,137 @@
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2907
+          <t xml:space="preserve">2688
 </t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">318
+          <t xml:space="preserve">262
 </t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">205
+          <t xml:space="preserve">200
 </t>
         </is>
       </c>
       <c r="F28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">261
-</t>
+          <t>44</t>
         </is>
       </c>
       <c r="G28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1113
-</t>
-        </is>
-      </c>
-      <c r="H28" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">191
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">22
+</t>
+        </is>
+      </c>
+      <c r="H28" s="3" t="n"/>
       <c r="I28" s="3" t="inlineStr">
         <is>
+          <t xml:space="preserve">06
+</t>
+        </is>
+      </c>
+      <c r="J28" s="3" t="inlineStr">
+        <is>
           <t xml:space="preserve">19
 </t>
         </is>
       </c>
-      <c r="J28" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">38
-</t>
-        </is>
-      </c>
       <c r="K28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">22
 </t>
         </is>
       </c>
       <c r="L28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1209
+          <t xml:space="preserve">135
 </t>
         </is>
       </c>
       <c r="M28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">206
+          <t xml:space="preserve">1202
 </t>
         </is>
       </c>
       <c r="N28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">240
+          <t xml:space="preserve">211
 </t>
         </is>
       </c>
       <c r="O28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">49
+          <t xml:space="preserve">010
 </t>
         </is>
       </c>
       <c r="P28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">08
+          <t xml:space="preserve">20
 </t>
         </is>
       </c>
       <c r="Q28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">312
+          <t xml:space="preserve">252
 </t>
         </is>
       </c>
       <c r="R28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">248
+          <t xml:space="preserve">225
 </t>
         </is>
       </c>
       <c r="S28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">272
+          <t xml:space="preserve">9256
 </t>
         </is>
       </c>
       <c r="T28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">602
+          <t xml:space="preserve">808
 </t>
         </is>
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">181
+          <t xml:space="preserve">68
 </t>
         </is>
       </c>
       <c r="V28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">286
+          <t xml:space="preserve">2128
 </t>
         </is>
       </c>
       <c r="W28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">244
+          <t xml:space="preserve">225
 </t>
         </is>
       </c>
       <c r="X28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">290
+          <t xml:space="preserve">858
 </t>
         </is>
       </c>
       <c r="Y28" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">726
-</t>
-        </is>
-      </c>
-      <c r="Z28" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">64
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">221
+</t>
+        </is>
+      </c>
+      <c r="Z28" s="3" t="n"/>
       <c r="AA28" s="3" t="inlineStr">
         <is>
           <t>19</t>
@@ -4567,144 +4387,129 @@
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>34681</t>
+          <t xml:space="preserve">23383
+</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">315
-</t>
-        </is>
-      </c>
-      <c r="E29" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">205
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">298
+</t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="n"/>
       <c r="F29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">260
-</t>
-        </is>
-      </c>
-      <c r="G29" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">110
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">1163
+</t>
+        </is>
+      </c>
+      <c r="G29" s="3" t="n"/>
       <c r="H29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1189
+          <t xml:space="preserve">1626
 </t>
         </is>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">22
+          <t xml:space="preserve">120
 </t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">26
+          <t xml:space="preserve">140
 </t>
         </is>
       </c>
       <c r="K29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">84
+          <t xml:space="preserve">58
 </t>
         </is>
       </c>
       <c r="L29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">281
+          <t xml:space="preserve">1011
 </t>
         </is>
       </c>
       <c r="M29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">206
-</t>
-        </is>
-      </c>
-      <c r="N29" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">241
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">193
+</t>
+        </is>
+      </c>
+      <c r="N29" s="3" t="n"/>
       <c r="O29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1953
+          <t xml:space="preserve">1580
 </t>
         </is>
       </c>
       <c r="P29" s="3" t="inlineStr">
         <is>
+          <t xml:space="preserve">08
+</t>
+        </is>
+      </c>
+      <c r="Q29" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">298
+</t>
+        </is>
+      </c>
+      <c r="R29" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2148
+</t>
+        </is>
+      </c>
+      <c r="S29" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">882
+</t>
+        </is>
+      </c>
+      <c r="T29" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">680
+</t>
+        </is>
+      </c>
+      <c r="U29" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">132
+</t>
+        </is>
+      </c>
+      <c r="V29" s="3" t="inlineStr">
+        <is>
+          <t>73214</t>
+        </is>
+      </c>
+      <c r="W29" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1138
+</t>
+        </is>
+      </c>
+      <c r="X29" s="3" t="inlineStr">
+        <is>
           <t xml:space="preserve">11
 </t>
         </is>
       </c>
-      <c r="Q29" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8253
-</t>
-        </is>
-      </c>
-      <c r="R29" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">236
-</t>
-        </is>
-      </c>
-      <c r="S29" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">280
-</t>
-        </is>
-      </c>
-      <c r="T29" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">270
-</t>
-        </is>
-      </c>
-      <c r="U29" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">142
-</t>
-        </is>
-      </c>
-      <c r="V29" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">224
-</t>
-        </is>
-      </c>
-      <c r="W29" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">246
-</t>
-        </is>
-      </c>
-      <c r="X29" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">284
-</t>
-        </is>
-      </c>
       <c r="Y29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">908
+          <t xml:space="preserve">2166
 </t>
         </is>
       </c>
       <c r="Z29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">07
+          <t xml:space="preserve">268
 </t>
         </is>
       </c>
@@ -4723,143 +4528,131 @@
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">10562
+          <t xml:space="preserve">2368
 </t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1452
+          <t xml:space="preserve">1384
 </t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">032
-</t>
+          <t>445</t>
         </is>
       </c>
       <c r="F30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1242
+          <t xml:space="preserve">237
 </t>
         </is>
       </c>
       <c r="G30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">420
-</t>
+          <t>48</t>
         </is>
       </c>
       <c r="H30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1192
-</t>
+          <t>814</t>
         </is>
       </c>
       <c r="I30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">16
-</t>
+          <t>65</t>
         </is>
       </c>
       <c r="J30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1110
-</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">388
-</t>
+          <t>332</t>
         </is>
       </c>
       <c r="L30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1065
-</t>
+          <t>90524</t>
         </is>
       </c>
       <c r="M30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">11592
+          <t xml:space="preserve">995
 </t>
         </is>
       </c>
       <c r="N30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">239
+          <t xml:space="preserve">129
 </t>
         </is>
       </c>
       <c r="O30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">4876
+          <t xml:space="preserve">4820
 </t>
         </is>
       </c>
       <c r="P30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">28
+          <t xml:space="preserve">36
 </t>
         </is>
       </c>
       <c r="Q30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">11858
-</t>
+          <t>4352</t>
         </is>
       </c>
       <c r="R30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1207
+          <t xml:space="preserve">1178
 </t>
         </is>
       </c>
       <c r="S30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1409
+          <t xml:space="preserve">1326
 </t>
         </is>
       </c>
       <c r="T30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">3968
+          <t xml:space="preserve">8784
 </t>
         </is>
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">142
-</t>
+          <t>54</t>
         </is>
       </c>
       <c r="V30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1261
+          <t xml:space="preserve">249
 </t>
         </is>
       </c>
       <c r="W30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">213
-</t>
-        </is>
-      </c>
-      <c r="X30" s="3" t="inlineStr">
-        <is>
-          <t>361</t>
-        </is>
-      </c>
+          <t xml:space="preserve">1228
+</t>
+        </is>
+      </c>
+      <c r="X30" s="3" t="n"/>
       <c r="Y30" s="3" t="inlineStr">
         <is>
-          <t>42</t>
+          <t xml:space="preserve">183
+</t>
         </is>
       </c>
       <c r="Z30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">25
+          <t xml:space="preserve">154
 </t>
         </is>
       </c>
@@ -4878,140 +4671,126 @@
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2112
+          <t xml:space="preserve">2368
 </t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">290
+          <t xml:space="preserve">977
 </t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">206
+          <t xml:space="preserve">188
 </t>
         </is>
       </c>
       <c r="F31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">248
+          <t xml:space="preserve">256
 </t>
         </is>
       </c>
       <c r="G31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">84
-</t>
+          <t>82</t>
         </is>
       </c>
       <c r="H31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">966
+          <t xml:space="preserve">171
 </t>
         </is>
       </c>
       <c r="I31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">71
+          <t xml:space="preserve">1818
 </t>
         </is>
       </c>
       <c r="J31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">22
-</t>
+          <t>842</t>
         </is>
       </c>
       <c r="K31" s="3" t="n"/>
       <c r="L31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">213
-</t>
+          <t>90524</t>
         </is>
       </c>
       <c r="M31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">210
-</t>
-        </is>
-      </c>
-      <c r="N31" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1239
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">199
+</t>
+        </is>
+      </c>
+      <c r="N31" s="3" t="n"/>
       <c r="O31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">975
+          <t xml:space="preserve">866
 </t>
         </is>
       </c>
       <c r="P31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">06
+          <t xml:space="preserve">1117
 </t>
         </is>
       </c>
       <c r="Q31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">272
-</t>
-        </is>
-      </c>
-      <c r="R31" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">241
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">970
+</t>
+        </is>
+      </c>
+      <c r="R31" s="3" t="n"/>
       <c r="S31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">282
-</t>
+          <t>24</t>
         </is>
       </c>
       <c r="T31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">794
+          <t xml:space="preserve">787
 </t>
         </is>
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">89
+          <t xml:space="preserve">911
 </t>
         </is>
       </c>
       <c r="V31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">252
+          <t xml:space="preserve">279
 </t>
         </is>
       </c>
       <c r="W31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1159
+          <t xml:space="preserve">258
 </t>
         </is>
       </c>
       <c r="X31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1358
+          <t xml:space="preserve">319
 </t>
         </is>
       </c>
       <c r="Y31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">249
+          <t xml:space="preserve">850
 </t>
         </is>
       </c>
       <c r="Z31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">58
+          <t xml:space="preserve">56
 </t>
         </is>
       </c>
@@ -5030,144 +4809,132 @@
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">3847
-</t>
+          <t>4330</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">311
+          <t xml:space="preserve">326
 </t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">193
+          <t xml:space="preserve">182
 </t>
         </is>
       </c>
       <c r="F32" s="3" t="inlineStr">
         <is>
-          <t>9521</t>
+          <t xml:space="preserve">256
+</t>
         </is>
       </c>
       <c r="G32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">118
+          <t xml:space="preserve">1140
 </t>
         </is>
       </c>
       <c r="H32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">193
-</t>
-        </is>
-      </c>
-      <c r="I32" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">114
-</t>
-        </is>
-      </c>
-      <c r="J32" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1146
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">178
+</t>
+        </is>
+      </c>
+      <c r="I32" s="3" t="n"/>
+      <c r="J32" s="3" t="n"/>
       <c r="K32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">1258
 </t>
         </is>
       </c>
       <c r="L32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1201
-</t>
+          <t>491</t>
         </is>
       </c>
       <c r="M32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">201
+          <t xml:space="preserve">150
 </t>
         </is>
       </c>
       <c r="N32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">8248
+          <t xml:space="preserve">218
 </t>
         </is>
       </c>
       <c r="O32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1000
+          <t xml:space="preserve">862
 </t>
         </is>
       </c>
       <c r="P32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">08
 </t>
         </is>
       </c>
       <c r="Q32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">311
+          <t xml:space="preserve">323
 </t>
         </is>
       </c>
       <c r="R32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">8249
+          <t xml:space="preserve">253
 </t>
         </is>
       </c>
       <c r="S32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">225
+          <t xml:space="preserve">278
 </t>
         </is>
       </c>
       <c r="T32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">610
+          <t xml:space="preserve">580
 </t>
         </is>
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">175
+          <t xml:space="preserve">806
 </t>
         </is>
       </c>
       <c r="V32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">974
+          <t xml:space="preserve">230
 </t>
         </is>
       </c>
       <c r="W32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">232
+          <t xml:space="preserve">219
 </t>
         </is>
       </c>
       <c r="X32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">272
-</t>
+          <t>957</t>
         </is>
       </c>
       <c r="Y32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">746
+          <t xml:space="preserve">910
 </t>
         </is>
       </c>
       <c r="Z32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">52
+          <t xml:space="preserve">87
 </t>
         </is>
       </c>
@@ -5186,13 +4953,13 @@
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2133
+          <t xml:space="preserve">6413
 </t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">292
+          <t xml:space="preserve">230
 </t>
         </is>
       </c>
@@ -5204,54 +4971,55 @@
       </c>
       <c r="F33" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">244
+          <t xml:space="preserve">813
 </t>
         </is>
       </c>
       <c r="G33" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">96
+          <t xml:space="preserve">32
 </t>
         </is>
       </c>
       <c r="H33" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1180
+          <t xml:space="preserve">194
 </t>
         </is>
       </c>
       <c r="I33" s="3" t="inlineStr">
         <is>
-          <t>83</t>
+          <t xml:space="preserve">203 8
+</t>
         </is>
       </c>
       <c r="J33" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">516
+          <t xml:space="preserve">219
 </t>
         </is>
       </c>
       <c r="K33" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">148
+          <t xml:space="preserve">5 55
 </t>
         </is>
       </c>
       <c r="L33" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">215
+          <t xml:space="preserve">208
 </t>
         </is>
       </c>
       <c r="M33" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">10214
+          <t xml:space="preserve">202
 </t>
         </is>
       </c>
       <c r="N33" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1235
+          <t xml:space="preserve">218
 </t>
         </is>
       </c>
@@ -5263,65 +5031,66 @@
       </c>
       <c r="P33" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">02
+          <t xml:space="preserve">08
 </t>
         </is>
       </c>
       <c r="Q33" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">289
+          <t xml:space="preserve">227
 </t>
         </is>
       </c>
       <c r="R33" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2846
+          <t xml:space="preserve">210
 </t>
         </is>
       </c>
       <c r="S33" s="3" t="inlineStr">
         <is>
-          <t>9821</t>
+          <t xml:space="preserve">201
+</t>
         </is>
       </c>
       <c r="T33" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">709
+          <t xml:space="preserve">108
 </t>
         </is>
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">115
+          <t xml:space="preserve">286
 </t>
         </is>
       </c>
       <c r="V33" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">256
+          <t xml:space="preserve">268
 </t>
         </is>
       </c>
       <c r="W33" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">238
+          <t xml:space="preserve">243
 </t>
         </is>
       </c>
       <c r="X33" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">272
+          <t xml:space="preserve">288
 </t>
         </is>
       </c>
       <c r="Y33" s="3" t="inlineStr">
         <is>
-          <t>2621</t>
+          <t>819</t>
         </is>
       </c>
       <c r="Z33" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">93
+          <t xml:space="preserve">64
 </t>
         </is>
       </c>
@@ -5338,142 +5107,127 @@
           <t>23</t>
         </is>
       </c>
-      <c r="C34" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3116
-</t>
-        </is>
-      </c>
+      <c r="C34" s="3" t="n"/>
       <c r="D34" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">319
+          <t xml:space="preserve">322
 </t>
         </is>
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2114
+          <t xml:space="preserve">192
 </t>
         </is>
       </c>
       <c r="F34" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1267
+          <t xml:space="preserve">258
 </t>
         </is>
       </c>
       <c r="G34" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">105
+          <t xml:space="preserve">132
 </t>
         </is>
       </c>
       <c r="H34" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">188
+          <t xml:space="preserve">128
 </t>
         </is>
       </c>
       <c r="I34" s="3" t="n"/>
-      <c r="J34" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">35
-</t>
-        </is>
-      </c>
-      <c r="K34" s="3" t="inlineStr">
+      <c r="J34" s="3" t="n"/>
+      <c r="K34" s="3" t="n"/>
+      <c r="L34" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">198
+</t>
+        </is>
+      </c>
+      <c r="M34" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1194
+</t>
+        </is>
+      </c>
+      <c r="N34" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12117
+</t>
+        </is>
+      </c>
+      <c r="O34" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">980
+</t>
+        </is>
+      </c>
+      <c r="P34" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">02
 </t>
         </is>
       </c>
-      <c r="L34" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">218
-</t>
-        </is>
-      </c>
-      <c r="M34" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">217
-</t>
-        </is>
-      </c>
-      <c r="N34" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8254
-</t>
-        </is>
-      </c>
-      <c r="O34" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11990
-</t>
-        </is>
-      </c>
-      <c r="P34" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">02
-</t>
-        </is>
-      </c>
       <c r="Q34" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">205
+          <t xml:space="preserve">219
 </t>
         </is>
       </c>
       <c r="R34" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">258
+          <t xml:space="preserve">269
 </t>
         </is>
       </c>
       <c r="S34" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">302
+          <t xml:space="preserve">201
 </t>
         </is>
       </c>
       <c r="T34" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">694
+          <t xml:space="preserve">260
 </t>
         </is>
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">133
+          <t xml:space="preserve">170
 </t>
         </is>
       </c>
       <c r="V34" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">273
+          <t xml:space="preserve">222
 </t>
         </is>
       </c>
       <c r="W34" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">622
+          <t xml:space="preserve">012
 </t>
         </is>
       </c>
       <c r="X34" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">283
+          <t xml:space="preserve">846
 </t>
         </is>
       </c>
       <c r="Y34" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">820
+          <t xml:space="preserve">910
 </t>
         </is>
       </c>
       <c r="Z34" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">45
+          <t xml:space="preserve">20
 </t>
         </is>
       </c>
@@ -5492,19 +5246,19 @@
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">3534
+          <t xml:space="preserve">8530
 </t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">311
+          <t xml:space="preserve">304
 </t>
         </is>
       </c>
       <c r="E35" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">208
+          <t xml:space="preserve">200
 </t>
         </is>
       </c>
@@ -5516,119 +5270,122 @@
       </c>
       <c r="G35" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">103
+          <t xml:space="preserve">108
 </t>
         </is>
       </c>
       <c r="H35" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">202
+          <t xml:space="preserve">198
 </t>
         </is>
       </c>
       <c r="I35" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">124
+          <t xml:space="preserve">210
 </t>
         </is>
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">40
+          <t xml:space="preserve">555
 </t>
         </is>
       </c>
       <c r="K35" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">100
+          <t xml:space="preserve">20
 </t>
         </is>
       </c>
       <c r="L35" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">216
+          <t xml:space="preserve">985
 </t>
         </is>
       </c>
       <c r="M35" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">213
+          <t xml:space="preserve">203
 </t>
         </is>
       </c>
       <c r="N35" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">259
+          <t xml:space="preserve">236
 </t>
         </is>
       </c>
       <c r="O35" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">978
+          <t xml:space="preserve">180
 </t>
         </is>
       </c>
       <c r="P35" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">07
+          <t xml:space="preserve">018
 </t>
         </is>
       </c>
       <c r="Q35" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1311
+          <t xml:space="preserve">588
 </t>
         </is>
       </c>
       <c r="R35" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">269
+          <t xml:space="preserve">224
 </t>
         </is>
       </c>
       <c r="S35" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">275
+          <t xml:space="preserve">265
 </t>
         </is>
       </c>
       <c r="T35" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">613
+          <t xml:space="preserve">021
 </t>
         </is>
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">174
+          <t xml:space="preserve">22
 </t>
         </is>
       </c>
       <c r="V35" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">278
+          <t xml:space="preserve">970
 </t>
         </is>
       </c>
       <c r="W35" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2466
-</t>
+          <t>9443</t>
         </is>
       </c>
       <c r="X35" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">65
-</t>
+          <t>28</t>
         </is>
       </c>
       <c r="Y35" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">778
-</t>
-        </is>
-      </c>
-      <c r="Z35" s="3" t="n"/>
+          <t xml:space="preserve">2201
+</t>
+        </is>
+      </c>
+      <c r="Z35" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">170
+</t>
+        </is>
+      </c>
       <c r="AA35" s="3" t="inlineStr">
         <is>
           <t>24</t>
@@ -5644,145 +5401,130 @@
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">4307
+          <t xml:space="preserve">2068
 </t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">321
-</t>
-        </is>
-      </c>
-      <c r="E36" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">209
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">222
+</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="n"/>
       <c r="F36" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">265
+          <t xml:space="preserve">949
 </t>
         </is>
       </c>
       <c r="G36" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">112
+          <t xml:space="preserve">199
 </t>
         </is>
       </c>
       <c r="H36" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">198
+          <t xml:space="preserve">191
 </t>
         </is>
       </c>
       <c r="I36" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">24
+          <t xml:space="preserve">120
 </t>
         </is>
       </c>
       <c r="J36" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">144
-</t>
-        </is>
-      </c>
-      <c r="K36" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">306
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">243
+</t>
+        </is>
+      </c>
+      <c r="K36" s="3" t="n"/>
       <c r="L36" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2410
+          <t xml:space="preserve">219
 </t>
         </is>
       </c>
       <c r="M36" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">207
+          <t xml:space="preserve">205
 </t>
         </is>
       </c>
       <c r="N36" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">251
-</t>
+          <t>9</t>
         </is>
       </c>
       <c r="O36" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">9725
+          <t xml:space="preserve">966
 </t>
         </is>
       </c>
       <c r="P36" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">106
+          <t xml:space="preserve">011
 </t>
         </is>
       </c>
       <c r="Q36" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">321
+          <t xml:space="preserve">988
 </t>
         </is>
       </c>
       <c r="R36" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">260
+          <t xml:space="preserve">2116
 </t>
         </is>
       </c>
       <c r="S36" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">297
-</t>
-        </is>
-      </c>
-      <c r="T36" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">622
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">1512
+</t>
+        </is>
+      </c>
+      <c r="T36" s="3" t="n"/>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">180
+          <t xml:space="preserve">138
 </t>
         </is>
       </c>
       <c r="V36" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">287
+          <t xml:space="preserve">1269
 </t>
         </is>
       </c>
       <c r="W36" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1246
+          <t xml:space="preserve">130
 </t>
         </is>
       </c>
       <c r="X36" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">283
+          <t xml:space="preserve">1395
 </t>
         </is>
       </c>
       <c r="Y36" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">720
+          <t xml:space="preserve">890
 </t>
         </is>
       </c>
       <c r="Z36" s="3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t xml:space="preserve">218
+</t>
         </is>
       </c>
       <c r="AA36" s="3" t="inlineStr">
@@ -5800,141 +5542,136 @@
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">16937
+          <t xml:space="preserve">1214119
 </t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1554
+          <t xml:space="preserve">1223
 </t>
         </is>
       </c>
       <c r="E37" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1020
+          <t xml:space="preserve">195
 </t>
         </is>
       </c>
       <c r="F37" s="3" t="inlineStr">
         <is>
-          <t>18871</t>
+          <t xml:space="preserve">1228
+</t>
         </is>
       </c>
       <c r="G37" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">534
+          <t xml:space="preserve">309
 </t>
         </is>
       </c>
       <c r="H37" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">965
-</t>
+          <t>9332</t>
         </is>
       </c>
       <c r="I37" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">101
+          <t xml:space="preserve">188
 </t>
         </is>
       </c>
       <c r="J37" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">4
+          <t xml:space="preserve">1196
 </t>
         </is>
       </c>
       <c r="K37" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">356
-</t>
-        </is>
-      </c>
-      <c r="L37" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1060
-</t>
-        </is>
-      </c>
-      <c r="M37" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10159
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">198
+</t>
+        </is>
+      </c>
+      <c r="L37" s="3" t="n"/>
+      <c r="M37" s="3" t="n"/>
       <c r="N37" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">242
+          <t xml:space="preserve">0976
 </t>
         </is>
       </c>
       <c r="O37" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">11927
+          <t xml:space="preserve">2878
 </t>
         </is>
       </c>
       <c r="P37" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">17
+          <t xml:space="preserve">08
 </t>
         </is>
       </c>
       <c r="Q37" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1537
+          <t xml:space="preserve">1992
 </t>
         </is>
       </c>
       <c r="R37" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1262
+          <t xml:space="preserve">1199
 </t>
         </is>
       </c>
       <c r="S37" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">11431
+          <t xml:space="preserve">1512
 </t>
         </is>
       </c>
       <c r="T37" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">3248
+          <t xml:space="preserve">216
 </t>
         </is>
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">777
+          <t xml:space="preserve">038
 </t>
         </is>
       </c>
       <c r="V37" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1368
+          <t xml:space="preserve">1269
 </t>
         </is>
       </c>
       <c r="W37" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1216
+          <t xml:space="preserve">130
 </t>
         </is>
       </c>
       <c r="X37" s="3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t xml:space="preserve">1395
+</t>
         </is>
       </c>
       <c r="Y37" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">982
-</t>
-        </is>
-      </c>
-      <c r="Z37" s="3" t="n"/>
+          <t xml:space="preserve">1858
+</t>
+        </is>
+      </c>
+      <c r="Z37" s="3" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
       <c r="AA37" s="3" t="inlineStr">
         <is>
           <t>Tot.</t>
@@ -5950,141 +5687,124 @@
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">3387
+          <t xml:space="preserve">1479
 </t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">310
+          <t xml:space="preserve">297
 </t>
         </is>
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">204
+          <t xml:space="preserve">195
 </t>
         </is>
       </c>
       <c r="F38" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">257
+          <t xml:space="preserve">2142
 </t>
         </is>
       </c>
       <c r="G38" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">106
-</t>
-        </is>
-      </c>
-      <c r="H38" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">193
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">102
+</t>
+        </is>
+      </c>
+      <c r="H38" s="3" t="n"/>
       <c r="I38" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">20
+          <t xml:space="preserve">117
 </t>
         </is>
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">181
+          <t xml:space="preserve">99
 </t>
         </is>
       </c>
       <c r="K38" s="3" t="n"/>
-      <c r="L38" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">212
-</t>
-        </is>
-      </c>
+      <c r="L38" s="3" t="n"/>
       <c r="M38" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">210
+          <t xml:space="preserve">199
 </t>
         </is>
       </c>
       <c r="N38" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1281
+          <t xml:space="preserve">0976
 </t>
         </is>
       </c>
       <c r="O38" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">985
+          <t xml:space="preserve">976
 </t>
         </is>
       </c>
       <c r="P38" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">03
+          <t xml:space="preserve">208
 </t>
         </is>
       </c>
       <c r="Q38" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">207
-</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R38" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">252
+          <t xml:space="preserve">124
 </t>
         </is>
       </c>
       <c r="S38" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">286
-</t>
-        </is>
-      </c>
-      <c r="T38" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">650
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">924
+</t>
+        </is>
+      </c>
+      <c r="T38" s="3" t="n"/>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">155
+          <t xml:space="preserve">1119
 </t>
         </is>
       </c>
       <c r="V38" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">874
+          <t xml:space="preserve">9511
 </t>
         </is>
       </c>
       <c r="W38" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">243
+          <t xml:space="preserve">213
 </t>
         </is>
       </c>
       <c r="X38" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">285
+          <t xml:space="preserve">2129
 </t>
         </is>
       </c>
       <c r="Y38" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">784
+          <t xml:space="preserve">1858
 </t>
         </is>
       </c>
       <c r="Z38" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">19
-</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AA38" s="3" t="inlineStr">
@@ -6102,145 +5822,133 @@
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">3325
+          <t xml:space="preserve">21
 </t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">319
+          <t xml:space="preserve">5304
 </t>
         </is>
       </c>
       <c r="E39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">202
+          <t xml:space="preserve">200
 </t>
         </is>
       </c>
       <c r="F39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">261
+          <t xml:space="preserve">852
 </t>
         </is>
       </c>
       <c r="G39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">117
+          <t xml:space="preserve">1011
 </t>
         </is>
       </c>
       <c r="H39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1193
-</t>
-        </is>
-      </c>
-      <c r="I39" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">17
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">15
+</t>
+        </is>
+      </c>
+      <c r="I39" s="3" t="n"/>
       <c r="J39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">36
+          <t xml:space="preserve">18
 </t>
         </is>
       </c>
       <c r="K39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">6
+          <t xml:space="preserve">124
 </t>
         </is>
       </c>
       <c r="L39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">280
-</t>
-        </is>
-      </c>
-      <c r="M39" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9209
-</t>
-        </is>
-      </c>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M39" s="3" t="n"/>
       <c r="N39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2148
+          <t xml:space="preserve">99
 </t>
         </is>
       </c>
       <c r="O39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">990
+          <t xml:space="preserve">050
 </t>
         </is>
       </c>
       <c r="P39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">02
+          <t xml:space="preserve">051
 </t>
         </is>
       </c>
       <c r="Q39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">719
+          <t xml:space="preserve">200
 </t>
         </is>
       </c>
       <c r="R39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">860
+          <t xml:space="preserve">2216
 </t>
         </is>
       </c>
       <c r="S39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">898
+          <t xml:space="preserve">186
 </t>
         </is>
       </c>
       <c r="T39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">632
+          <t xml:space="preserve">621
 </t>
         </is>
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">173
+          <t xml:space="preserve">1420
 </t>
         </is>
       </c>
       <c r="V39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">247
-</t>
+          <t>921</t>
         </is>
       </c>
       <c r="W39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">232
+          <t xml:space="preserve">213
 </t>
         </is>
       </c>
       <c r="X39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">276
+          <t xml:space="preserve">241
 </t>
         </is>
       </c>
       <c r="Y39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">982
+          <t xml:space="preserve">890
 </t>
         </is>
       </c>
       <c r="Z39" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">386
+          <t xml:space="preserve">1200
 </t>
         </is>
       </c>
@@ -6259,145 +5967,142 @@
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">4537
-</t>
+          <t>8621</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">329
-</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">188
+          <t xml:space="preserve">198
 </t>
         </is>
       </c>
       <c r="F40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">259
+          <t xml:space="preserve">852
 </t>
         </is>
       </c>
       <c r="G40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">141
+          <t xml:space="preserve">178
 </t>
         </is>
       </c>
       <c r="H40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1182
+          <t xml:space="preserve">186
 </t>
         </is>
       </c>
       <c r="I40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">127
+          <t xml:space="preserve">1109
 </t>
         </is>
       </c>
       <c r="J40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">30
+          <t xml:space="preserve">28
 </t>
         </is>
       </c>
       <c r="K40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">817
 </t>
         </is>
       </c>
       <c r="L40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">198
+          <t xml:space="preserve">4
 </t>
         </is>
       </c>
       <c r="M40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">196
+          <t xml:space="preserve">207
 </t>
         </is>
       </c>
       <c r="N40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">9468
+          <t xml:space="preserve">8828
 </t>
         </is>
       </c>
       <c r="O40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">978
+          <t xml:space="preserve">620
 </t>
         </is>
       </c>
       <c r="P40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">05
+          <t xml:space="preserve">08
 </t>
         </is>
       </c>
       <c r="Q40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">328
+          <t xml:space="preserve">279
 </t>
         </is>
       </c>
       <c r="R40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">260
+          <t xml:space="preserve">9908
 </t>
         </is>
       </c>
       <c r="S40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">8293
+          <t xml:space="preserve">186
 </t>
         </is>
       </c>
       <c r="T40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">592
+          <t xml:space="preserve">2080
 </t>
         </is>
       </c>
       <c r="U40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">202
+          <t xml:space="preserve">187
 </t>
         </is>
       </c>
       <c r="V40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">278
+          <t xml:space="preserve">224
 </t>
         </is>
       </c>
       <c r="W40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">238
-</t>
+          <t>121</t>
         </is>
       </c>
       <c r="X40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">269
+          <t xml:space="preserve">263
 </t>
         </is>
       </c>
       <c r="Y40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">220
+          <t xml:space="preserve">2891
 </t>
         </is>
       </c>
       <c r="Z40" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">104
+          <t xml:space="preserve">828
 </t>
         </is>
       </c>
@@ -6416,144 +6121,140 @@
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2656
-</t>
-        </is>
-      </c>
-      <c r="D41" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">316
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">3127
+</t>
+        </is>
+      </c>
+      <c r="D41" s="3" t="n"/>
       <c r="E41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">196
+          <t xml:space="preserve">182
 </t>
         </is>
       </c>
       <c r="F41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">8256
+          <t xml:space="preserve">237
 </t>
         </is>
       </c>
       <c r="G41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">120
+          <t xml:space="preserve">142
 </t>
         </is>
       </c>
       <c r="H41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1180
+          <t xml:space="preserve">190
 </t>
         </is>
       </c>
       <c r="I41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">112
+          <t xml:space="preserve">1884
 </t>
         </is>
       </c>
       <c r="J41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">50
+          <t xml:space="preserve">1248
 </t>
         </is>
       </c>
       <c r="K41" s="3" t="inlineStr">
         <is>
-          <t>434</t>
+          <t xml:space="preserve">100
+</t>
         </is>
       </c>
       <c r="L41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">199
+          <t xml:space="preserve">4
 </t>
         </is>
       </c>
       <c r="M41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">198
+          <t xml:space="preserve">195
 </t>
         </is>
       </c>
       <c r="N41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">9286
+          <t xml:space="preserve">9146
 </t>
         </is>
       </c>
       <c r="O41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">990
+          <t xml:space="preserve">800
 </t>
         </is>
       </c>
       <c r="P41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">02
+          <t xml:space="preserve">06
 </t>
         </is>
       </c>
       <c r="Q41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">223
+          <t xml:space="preserve">213
 </t>
         </is>
       </c>
       <c r="R41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">214
+          <t xml:space="preserve">9800
 </t>
         </is>
       </c>
       <c r="S41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">249
+          <t xml:space="preserve">258
 </t>
         </is>
       </c>
       <c r="T41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">923
+          <t xml:space="preserve">1150
 </t>
         </is>
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">20
+          <t xml:space="preserve">180
 </t>
         </is>
       </c>
       <c r="V41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">8281
+          <t xml:space="preserve">186
 </t>
         </is>
       </c>
       <c r="W41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">234
+          <t xml:space="preserve">085
 </t>
         </is>
       </c>
       <c r="X41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">280
+          <t xml:space="preserve">286
 </t>
         </is>
       </c>
       <c r="Y41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">905
+          <t xml:space="preserve">680
 </t>
         </is>
       </c>
       <c r="Z41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">89
+          <t xml:space="preserve">12
 </t>
         </is>
       </c>
@@ -6572,145 +6273,134 @@
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2363
-</t>
-        </is>
-      </c>
-      <c r="D42" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1316
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">2080
+</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="n"/>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">203
+          <t xml:space="preserve">207
 </t>
         </is>
       </c>
       <c r="F42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">259
+          <t xml:space="preserve">258
 </t>
         </is>
       </c>
       <c r="G42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">113
+          <t xml:space="preserve">103
 </t>
         </is>
       </c>
       <c r="H42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1200
+          <t xml:space="preserve">169
 </t>
         </is>
       </c>
       <c r="I42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">07
+          <t xml:space="preserve">116
 </t>
         </is>
       </c>
       <c r="J42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">16
+          <t xml:space="preserve">223
 </t>
         </is>
       </c>
       <c r="K42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">287
+          <t xml:space="preserve">116
 </t>
         </is>
       </c>
       <c r="L42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">219
-</t>
-        </is>
-      </c>
-      <c r="M42" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9218
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">9219
+</t>
+        </is>
+      </c>
+      <c r="M42" s="3" t="n"/>
       <c r="N42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">830
+          <t xml:space="preserve">98
 </t>
         </is>
       </c>
       <c r="O42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1990
+          <t xml:space="preserve">870
 </t>
         </is>
       </c>
       <c r="P42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">02
+          <t xml:space="preserve">01
 </t>
         </is>
       </c>
       <c r="Q42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">241
+          <t xml:space="preserve">312
 </t>
         </is>
       </c>
       <c r="R42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">238
+          <t xml:space="preserve">255
 </t>
         </is>
       </c>
       <c r="S42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">893
+          <t xml:space="preserve">977
 </t>
         </is>
       </c>
       <c r="T42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">977
+          <t xml:space="preserve">255
 </t>
         </is>
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">07
+          <t xml:space="preserve">108
 </t>
         </is>
       </c>
       <c r="V42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">859
+          <t xml:space="preserve">229
 </t>
         </is>
       </c>
       <c r="W42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">235
-</t>
+          <t>526</t>
         </is>
       </c>
       <c r="X42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">282
+          <t xml:space="preserve">266
 </t>
         </is>
       </c>
       <c r="Y42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">906
+          <t xml:space="preserve">1099
 </t>
         </is>
       </c>
       <c r="Z42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">29
+          <t xml:space="preserve">30
 </t>
         </is>
       </c>
@@ -6729,7 +6419,7 @@
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">3722
+          <t xml:space="preserve">2975
 </t>
         </is>
       </c>
@@ -6741,132 +6431,132 @@
       </c>
       <c r="E43" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">213
+          <t xml:space="preserve">204
 </t>
         </is>
       </c>
       <c r="F43" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">857
+          <t xml:space="preserve">259
 </t>
         </is>
       </c>
       <c r="G43" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">87
+          <t xml:space="preserve">108
 </t>
         </is>
       </c>
       <c r="H43" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1198
+          <t xml:space="preserve">195
 </t>
         </is>
       </c>
       <c r="I43" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">20
+          <t xml:space="preserve">100
 </t>
         </is>
       </c>
       <c r="J43" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">15
+          <t xml:space="preserve">189
 </t>
         </is>
       </c>
       <c r="K43" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">100
+          <t xml:space="preserve">00
 </t>
         </is>
       </c>
       <c r="L43" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">216
+          <t xml:space="preserve">1209
 </t>
         </is>
       </c>
       <c r="M43" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">215
+          <t xml:space="preserve">807
 </t>
         </is>
       </c>
       <c r="N43" s="3" t="inlineStr">
         <is>
+          <t xml:space="preserve">928
+</t>
+        </is>
+      </c>
+      <c r="O43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">980
+</t>
+        </is>
+      </c>
+      <c r="P43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">288
+</t>
+        </is>
+      </c>
+      <c r="Q43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">310
+</t>
+        </is>
+      </c>
+      <c r="R43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">259
+</t>
+        </is>
+      </c>
+      <c r="S43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4302
+</t>
+        </is>
+      </c>
+      <c r="T43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">671
+</t>
+        </is>
+      </c>
+      <c r="U43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">146
+</t>
+        </is>
+      </c>
+      <c r="V43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">271
+</t>
+        </is>
+      </c>
+      <c r="W43" s="3" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="X43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">209
+</t>
+        </is>
+      </c>
+      <c r="Y43" s="3" t="inlineStr">
+        <is>
           <t xml:space="preserve">860
 </t>
         </is>
       </c>
-      <c r="O43" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">990
-</t>
-        </is>
-      </c>
-      <c r="P43" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">02
-</t>
-        </is>
-      </c>
-      <c r="Q43" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">291
-</t>
-        </is>
-      </c>
-      <c r="R43" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">255
-</t>
-        </is>
-      </c>
-      <c r="S43" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">304
-</t>
-        </is>
-      </c>
-      <c r="T43" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">756
-</t>
-        </is>
-      </c>
-      <c r="U43" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">98
-</t>
-        </is>
-      </c>
-      <c r="V43" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">278
-</t>
-        </is>
-      </c>
-      <c r="W43" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">847
-</t>
-        </is>
-      </c>
-      <c r="X43" s="3" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="Y43" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">780
-</t>
-        </is>
-      </c>
       <c r="Z43" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">88
+          <t xml:space="preserve">168
 </t>
         </is>
       </c>
@@ -6885,148 +6575,132 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">3659
-</t>
-        </is>
-      </c>
-      <c r="D44" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">326
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">1418
+</t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="n"/>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">213
+          <t xml:space="preserve">202
 </t>
         </is>
       </c>
       <c r="F44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">269
+          <t xml:space="preserve">258
 </t>
         </is>
       </c>
       <c r="G44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">113
+          <t xml:space="preserve">984
 </t>
         </is>
       </c>
       <c r="H44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">194
-</t>
-        </is>
-      </c>
-      <c r="I44" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">19
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">202
+</t>
+        </is>
+      </c>
+      <c r="I44" s="3" t="n"/>
       <c r="J44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">137
+          <t xml:space="preserve">522
 </t>
         </is>
       </c>
       <c r="K44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
+          <t xml:space="preserve">275
 </t>
         </is>
       </c>
       <c r="L44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">223
+          <t xml:space="preserve">298
 </t>
         </is>
       </c>
       <c r="M44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">823
+          <t xml:space="preserve">216
 </t>
         </is>
       </c>
       <c r="N44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">956
+          <t xml:space="preserve">284
 </t>
         </is>
       </c>
       <c r="O44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1000
+          <t xml:space="preserve">970
 </t>
         </is>
       </c>
       <c r="P44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">800
+          <t xml:space="preserve">06
 </t>
         </is>
       </c>
       <c r="Q44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">226
+          <t xml:space="preserve">210
 </t>
         </is>
       </c>
       <c r="R44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">264
+          <t xml:space="preserve">184
 </t>
         </is>
       </c>
       <c r="S44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">304
+          <t xml:space="preserve">240
 </t>
         </is>
       </c>
       <c r="T44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">620
+          <t xml:space="preserve">9860
 </t>
         </is>
       </c>
       <c r="U44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">186
+          <t xml:space="preserve">14
 </t>
         </is>
       </c>
       <c r="V44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">885
+          <t xml:space="preserve">206
 </t>
         </is>
       </c>
       <c r="W44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">263
+          <t xml:space="preserve">200
 </t>
         </is>
       </c>
       <c r="X44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">228
-</t>
+          <t>198</t>
         </is>
       </c>
       <c r="Y44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">844
-</t>
-        </is>
-      </c>
-      <c r="Z44" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">60
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">5753
+</t>
+        </is>
+      </c>
+      <c r="Z44" s="3" t="n"/>
       <c r="AA44" s="3" t="inlineStr">
         <is>
           <t>31</t>
@@ -7042,129 +6716,133 @@
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">208
+          <t xml:space="preserve">10
 </t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">19016
+          <t xml:space="preserve">111
 </t>
         </is>
       </c>
       <c r="E45" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1216
+          <t xml:space="preserve">91997
 </t>
         </is>
       </c>
       <c r="F45" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1561
-</t>
+          <t>147</t>
         </is>
       </c>
       <c r="G45" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">691
-</t>
-        </is>
-      </c>
-      <c r="H45" s="3" t="inlineStr">
-        <is>
-          <t>4274</t>
-        </is>
-      </c>
-      <c r="I45" s="3" t="n"/>
+          <t xml:space="preserve">167
+</t>
+        </is>
+      </c>
+      <c r="H45" s="3" t="n"/>
+      <c r="I45" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">95
+</t>
+        </is>
+      </c>
       <c r="J45" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">36
+          <t xml:space="preserve">286
 </t>
         </is>
       </c>
       <c r="K45" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">00
-</t>
-        </is>
-      </c>
-      <c r="L45" s="3" t="n"/>
+          <t xml:space="preserve">1203
+</t>
+        </is>
+      </c>
+      <c r="L45" s="3" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
       <c r="M45" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">18259
+          <t xml:space="preserve">1180
 </t>
         </is>
       </c>
       <c r="N45" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">269
+          <t xml:space="preserve">1498
 </t>
         </is>
       </c>
       <c r="O45" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">59838
+          <t xml:space="preserve">5880
 </t>
         </is>
       </c>
       <c r="P45" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">13
+          <t xml:space="preserve">5
 </t>
         </is>
       </c>
       <c r="Q45" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1728
-</t>
-        </is>
-      </c>
-      <c r="R45" s="3" t="inlineStr">
-        <is>
-          <t>297</t>
-        </is>
-      </c>
+          <t xml:space="preserve">1680
+</t>
+        </is>
+      </c>
+      <c r="R45" s="3" t="n"/>
       <c r="S45" s="3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t xml:space="preserve">1630
+</t>
         </is>
       </c>
       <c r="T45" s="3" t="inlineStr">
         <is>
-          <t>50</t>
+          <t xml:space="preserve">168
+</t>
         </is>
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">258
+          <t xml:space="preserve">681
 </t>
         </is>
       </c>
       <c r="V45" s="3" t="inlineStr">
         <is>
-          <t>58</t>
+          <t xml:space="preserve">236
+</t>
         </is>
       </c>
       <c r="W45" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1449
+          <t xml:space="preserve">13931
 </t>
         </is>
       </c>
       <c r="X45" s="3" t="inlineStr">
         <is>
-          <t>775</t>
+          <t xml:space="preserve">2681
+</t>
         </is>
       </c>
       <c r="Y45" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">5037
+          <t xml:space="preserve">908
 </t>
         </is>
       </c>
       <c r="Z45" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">80
+          <t xml:space="preserve">97
 </t>
         </is>
       </c>
@@ -7183,140 +6861,99 @@
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2376
+          <t xml:space="preserve">207
 </t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">317
-</t>
-        </is>
-      </c>
-      <c r="E46" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">202
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">304
+</t>
+        </is>
+      </c>
+      <c r="E46" s="3" t="n"/>
       <c r="F46" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">860
+          <t xml:space="preserve">869
 </t>
         </is>
       </c>
       <c r="G46" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">115
-</t>
-        </is>
-      </c>
-      <c r="H46" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">191
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">105
+</t>
+        </is>
+      </c>
+      <c r="H46" s="3" t="n"/>
       <c r="I46" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">17
-</t>
-        </is>
-      </c>
-      <c r="J46" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">188
-</t>
-        </is>
-      </c>
-      <c r="K46" s="3" t="n"/>
+          <t xml:space="preserve">112
+</t>
+        </is>
+      </c>
+      <c r="J46" s="3" t="n"/>
+      <c r="K46" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1215
+</t>
+        </is>
+      </c>
       <c r="L46" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">211
-</t>
+          <t>208</t>
         </is>
       </c>
       <c r="M46" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">210
+          <t xml:space="preserve">1205
 </t>
         </is>
       </c>
       <c r="N46" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">848
-</t>
-        </is>
-      </c>
-      <c r="O46" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">990
-</t>
-        </is>
-      </c>
-      <c r="P46" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">02
-</t>
-        </is>
-      </c>
-      <c r="Q46" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">288
-</t>
-        </is>
-      </c>
-      <c r="R46" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">218
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">2
+</t>
+        </is>
+      </c>
+      <c r="O46" s="3" t="n"/>
+      <c r="P46" s="3" t="n"/>
+      <c r="Q46" s="3" t="n"/>
+      <c r="R46" s="3" t="n"/>
       <c r="S46" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">290
+          <t xml:space="preserve">081
 </t>
         </is>
       </c>
       <c r="T46" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">750
+          <t xml:space="preserve">198
 </t>
         </is>
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">114
+          <t xml:space="preserve">113
 </t>
         </is>
       </c>
       <c r="V46" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">263
+          <t xml:space="preserve">236
 </t>
         </is>
       </c>
       <c r="W46" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2141
-</t>
-        </is>
-      </c>
-      <c r="X46" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">287
-</t>
-        </is>
-      </c>
-      <c r="Y46" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">239
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">1225
+</t>
+        </is>
+      </c>
+      <c r="X46" s="3" t="n"/>
+      <c r="Y46" s="3" t="n"/>
       <c r="Z46" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">57
+          <t xml:space="preserve">51519
 </t>
         </is>
       </c>
